--- a/P4E_psuedo_instruction_set.xlsx
+++ b/P4E_psuedo_instruction_set.xlsx
@@ -5,19 +5,18 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wangd\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\P4EngineAssembler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BF8A888-DDE6-4D46-985F-EBEA816AF7C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02FF1E64-1B92-4921-B228-962E3F3B0ADD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-3645" windowWidth="38640" windowHeight="21840" activeTab="1" xr2:uid="{87164962-7B7D-4BAA-98E0-B9A8D7C47112}"/>
+    <workbookView xWindow="-38520" yWindow="-3645" windowWidth="38640" windowHeight="21840" xr2:uid="{87164962-7B7D-4BAA-98E0-B9A8D7C47112}"/>
   </bookViews>
   <sheets>
     <sheet name="parser" sheetId="1" r:id="rId1"/>
     <sheet name="deparser" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -773,7 +772,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1181" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1181" uniqueCount="383">
   <si>
     <t>isr SHiFT</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1584,10 +1583,6 @@
   </si>
   <si>
     <t>PLD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(value in heximal)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2637,6 +2632,9 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">-&gt;nxt_state8 </t>
+    </r>
+    <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
@@ -2644,18 +2642,29 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>&gt;&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+      <t>;</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>imm32</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Microsoft YaHei Light"/>
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">val6 </t>
+      <t xml:space="preserve"> ,</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">len </t>
     </r>
     <r>
       <rPr>
@@ -2665,13 +2674,13 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>,</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">-&gt;nxt_state8 </t>
+      <t>(1-4) } ;</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">len </t>
     </r>
     <r>
       <rPr>
@@ -2681,13 +2690,13 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>;</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>imm32</t>
+      <t>(1-8) } ;</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>TMP</t>
     </r>
     <r>
       <rPr>
@@ -2697,13 +2706,13 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve"> ,</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">len </t>
+      <t xml:space="preserve"> ;</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">src_len </t>
     </r>
     <r>
       <rPr>
@@ -2713,13 +2722,13 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>(1-4) } ;</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">len </t>
+      <t>(1-32) } ,</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>TMP</t>
     </r>
     <r>
       <rPr>
@@ -2729,13 +2738,13 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>(1-8) } ;</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>TMP</t>
+      <t xml:space="preserve"> ,</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>addr_h36</t>
     </r>
     <r>
       <rPr>
@@ -2745,13 +2754,13 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve"> ;</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">src_len </t>
+      <t xml:space="preserve"> ,</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>offset2</t>
     </r>
     <r>
       <rPr>
@@ -2761,13 +2770,13 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>(1-32) } ,</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">imm16 </t>
+      <t xml:space="preserve"> ;</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>meta_lshift3</t>
     </r>
     <r>
       <rPr>
@@ -2777,13 +2786,13 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>(hex) ,</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>TMP</t>
+      <t xml:space="preserve"> ;</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">flow_id </t>
     </r>
     <r>
       <rPr>
@@ -2793,13 +2802,13 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve"> ,</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>addr_h36</t>
+      <t>(hex);</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>len</t>
     </r>
     <r>
       <rPr>
@@ -2809,13 +2818,13 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve"> ,</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>offset2</t>
+      <t xml:space="preserve"> (1 - 256）;</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>len</t>
     </r>
     <r>
       <rPr>
@@ -2825,13 +2834,13 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve"> ;</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>meta_lshift3</t>
+      <t xml:space="preserve"> (1 - 256）,</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">CSUM </t>
     </r>
     <r>
       <rPr>
@@ -2841,13 +2850,13 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve"> ;</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">flow_id </t>
+      <t>;</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>CRC16</t>
     </r>
     <r>
       <rPr>
@@ -2857,13 +2866,13 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>(hex);</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>len</t>
+      <t xml:space="preserve"> ;</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>CRC32</t>
     </r>
     <r>
       <rPr>
@@ -2873,13 +2882,13 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve"> (1 - 256）;</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>len</t>
+      <t xml:space="preserve"> ;</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>POLY</t>
     </r>
     <r>
       <rPr>
@@ -2889,13 +2898,13 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve"> (1 - 256）,</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">CSUM </t>
+      <t xml:space="preserve"> ,</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>INIT</t>
     </r>
     <r>
       <rPr>
@@ -2905,13 +2914,13 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>;</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>CRC16</t>
+      <t xml:space="preserve"> ,</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>CTRL</t>
     </r>
     <r>
       <rPr>
@@ -2921,13 +2930,13 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve"> ;</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>CRC32</t>
+      <t xml:space="preserve"> ,</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>XOROT</t>
     </r>
     <r>
       <rPr>
@@ -2937,13 +2946,13 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve"> ;</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>POLY</t>
+      <t xml:space="preserve"> ,</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>val32</t>
     </r>
     <r>
       <rPr>
@@ -2953,13 +2962,13 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve"> ,</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>INIT</t>
+      <t xml:space="preserve"> ;</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>len</t>
     </r>
     <r>
       <rPr>
@@ -2969,13 +2978,13 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve"> ,</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>CTRL</t>
+      <t xml:space="preserve"> (1-32) } ,</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>mask32</t>
     </r>
     <r>
       <rPr>
@@ -2985,14 +2994,11 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve"> ,</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>XOROT</t>
-    </r>
+      <t xml:space="preserve"> ;</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -3001,29 +3007,18 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve"> ,</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>val32</t>
-    </r>
-    <r>
-      <rPr>
+      <t xml:space="preserve"> { </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Microsoft YaHei Light"/>
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve"> ;</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>len</t>
+      <t>offset9</t>
     </r>
     <r>
       <rPr>
@@ -3033,14 +3028,15 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve"> (1-32) } ,</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>mask32</t>
-    </r>
+      <t xml:space="preserve"> :</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TMP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -3049,32 +3045,32 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve"> ;</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
+      <t xml:space="preserve">{ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Microsoft YaHei Light"/>
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve"> { </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+      <t>offset5</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Microsoft YaHei Light"/>
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>offset9</t>
-    </r>
+      <t xml:space="preserve"> :</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -3083,35 +3079,209 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve"> :</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TMP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
+      <t xml:space="preserve">{ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Microsoft YaHei Light"/>
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">{ </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+      <t>src_off5</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Microsoft YaHei Light"/>
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>offset5</t>
+      <t xml:space="preserve"> :</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ISR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>src_len</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (1-8) } ,</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">{ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>src_off9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> :</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">PHV { </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dst_off9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> :</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">dst_len </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(2-9) } ;</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>COND</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ;</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>POFF</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ;</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>PLEN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ;</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SETH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SETL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SET value to dest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">imm16 </t>
     </r>
     <r>
       <rPr>
@@ -3121,11 +3291,187 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
+      <t>;</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0b000xxxxx</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (x = 0/1) ,</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>TMP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ,</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>COND</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ,</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>POFF</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ,</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>PLEN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ,</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> offset9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve"> :</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <r>
+      <t>SNDM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ;</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>SNDMP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ;</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>SNDMM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ;</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">0b000xxxxx </t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -3134,7 +3480,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">{ </t>
+      <t>(x = 0/1)</t>
     </r>
     <r>
       <rPr>
@@ -3145,7 +3491,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>src_off5</t>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -3155,18 +3501,11 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve"> :</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ISR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>src_len</t>
-    </r>
+      <t>,</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -3176,13 +3515,11 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> (1-8) } ,</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
+      <t xml:space="preserve">{ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
@@ -3190,11 +3527,10 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">{ </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+      <t>offset9</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
@@ -3202,7 +3538,13 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>src_off9</t>
+      <t xml:space="preserve"> :</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>addr16</t>
     </r>
     <r>
       <rPr>
@@ -3213,8 +3555,12 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> :</t>
-    </r>
+      <t xml:space="preserve"> ;</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(source value in hex)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3227,7 +3573,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">PHV { </t>
+      <t>CNTR [</t>
     </r>
     <r>
       <rPr>
@@ -3239,7 +3585,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>dst_off9</t>
+      <t xml:space="preserve"> idx12</t>
     </r>
     <r>
       <rPr>
@@ -3250,14 +3596,11 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> :</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">dst_len </t>
-    </r>
+      <t xml:space="preserve"> ] ,</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -3267,16 +3610,11 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>(2-9) } ;</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>COND</t>
-    </r>
-    <r>
-      <rPr>
+      <t xml:space="preserve">&lt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
@@ -3284,13 +3622,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> ;</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>POFF</t>
+      <t xml:space="preserve">LCK </t>
     </r>
     <r>
       <rPr>
@@ -3301,16 +3633,11 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> ;</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>PLEN</t>
-    </r>
-    <r>
-      <rPr>
+      <t xml:space="preserve">/ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
@@ -3318,25 +3645,332 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
+      <t xml:space="preserve">ULK </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt; ;</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LDC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    LoaD phv or temp register value to Counter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>imm8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (1-255) ,</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>pc16</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (signed) ;</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>pc16</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve"> ;</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SETH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SETL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SET value to dest</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">imm16 </t>
+    <r>
+      <t>pc16</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ,</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>pc16</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (signed) ,</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>alt_pc16</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ,</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>alt_pc16</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (signed) ,</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>CONDR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ;</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">PHV1 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PHV8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PHV16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PHV32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">[ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>offset12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ] ;</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> offset12_h9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ] ;</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> offset12_h8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ] ;</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> offset12_h7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ] ;</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>imm16</t>
     </r>
     <r>
       <rPr>
@@ -3346,187 +3980,15 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>;</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>0b000xxxxx</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (x = 0/1) ,</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>TMP</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t xml:space="preserve"> ,</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>COND</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ,</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>POFF</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ,</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>PLEN</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ,</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> offset9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> :</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>SNDM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ;</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>SNDMP</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ;</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>SNDMM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ;</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">0b000xxxxx </t>
-    </r>
+    <t>(value in heximal or decimal)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -3535,7 +3997,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>(x = 0/1)</t>
+      <t>&gt;&gt;</t>
     </r>
     <r>
       <rPr>
@@ -3546,7 +4008,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve"> </t>
+      <t xml:space="preserve">val6 </t>
     </r>
     <r>
       <rPr>
@@ -3556,470 +4018,41 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>,</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">{ </t>
+      <t>(0-32),</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&gt;&gt;</t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>offset9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> :</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>addr16</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ;</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(source value in hex)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>CNTR [</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> idx12</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ] ,</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">&lt; </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">LCK </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">/ </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">ULK </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&gt; ;</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LDC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    LoaD phv or temp register value to Counter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>imm8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (1-255) ,</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>pc16</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (signed) ;</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>pc16</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ;</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>pc16</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ,</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>pc16</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (signed) ,</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>alt_pc16</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ,</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>alt_pc16</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (signed) ,</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>CONDR</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ;</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">PHV1 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PHV8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PHV16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PHV32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">[ </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>offset12</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ] ;</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> offset12_h9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ] ;</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> offset12_h8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ] ;</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> offset12_h7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ] ;</t>
+        <rFont val="Microsoft YaHei Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">val6 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(0-32) ;</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4550,9 +4583,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA14F7B7-5F50-4FFB-AE20-84853F321386}">
   <dimension ref="A1:I171"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D110" sqref="D110"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C170" sqref="C170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.2"/>
@@ -4599,7 +4632,7 @@
         <v>163</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>207</v>
+        <v>380</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>25</v>
@@ -4618,16 +4651,16 @@
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>204</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
@@ -4637,16 +4670,16 @@
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>310</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>312</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
@@ -4656,10 +4689,10 @@
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -4686,7 +4719,7 @@
         <v>164</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>207</v>
+        <v>380</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>26</v>
@@ -4713,25 +4746,25 @@
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>204</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -4740,44 +4773,44 @@
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="I10" s="2" t="s">
         <v>310</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -4785,69 +4818,69 @@
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B12" s="2"/>
       <c r="C12" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>204</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="I13" s="2" t="s">
         <v>310</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
@@ -4896,22 +4929,22 @@
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>204</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="I17" s="2"/>
     </row>
@@ -4919,22 +4952,22 @@
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I18" s="2"/>
     </row>
@@ -4942,16 +4975,16 @@
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
@@ -4961,22 +4994,22 @@
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>204</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="I20" s="2"/>
     </row>
@@ -4984,22 +5017,22 @@
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I21" s="2"/>
     </row>
@@ -5007,16 +5040,16 @@
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
@@ -5068,22 +5101,22 @@
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="2" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>204</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="I25" s="2"/>
     </row>
@@ -5091,22 +5124,22 @@
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I26" s="2"/>
     </row>
@@ -5114,16 +5147,16 @@
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
@@ -5133,22 +5166,22 @@
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>204</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="I28" s="2"/>
     </row>
@@ -5156,22 +5189,22 @@
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I29" s="2"/>
     </row>
@@ -5179,16 +5212,16 @@
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
@@ -5252,67 +5285,67 @@
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
       <c r="C34" s="2" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>315</v>
+        <v>379</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>204</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="2"/>
       <c r="C35" s="2" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>315</v>
+        <v>379</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="2"/>
       <c r="C36" s="2" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>315</v>
+        <v>379</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
@@ -5320,67 +5353,67 @@
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
       <c r="C37" s="2" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>315</v>
+        <v>379</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>204</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
       <c r="C38" s="2" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>315</v>
+        <v>379</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
       <c r="C39" s="2" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>315</v>
+        <v>379</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
@@ -5388,67 +5421,67 @@
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="2"/>
       <c r="C40" s="2" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G40" s="2" t="s">
         <v>204</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="2"/>
       <c r="C41" s="2" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="2"/>
       <c r="C42" s="2" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
@@ -5456,67 +5489,67 @@
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="2"/>
       <c r="C43" s="2" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G43" s="2" t="s">
         <v>204</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
       <c r="C44" s="2" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
       <c r="C45" s="2" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
@@ -5563,16 +5596,16 @@
       </c>
       <c r="B48" s="2"/>
       <c r="C48" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>204</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
@@ -5582,16 +5615,16 @@
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G49" s="2"/>
       <c r="H49" s="2"/>
@@ -5601,10 +5634,10 @@
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
@@ -5616,16 +5649,16 @@
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>204</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
@@ -5635,16 +5668,16 @@
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G52" s="2"/>
       <c r="H52" s="2"/>
@@ -5654,10 +5687,10 @@
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
@@ -5669,16 +5702,16 @@
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>204</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="G54" s="2"/>
       <c r="H54" s="2"/>
@@ -5688,16 +5721,16 @@
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G55" s="2"/>
       <c r="H55" s="2"/>
@@ -5707,10 +5740,10 @@
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
@@ -5722,16 +5755,16 @@
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>204</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="G57" s="2"/>
       <c r="H57" s="2"/>
@@ -5741,16 +5774,16 @@
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G58" s="2"/>
       <c r="H58" s="2"/>
@@ -5760,10 +5793,10 @@
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
@@ -5775,16 +5808,16 @@
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>204</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="G60" s="2"/>
       <c r="H60" s="2"/>
@@ -5794,16 +5827,16 @@
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G61" s="2"/>
       <c r="H61" s="2"/>
@@ -5813,10 +5846,10 @@
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
@@ -5828,16 +5861,16 @@
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>204</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="G63" s="2"/>
       <c r="H63" s="2"/>
@@ -5847,16 +5880,16 @@
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G64" s="2"/>
       <c r="H64" s="2"/>
@@ -5866,10 +5899,10 @@
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
@@ -5881,16 +5914,16 @@
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>204</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="G66" s="2"/>
       <c r="H66" s="2"/>
@@ -5900,16 +5933,16 @@
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G67" s="2"/>
       <c r="H67" s="2"/>
@@ -5919,10 +5952,10 @@
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
@@ -5934,16 +5967,16 @@
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>204</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="G69" s="2"/>
       <c r="H69" s="2"/>
@@ -5953,16 +5986,16 @@
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G70" s="2"/>
       <c r="H70" s="2"/>
@@ -5972,10 +6005,10 @@
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
@@ -5987,16 +6020,16 @@
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>204</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="G72" s="2"/>
       <c r="H72" s="2"/>
@@ -6006,16 +6039,16 @@
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G73" s="2"/>
       <c r="H73" s="2"/>
@@ -6025,10 +6058,10 @@
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" s="2"/>
@@ -6065,7 +6098,7 @@
         <v>169</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>33</v>
@@ -6081,10 +6114,10 @@
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="E78" s="2"/>
       <c r="G78" s="2"/>
@@ -6095,13 +6128,13 @@
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="G79" s="2"/>
       <c r="H79" s="2"/>
@@ -6126,10 +6159,10 @@
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" s="2"/>
@@ -6141,13 +6174,13 @@
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="F82" s="2"/>
       <c r="G82" s="2"/>
@@ -6195,7 +6228,7 @@
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86" s="2"/>
       <c r="C86" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" s="2"/>
@@ -6208,7 +6241,7 @@
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" s="2"/>
@@ -6258,7 +6291,7 @@
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91" s="2"/>
       <c r="C91" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" s="2"/>
@@ -6271,7 +6304,7 @@
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" s="2"/>
@@ -6312,7 +6345,7 @@
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D95" s="2"/>
       <c r="E95" s="2"/>
@@ -6356,7 +6389,7 @@
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D98" s="2"/>
       <c r="F98" s="2"/>
@@ -6368,10 +6401,10 @@
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F99" s="2"/>
       <c r="G99" s="2"/>
@@ -6382,10 +6415,10 @@
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="F100" s="2"/>
       <c r="G100" s="2"/>
@@ -6396,10 +6429,10 @@
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="D101" s="2" t="s">
         <v>322</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>325</v>
       </c>
       <c r="F101" s="2"/>
       <c r="G101" s="2"/>
@@ -6410,7 +6443,7 @@
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="20" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D102" s="20"/>
       <c r="F102" s="2"/>
@@ -6422,7 +6455,7 @@
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="D103" s="2" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F103" s="2"/>
       <c r="G103" s="2"/>
@@ -6433,7 +6466,7 @@
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="D104" s="2" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="F104" s="2"/>
       <c r="G104" s="2"/>
@@ -6444,7 +6477,7 @@
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="D105" s="2" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="F105" s="2"/>
       <c r="G105" s="2"/>
@@ -6475,7 +6508,7 @@
         <v>34</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E107" s="1" t="s">
         <v>35</v>
@@ -6489,10 +6522,10 @@
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="F108" s="2"/>
       <c r="G108" s="2"/>
@@ -6503,10 +6536,10 @@
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="E109" s="2" t="s">
         <v>327</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>330</v>
       </c>
       <c r="F109" s="2"/>
       <c r="G109" s="2"/>
@@ -6517,13 +6550,13 @@
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="F110" s="2"/>
       <c r="G110" s="2"/>
@@ -6534,10 +6567,10 @@
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="F111" s="2"/>
       <c r="G111" s="2"/>
@@ -6589,7 +6622,7 @@
         <v>24</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G114" s="2"/>
       <c r="H114" s="2"/>
@@ -6599,16 +6632,16 @@
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="D115" s="15" t="s">
         <v>221</v>
       </c>
-      <c r="D115" s="15" t="s">
+      <c r="E115" s="15" t="s">
         <v>222</v>
       </c>
-      <c r="E115" s="15" t="s">
-        <v>223</v>
-      </c>
       <c r="F115" s="15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G115" s="2"/>
       <c r="H115" s="2"/>
@@ -6618,16 +6651,16 @@
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="G116" s="2"/>
       <c r="H116" s="2"/>
@@ -6637,16 +6670,16 @@
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="G117" s="2"/>
       <c r="H117" s="2"/>
@@ -6697,7 +6730,7 @@
         <v>24</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G120" s="2"/>
       <c r="H120" s="2"/>
@@ -6707,16 +6740,16 @@
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="D121" s="15" t="s">
         <v>221</v>
       </c>
-      <c r="D121" s="15" t="s">
+      <c r="E121" s="15" t="s">
         <v>222</v>
       </c>
-      <c r="E121" s="15" t="s">
-        <v>223</v>
-      </c>
       <c r="F121" s="15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G121" s="2"/>
       <c r="H121" s="2"/>
@@ -6726,16 +6759,16 @@
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="G122" s="2"/>
       <c r="H122" s="2"/>
@@ -6745,16 +6778,16 @@
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="G123" s="2"/>
       <c r="H123" s="2"/>
@@ -6800,7 +6833,7 @@
         <v>24</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H126" s="2"/>
       <c r="I126" s="2"/>
@@ -6809,16 +6842,16 @@
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="D127" s="15" t="s">
         <v>221</v>
       </c>
-      <c r="D127" s="15" t="s">
+      <c r="E127" s="15" t="s">
         <v>222</v>
       </c>
-      <c r="E127" s="15" t="s">
-        <v>223</v>
-      </c>
       <c r="F127" s="15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G127" s="2"/>
       <c r="H127" s="2"/>
@@ -6828,16 +6861,16 @@
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="G128" s="2"/>
       <c r="H128" s="2"/>
@@ -6847,16 +6880,16 @@
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="G129" s="2"/>
       <c r="H129" s="2"/>
@@ -6894,7 +6927,7 @@
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D132" s="2"/>
       <c r="E132" s="2"/>
@@ -6933,7 +6966,7 @@
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D135" s="2"/>
       <c r="E135" s="2"/>
@@ -6972,7 +7005,7 @@
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D138" s="2"/>
       <c r="E138" s="2"/>
@@ -7054,10 +7087,10 @@
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B144" s="2" t="s">
         <v>299</v>
-      </c>
-      <c r="B144" s="2" t="s">
-        <v>300</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" s="2"/>
@@ -7108,13 +7141,13 @@
       </c>
       <c r="B147" s="2"/>
       <c r="C147" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="D147" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="D147" s="2" t="s">
+      <c r="E147" s="2" t="s">
         <v>303</v>
-      </c>
-      <c r="E147" s="2" t="s">
-        <v>304</v>
       </c>
       <c r="F147" s="2"/>
       <c r="G147" s="2"/>
@@ -7162,7 +7195,7 @@
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B151" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" s="2"/>
@@ -7235,7 +7268,7 @@
         <v>18</v>
       </c>
       <c r="G156" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H156" s="1" t="s">
         <v>16</v>
@@ -7243,54 +7276,54 @@
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C157" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="D157" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="D157" s="2" t="s">
+      <c r="E157" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="E157" s="2" t="s">
+      <c r="F157" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="G157" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="H157" s="14" t="s">
         <v>307</v>
-      </c>
-      <c r="F157" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="G157" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="H157" s="14" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C158" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="D158" s="2" t="s">
         <v>305</v>
-      </c>
-      <c r="D158" s="2" t="s">
-        <v>306</v>
       </c>
       <c r="E158" s="2"/>
       <c r="F158" s="2"/>
       <c r="G158" s="2" t="s">
-        <v>308</v>
+        <v>381</v>
       </c>
       <c r="H158" s="14" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C159" s="2"/>
       <c r="D159" s="2"/>
       <c r="E159" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="F159" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="G159" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="H159" s="14" t="s">
         <v>307</v>
-      </c>
-      <c r="F159" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="G159" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="H159" s="14" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.2">
@@ -7299,10 +7332,10 @@
       <c r="E160" s="2"/>
       <c r="F160" s="2"/>
       <c r="G160" s="2" t="s">
-        <v>308</v>
+        <v>381</v>
       </c>
       <c r="H160" s="14" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.2">
@@ -7312,7 +7345,7 @@
       <c r="F161" s="2"/>
       <c r="G161" s="2"/>
       <c r="H161" s="14" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="162" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -7346,12 +7379,12 @@
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C165" s="2" t="s">
-        <v>308</v>
+        <v>382</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C166" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="167" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -7385,12 +7418,12 @@
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C170" s="2" t="s">
-        <v>308</v>
+        <v>382</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C171" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -7408,8 +7441,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{988C78EB-4E00-466C-9BD2-B10965380DEB}">
   <dimension ref="A1:I233"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A192" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E223" sqref="E223:F227"/>
     </sheetView>
   </sheetViews>
@@ -7458,7 +7491,7 @@
         <v>100</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -7466,15 +7499,15 @@
         <v>99</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C6" s="4"/>
     </row>
@@ -7506,32 +7539,32 @@
         <v>204</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C10" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C11" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -7539,32 +7572,32 @@
         <v>204</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C13" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C14" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -7572,32 +7605,32 @@
         <v>204</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C16" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C17" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="D17" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="D17" s="5" t="s">
-        <v>293</v>
-      </c>
       <c r="E17" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -7605,7 +7638,7 @@
         <v>204</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E18" s="4"/>
     </row>
@@ -7614,7 +7647,7 @@
         <v>205</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E19" s="4"/>
     </row>
@@ -7623,13 +7656,13 @@
         <v>206</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E20" s="4"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C21" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
@@ -7664,13 +7697,13 @@
         <v>204</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E24" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="F24" s="4" t="s">
         <v>294</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -7678,13 +7711,13 @@
         <v>205</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E25" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="F25" s="4" t="s">
         <v>294</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
@@ -7692,13 +7725,13 @@
         <v>206</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E26" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="F26" s="4" t="s">
         <v>294</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
@@ -7706,13 +7739,13 @@
         <v>204</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
@@ -7720,13 +7753,13 @@
         <v>205</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -7734,13 +7767,13 @@
         <v>206</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -7748,13 +7781,13 @@
         <v>204</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
@@ -7762,13 +7795,13 @@
         <v>205</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
@@ -7776,13 +7809,13 @@
         <v>206</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="33" spans="3:6" x14ac:dyDescent="0.2">
@@ -7790,13 +7823,13 @@
         <v>204</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="34" spans="3:6" x14ac:dyDescent="0.2">
@@ -7804,13 +7837,13 @@
         <v>205</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="35" spans="3:6" x14ac:dyDescent="0.2">
@@ -7818,13 +7851,13 @@
         <v>206</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="36" spans="3:6" x14ac:dyDescent="0.2">
@@ -7832,13 +7865,13 @@
         <v>204</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="37" spans="3:6" x14ac:dyDescent="0.2">
@@ -7846,13 +7879,13 @@
         <v>205</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="38" spans="3:6" x14ac:dyDescent="0.2">
@@ -7860,13 +7893,13 @@
         <v>206</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="39" spans="3:6" x14ac:dyDescent="0.2">
@@ -7874,13 +7907,13 @@
         <v>204</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="40" spans="3:6" x14ac:dyDescent="0.2">
@@ -7888,13 +7921,13 @@
         <v>205</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="41" spans="3:6" x14ac:dyDescent="0.2">
@@ -7902,13 +7935,13 @@
         <v>206</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="42" spans="3:6" x14ac:dyDescent="0.2">
@@ -7916,13 +7949,13 @@
         <v>204</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="43" spans="3:6" x14ac:dyDescent="0.2">
@@ -7930,13 +7963,13 @@
         <v>205</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="44" spans="3:6" x14ac:dyDescent="0.2">
@@ -7944,13 +7977,13 @@
         <v>206</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="45" spans="3:6" x14ac:dyDescent="0.2">
@@ -7958,13 +7991,13 @@
         <v>204</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="46" spans="3:6" x14ac:dyDescent="0.2">
@@ -7972,13 +8005,13 @@
         <v>205</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="47" spans="3:6" x14ac:dyDescent="0.2">
@@ -7986,13 +8019,13 @@
         <v>206</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="48" spans="3:6" x14ac:dyDescent="0.2">
@@ -8000,13 +8033,13 @@
         <v>204</v>
       </c>
       <c r="D48" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="E48" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="E48" s="4" t="s">
+      <c r="F48" s="4" t="s">
         <v>294</v>
-      </c>
-      <c r="F48" s="4" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="49" spans="3:6" x14ac:dyDescent="0.2">
@@ -8014,13 +8047,13 @@
         <v>205</v>
       </c>
       <c r="D49" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="E49" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="E49" s="4" t="s">
+      <c r="F49" s="4" t="s">
         <v>294</v>
-      </c>
-      <c r="F49" s="4" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="50" spans="3:6" x14ac:dyDescent="0.2">
@@ -8028,13 +8061,13 @@
         <v>206</v>
       </c>
       <c r="D50" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="E50" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="E50" s="4" t="s">
+      <c r="F50" s="4" t="s">
         <v>294</v>
-      </c>
-      <c r="F50" s="4" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="51" spans="3:6" x14ac:dyDescent="0.2">
@@ -8042,13 +8075,13 @@
         <v>204</v>
       </c>
       <c r="D51" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="E51" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="E51" s="4" t="s">
-        <v>294</v>
-      </c>
       <c r="F51" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="52" spans="3:6" x14ac:dyDescent="0.2">
@@ -8056,13 +8089,13 @@
         <v>205</v>
       </c>
       <c r="D52" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="E52" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="E52" s="4" t="s">
-        <v>294</v>
-      </c>
       <c r="F52" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="53" spans="3:6" x14ac:dyDescent="0.2">
@@ -8070,13 +8103,13 @@
         <v>206</v>
       </c>
       <c r="D53" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="E53" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="E53" s="4" t="s">
-        <v>294</v>
-      </c>
       <c r="F53" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="54" spans="3:6" x14ac:dyDescent="0.2">
@@ -8084,13 +8117,13 @@
         <v>204</v>
       </c>
       <c r="D54" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="E54" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="E54" s="4" t="s">
-        <v>294</v>
-      </c>
       <c r="F54" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="55" spans="3:6" x14ac:dyDescent="0.2">
@@ -8098,13 +8131,13 @@
         <v>205</v>
       </c>
       <c r="D55" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="E55" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="E55" s="4" t="s">
-        <v>294</v>
-      </c>
       <c r="F55" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="56" spans="3:6" x14ac:dyDescent="0.2">
@@ -8112,13 +8145,13 @@
         <v>206</v>
       </c>
       <c r="D56" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="E56" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="E56" s="4" t="s">
-        <v>294</v>
-      </c>
       <c r="F56" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="57" spans="3:6" x14ac:dyDescent="0.2">
@@ -8126,13 +8159,13 @@
         <v>204</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="58" spans="3:6" x14ac:dyDescent="0.2">
@@ -8140,13 +8173,13 @@
         <v>205</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="59" spans="3:6" x14ac:dyDescent="0.2">
@@ -8154,13 +8187,13 @@
         <v>206</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="60" spans="3:6" x14ac:dyDescent="0.2">
@@ -8168,10 +8201,10 @@
         <v>204</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="61" spans="3:6" x14ac:dyDescent="0.2">
@@ -8179,10 +8212,10 @@
         <v>205</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="62" spans="3:6" x14ac:dyDescent="0.2">
@@ -8190,10 +8223,10 @@
         <v>206</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="63" spans="3:6" x14ac:dyDescent="0.2">
@@ -8201,10 +8234,10 @@
         <v>204</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="64" spans="3:6" x14ac:dyDescent="0.2">
@@ -8212,10 +8245,10 @@
         <v>205</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
@@ -8223,10 +8256,10 @@
         <v>206</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
@@ -8234,10 +8267,10 @@
         <v>204</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
@@ -8245,10 +8278,10 @@
         <v>205</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
@@ -8256,10 +8289,10 @@
         <v>206</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
@@ -8267,7 +8300,7 @@
         <v>204</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
@@ -8275,7 +8308,7 @@
         <v>205</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
@@ -8283,18 +8316,18 @@
         <v>206</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C72" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D72" s="4"/>
     </row>
     <row r="73" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B73" s="16" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
@@ -8302,12 +8335,12 @@
         <v>44</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="75" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B75" s="16" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
@@ -8315,7 +8348,7 @@
         <v>200</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C76" t="s">
         <v>67</v>
@@ -8329,23 +8362,23 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C77" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="78" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B78" s="16" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -8353,94 +8386,94 @@
         <v>102</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>57</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="4" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="4" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="4" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="4" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="C86" s="2" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="89" spans="1:5" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -8456,91 +8489,91 @@
         <v>101</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>89</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="4" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="4" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="4" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="C94" s="4" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="C95" s="2" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="C96" s="2" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="97" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="C97" s="2" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="98" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="C98" s="2" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="99" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B99" s="16" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
@@ -8548,25 +8581,25 @@
         <v>157</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D100" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="F100" t="s">
         <v>260</v>
-      </c>
-      <c r="E100" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="F100" t="s">
-        <v>261</v>
       </c>
       <c r="G100" t="s">
         <v>56</v>
       </c>
       <c r="H100" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="101" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
@@ -8574,107 +8607,107 @@
         <v>90</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D101" s="4" t="s">
         <v>204</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="F101" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="G101" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="H101" s="4" t="s">
         <v>338</v>
-      </c>
-      <c r="G101" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="H101" s="4" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="102" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="103" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="C103" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="C104" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="105" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B105" s="16" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D105" s="6"/>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B106" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D106" s="4"/>
     </row>
     <row r="107" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="C107" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D107" s="4" t="s">
         <v>204</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="F107" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="G107" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="H107" s="4" t="s">
         <v>338</v>
-      </c>
-      <c r="G107" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="H107" s="4" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="108" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="C108" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="109" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="C109" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="110" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="C110" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="111" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B111" s="16" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.2">
@@ -8685,10 +8718,10 @@
         <v>47</v>
       </c>
       <c r="C112" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="D112" t="s">
         <v>278</v>
-      </c>
-      <c r="D112" t="s">
-        <v>279</v>
       </c>
       <c r="E112" t="s">
         <v>56</v>
@@ -8696,18 +8729,18 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C113" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="D113" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="D113" s="4" t="s">
+      <c r="E113" s="4" t="s">
         <v>267</v>
-      </c>
-      <c r="E113" s="4" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="114" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B114" s="16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C114" s="6"/>
       <c r="D114" s="6"/>
@@ -8715,7 +8748,7 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B115" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C115" s="4"/>
       <c r="D115" s="4"/>
@@ -8725,12 +8758,12 @@
       <c r="C116" s="4"/>
       <c r="D116" s="4"/>
       <c r="E116" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C117" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D117" s="4"/>
       <c r="E117" s="4"/>
@@ -8745,13 +8778,13 @@
         <v>201</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C119" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="D119" t="s">
         <v>278</v>
-      </c>
-      <c r="D119" t="s">
-        <v>279</v>
       </c>
       <c r="E119" t="s">
         <v>56</v>
@@ -8762,18 +8795,18 @@
         <v>92</v>
       </c>
       <c r="C120" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="D120" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="D120" s="4" t="s">
+      <c r="E120" s="4" t="s">
         <v>267</v>
-      </c>
-      <c r="E120" s="4" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="121" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B121" s="16" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C121" s="6"/>
       <c r="D121" s="6"/>
@@ -8781,7 +8814,7 @@
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B122" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C122" s="4"/>
       <c r="D122" s="4"/>
@@ -8791,12 +8824,12 @@
       <c r="C123" s="4"/>
       <c r="D123" s="4"/>
       <c r="E123" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C124" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D124" s="4"/>
       <c r="E124" s="4"/>
@@ -8821,7 +8854,7 @@
     <row r="128" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A128" s="6"/>
       <c r="B128" s="17" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.2">
@@ -8839,7 +8872,7 @@
     <row r="131" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A131" s="6"/>
       <c r="B131" s="17" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.2">
@@ -8851,16 +8884,16 @@
     <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" s="4"/>
       <c r="B133" s="18" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C133" s="4" t="s">
         <v>204</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="E133" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.2">
@@ -8868,10 +8901,10 @@
         <v>205</v>
       </c>
       <c r="D134" s="4" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="E134" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.2">
@@ -8879,10 +8912,10 @@
         <v>206</v>
       </c>
       <c r="D135" s="4" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="E135" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F135" s="4"/>
     </row>
@@ -8891,10 +8924,10 @@
         <v>204</v>
       </c>
       <c r="D136" s="4" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="E136" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F136" s="4"/>
     </row>
@@ -8903,10 +8936,10 @@
         <v>205</v>
       </c>
       <c r="D137" s="4" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="E137" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F137" s="4"/>
     </row>
@@ -8915,10 +8948,10 @@
         <v>206</v>
       </c>
       <c r="D138" s="4" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="E138" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F138" s="4"/>
     </row>
@@ -8927,10 +8960,10 @@
         <v>204</v>
       </c>
       <c r="D139" s="5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E139" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F139" s="4"/>
     </row>
@@ -8939,10 +8972,10 @@
         <v>205</v>
       </c>
       <c r="D140" s="5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E140" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F140" s="4"/>
     </row>
@@ -8951,10 +8984,10 @@
         <v>206</v>
       </c>
       <c r="D141" s="5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E141" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F141" s="4"/>
     </row>
@@ -8963,7 +8996,7 @@
         <v>204</v>
       </c>
       <c r="D142" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E142" s="4"/>
       <c r="F142" s="4"/>
@@ -8973,7 +9006,7 @@
         <v>205</v>
       </c>
       <c r="D143" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E143" s="4"/>
       <c r="F143" s="4"/>
@@ -8983,7 +9016,7 @@
         <v>206</v>
       </c>
       <c r="D144" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E144" s="4"/>
       <c r="F144" s="4"/>
@@ -8993,14 +9026,14 @@
         <v>206</v>
       </c>
       <c r="D145" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E145" s="4"/>
       <c r="F145" s="4"/>
     </row>
     <row r="146" spans="2:6" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B146" s="16" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="147" spans="2:6" x14ac:dyDescent="0.2">
@@ -9038,35 +9071,35 @@
     <row r="151" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B151" s="4"/>
       <c r="C151" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="D151" s="4" t="s">
         <v>276</v>
-      </c>
-      <c r="D151" s="4" t="s">
-        <v>277</v>
       </c>
       <c r="E151" s="4" t="s">
         <v>204</v>
       </c>
       <c r="F151" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="152" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C152" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="D152" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="D152" s="4" t="s">
-        <v>277</v>
-      </c>
       <c r="E152" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="F152" s="4" t="s">
         <v>274</v>
-      </c>
-      <c r="F152" s="4" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="153" spans="2:6" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B153" s="16" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C153" s="6"/>
       <c r="D153" s="6"/>
@@ -9075,22 +9108,22 @@
     </row>
     <row r="154" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B154" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="155" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B155" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="156" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B156" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="157" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B157" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C157" s="4"/>
       <c r="D157" s="4"/>
@@ -9100,17 +9133,17 @@
         <v>204</v>
       </c>
       <c r="F158" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="159" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C159" s="4"/>
       <c r="D159" s="4"/>
       <c r="E159" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="F159" s="4" t="s">
         <v>274</v>
-      </c>
-      <c r="F159" s="4" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="160" spans="2:6" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -9139,35 +9172,35 @@
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C163" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="D163" s="4" t="s">
         <v>276</v>
-      </c>
-      <c r="D163" s="4" t="s">
-        <v>277</v>
       </c>
       <c r="E163" s="4" t="s">
         <v>204</v>
       </c>
       <c r="F163" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C164" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="D164" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="D164" s="4" t="s">
-        <v>277</v>
-      </c>
       <c r="E164" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="F164" s="4" t="s">
         <v>274</v>
-      </c>
-      <c r="F164" s="4" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="165" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B165" s="16" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C165" s="6"/>
       <c r="D165" s="6"/>
@@ -9176,7 +9209,7 @@
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B166" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C166" s="4"/>
       <c r="D166" s="4"/>
@@ -9186,17 +9219,17 @@
         <v>204</v>
       </c>
       <c r="F167" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C168" s="4"/>
       <c r="D168" s="4"/>
       <c r="E168" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="F168" s="4" t="s">
         <v>274</v>
-      </c>
-      <c r="F168" s="4" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="169" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -9247,7 +9280,7 @@
         <v>60</v>
       </c>
       <c r="E174" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F174" t="s">
         <v>111</v>
@@ -9255,41 +9288,41 @@
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C175" s="4" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="D175" s="4" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="E175" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F175" s="4" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="G175" s="4"/>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D176" s="4" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="E176" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F176" s="4" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="G176" s="4"/>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C177" s="4" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="D177" s="4"/>
       <c r="E177" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F177" s="4" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="G177" s="4"/>
     </row>
@@ -9297,39 +9330,39 @@
       <c r="C178" s="4"/>
       <c r="D178" s="4"/>
       <c r="E178" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F178" s="4" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="G178" s="4"/>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A179" s="4" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C180" s="4" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="D180" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F180" s="4" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="G180" s="4"/>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D181" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F181" s="4" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="G181" s="4"/>
     </row>
@@ -9337,75 +9370,75 @@
       <c r="A182" s="4"/>
       <c r="B182" s="4"/>
       <c r="C182" s="4" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="D182" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F182" s="4" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D183" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F183" s="4" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="G183" s="4"/>
     </row>
     <row r="184" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B184" s="16" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A185" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A186" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B186" s="4"/>
       <c r="C186" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D186" t="s">
+        <v>285</v>
+      </c>
+      <c r="E186" s="4" t="s">
         <v>286</v>
-      </c>
-      <c r="E186" s="4" t="s">
-        <v>287</v>
       </c>
       <c r="F186" s="4" t="s">
         <v>204</v>
       </c>
       <c r="G186" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A187" s="4"/>
       <c r="B187" s="4"/>
       <c r="C187" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D187" t="s">
+        <v>285</v>
+      </c>
+      <c r="E187" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="E187" s="4" t="s">
+      <c r="F187" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="G187" s="5" t="s">
         <v>287</v>
-      </c>
-      <c r="F187" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="G187" s="5" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.2">
@@ -9415,16 +9448,16 @@
         <v>204</v>
       </c>
       <c r="D188" t="s">
+        <v>285</v>
+      </c>
+      <c r="E188" s="4" t="s">
         <v>286</v>
-      </c>
-      <c r="E188" s="4" t="s">
-        <v>287</v>
       </c>
       <c r="F188" s="4" t="s">
         <v>204</v>
       </c>
       <c r="G188" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.2">
@@ -9432,21 +9465,21 @@
         <v>204</v>
       </c>
       <c r="D189" t="s">
+        <v>285</v>
+      </c>
+      <c r="E189" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="E189" s="4" t="s">
+      <c r="F189" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="G189" s="5" t="s">
         <v>287</v>
-      </c>
-      <c r="F189" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="G189" s="5" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="190" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B190" s="16" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.2">
@@ -9462,7 +9495,7 @@
         <v>103</v>
       </c>
       <c r="C192" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.2">
@@ -9473,7 +9506,7 @@
         <v>104</v>
       </c>
       <c r="C193" s="4" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.2">
@@ -9481,12 +9514,12 @@
         <v>107</v>
       </c>
       <c r="C194" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="195" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B195" s="16" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.2">
@@ -9499,12 +9532,12 @@
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C197" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="198" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B198" s="16" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.2">
@@ -9535,7 +9568,7 @@
     <row r="201" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A201" s="4"/>
       <c r="C201" s="4" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.2">
@@ -9549,7 +9582,7 @@
     <row r="203" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A203" s="4"/>
       <c r="C203" s="4" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.2">
@@ -9565,13 +9598,13 @@
         <v>127</v>
       </c>
       <c r="C205" s="4" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="D205" s="4" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="E205" s="4" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.2">
@@ -9579,58 +9612,58 @@
         <v>122</v>
       </c>
       <c r="C206" s="4" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="D206" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="E206" s="4" t="s">
         <v>371</v>
       </c>
-      <c r="E206" s="4" t="s">
-        <v>374</v>
-      </c>
       <c r="F206" s="4" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C207" s="4" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="D207" s="4" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="E207" s="4" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="F207" s="4" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C208" s="4" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="D208" s="4" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="E208" s="4" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="F208" s="4" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C209" s="4" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="D209" s="4" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="E209" s="4" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="F209" s="4" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.2">
@@ -9646,13 +9679,13 @@
         <v>127</v>
       </c>
       <c r="C211" s="4" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="D211" s="4" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="E211" s="4" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.2">
@@ -9660,58 +9693,58 @@
         <v>123</v>
       </c>
       <c r="C212" s="4" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="D212" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="E212" s="4" t="s">
         <v>371</v>
       </c>
-      <c r="E212" s="4" t="s">
-        <v>374</v>
-      </c>
       <c r="F212" s="4" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C213" s="4" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="D213" s="4" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="E213" s="4" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="F213" s="4" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C214" s="4" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="D214" s="4" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="E214" s="4" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="F214" s="4" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C215" s="4" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="D215" s="4" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="E215" s="4" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="F215" s="4" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.2">
@@ -9727,13 +9760,13 @@
         <v>126</v>
       </c>
       <c r="C217" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="D217" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="E217" s="4" t="s">
         <v>370</v>
-      </c>
-      <c r="D217" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="E217" s="4" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.2">
@@ -9741,58 +9774,58 @@
         <v>124</v>
       </c>
       <c r="C218" s="4" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="D218" s="4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="E218" s="4" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="F218" s="4" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C219" s="4" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="D219" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="E219" s="4" t="s">
         <v>372</v>
       </c>
-      <c r="E219" s="4" t="s">
-        <v>375</v>
-      </c>
       <c r="F219" s="4" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C220" s="4" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="D220" s="4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="E220" s="4" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="F220" s="4" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C221" s="4" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="D221" s="4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="E221" s="4" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="F221" s="4" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.2">
@@ -9808,13 +9841,13 @@
         <v>126</v>
       </c>
       <c r="C223" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="D223" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="E223" s="4" t="s">
         <v>370</v>
-      </c>
-      <c r="D223" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="E223" s="4" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.2">
@@ -9822,63 +9855,63 @@
         <v>125</v>
       </c>
       <c r="C224" s="4" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="D224" s="4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="E224" s="4" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="F224" s="4" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C225" s="4" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="D225" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="E225" s="4" t="s">
         <v>372</v>
       </c>
-      <c r="E225" s="4" t="s">
-        <v>375</v>
-      </c>
       <c r="F225" s="4" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C226" s="4" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="D226" s="4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="E226" s="4" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="F226" s="4" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C227" s="4" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="D227" s="4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="E227" s="4" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="F227" s="4" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="228" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B228" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.2">
@@ -9893,13 +9926,13 @@
       <c r="A230" s="4"/>
       <c r="B230" s="4"/>
       <c r="C230" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="231" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A231" s="6"/>
       <c r="B231" s="17" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C231" s="6"/>
     </row>
@@ -9913,7 +9946,7 @@
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C233" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>

--- a/P4E_psuedo_instruction_set.xlsx
+++ b/P4E_psuedo_instruction_set.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\P4EngineAssembler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02FF1E64-1B92-4921-B228-962E3F3B0ADD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE03CB76-C0D8-46ED-B8E3-F5E32414D262}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38520" yWindow="-3645" windowWidth="38640" windowHeight="21840" xr2:uid="{87164962-7B7D-4BAA-98E0-B9A8D7C47112}"/>
   </bookViews>
@@ -1566,14 +1566,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CoPY 4 bytes of Meta data</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CPYM(L)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PHV</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1595,42 +1587,6 @@
   </si>
   <si>
     <t>TMP ,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CALC_RSLT ,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SM_DATA0 ,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SM_DATA1 ,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SM_DATA2 ,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SM_DATA3 ,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SM_DATA4 ,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SM_DATA5 ,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SM_DATA6 ,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SM_DATA7 ,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -4053,6 +4009,320 @@
         <charset val="134"/>
       </rPr>
       <t>(0-32) ;</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COPY(L)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COPY 4 bytes of meta data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">META [ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">CALC_RSLT </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>] ,</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">META [ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>SM_DATA0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> ] ,</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">META [ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>SM_DATA1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> ] ,</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">META [ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>SM_DATA2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> ] ,</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">META [ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>SM_DATA3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> ] ,</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">META [ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>SM_DATA4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> ] ,</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">META [ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>SM_DATA5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> ] ,</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">META [ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>SM_DATA6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> ] ,</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">META [ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>SM_DATA7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> ] ,</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4584,8 +4854,8 @@
   <dimension ref="A1:I171"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C170" sqref="C170"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.2"/>
@@ -4632,7 +4902,7 @@
         <v>163</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>25</v>
@@ -4651,16 +4921,16 @@
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
@@ -4670,16 +4940,16 @@
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
@@ -4689,10 +4959,10 @@
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -4719,7 +4989,7 @@
         <v>164</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>26</v>
@@ -4746,25 +5016,25 @@
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -4773,44 +5043,44 @@
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -4818,69 +5088,69 @@
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B12" s="2"/>
       <c r="C12" s="2" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
@@ -4929,22 +5199,22 @@
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="I17" s="2"/>
     </row>
@@ -4952,22 +5222,22 @@
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="I18" s="2"/>
     </row>
@@ -4975,16 +5245,16 @@
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
@@ -4994,22 +5264,22 @@
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="I20" s="2"/>
     </row>
@@ -5017,22 +5287,22 @@
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="I21" s="2"/>
     </row>
@@ -5040,16 +5310,16 @@
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
@@ -5101,22 +5371,22 @@
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="2" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="I25" s="2"/>
     </row>
@@ -5124,22 +5394,22 @@
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="I26" s="2"/>
     </row>
@@ -5147,16 +5417,16 @@
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
@@ -5166,22 +5436,22 @@
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="I28" s="2"/>
     </row>
@@ -5189,22 +5459,22 @@
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="I29" s="2"/>
     </row>
@@ -5212,16 +5482,16 @@
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
@@ -5285,67 +5555,67 @@
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
       <c r="C34" s="2" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="2"/>
       <c r="C35" s="2" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="2"/>
       <c r="C36" s="2" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
@@ -5353,67 +5623,67 @@
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
       <c r="C37" s="2" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
       <c r="C38" s="2" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
       <c r="C39" s="2" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
@@ -5421,67 +5691,67 @@
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="2"/>
       <c r="C40" s="2" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="2"/>
       <c r="C41" s="2" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="2"/>
       <c r="C42" s="2" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
@@ -5489,67 +5759,67 @@
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="2"/>
       <c r="C43" s="2" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
       <c r="C44" s="2" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
       <c r="C45" s="2" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
@@ -5569,10 +5839,10 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>202</v>
+        <v>373</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>203</v>
+        <v>372</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>23</v>
@@ -5596,16 +5866,16 @@
       </c>
       <c r="B48" s="2"/>
       <c r="C48" s="2" t="s">
-        <v>210</v>
+        <v>374</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
@@ -5615,16 +5885,16 @@
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2" t="s">
-        <v>210</v>
+        <v>374</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="G49" s="2"/>
       <c r="H49" s="2"/>
@@ -5634,10 +5904,10 @@
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2" t="s">
-        <v>210</v>
+        <v>374</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
@@ -5649,16 +5919,16 @@
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2" t="s">
-        <v>211</v>
+        <v>375</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
@@ -5668,16 +5938,16 @@
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2" t="s">
-        <v>211</v>
+        <v>375</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="G52" s="2"/>
       <c r="H52" s="2"/>
@@ -5687,10 +5957,10 @@
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2" t="s">
-        <v>211</v>
+        <v>375</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
@@ -5702,16 +5972,16 @@
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2" t="s">
-        <v>212</v>
+        <v>376</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="G54" s="2"/>
       <c r="H54" s="2"/>
@@ -5721,16 +5991,16 @@
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2" t="s">
-        <v>212</v>
+        <v>376</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="G55" s="2"/>
       <c r="H55" s="2"/>
@@ -5740,10 +6010,10 @@
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2" t="s">
-        <v>212</v>
+        <v>376</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
@@ -5755,16 +6025,16 @@
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2" t="s">
-        <v>213</v>
+        <v>377</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="G57" s="2"/>
       <c r="H57" s="2"/>
@@ -5774,16 +6044,16 @@
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2" t="s">
-        <v>213</v>
+        <v>377</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="G58" s="2"/>
       <c r="H58" s="2"/>
@@ -5793,10 +6063,10 @@
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2" t="s">
-        <v>213</v>
+        <v>377</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
@@ -5808,16 +6078,16 @@
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2" t="s">
-        <v>214</v>
+        <v>378</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="G60" s="2"/>
       <c r="H60" s="2"/>
@@ -5827,16 +6097,16 @@
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2" t="s">
-        <v>214</v>
+        <v>378</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="G61" s="2"/>
       <c r="H61" s="2"/>
@@ -5846,10 +6116,10 @@
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2" t="s">
-        <v>214</v>
+        <v>378</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
@@ -5861,16 +6131,16 @@
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2" t="s">
-        <v>215</v>
+        <v>379</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="G63" s="2"/>
       <c r="H63" s="2"/>
@@ -5880,16 +6150,16 @@
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2" t="s">
-        <v>215</v>
+        <v>379</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="G64" s="2"/>
       <c r="H64" s="2"/>
@@ -5899,10 +6169,10 @@
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2" t="s">
-        <v>215</v>
+        <v>379</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
@@ -5914,16 +6184,16 @@
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2" t="s">
-        <v>216</v>
+        <v>380</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="G66" s="2"/>
       <c r="H66" s="2"/>
@@ -5933,16 +6203,16 @@
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2" t="s">
-        <v>216</v>
+        <v>380</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="G67" s="2"/>
       <c r="H67" s="2"/>
@@ -5952,10 +6222,10 @@
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2" t="s">
-        <v>216</v>
+        <v>380</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
@@ -5967,16 +6237,16 @@
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2" t="s">
-        <v>217</v>
+        <v>381</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="G69" s="2"/>
       <c r="H69" s="2"/>
@@ -5986,16 +6256,16 @@
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2" t="s">
-        <v>217</v>
+        <v>381</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="G70" s="2"/>
       <c r="H70" s="2"/>
@@ -6005,10 +6275,10 @@
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2" t="s">
-        <v>217</v>
+        <v>381</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
@@ -6020,16 +6290,16 @@
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2" t="s">
-        <v>218</v>
+        <v>382</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="G72" s="2"/>
       <c r="H72" s="2"/>
@@ -6039,16 +6309,16 @@
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2" t="s">
-        <v>218</v>
+        <v>382</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="G73" s="2"/>
       <c r="H73" s="2"/>
@@ -6058,10 +6328,10 @@
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2" t="s">
-        <v>218</v>
+        <v>382</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" s="2"/>
@@ -6098,7 +6368,7 @@
         <v>169</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>33</v>
@@ -6114,10 +6384,10 @@
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="E78" s="2"/>
       <c r="G78" s="2"/>
@@ -6128,13 +6398,13 @@
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="G79" s="2"/>
       <c r="H79" s="2"/>
@@ -6159,10 +6429,10 @@
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" s="2"/>
@@ -6174,13 +6444,13 @@
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="F82" s="2"/>
       <c r="G82" s="2"/>
@@ -6228,7 +6498,7 @@
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86" s="2"/>
       <c r="C86" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" s="2"/>
@@ -6241,7 +6511,7 @@
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" s="2"/>
@@ -6291,7 +6561,7 @@
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91" s="2"/>
       <c r="C91" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" s="2"/>
@@ -6304,7 +6574,7 @@
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" s="2"/>
@@ -6345,7 +6615,7 @@
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D95" s="2"/>
       <c r="E95" s="2"/>
@@ -6389,7 +6659,7 @@
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="D98" s="2"/>
       <c r="F98" s="2"/>
@@ -6401,10 +6671,10 @@
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="F99" s="2"/>
       <c r="G99" s="2"/>
@@ -6415,10 +6685,10 @@
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="F100" s="2"/>
       <c r="G100" s="2"/>
@@ -6429,10 +6699,10 @@
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="F101" s="2"/>
       <c r="G101" s="2"/>
@@ -6443,7 +6713,7 @@
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="20" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D102" s="20"/>
       <c r="F102" s="2"/>
@@ -6455,7 +6725,7 @@
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="D103" s="2" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="F103" s="2"/>
       <c r="G103" s="2"/>
@@ -6466,7 +6736,7 @@
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="D104" s="2" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="F104" s="2"/>
       <c r="G104" s="2"/>
@@ -6477,7 +6747,7 @@
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="D105" s="2" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="F105" s="2"/>
       <c r="G105" s="2"/>
@@ -6508,7 +6778,7 @@
         <v>34</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="E107" s="1" t="s">
         <v>35</v>
@@ -6522,10 +6792,10 @@
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="F108" s="2"/>
       <c r="G108" s="2"/>
@@ -6536,10 +6806,10 @@
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="F109" s="2"/>
       <c r="G109" s="2"/>
@@ -6550,13 +6820,13 @@
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="F110" s="2"/>
       <c r="G110" s="2"/>
@@ -6567,10 +6837,10 @@
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="F111" s="2"/>
       <c r="G111" s="2"/>
@@ -6622,7 +6892,7 @@
         <v>24</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="G114" s="2"/>
       <c r="H114" s="2"/>
@@ -6632,16 +6902,16 @@
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="15" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="D115" s="15" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="E115" s="15" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="F115" s="15" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="G115" s="2"/>
       <c r="H115" s="2"/>
@@ -6651,16 +6921,16 @@
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="G116" s="2"/>
       <c r="H116" s="2"/>
@@ -6670,16 +6940,16 @@
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="G117" s="2"/>
       <c r="H117" s="2"/>
@@ -6730,7 +7000,7 @@
         <v>24</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="G120" s="2"/>
       <c r="H120" s="2"/>
@@ -6740,16 +7010,16 @@
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="15" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="D121" s="15" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="E121" s="15" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="F121" s="15" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="G121" s="2"/>
       <c r="H121" s="2"/>
@@ -6759,16 +7029,16 @@
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="G122" s="2"/>
       <c r="H122" s="2"/>
@@ -6778,16 +7048,16 @@
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="G123" s="2"/>
       <c r="H123" s="2"/>
@@ -6833,7 +7103,7 @@
         <v>24</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="H126" s="2"/>
       <c r="I126" s="2"/>
@@ -6842,16 +7112,16 @@
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="15" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="D127" s="15" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="E127" s="15" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="F127" s="15" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="G127" s="2"/>
       <c r="H127" s="2"/>
@@ -6861,16 +7131,16 @@
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="G128" s="2"/>
       <c r="H128" s="2"/>
@@ -6880,16 +7150,16 @@
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="G129" s="2"/>
       <c r="H129" s="2"/>
@@ -6927,7 +7197,7 @@
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D132" s="2"/>
       <c r="E132" s="2"/>
@@ -6966,7 +7236,7 @@
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D135" s="2"/>
       <c r="E135" s="2"/>
@@ -7005,7 +7275,7 @@
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D138" s="2"/>
       <c r="E138" s="2"/>
@@ -7087,10 +7357,10 @@
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" s="2"/>
@@ -7141,13 +7411,13 @@
       </c>
       <c r="B147" s="2"/>
       <c r="C147" s="2" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="F147" s="2"/>
       <c r="G147" s="2"/>
@@ -7195,7 +7465,7 @@
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B151" s="2" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" s="2"/>
@@ -7268,7 +7538,7 @@
         <v>18</v>
       </c>
       <c r="G156" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H156" s="1" t="s">
         <v>16</v>
@@ -7276,54 +7546,54 @@
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C157" s="2" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="H157" s="14" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C158" s="2" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="E158" s="2"/>
       <c r="F158" s="2"/>
       <c r="G158" s="2" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="H158" s="14" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C159" s="2"/>
       <c r="D159" s="2"/>
       <c r="E159" s="2" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="H159" s="14" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.2">
@@ -7332,10 +7602,10 @@
       <c r="E160" s="2"/>
       <c r="F160" s="2"/>
       <c r="G160" s="2" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="H160" s="14" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.2">
@@ -7345,7 +7615,7 @@
       <c r="F161" s="2"/>
       <c r="G161" s="2"/>
       <c r="H161" s="14" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
     </row>
     <row r="162" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -7379,12 +7649,12 @@
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C165" s="2" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C166" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="167" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -7418,12 +7688,12 @@
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C170" s="2" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C171" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -7442,7 +7712,7 @@
   <dimension ref="A1:I233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E223" sqref="E223:F227"/>
     </sheetView>
   </sheetViews>
@@ -7491,7 +7761,7 @@
         <v>100</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -7499,15 +7769,15 @@
         <v>99</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="C6" s="4"/>
     </row>
@@ -7536,133 +7806,133 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C9" s="4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C10" s="4" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C11" s="4" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C12" s="4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C13" s="4" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C14" s="4" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C15" s="4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C16" s="4" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C17" s="4" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C18" s="4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E18" s="4"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C19" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="D19" s="5" t="s">
         <v>205</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>207</v>
       </c>
       <c r="E19" s="4"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C20" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E20" s="4"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C21" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
@@ -7694,640 +7964,640 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C24" s="4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C25" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C26" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C27" s="4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C28" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C29" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C30" s="4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C31" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C32" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
     </row>
     <row r="33" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C33" s="4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="34" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C34" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="F34" s="5" t="s">
         <v>205</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>351</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="F34" s="5" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="35" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C35" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="36" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C36" s="4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
     </row>
     <row r="37" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C37" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
     </row>
     <row r="38" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C38" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
     </row>
     <row r="39" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C39" s="4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
     </row>
     <row r="40" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C40" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
     </row>
     <row r="41" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C41" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
     </row>
     <row r="42" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C42" s="4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
     </row>
     <row r="43" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C43" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
     </row>
     <row r="44" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C44" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
     </row>
     <row r="45" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C45" s="4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="46" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C46" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="F46" s="5" t="s">
         <v>205</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>351</v>
-      </c>
-      <c r="E46" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="F46" s="5" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="47" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C47" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="48" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C48" s="4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
     </row>
     <row r="49" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C49" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
     </row>
     <row r="50" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C50" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
     </row>
     <row r="51" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C51" s="4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
     </row>
     <row r="52" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C52" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
     </row>
     <row r="53" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C53" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
     </row>
     <row r="54" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C54" s="4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
     </row>
     <row r="55" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C55" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
     </row>
     <row r="56" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C56" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
     </row>
     <row r="57" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C57" s="4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="58" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C58" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="F58" s="5" t="s">
         <v>205</v>
-      </c>
-      <c r="D58" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="E58" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="F58" s="5" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="59" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C59" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="60" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C60" s="4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
     </row>
     <row r="61" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C61" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
     </row>
     <row r="62" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C62" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
     </row>
     <row r="63" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C63" s="4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
     </row>
     <row r="64" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C64" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C65" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C66" s="4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C67" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C68" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C69" s="4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C70" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="D70" s="5" t="s">
         <v>205</v>
-      </c>
-      <c r="D70" s="5" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C71" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C72" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D72" s="4"/>
     </row>
     <row r="73" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B73" s="16" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
@@ -8335,12 +8605,12 @@
         <v>44</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
     </row>
     <row r="75" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B75" s="16" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
@@ -8348,7 +8618,7 @@
         <v>200</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="C76" t="s">
         <v>67</v>
@@ -8362,23 +8632,23 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C77" s="4" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
     </row>
     <row r="78" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B78" s="16" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -8386,94 +8656,94 @@
         <v>102</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>57</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="4" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="4" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="4" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="4" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="C86" s="2" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
     </row>
     <row r="89" spans="1:5" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -8489,91 +8759,91 @@
         <v>101</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>89</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="4" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="4" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="4" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="C94" s="4" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="C95" s="2" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="C96" s="2" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
     </row>
     <row r="97" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="C97" s="2" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
     </row>
     <row r="98" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="C98" s="2" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
     </row>
     <row r="99" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B99" s="16" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
@@ -8581,25 +8851,25 @@
         <v>157</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="F100" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="G100" t="s">
         <v>56</v>
       </c>
       <c r="H100" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
     </row>
     <row r="101" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
@@ -8607,107 +8877,107 @@
         <v>90</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="G101" s="4" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="H101" s="4" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
     </row>
     <row r="102" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
     </row>
     <row r="103" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="C103" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="C104" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
     </row>
     <row r="105" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B105" s="16" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="D105" s="6"/>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B106" s="4" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="D106" s="4"/>
     </row>
     <row r="107" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="C107" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="F107" s="4" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="G107" s="4" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="H107" s="4" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
     </row>
     <row r="108" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="C108" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
     </row>
     <row r="109" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="C109" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
     </row>
     <row r="110" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="C110" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
     </row>
     <row r="111" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B111" s="16" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.2">
@@ -8718,10 +8988,10 @@
         <v>47</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="D112" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="E112" t="s">
         <v>56</v>
@@ -8729,18 +8999,18 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C113" s="4" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="E113" s="4" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
     </row>
     <row r="114" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B114" s="16" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="C114" s="6"/>
       <c r="D114" s="6"/>
@@ -8748,7 +9018,7 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B115" s="4" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="C115" s="4"/>
       <c r="D115" s="4"/>
@@ -8758,12 +9028,12 @@
       <c r="C116" s="4"/>
       <c r="D116" s="4"/>
       <c r="E116" s="4" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C117" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D117" s="4"/>
       <c r="E117" s="4"/>
@@ -8778,13 +9048,13 @@
         <v>201</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="D119" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="E119" t="s">
         <v>56</v>
@@ -8795,18 +9065,18 @@
         <v>92</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="E120" s="4" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
     </row>
     <row r="121" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B121" s="16" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="C121" s="6"/>
       <c r="D121" s="6"/>
@@ -8814,7 +9084,7 @@
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B122" s="4" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="C122" s="4"/>
       <c r="D122" s="4"/>
@@ -8824,12 +9094,12 @@
       <c r="C123" s="4"/>
       <c r="D123" s="4"/>
       <c r="E123" s="4" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C124" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D124" s="4"/>
       <c r="E124" s="4"/>
@@ -8854,7 +9124,7 @@
     <row r="128" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A128" s="6"/>
       <c r="B128" s="17" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.2">
@@ -8872,7 +9142,7 @@
     <row r="131" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A131" s="6"/>
       <c r="B131" s="17" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.2">
@@ -8884,156 +9154,156 @@
     <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" s="4"/>
       <c r="B133" s="18" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>356</v>
+        <v>345</v>
       </c>
       <c r="E133" s="4" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C134" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D134" s="4" t="s">
-        <v>356</v>
+        <v>345</v>
       </c>
       <c r="E134" s="4" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C135" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D135" s="4" t="s">
-        <v>356</v>
+        <v>345</v>
       </c>
       <c r="E135" s="4" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="F135" s="4"/>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C136" s="4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D136" s="4" t="s">
-        <v>356</v>
+        <v>345</v>
       </c>
       <c r="E136" s="5" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="F136" s="4"/>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C137" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D137" s="4" t="s">
-        <v>356</v>
+        <v>345</v>
       </c>
       <c r="E137" s="5" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="F137" s="4"/>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C138" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D138" s="4" t="s">
-        <v>356</v>
+        <v>345</v>
       </c>
       <c r="E138" s="5" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="F138" s="4"/>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C139" s="4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D139" s="5" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="E139" s="4" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="F139" s="4"/>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C140" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D140" s="5" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="E140" s="4" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="F140" s="4"/>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C141" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D141" s="5" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="E141" s="4" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="F141" s="4"/>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C142" s="4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D142" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E142" s="4"/>
       <c r="F142" s="4"/>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C143" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="D143" s="5" t="s">
         <v>205</v>
-      </c>
-      <c r="D143" s="5" t="s">
-        <v>207</v>
       </c>
       <c r="E143" s="4"/>
       <c r="F143" s="4"/>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C144" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D144" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E144" s="4"/>
       <c r="F144" s="4"/>
     </row>
     <row r="145" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C145" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D145" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E145" s="4"/>
       <c r="F145" s="4"/>
     </row>
     <row r="146" spans="2:6" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B146" s="16" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
     </row>
     <row r="147" spans="2:6" x14ac:dyDescent="0.2">
@@ -9071,35 +9341,35 @@
     <row r="151" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B151" s="4"/>
       <c r="C151" s="4" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="D151" s="4" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="E151" s="4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F151" s="4" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
     </row>
     <row r="152" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C152" s="4" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="D152" s="4" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="E152" s="4" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="F152" s="4" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
     </row>
     <row r="153" spans="2:6" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B153" s="16" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="C153" s="6"/>
       <c r="D153" s="6"/>
@@ -9108,42 +9378,42 @@
     </row>
     <row r="154" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B154" s="4" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
     </row>
     <row r="155" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B155" s="4" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
     </row>
     <row r="156" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B156" s="4" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
     </row>
     <row r="157" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B157" s="4" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="C157" s="4"/>
       <c r="D157" s="4"/>
     </row>
     <row r="158" spans="2:6" x14ac:dyDescent="0.2">
       <c r="E158" s="4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F158" s="4" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
     </row>
     <row r="159" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C159" s="4"/>
       <c r="D159" s="4"/>
       <c r="E159" s="4" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="F159" s="4" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
     </row>
     <row r="160" spans="2:6" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -9172,35 +9442,35 @@
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C163" s="4" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="D163" s="4" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="E163" s="4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F163" s="4" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C164" s="4" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="D164" s="4" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="E164" s="4" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="F164" s="4" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
     </row>
     <row r="165" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B165" s="16" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="C165" s="6"/>
       <c r="D165" s="6"/>
@@ -9209,27 +9479,27 @@
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B166" s="4" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="C166" s="4"/>
       <c r="D166" s="4"/>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E167" s="4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F167" s="4" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C168" s="4"/>
       <c r="D168" s="4"/>
       <c r="E168" s="4" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="F168" s="4" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
     </row>
     <row r="169" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -9280,7 +9550,7 @@
         <v>60</v>
       </c>
       <c r="E174" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="F174" t="s">
         <v>111</v>
@@ -9288,41 +9558,41 @@
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C175" s="4" t="s">
-        <v>359</v>
+        <v>348</v>
       </c>
       <c r="D175" s="4" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="E175" s="4" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="F175" s="4" t="s">
-        <v>360</v>
+        <v>349</v>
       </c>
       <c r="G175" s="4"/>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D176" s="4" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="E176" s="4" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="F176" s="4" t="s">
-        <v>360</v>
+        <v>349</v>
       </c>
       <c r="G176" s="4"/>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C177" s="4" t="s">
-        <v>359</v>
+        <v>348</v>
       </c>
       <c r="D177" s="4"/>
       <c r="E177" s="4" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="F177" s="4" t="s">
-        <v>360</v>
+        <v>349</v>
       </c>
       <c r="G177" s="4"/>
     </row>
@@ -9330,39 +9600,39 @@
       <c r="C178" s="4"/>
       <c r="D178" s="4"/>
       <c r="E178" s="4" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="F178" s="4" t="s">
-        <v>360</v>
+        <v>349</v>
       </c>
       <c r="G178" s="4"/>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A179" s="4" t="s">
-        <v>362</v>
+        <v>351</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>361</v>
+        <v>350</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C180" s="4" t="s">
-        <v>359</v>
+        <v>348</v>
       </c>
       <c r="D180" s="4" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="F180" s="4" t="s">
-        <v>360</v>
+        <v>349</v>
       </c>
       <c r="G180" s="4"/>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D181" s="4" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="F181" s="4" t="s">
-        <v>360</v>
+        <v>349</v>
       </c>
       <c r="G181" s="4"/>
     </row>
@@ -9370,116 +9640,116 @@
       <c r="A182" s="4"/>
       <c r="B182" s="4"/>
       <c r="C182" s="4" t="s">
-        <v>359</v>
+        <v>348</v>
       </c>
       <c r="D182" s="5" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F182" s="4" t="s">
-        <v>360</v>
+        <v>349</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D183" s="5" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F183" s="4" t="s">
-        <v>360</v>
+        <v>349</v>
       </c>
       <c r="G183" s="4"/>
     </row>
     <row r="184" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B184" s="16" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A185" s="4" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A186" s="4" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="B186" s="4"/>
       <c r="C186" s="4" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="D186" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="E186" s="4" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="F186" s="4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G186" s="5" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A187" s="4"/>
       <c r="B187" s="4"/>
       <c r="C187" s="4" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="D187" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="E187" s="4" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="F187" s="4" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="G187" s="5" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A188" s="4"/>
       <c r="B188" s="4"/>
       <c r="C188" s="4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D188" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="E188" s="4" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="F188" s="4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G188" s="5" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C189" s="4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D189" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="E189" s="4" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="F189" s="4" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="G189" s="5" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
     </row>
     <row r="190" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B190" s="16" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.2">
@@ -9495,7 +9765,7 @@
         <v>103</v>
       </c>
       <c r="C192" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.2">
@@ -9506,7 +9776,7 @@
         <v>104</v>
       </c>
       <c r="C193" s="4" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.2">
@@ -9514,12 +9784,12 @@
         <v>107</v>
       </c>
       <c r="C194" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="195" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B195" s="16" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.2">
@@ -9532,12 +9802,12 @@
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C197" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="198" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B198" s="16" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.2">
@@ -9568,7 +9838,7 @@
     <row r="201" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A201" s="4"/>
       <c r="C201" s="4" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.2">
@@ -9582,7 +9852,7 @@
     <row r="203" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A203" s="4"/>
       <c r="C203" s="4" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.2">
@@ -9598,13 +9868,13 @@
         <v>127</v>
       </c>
       <c r="C205" s="4" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="D205" s="4" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="E205" s="4" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.2">
@@ -9612,58 +9882,58 @@
         <v>122</v>
       </c>
       <c r="C206" s="4" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="D206" s="4" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="E206" s="4" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="F206" s="4" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C207" s="4" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="D207" s="4" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="E207" s="4" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="F207" s="4" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C208" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="D208" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="E208" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="F208" s="4" t="s">
         <v>366</v>
-      </c>
-      <c r="D208" s="4" t="s">
-        <v>368</v>
-      </c>
-      <c r="E208" s="4" t="s">
-        <v>373</v>
-      </c>
-      <c r="F208" s="4" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C209" s="4" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="D209" s="4" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="E209" s="4" t="s">
-        <v>374</v>
+        <v>363</v>
       </c>
       <c r="F209" s="4" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.2">
@@ -9679,13 +9949,13 @@
         <v>127</v>
       </c>
       <c r="C211" s="4" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="D211" s="4" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="E211" s="4" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.2">
@@ -9693,58 +9963,58 @@
         <v>123</v>
       </c>
       <c r="C212" s="4" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="D212" s="4" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="E212" s="4" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="F212" s="4" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C213" s="4" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="D213" s="4" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="E213" s="4" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="F213" s="4" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C214" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="D214" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="E214" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="F214" s="4" t="s">
         <v>366</v>
-      </c>
-      <c r="D214" s="4" t="s">
-        <v>368</v>
-      </c>
-      <c r="E214" s="4" t="s">
-        <v>373</v>
-      </c>
-      <c r="F214" s="4" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C215" s="4" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="D215" s="4" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="E215" s="4" t="s">
-        <v>374</v>
+        <v>363</v>
       </c>
       <c r="F215" s="4" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.2">
@@ -9760,13 +10030,13 @@
         <v>126</v>
       </c>
       <c r="C217" s="4" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="D217" s="4" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="E217" s="4" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.2">
@@ -9774,58 +10044,58 @@
         <v>124</v>
       </c>
       <c r="C218" s="4" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="D218" s="4" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="E218" s="4" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="F218" s="4" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C219" s="4" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="D219" s="4" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="E219" s="4" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="F219" s="4" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C220" s="4" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="D220" s="4" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="E220" s="4" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
       <c r="F220" s="4" t="s">
-        <v>377</v>
+        <v>366</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C221" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="D221" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="E221" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="F221" s="4" t="s">
         <v>367</v>
-      </c>
-      <c r="D221" s="4" t="s">
-        <v>369</v>
-      </c>
-      <c r="E221" s="4" t="s">
-        <v>374</v>
-      </c>
-      <c r="F221" s="4" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.2">
@@ -9841,13 +10111,13 @@
         <v>126</v>
       </c>
       <c r="C223" s="4" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="D223" s="4" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="E223" s="4" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.2">
@@ -9855,63 +10125,63 @@
         <v>125</v>
       </c>
       <c r="C224" s="4" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="D224" s="4" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="E224" s="4" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="F224" s="4" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C225" s="4" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="D225" s="4" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="E225" s="4" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="F225" s="4" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C226" s="4" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="D226" s="4" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="E226" s="4" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
       <c r="F226" s="4" t="s">
-        <v>377</v>
+        <v>366</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C227" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="D227" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="E227" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="F227" s="4" t="s">
         <v>367</v>
-      </c>
-      <c r="D227" s="4" t="s">
-        <v>369</v>
-      </c>
-      <c r="E227" s="4" t="s">
-        <v>374</v>
-      </c>
-      <c r="F227" s="4" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="228" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B228" s="16" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.2">
@@ -9926,13 +10196,13 @@
       <c r="A230" s="4"/>
       <c r="B230" s="4"/>
       <c r="C230" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="231" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A231" s="6"/>
       <c r="B231" s="17" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="C231" s="6"/>
     </row>
@@ -9946,7 +10216,7 @@
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C233" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>

--- a/P4E_psuedo_instruction_set.xlsx
+++ b/P4E_psuedo_instruction_set.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\P4EngineAssembler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE03CB76-C0D8-46ED-B8E3-F5E32414D262}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{509447CB-6089-4F0E-BBEF-4B18118AD40D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38520" yWindow="-3645" windowWidth="38640" windowHeight="21840" xr2:uid="{87164962-7B7D-4BAA-98E0-B9A8D7C47112}"/>
   </bookViews>
@@ -601,6 +601,56 @@
         </r>
       </text>
     </comment>
+    <comment ref="D161" authorId="0" shapeId="0" xr:uid="{D18DB5FE-3A83-491E-84D6-3985F23FC611}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Dianchao Wang:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+isr_len + meta_len &lt;= 40</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F162" authorId="0" shapeId="0" xr:uid="{F5C9FE6D-D006-4B70-9523-3BFBD214FD89}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Dianchao Wang:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+isr_len + meta_len &lt;= 40</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -772,7 +822,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1181" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1187" uniqueCount="383">
   <si>
     <t>isr SHiFT</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3945,6 +3995,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>COPY(L)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COPY 4 bytes of meta data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -3953,7 +4011,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>&gt;&gt;</t>
+      <t xml:space="preserve">META [ </t>
     </r>
     <r>
       <rPr>
@@ -3964,7 +4022,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">val6 </t>
+      <t xml:space="preserve">CALC_RSLT </t>
     </r>
     <r>
       <rPr>
@@ -3974,7 +4032,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>(0-32),</t>
+      <t>] ,</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3987,7 +4045,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>&gt;&gt;</t>
+      <t xml:space="preserve">META [ </t>
     </r>
     <r>
       <rPr>
@@ -3998,7 +4056,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">val6 </t>
+      <t>SM_DATA0</t>
     </r>
     <r>
       <rPr>
@@ -4008,16 +4066,8 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>(0-32) ;</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>COPY(L)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>COPY 4 bytes of meta data</t>
+      <t xml:space="preserve"> ] ,</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -4040,7 +4090,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">CALC_RSLT </t>
+      <t>SM_DATA1</t>
     </r>
     <r>
       <rPr>
@@ -4050,7 +4100,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>] ,</t>
+      <t xml:space="preserve"> ] ,</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4074,7 +4124,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>SM_DATA0</t>
+      <t>SM_DATA2</t>
     </r>
     <r>
       <rPr>
@@ -4108,7 +4158,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>SM_DATA1</t>
+      <t>SM_DATA3</t>
     </r>
     <r>
       <rPr>
@@ -4142,7 +4192,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>SM_DATA2</t>
+      <t>SM_DATA4</t>
     </r>
     <r>
       <rPr>
@@ -4176,7 +4226,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>SM_DATA3</t>
+      <t>SM_DATA5</t>
     </r>
     <r>
       <rPr>
@@ -4210,7 +4260,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>SM_DATA4</t>
+      <t>SM_DATA6</t>
     </r>
     <r>
       <rPr>
@@ -4244,7 +4294,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>SM_DATA5</t>
+      <t>SM_DATA7</t>
     </r>
     <r>
       <rPr>
@@ -4267,7 +4317,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">META [ </t>
+      <t>&gt;&gt;</t>
     </r>
     <r>
       <rPr>
@@ -4278,7 +4328,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>SM_DATA6</t>
+      <t xml:space="preserve">val6 </t>
     </r>
     <r>
       <rPr>
@@ -4288,7 +4338,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve"> ] ,</t>
+      <t>(1-32),</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4301,7 +4351,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">META [ </t>
+      <t>&gt;&gt;</t>
     </r>
     <r>
       <rPr>
@@ -4312,7 +4362,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>SM_DATA7</t>
+      <t xml:space="preserve">val6 </t>
     </r>
     <r>
       <rPr>
@@ -4322,7 +4372,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve"> ] ,</t>
+      <t>(1-32) ;</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4851,11 +4901,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA14F7B7-5F50-4FFB-AE20-84853F321386}">
-  <dimension ref="A1:I171"/>
+  <dimension ref="A1:I173"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B47" sqref="B47"/>
+      <pane ySplit="1" topLeftCell="A134" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C172" sqref="C172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.2"/>
@@ -5839,10 +5889,10 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>23</v>
@@ -5866,7 +5916,7 @@
       </c>
       <c r="B48" s="2"/>
       <c r="C48" s="2" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>202</v>
@@ -5885,7 +5935,7 @@
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>262</v>
@@ -5904,7 +5954,7 @@
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>300</v>
@@ -5919,7 +5969,7 @@
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>202</v>
@@ -5938,7 +5988,7 @@
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>262</v>
@@ -5957,7 +6007,7 @@
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>300</v>
@@ -5972,7 +6022,7 @@
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>202</v>
@@ -5991,7 +6041,7 @@
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>262</v>
@@ -6010,7 +6060,7 @@
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>300</v>
@@ -6025,7 +6075,7 @@
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>202</v>
@@ -6044,7 +6094,7 @@
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>262</v>
@@ -6063,7 +6113,7 @@
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>300</v>
@@ -6078,7 +6128,7 @@
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>202</v>
@@ -6097,7 +6147,7 @@
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>262</v>
@@ -6116,7 +6166,7 @@
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>300</v>
@@ -6131,7 +6181,7 @@
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>202</v>
@@ -6150,7 +6200,7 @@
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>262</v>
@@ -6169,7 +6219,7 @@
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>300</v>
@@ -6184,7 +6234,7 @@
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>202</v>
@@ -6203,7 +6253,7 @@
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>262</v>
@@ -6222,7 +6272,7 @@
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>300</v>
@@ -6237,7 +6287,7 @@
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>202</v>
@@ -6256,7 +6306,7 @@
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>262</v>
@@ -6275,7 +6325,7 @@
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>300</v>
@@ -6290,7 +6340,7 @@
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>202</v>
@@ -6309,7 +6359,7 @@
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>262</v>
@@ -6328,7 +6378,7 @@
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>300</v>
@@ -7558,7 +7608,7 @@
         <v>294</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>370</v>
+        <v>381</v>
       </c>
       <c r="H157" s="14" t="s">
         <v>296</v>
@@ -7574,7 +7624,7 @@
       <c r="E158" s="2"/>
       <c r="F158" s="2"/>
       <c r="G158" s="2" t="s">
-        <v>370</v>
+        <v>381</v>
       </c>
       <c r="H158" s="14" t="s">
         <v>296</v>
@@ -7590,7 +7640,7 @@
         <v>294</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>370</v>
+        <v>381</v>
       </c>
       <c r="H159" s="14" t="s">
         <v>296</v>
@@ -7602,15 +7652,19 @@
       <c r="E160" s="2"/>
       <c r="F160" s="2"/>
       <c r="G160" s="2" t="s">
-        <v>370</v>
+        <v>381</v>
       </c>
       <c r="H160" s="14" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C161" s="2"/>
-      <c r="D161" s="2"/>
+      <c r="C161" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>294</v>
+      </c>
       <c r="E161" s="2"/>
       <c r="F161" s="2"/>
       <c r="G161" s="2"/>
@@ -7618,81 +7672,105 @@
         <v>296</v>
       </c>
     </row>
-    <row r="162" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A162" s="8"/>
-      <c r="B162" s="13" t="s">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C162" s="2"/>
+      <c r="D162" s="2"/>
+      <c r="E162" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="F162" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="G162" s="2"/>
+      <c r="H162" s="14" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C163" s="2"/>
+      <c r="D163" s="2"/>
+      <c r="E163" s="2"/>
+      <c r="F163" s="2"/>
+      <c r="G163" s="2"/>
+      <c r="H163" s="14" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A164" s="8"/>
+      <c r="B164" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="C162" s="8"/>
-      <c r="D162" s="8"/>
-      <c r="E162" s="8"/>
-      <c r="F162" s="8"/>
-      <c r="G162" s="8"/>
-      <c r="H162" s="8"/>
-      <c r="I162" s="8"/>
-    </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A163" s="2" t="s">
+      <c r="C164" s="8"/>
+      <c r="D164" s="8"/>
+      <c r="E164" s="8"/>
+      <c r="F164" s="8"/>
+      <c r="G164" s="8"/>
+      <c r="H164" s="8"/>
+      <c r="I164" s="8"/>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A165" s="2" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A164" s="2" t="s">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A166" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B164" s="2" t="s">
+      <c r="B166" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="C164" s="1" t="s">
+      <c r="C166" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C165" s="2" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C166" s="1" t="s">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C167" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C168" s="1" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="167" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A167" s="8"/>
-      <c r="B167" s="13" t="s">
+    <row r="169" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A169" s="8"/>
+      <c r="B169" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="C167" s="8"/>
-      <c r="D167" s="8"/>
-      <c r="E167" s="8"/>
-      <c r="F167" s="8"/>
-      <c r="G167" s="8"/>
-      <c r="H167" s="8"/>
-      <c r="I167" s="8"/>
-    </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A168" s="2" t="s">
+      <c r="C169" s="8"/>
+      <c r="D169" s="8"/>
+      <c r="E169" s="8"/>
+      <c r="F169" s="8"/>
+      <c r="G169" s="8"/>
+      <c r="H169" s="8"/>
+      <c r="I169" s="8"/>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A170" s="2" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A169" s="2" t="s">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A171" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B169" s="2" t="s">
+      <c r="B171" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="C169" s="1" t="s">
+      <c r="C171" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C170" s="2" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C171" s="1" t="s">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C172" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C173" s="1" t="s">
         <v>205</v>
       </c>
     </row>

--- a/P4E_psuedo_instruction_set.xlsx
+++ b/P4E_psuedo_instruction_set.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\P4EngineAssembler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{509447CB-6089-4F0E-BBEF-4B18118AD40D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E7D1ED2-4BC6-4349-86CA-4AD069455BCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38520" yWindow="-3645" windowWidth="38640" windowHeight="21840" xr2:uid="{87164962-7B7D-4BAA-98E0-B9A8D7C47112}"/>
   </bookViews>
@@ -551,7 +551,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D158" authorId="0" shapeId="0" xr:uid="{2B9398D6-9712-43AC-884C-17E3CB3526BE}">
+    <comment ref="D158" authorId="0" shapeId="0" xr:uid="{5EDDCAB0-8CF8-4E69-91EC-FCEBB8FBFB81}">
       <text>
         <r>
           <rPr>
@@ -575,7 +575,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F159" authorId="0" shapeId="0" xr:uid="{14EBF2C3-FE16-4BFC-A335-2BC7069D35A3}">
+    <comment ref="F159" authorId="0" shapeId="0" xr:uid="{E9CC35BA-90D8-4E68-A63E-1BDF886428EA}">
       <text>
         <r>
           <rPr>
@@ -601,7 +601,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D161" authorId="0" shapeId="0" xr:uid="{D18DB5FE-3A83-491E-84D6-3985F23FC611}">
+    <comment ref="D161" authorId="0" shapeId="0" xr:uid="{C0E77B6C-0F0F-459E-A010-D438E2938743}">
       <text>
         <r>
           <rPr>
@@ -625,7 +625,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F162" authorId="0" shapeId="0" xr:uid="{F5C9FE6D-D006-4B70-9523-3BFBD214FD89}">
+    <comment ref="F162" authorId="0" shapeId="0" xr:uid="{149FA3A0-4084-461C-8457-384C4EC1B272}">
       <text>
         <r>
           <rPr>
@@ -2588,9 +2588,6 @@
   </si>
   <si>
     <r>
-      <t>len</t>
-    </r>
-    <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
@@ -2598,31 +2595,34 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve"> (0-40) } ,</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
+      <t xml:space="preserve">META { </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Microsoft YaHei Light"/>
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">META { </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+      <t xml:space="preserve">off9 </t>
+    </r>
+    <r>
+      <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Microsoft YaHei Light"/>
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">off9 </t>
+      <t>:</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">-&gt;nxt_state8 </t>
     </r>
     <r>
       <rPr>
@@ -2632,13 +2632,13 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>:</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">-&gt;nxt_state8 </t>
+      <t>;</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>imm32</t>
     </r>
     <r>
       <rPr>
@@ -2648,13 +2648,13 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>;</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>imm32</t>
+      <t xml:space="preserve"> ,</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">len </t>
     </r>
     <r>
       <rPr>
@@ -2664,7 +2664,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve"> ,</t>
+      <t>(1-4) } ;</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2680,13 +2680,13 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>(1-4) } ;</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">len </t>
+      <t>(1-8) } ;</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>TMP</t>
     </r>
     <r>
       <rPr>
@@ -2696,13 +2696,13 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>(1-8) } ;</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>TMP</t>
+      <t xml:space="preserve"> ;</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">src_len </t>
     </r>
     <r>
       <rPr>
@@ -2712,13 +2712,13 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve"> ;</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">src_len </t>
+      <t>(1-32) } ,</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>TMP</t>
     </r>
     <r>
       <rPr>
@@ -2728,13 +2728,13 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>(1-32) } ,</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>TMP</t>
+      <t xml:space="preserve"> ,</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>addr_h36</t>
     </r>
     <r>
       <rPr>
@@ -2750,7 +2750,7 @@
   </si>
   <si>
     <r>
-      <t>addr_h36</t>
+      <t>offset2</t>
     </r>
     <r>
       <rPr>
@@ -2760,13 +2760,13 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve"> ,</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>offset2</t>
+      <t xml:space="preserve"> ;</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>meta_lshift3</t>
     </r>
     <r>
       <rPr>
@@ -2782,7 +2782,7 @@
   </si>
   <si>
     <r>
-      <t>meta_lshift3</t>
+      <t xml:space="preserve">flow_id </t>
     </r>
     <r>
       <rPr>
@@ -2792,13 +2792,13 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve"> ;</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">flow_id </t>
+      <t>(hex);</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>len</t>
     </r>
     <r>
       <rPr>
@@ -2808,7 +2808,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>(hex);</t>
+      <t xml:space="preserve"> (1 - 256）;</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2824,13 +2824,13 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve"> (1 - 256）;</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>len</t>
+      <t xml:space="preserve"> (1 - 256）,</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">CSUM </t>
     </r>
     <r>
       <rPr>
@@ -2840,13 +2840,13 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve"> (1 - 256）,</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">CSUM </t>
+      <t>;</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>CRC16</t>
     </r>
     <r>
       <rPr>
@@ -2856,13 +2856,13 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>;</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>CRC16</t>
+      <t xml:space="preserve"> ;</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>CRC32</t>
     </r>
     <r>
       <rPr>
@@ -2878,7 +2878,7 @@
   </si>
   <si>
     <r>
-      <t>CRC32</t>
+      <t>POLY</t>
     </r>
     <r>
       <rPr>
@@ -2888,13 +2888,13 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve"> ;</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>POLY</t>
+      <t xml:space="preserve"> ,</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>INIT</t>
     </r>
     <r>
       <rPr>
@@ -2910,7 +2910,7 @@
   </si>
   <si>
     <r>
-      <t>INIT</t>
+      <t>CTRL</t>
     </r>
     <r>
       <rPr>
@@ -2926,7 +2926,7 @@
   </si>
   <si>
     <r>
-      <t>CTRL</t>
+      <t>XOROT</t>
     </r>
     <r>
       <rPr>
@@ -2942,7 +2942,7 @@
   </si>
   <si>
     <r>
-      <t>XOROT</t>
+      <t>val32</t>
     </r>
     <r>
       <rPr>
@@ -2952,13 +2952,13 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve"> ,</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>val32</t>
+      <t xml:space="preserve"> ;</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>len</t>
     </r>
     <r>
       <rPr>
@@ -2968,13 +2968,13 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve"> ;</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>len</t>
+      <t xml:space="preserve"> (1-32) } ,</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>mask32</t>
     </r>
     <r>
       <rPr>
@@ -2984,14 +2984,11 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve"> (1-32) } ,</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>mask32</t>
-    </r>
+      <t xml:space="preserve"> ;</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -3000,32 +2997,36 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve"> ;</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
+      <t xml:space="preserve"> { </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Microsoft YaHei Light"/>
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve"> { </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+      <t>offset9</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Microsoft YaHei Light"/>
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>offset9</t>
-    </r>
+      <t xml:space="preserve"> :</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TMP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -3034,36 +3035,32 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve"> :</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TMP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
+      <t xml:space="preserve">{ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Microsoft YaHei Light"/>
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">{ </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+      <t>offset5</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Microsoft YaHei Light"/>
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>offset5</t>
-    </r>
+      <t xml:space="preserve"> :</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -3072,31 +3069,209 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve"> :</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
+      <t xml:space="preserve">{ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Microsoft YaHei Light"/>
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">{ </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+      <t>src_off5</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Microsoft YaHei Light"/>
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>src_off5</t>
+      <t xml:space="preserve"> :</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ISR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>src_len</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (1-8) } ,</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">{ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>src_off9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> :</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">PHV { </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dst_off9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> :</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">dst_len </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(2-9) } ;</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>COND</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ;</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>POFF</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ;</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>PLEN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ;</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SETH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SETL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SET value to dest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">imm16 </t>
     </r>
     <r>
       <rPr>
@@ -3106,17 +3281,13 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve"> :</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ISR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>src_len</t>
+      <t>;</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0b000xxxxx</t>
     </r>
     <r>
       <rPr>
@@ -3127,11 +3298,14 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> (1-8) } ,</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
+      <t xml:space="preserve"> (x = 0/1) ,</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>TMP</t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -3141,11 +3315,16 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">{ </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+      <t xml:space="preserve"> ,</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>COND</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
@@ -3153,7 +3332,13 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>src_off9</t>
+      <t xml:space="preserve"> ,</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>POFF</t>
     </r>
     <r>
       <rPr>
@@ -3164,11 +3349,14 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> :</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
+      <t xml:space="preserve"> ,</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>PLEN</t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -3178,11 +3366,13 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">PHV { </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+      <t xml:space="preserve"> ,</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
@@ -3190,10 +3380,11 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>dst_off9</t>
-    </r>
-    <r>
-      <rPr>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
@@ -3201,13 +3392,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> :</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">dst_len </t>
+      <t xml:space="preserve"> offset9</t>
     </r>
     <r>
       <rPr>
@@ -3218,13 +3403,13 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>(2-9) } ;</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>COND</t>
+      <t xml:space="preserve"> :</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>SNDM</t>
     </r>
     <r>
       <rPr>
@@ -3241,7 +3426,7 @@
   </si>
   <si>
     <r>
-      <t>POFF</t>
+      <t>SNDMP</t>
     </r>
     <r>
       <rPr>
@@ -3258,7 +3443,7 @@
   </si>
   <si>
     <r>
-      <t>PLEN</t>
+      <t>SNDMM</t>
     </r>
     <r>
       <rPr>
@@ -3274,20 +3459,8 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SETH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SETL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SET value to dest</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">imm16 </t>
+    <r>
+      <t xml:space="preserve">0b000xxxxx </t>
     </r>
     <r>
       <rPr>
@@ -3297,14 +3470,32 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>;</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>0b000xxxxx</t>
-    </r>
+      <t>(x = 0/1)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -3314,16 +3505,11 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> (x = 0/1) ,</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>TMP</t>
-    </r>
-    <r>
-      <rPr>
+      <t xml:space="preserve">{ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
@@ -3331,13 +3517,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> ,</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>COND</t>
+      <t>offset9</t>
     </r>
     <r>
       <rPr>
@@ -3348,13 +3528,13 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> ,</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>POFF</t>
+      <t xml:space="preserve"> :</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>addr16</t>
     </r>
     <r>
       <rPr>
@@ -3365,14 +3545,15 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> ,</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>PLEN</t>
-    </r>
+      <t xml:space="preserve"> ;</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(source value in hex)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -3382,13 +3563,11 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> ,</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
+      <t>CNTR [</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
@@ -3396,11 +3575,10 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>{</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+      <t xml:space="preserve"> idx12</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
@@ -3408,8 +3586,11 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> offset9</t>
-    </r>
+      <t xml:space="preserve"> ] ,</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -3419,16 +3600,11 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> :</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>SNDM</t>
-    </r>
-    <r>
-      <rPr>
+      <t xml:space="preserve">&lt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
@@ -3436,13 +3612,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> ;</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>SNDMP</t>
+      <t xml:space="preserve">LCK </t>
     </r>
     <r>
       <rPr>
@@ -3453,16 +3623,11 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> ;</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>SNDMM</t>
-    </r>
-    <r>
-      <rPr>
+      <t xml:space="preserve">/ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
@@ -3470,13 +3635,332 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
+      <t xml:space="preserve">ULK </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt; ;</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LDC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    LoaD phv or temp register value to Counter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>imm8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (1-255) ,</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>pc16</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (signed) ;</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>pc16</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve"> ;</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">0b000xxxxx </t>
+      <t>pc16</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ,</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>pc16</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (signed) ,</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>alt_pc16</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ,</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>alt_pc16</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (signed) ,</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>CONDR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ;</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">PHV1 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PHV8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PHV16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PHV32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">[ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>offset12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ] ;</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> offset12_h9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ] ;</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> offset12_h8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ] ;</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> offset12_h7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ] ;</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>imm16</t>
     </r>
     <r>
       <rPr>
@@ -3486,497 +3970,43 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>(x = 0/1)</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+      <t xml:space="preserve"> ,</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(value in heximal or decimal)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COPY(L)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COPY 4 bytes of meta data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Microsoft YaHei Light"/>
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
+      <t xml:space="preserve">META [ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Microsoft YaHei Light"/>
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>,</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">{ </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>offset9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> :</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>addr16</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ;</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(source value in hex)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>CNTR [</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> idx12</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ] ,</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">&lt; </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">LCK </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">/ </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">ULK </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&gt; ;</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LDC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    LoaD phv or temp register value to Counter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>imm8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (1-255) ,</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>pc16</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (signed) ;</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>pc16</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ;</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>pc16</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ,</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>pc16</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (signed) ,</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>alt_pc16</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ,</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>alt_pc16</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (signed) ,</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>CONDR</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ;</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">PHV1 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PHV8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PHV16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PHV32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">[ </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>offset12</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ] ;</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> offset12_h9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ] ;</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> offset12_h8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ] ;</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> offset12_h7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ] ;</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>imm16</t>
+      <t xml:space="preserve">CALC_RSLT </t>
     </r>
     <r>
       <rPr>
@@ -3986,20 +4016,8 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve"> ,</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(value in heximal or decimal)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>COPY(L)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>COPY 4 bytes of meta data</t>
+      <t>] ,</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -4022,7 +4040,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">CALC_RSLT </t>
+      <t>SM_DATA0</t>
     </r>
     <r>
       <rPr>
@@ -4032,7 +4050,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>] ,</t>
+      <t xml:space="preserve"> ] ,</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4056,7 +4074,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>SM_DATA0</t>
+      <t>SM_DATA1</t>
     </r>
     <r>
       <rPr>
@@ -4090,7 +4108,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>SM_DATA1</t>
+      <t>SM_DATA2</t>
     </r>
     <r>
       <rPr>
@@ -4124,7 +4142,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>SM_DATA2</t>
+      <t>SM_DATA3</t>
     </r>
     <r>
       <rPr>
@@ -4158,7 +4176,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>SM_DATA3</t>
+      <t>SM_DATA4</t>
     </r>
     <r>
       <rPr>
@@ -4192,7 +4210,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>SM_DATA4</t>
+      <t>SM_DATA5</t>
     </r>
     <r>
       <rPr>
@@ -4226,7 +4244,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>SM_DATA5</t>
+      <t>SM_DATA6</t>
     </r>
     <r>
       <rPr>
@@ -4260,7 +4278,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>SM_DATA6</t>
+      <t>SM_DATA7</t>
     </r>
     <r>
       <rPr>
@@ -4283,7 +4301,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">META [ </t>
+      <t>&gt;&gt;</t>
     </r>
     <r>
       <rPr>
@@ -4294,7 +4312,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>SM_DATA7</t>
+      <t xml:space="preserve">val6 </t>
     </r>
     <r>
       <rPr>
@@ -4304,7 +4322,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve"> ] ,</t>
+      <t>(1-32),</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4338,11 +4356,14 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>(1-32),</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
+      <t>(1-32) ;</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>len</t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -4351,28 +4372,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>&gt;&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei Light"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">val6 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei Light"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>(1-32) ;</t>
+      <t xml:space="preserve"> (1-40) } ,</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4905,7 +4905,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A134" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C172" sqref="C172"/>
+      <selection pane="bottomLeft" activeCell="F162" sqref="F162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.2"/>
@@ -4952,7 +4952,7 @@
         <v>163</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>25</v>
@@ -4971,16 +4971,16 @@
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>202</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
@@ -4990,16 +4990,16 @@
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>262</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
@@ -5009,10 +5009,10 @@
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -5039,7 +5039,7 @@
         <v>164</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>26</v>
@@ -5066,25 +5066,25 @@
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>202</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -5093,44 +5093,44 @@
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>262</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -5138,69 +5138,69 @@
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B12" s="2"/>
       <c r="C12" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>202</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>262</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
@@ -5249,22 +5249,22 @@
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>202</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I17" s="2"/>
     </row>
@@ -5272,22 +5272,22 @@
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>262</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="I18" s="2"/>
     </row>
@@ -5295,16 +5295,16 @@
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
@@ -5314,22 +5314,22 @@
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>202</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I20" s="2"/>
     </row>
@@ -5337,22 +5337,22 @@
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>262</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="I21" s="2"/>
     </row>
@@ -5360,16 +5360,16 @@
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
@@ -5421,22 +5421,22 @@
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>202</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I25" s="2"/>
     </row>
@@ -5444,22 +5444,22 @@
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>262</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="I26" s="2"/>
     </row>
@@ -5467,16 +5467,16 @@
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
@@ -5486,22 +5486,22 @@
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>202</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I28" s="2"/>
     </row>
@@ -5509,22 +5509,22 @@
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>262</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="I29" s="2"/>
     </row>
@@ -5532,16 +5532,16 @@
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
@@ -5605,67 +5605,67 @@
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
       <c r="C34" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>202</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="2"/>
       <c r="C35" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>262</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="2"/>
       <c r="C36" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
@@ -5673,67 +5673,67 @@
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
       <c r="C37" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>202</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
       <c r="C38" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>262</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
       <c r="C39" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
@@ -5741,67 +5741,67 @@
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="2"/>
       <c r="C40" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E40" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="F40" s="2" t="s">
         <v>301</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>302</v>
       </c>
       <c r="G40" s="2" t="s">
         <v>202</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="2"/>
       <c r="C41" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E41" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="F41" s="2" t="s">
         <v>301</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>302</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>262</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="2"/>
       <c r="C42" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E42" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="F42" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="F42" s="2" t="s">
-        <v>302</v>
-      </c>
       <c r="G42" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
@@ -5809,67 +5809,67 @@
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="2"/>
       <c r="C43" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E43" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="F43" s="2" t="s">
         <v>301</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>302</v>
       </c>
       <c r="G43" s="2" t="s">
         <v>202</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
       <c r="C44" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E44" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="F44" s="2" t="s">
         <v>301</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>302</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>262</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
       <c r="C45" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E45" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="F45" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="F45" s="2" t="s">
-        <v>302</v>
-      </c>
       <c r="G45" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
@@ -5889,10 +5889,10 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>23</v>
@@ -5916,16 +5916,16 @@
       </c>
       <c r="B48" s="2"/>
       <c r="C48" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>202</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
@@ -5935,16 +5935,16 @@
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>262</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G49" s="2"/>
       <c r="H49" s="2"/>
@@ -5954,10 +5954,10 @@
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
@@ -5969,16 +5969,16 @@
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>202</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
@@ -5988,16 +5988,16 @@
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>262</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G52" s="2"/>
       <c r="H52" s="2"/>
@@ -6007,10 +6007,10 @@
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
@@ -6022,16 +6022,16 @@
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>202</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G54" s="2"/>
       <c r="H54" s="2"/>
@@ -6041,16 +6041,16 @@
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>262</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G55" s="2"/>
       <c r="H55" s="2"/>
@@ -6060,10 +6060,10 @@
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
@@ -6075,16 +6075,16 @@
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>202</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G57" s="2"/>
       <c r="H57" s="2"/>
@@ -6094,16 +6094,16 @@
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>262</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G58" s="2"/>
       <c r="H58" s="2"/>
@@ -6113,10 +6113,10 @@
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
@@ -6128,16 +6128,16 @@
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>202</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G60" s="2"/>
       <c r="H60" s="2"/>
@@ -6147,16 +6147,16 @@
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>262</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G61" s="2"/>
       <c r="H61" s="2"/>
@@ -6166,10 +6166,10 @@
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
@@ -6181,16 +6181,16 @@
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>202</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G63" s="2"/>
       <c r="H63" s="2"/>
@@ -6200,16 +6200,16 @@
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>262</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G64" s="2"/>
       <c r="H64" s="2"/>
@@ -6219,10 +6219,10 @@
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
@@ -6234,16 +6234,16 @@
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>202</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G66" s="2"/>
       <c r="H66" s="2"/>
@@ -6253,16 +6253,16 @@
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>262</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G67" s="2"/>
       <c r="H67" s="2"/>
@@ -6272,10 +6272,10 @@
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
@@ -6287,16 +6287,16 @@
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>202</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G69" s="2"/>
       <c r="H69" s="2"/>
@@ -6306,16 +6306,16 @@
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>262</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G70" s="2"/>
       <c r="H70" s="2"/>
@@ -6325,10 +6325,10 @@
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
@@ -6340,16 +6340,16 @@
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>202</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G72" s="2"/>
       <c r="H72" s="2"/>
@@ -6359,16 +6359,16 @@
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>262</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G73" s="2"/>
       <c r="H73" s="2"/>
@@ -6378,10 +6378,10 @@
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" s="2"/>
@@ -6434,10 +6434,10 @@
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="D78" s="2" t="s">
         <v>303</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>304</v>
       </c>
       <c r="E78" s="2"/>
       <c r="G78" s="2"/>
@@ -6448,13 +6448,13 @@
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="D79" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="D79" s="2" t="s">
+      <c r="E79" s="2" t="s">
         <v>304</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>305</v>
       </c>
       <c r="G79" s="2"/>
       <c r="H79" s="2"/>
@@ -6479,10 +6479,10 @@
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="D81" s="2" t="s">
         <v>303</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>304</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" s="2"/>
@@ -6494,13 +6494,13 @@
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="D82" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="D82" s="2" t="s">
+      <c r="E82" s="2" t="s">
         <v>304</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>305</v>
       </c>
       <c r="F82" s="2"/>
       <c r="G82" s="2"/>
@@ -6561,7 +6561,7 @@
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" s="2"/>
@@ -6624,7 +6624,7 @@
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" s="2"/>
@@ -6709,7 +6709,7 @@
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D98" s="2"/>
       <c r="F98" s="2"/>
@@ -6721,10 +6721,10 @@
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="D99" s="2" t="s">
         <v>308</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>309</v>
       </c>
       <c r="F99" s="2"/>
       <c r="G99" s="2"/>
@@ -6735,10 +6735,10 @@
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F100" s="2"/>
       <c r="G100" s="2"/>
@@ -6749,10 +6749,10 @@
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F101" s="2"/>
       <c r="G101" s="2"/>
@@ -6775,7 +6775,7 @@
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="D103" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F103" s="2"/>
       <c r="G103" s="2"/>
@@ -6786,7 +6786,7 @@
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="D104" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F104" s="2"/>
       <c r="G104" s="2"/>
@@ -6797,7 +6797,7 @@
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="D105" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F105" s="2"/>
       <c r="G105" s="2"/>
@@ -6842,10 +6842,10 @@
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F108" s="2"/>
       <c r="G108" s="2"/>
@@ -6856,10 +6856,10 @@
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F109" s="2"/>
       <c r="G109" s="2"/>
@@ -6870,13 +6870,13 @@
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F110" s="2"/>
       <c r="G110" s="2"/>
@@ -6887,10 +6887,10 @@
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="E111" s="2" t="s">
         <v>315</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>316</v>
       </c>
       <c r="F111" s="2"/>
       <c r="G111" s="2"/>
@@ -6974,13 +6974,13 @@
         <v>262</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E116" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="F116" s="2" t="s">
         <v>317</v>
-      </c>
-      <c r="F116" s="2" t="s">
-        <v>318</v>
       </c>
       <c r="G116" s="2"/>
       <c r="H116" s="2"/>
@@ -6990,16 +6990,16 @@
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="D117" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="D117" s="2" t="s">
-        <v>321</v>
-      </c>
       <c r="E117" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="F117" s="2" t="s">
         <v>317</v>
-      </c>
-      <c r="F117" s="2" t="s">
-        <v>318</v>
       </c>
       <c r="G117" s="2"/>
       <c r="H117" s="2"/>
@@ -7082,13 +7082,13 @@
         <v>262</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E122" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="F122" s="2" t="s">
         <v>317</v>
-      </c>
-      <c r="F122" s="2" t="s">
-        <v>318</v>
       </c>
       <c r="G122" s="2"/>
       <c r="H122" s="2"/>
@@ -7098,16 +7098,16 @@
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="D123" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="D123" s="2" t="s">
-        <v>321</v>
-      </c>
       <c r="E123" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="F123" s="2" t="s">
         <v>317</v>
-      </c>
-      <c r="F123" s="2" t="s">
-        <v>318</v>
       </c>
       <c r="G123" s="2"/>
       <c r="H123" s="2"/>
@@ -7184,13 +7184,13 @@
         <v>262</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E128" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="F128" s="2" t="s">
         <v>317</v>
-      </c>
-      <c r="F128" s="2" t="s">
-        <v>318</v>
       </c>
       <c r="G128" s="2"/>
       <c r="H128" s="2"/>
@@ -7200,16 +7200,16 @@
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="D129" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="D129" s="2" t="s">
-        <v>321</v>
-      </c>
       <c r="E129" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="F129" s="2" t="s">
         <v>317</v>
-      </c>
-      <c r="F129" s="2" t="s">
-        <v>318</v>
       </c>
       <c r="G129" s="2"/>
       <c r="H129" s="2"/>
@@ -7599,19 +7599,19 @@
         <v>293</v>
       </c>
       <c r="D157" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="E157" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="E157" s="2" t="s">
+      <c r="F157" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="G157" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="H157" s="14" t="s">
         <v>295</v>
-      </c>
-      <c r="F157" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="G157" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="H157" s="14" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.2">
@@ -7619,31 +7619,31 @@
         <v>293</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>294</v>
+        <v>382</v>
       </c>
       <c r="E158" s="2"/>
       <c r="F158" s="2"/>
       <c r="G158" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H158" s="14" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C159" s="2"/>
       <c r="D159" s="2"/>
       <c r="E159" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="F159" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="G159" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="H159" s="14" t="s">
         <v>295</v>
-      </c>
-      <c r="F159" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="G159" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="H159" s="14" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.2">
@@ -7652,10 +7652,10 @@
       <c r="E160" s="2"/>
       <c r="F160" s="2"/>
       <c r="G160" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H160" s="14" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.2">
@@ -7663,27 +7663,27 @@
         <v>293</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>294</v>
+        <v>382</v>
       </c>
       <c r="E161" s="2"/>
       <c r="F161" s="2"/>
       <c r="G161" s="2"/>
       <c r="H161" s="14" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C162" s="2"/>
       <c r="D162" s="2"/>
       <c r="E162" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>294</v>
+        <v>382</v>
       </c>
       <c r="G162" s="2"/>
       <c r="H162" s="14" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.2">
@@ -7693,7 +7693,7 @@
       <c r="F163" s="2"/>
       <c r="G163" s="2"/>
       <c r="H163" s="14" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="164" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -7727,7 +7727,7 @@
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C167" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.2">
@@ -7766,7 +7766,7 @@
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C172" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.2">
@@ -7839,7 +7839,7 @@
         <v>100</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -7847,7 +7847,7 @@
         <v>99</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -7855,7 +7855,7 @@
         <v>277</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C6" s="4"/>
     </row>
@@ -8045,7 +8045,7 @@
         <v>202</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>282</v>
@@ -8059,7 +8059,7 @@
         <v>203</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>282</v>
@@ -8073,7 +8073,7 @@
         <v>204</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>282</v>
@@ -8087,7 +8087,7 @@
         <v>202</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>282</v>
@@ -8101,7 +8101,7 @@
         <v>203</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>282</v>
@@ -8115,7 +8115,7 @@
         <v>204</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>282</v>
@@ -8129,7 +8129,7 @@
         <v>202</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>282</v>
@@ -8143,7 +8143,7 @@
         <v>203</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>282</v>
@@ -8157,7 +8157,7 @@
         <v>204</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>282</v>
@@ -8171,7 +8171,7 @@
         <v>202</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>285</v>
@@ -8185,7 +8185,7 @@
         <v>203</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>285</v>
@@ -8199,7 +8199,7 @@
         <v>204</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>285</v>
@@ -8213,7 +8213,7 @@
         <v>202</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>216</v>
@@ -8227,7 +8227,7 @@
         <v>203</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>216</v>
@@ -8241,7 +8241,7 @@
         <v>204</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E38" s="5" t="s">
         <v>216</v>
@@ -8255,7 +8255,7 @@
         <v>202</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E39" s="5" t="s">
         <v>216</v>
@@ -8269,7 +8269,7 @@
         <v>203</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E40" s="5" t="s">
         <v>216</v>
@@ -8283,7 +8283,7 @@
         <v>204</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E41" s="5" t="s">
         <v>216</v>
@@ -8297,7 +8297,7 @@
         <v>202</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E42" s="5" t="s">
         <v>216</v>
@@ -8311,7 +8311,7 @@
         <v>203</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E43" s="5" t="s">
         <v>216</v>
@@ -8325,7 +8325,7 @@
         <v>204</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E44" s="5" t="s">
         <v>216</v>
@@ -8339,7 +8339,7 @@
         <v>202</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E45" s="5" t="s">
         <v>213</v>
@@ -8353,7 +8353,7 @@
         <v>203</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E46" s="5" t="s">
         <v>213</v>
@@ -8367,7 +8367,7 @@
         <v>204</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E47" s="5" t="s">
         <v>213</v>
@@ -8726,7 +8726,7 @@
     </row>
     <row r="79" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -8734,94 +8734,94 @@
         <v>102</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>57</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="C86" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="89" spans="1:5" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -8837,86 +8837,86 @@
         <v>101</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>89</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="C94" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="C95" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="C96" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="97" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="C97" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="98" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="C98" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="99" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -8961,16 +8961,16 @@
         <v>202</v>
       </c>
       <c r="E101" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="F101" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="G101" s="4" t="s">
         <v>325</v>
       </c>
-      <c r="F101" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="G101" s="4" t="s">
+      <c r="H101" s="4" t="s">
         <v>326</v>
-      </c>
-      <c r="H101" s="4" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="102" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
@@ -8978,7 +8978,7 @@
         <v>207</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="103" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
@@ -8986,7 +8986,7 @@
         <v>207</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
@@ -8994,7 +8994,7 @@
         <v>207</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="105" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -9017,16 +9017,16 @@
         <v>202</v>
       </c>
       <c r="E107" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="F107" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="G107" s="4" t="s">
         <v>325</v>
       </c>
-      <c r="F107" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="G107" s="4" t="s">
+      <c r="H107" s="4" t="s">
         <v>326</v>
-      </c>
-      <c r="H107" s="4" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="108" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
@@ -9034,7 +9034,7 @@
         <v>207</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="109" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
@@ -9042,7 +9042,7 @@
         <v>207</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="110" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
@@ -9050,7 +9050,7 @@
         <v>207</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="111" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -9238,7 +9238,7 @@
         <v>202</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E133" s="4" t="s">
         <v>257</v>
@@ -9249,7 +9249,7 @@
         <v>203</v>
       </c>
       <c r="D134" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E134" s="4" t="s">
         <v>257</v>
@@ -9260,7 +9260,7 @@
         <v>204</v>
       </c>
       <c r="D135" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E135" s="4" t="s">
         <v>257</v>
@@ -9272,7 +9272,7 @@
         <v>202</v>
       </c>
       <c r="D136" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E136" s="5" t="s">
         <v>215</v>
@@ -9284,7 +9284,7 @@
         <v>203</v>
       </c>
       <c r="D137" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E137" s="5" t="s">
         <v>215</v>
@@ -9296,7 +9296,7 @@
         <v>204</v>
       </c>
       <c r="D138" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E138" s="5" t="s">
         <v>215</v>
@@ -9636,41 +9636,41 @@
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C175" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D175" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E175" s="4" t="s">
         <v>273</v>
       </c>
       <c r="F175" s="4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G175" s="4"/>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D176" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E176" s="4" t="s">
         <v>273</v>
       </c>
       <c r="F176" s="4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G176" s="4"/>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C177" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D177" s="4"/>
       <c r="E177" s="4" t="s">
         <v>273</v>
       </c>
       <c r="F177" s="4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G177" s="4"/>
     </row>
@@ -9681,27 +9681,27 @@
         <v>273</v>
       </c>
       <c r="F178" s="4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G178" s="4"/>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A179" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C180" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D180" s="4" t="s">
         <v>273</v>
       </c>
       <c r="F180" s="4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G180" s="4"/>
     </row>
@@ -9710,7 +9710,7 @@
         <v>273</v>
       </c>
       <c r="F181" s="4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G181" s="4"/>
     </row>
@@ -9718,13 +9718,13 @@
       <c r="A182" s="4"/>
       <c r="B182" s="4"/>
       <c r="C182" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D182" s="5" t="s">
         <v>207</v>
       </c>
       <c r="F182" s="4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.2">
@@ -9732,7 +9732,7 @@
         <v>207</v>
       </c>
       <c r="F183" s="4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G183" s="4"/>
     </row>
@@ -9854,7 +9854,7 @@
         <v>104</v>
       </c>
       <c r="C193" s="4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.2">
@@ -9916,7 +9916,7 @@
     <row r="201" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A201" s="4"/>
       <c r="C201" s="4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.2">
@@ -9930,7 +9930,7 @@
     <row r="203" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A203" s="4"/>
       <c r="C203" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.2">
@@ -9946,13 +9946,13 @@
         <v>127</v>
       </c>
       <c r="C205" s="4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D205" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E205" s="4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.2">
@@ -9960,58 +9960,58 @@
         <v>122</v>
       </c>
       <c r="C206" s="4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D206" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E206" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F206" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C207" s="4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D207" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E207" s="4" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F207" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C208" s="4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D208" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E208" s="4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F208" s="4" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C209" s="4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D209" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E209" s="4" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F209" s="4" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.2">
@@ -10027,13 +10027,13 @@
         <v>127</v>
       </c>
       <c r="C211" s="4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D211" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E211" s="4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.2">
@@ -10041,58 +10041,58 @@
         <v>123</v>
       </c>
       <c r="C212" s="4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D212" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E212" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F212" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C213" s="4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D213" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E213" s="4" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F213" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C214" s="4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D214" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E214" s="4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F214" s="4" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C215" s="4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D215" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E215" s="4" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F215" s="4" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.2">
@@ -10108,13 +10108,13 @@
         <v>126</v>
       </c>
       <c r="C217" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D217" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="E217" s="4" t="s">
         <v>358</v>
-      </c>
-      <c r="E217" s="4" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.2">
@@ -10122,58 +10122,58 @@
         <v>124</v>
       </c>
       <c r="C218" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D218" s="4" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E218" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F218" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C219" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D219" s="4" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E219" s="4" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F219" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C220" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D220" s="4" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E220" s="4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F220" s="4" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C221" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D221" s="4" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E221" s="4" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F221" s="4" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.2">
@@ -10189,13 +10189,13 @@
         <v>126</v>
       </c>
       <c r="C223" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D223" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="E223" s="4" t="s">
         <v>358</v>
-      </c>
-      <c r="E223" s="4" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.2">
@@ -10203,58 +10203,58 @@
         <v>125</v>
       </c>
       <c r="C224" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D224" s="4" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E224" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F224" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C225" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D225" s="4" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E225" s="4" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F225" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C226" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D226" s="4" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E226" s="4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F226" s="4" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C227" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D227" s="4" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E227" s="4" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F227" s="4" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="228" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.2">

--- a/P4E_psuedo_instruction_set.xlsx
+++ b/P4E_psuedo_instruction_set.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\P4EngineAssembler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E7D1ED2-4BC6-4349-86CA-4AD069455BCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{724416F4-9769-467A-9D69-2B38FE560BBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-3645" windowWidth="38640" windowHeight="21840" xr2:uid="{87164962-7B7D-4BAA-98E0-B9A8D7C47112}"/>
+    <workbookView xWindow="-24585" yWindow="4905" windowWidth="24630" windowHeight="12825" activeTab="1" xr2:uid="{87164962-7B7D-4BAA-98E0-B9A8D7C47112}"/>
   </bookViews>
   <sheets>
     <sheet name="parser" sheetId="1" r:id="rId1"/>
-    <sheet name="deparser" sheetId="2" r:id="rId2"/>
+    <sheet name="mat" sheetId="3" r:id="rId2"/>
+    <sheet name="deparser" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -661,6 +662,328 @@
     <author>Dianchao Wang</author>
   </authors>
   <commentList>
+    <comment ref="D6" authorId="0" shapeId="0" xr:uid="{FD23ABF1-9BA5-43EC-BD51-CD1D2C4163A7}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Dianchao Wang:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+boardered at nibble</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E6" authorId="0" shapeId="0" xr:uid="{A072DAF5-C9B0-4947-8A4B-34DF2F362652}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Dianchao Wang:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+in nibble</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D9" authorId="0" shapeId="0" xr:uid="{48435A18-75AC-4A01-BDFA-9D53E3A996D4}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Dianchao Wang:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+boardered at nibble</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E9" authorId="0" shapeId="0" xr:uid="{E2857198-AF24-4C1C-9596-AE516EE637EB}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Dianchao Wang:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+in nibble</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D11" authorId="0" shapeId="0" xr:uid="{EA2363D6-F85A-42E6-8FFE-DA4AE48A21CC}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Dianchao Wang:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+boardered at nibble</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E11" authorId="0" shapeId="0" xr:uid="{F76CD282-689D-4F21-86A6-ED532F7CD372}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Dianchao Wang:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+in nibble</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D12" authorId="0" shapeId="0" xr:uid="{185784FC-5D96-46AC-A768-2C895E7CF7F2}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Dianchao Wang:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+boardered at nibble</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E12" authorId="0" shapeId="0" xr:uid="{B826A159-F267-4848-98F5-AD093A73E5CD}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Dianchao Wang:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+in nibble</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D16" authorId="0" shapeId="0" xr:uid="{ACD05614-D653-4576-AD66-24BC8BB78B46}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Dianchao Wang:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+boardered at nibble</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D18" authorId="0" shapeId="0" xr:uid="{2D208463-E52D-44A0-82FB-FCF7F6E0CF94}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Dianchao Wang:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+boardered at nibble</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D55" authorId="0" shapeId="0" xr:uid="{39D8881B-BC18-434C-A8F7-A45AD42A5267}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Dianchao Wang:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+boardered at nibble</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D57" authorId="0" shapeId="0" xr:uid="{AD6B4964-80AF-492C-A8E5-94AAAA6F6F5F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Dianchao Wang:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+boardered at nibble</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Dianchao Wang</author>
+  </authors>
+  <commentList>
     <comment ref="B74" authorId="0" shapeId="0" xr:uid="{04167267-17E0-4DF6-B54E-8EB3AC806BAB}">
       <text>
         <r>
@@ -822,7 +1145,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1187" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1398" uniqueCount="454">
   <si>
     <t>isr SHiFT</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4374,6 +4697,935 @@
       </rPr>
       <t xml:space="preserve"> (1-40) } ,</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MDF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0b'00001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(length in byte)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(selection)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">{ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>off9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> :</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    to be replaced by immediate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">len </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(1-8) } ,</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>imm32</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> ;</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    or by AD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    or modify metadata with mask</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(bit mask)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>mask16</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> ;</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">len </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(1-4) } ,</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">AD [ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>idx6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ] ;</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    the immediate or AD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0b'00010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COPY data between PHV &lt;---&gt; PHV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    or META &lt;---&gt; META</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    or PHV &lt;---&gt; META</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    or META &lt;---&gt; PHV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(value to use)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">[ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>off9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> ] ;</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">len </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(1-16) } ,</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0b'00011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Read Stateful Memory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>line_offset2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> ;</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">PHV [ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>off9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> ] ,</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>base_addr_h36</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> ,</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">AD { </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">index </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Write Stateful Memory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>META { STM_ADDR :</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>( destination )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> ( source )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>left_shift3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> } ,</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0b'00100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COUNT packet &amp; byte</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COUNT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>counter_id24</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> ;</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">AD [ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>index</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> ] ;</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Meter packet &amp; byte</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>METER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">META [ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>offset9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ] ;</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>meter_id11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> ,</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">AD [ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>index</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> ] ,</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0b'00101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0b'00110</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOCK / UnLoCK access to public resource</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOCK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ULCK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>flow_id24</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ;</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>AD [</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> index</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ] ;</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MDFL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">PHV { </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>offset9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> :</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>len</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (1-16) } ,</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>imm32</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ;</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">AD [ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>idx6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ] ;</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ADDR [ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>imm10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ] ;</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0b'10100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0b'10101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dst_off9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ] ;</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>src_off9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ] ,</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>src1_off9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ] ,</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>src2_off9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ] ,</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(length in 8b / 4b)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0b'10110</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COPYL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0b'10111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RSM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WSM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RSML</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WSML</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4503,7 +5755,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4561,11 +5813,17 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4903,9 +6161,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA14F7B7-5F50-4FFB-AE20-84853F321386}">
   <dimension ref="A1:I173"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A134" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F162" sqref="F162"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.2"/>
@@ -4929,15 +6187,15 @@
       <c r="B1" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
     </row>
     <row r="2" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B2" s="13" t="s">
@@ -4945,7 +6203,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -4968,7 +6226,6 @@
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
         <v>296</v>
@@ -4987,7 +6244,6 @@
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
         <v>296</v>
@@ -5006,7 +6262,6 @@
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
         <v>296</v>
@@ -5021,7 +6276,6 @@
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -5032,7 +6286,7 @@
       <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>81</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -5061,7 +6315,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="1" t="s">
         <v>82</v>
       </c>
       <c r="B9" s="2"/>
@@ -5088,7 +6342,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="1" t="s">
         <v>83</v>
       </c>
       <c r="B10" s="2"/>
@@ -5115,7 +6369,6 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2" t="s">
         <v>296</v>
@@ -5160,7 +6413,6 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2" t="s">
         <v>296</v>
@@ -5185,7 +6437,6 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2" t="s">
         <v>296</v>
@@ -5206,7 +6457,6 @@
       <c r="I14" s="2"/>
     </row>
     <row r="15" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="8"/>
       <c r="B15" s="13" t="s">
         <v>134</v>
       </c>
@@ -5219,7 +6469,7 @@
       <c r="I15" s="8"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="1" t="s">
         <v>80</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -5246,7 +6496,6 @@
       <c r="I16" s="2"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2" t="s">
         <v>322</v>
@@ -5269,7 +6518,6 @@
       <c r="I17" s="2"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2" t="s">
         <v>322</v>
@@ -5292,7 +6540,6 @@
       <c r="I18" s="2"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2" t="s">
         <v>322</v>
@@ -5311,7 +6558,6 @@
       <c r="I19" s="2"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2" t="s">
         <v>319</v>
@@ -5334,7 +6580,6 @@
       <c r="I20" s="2"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2" t="s">
         <v>319</v>
@@ -5357,7 +6602,6 @@
       <c r="I21" s="2"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2" t="s">
         <v>319</v>
@@ -5376,7 +6620,6 @@
       <c r="I22" s="2"/>
     </row>
     <row r="23" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="8"/>
       <c r="B23" s="13" t="s">
         <v>133</v>
       </c>
@@ -5389,7 +6632,7 @@
       <c r="I23" s="8"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="1" t="s">
         <v>78</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -5416,7 +6659,7 @@
       <c r="I24" s="2"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="1" t="s">
         <v>79</v>
       </c>
       <c r="B25" s="2"/>
@@ -5441,7 +6684,6 @@
       <c r="I25" s="2"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2" t="s">
         <v>322</v>
@@ -5464,7 +6706,6 @@
       <c r="I26" s="2"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2" t="s">
         <v>322</v>
@@ -5483,7 +6724,6 @@
       <c r="I27" s="2"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2" t="s">
         <v>319</v>
@@ -5506,7 +6746,6 @@
       <c r="I28" s="2"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2" t="s">
         <v>319</v>
@@ -5529,7 +6768,6 @@
       <c r="I29" s="2"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2" t="s">
         <v>319</v>
@@ -5548,7 +6786,6 @@
       <c r="I30" s="2"/>
     </row>
     <row r="31" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="8"/>
       <c r="B31" s="13" t="s">
         <v>136</v>
       </c>
@@ -5561,7 +6798,7 @@
       <c r="I31" s="8"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="1" t="s">
         <v>84</v>
       </c>
       <c r="B32" s="2" t="s">
@@ -5576,7 +6813,6 @@
       <c r="I32" s="2"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="2"/>
       <c r="B33" s="2" t="s">
         <v>168</v>
       </c>
@@ -5603,7 +6839,6 @@
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="2"/>
       <c r="C34" s="2" t="s">
         <v>322</v>
       </c>
@@ -5627,7 +6862,6 @@
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35" s="2"/>
       <c r="C35" s="2" t="s">
         <v>322</v>
       </c>
@@ -5651,7 +6885,6 @@
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36" s="2"/>
       <c r="C36" s="2" t="s">
         <v>322</v>
       </c>
@@ -5671,7 +6904,6 @@
       <c r="I36" s="2"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A37" s="2"/>
       <c r="C37" s="2" t="s">
         <v>319</v>
       </c>
@@ -5695,7 +6927,6 @@
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38" s="2"/>
       <c r="C38" s="2" t="s">
         <v>319</v>
       </c>
@@ -5719,7 +6950,6 @@
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A39" s="2"/>
       <c r="C39" s="2" t="s">
         <v>319</v>
       </c>
@@ -5739,7 +6969,6 @@
       <c r="I39" s="2"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A40" s="2"/>
       <c r="C40" s="2" t="s">
         <v>322</v>
       </c>
@@ -5763,7 +6992,6 @@
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A41" s="2"/>
       <c r="C41" s="2" t="s">
         <v>322</v>
       </c>
@@ -5787,7 +7015,6 @@
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A42" s="2"/>
       <c r="C42" s="2" t="s">
         <v>322</v>
       </c>
@@ -5807,7 +7034,6 @@
       <c r="I42" s="2"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A43" s="2"/>
       <c r="C43" s="2" t="s">
         <v>319</v>
       </c>
@@ -5831,7 +7057,6 @@
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A44" s="2"/>
       <c r="C44" s="2" t="s">
         <v>319</v>
       </c>
@@ -5855,7 +7080,6 @@
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A45" s="2"/>
       <c r="C45" s="2" t="s">
         <v>319</v>
       </c>
@@ -5875,7 +7099,6 @@
       <c r="I45" s="2"/>
     </row>
     <row r="46" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="8"/>
       <c r="B46" s="13" t="s">
         <v>135</v>
       </c>
@@ -5888,7 +7111,7 @@
       <c r="I46" s="8"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A47" s="2" t="s">
+      <c r="A47" s="1" t="s">
         <v>370</v>
       </c>
       <c r="B47" s="2" t="s">
@@ -5911,7 +7134,7 @@
       <c r="I47" s="2"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A48" s="2" t="s">
+      <c r="A48" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B48" s="2"/>
@@ -5931,8 +7154,7 @@
       <c r="H48" s="2"/>
       <c r="I48" s="2"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A49" s="2"/>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B49" s="2"/>
       <c r="C49" s="2" t="s">
         <v>371</v>
@@ -5950,8 +7172,7 @@
       <c r="H49" s="2"/>
       <c r="I49" s="2"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A50" s="2"/>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B50" s="2"/>
       <c r="C50" s="2" t="s">
         <v>371</v>
@@ -5965,8 +7186,7 @@
       <c r="H50" s="2"/>
       <c r="I50" s="2"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A51" s="2"/>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B51" s="2"/>
       <c r="C51" s="2" t="s">
         <v>372</v>
@@ -5984,8 +7204,7 @@
       <c r="H51" s="2"/>
       <c r="I51" s="2"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A52" s="2"/>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B52" s="2"/>
       <c r="C52" s="2" t="s">
         <v>372</v>
@@ -6003,8 +7222,7 @@
       <c r="H52" s="2"/>
       <c r="I52" s="2"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A53" s="2"/>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B53" s="2"/>
       <c r="C53" s="2" t="s">
         <v>372</v>
@@ -6018,8 +7236,7 @@
       <c r="H53" s="2"/>
       <c r="I53" s="2"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A54" s="2"/>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B54" s="2"/>
       <c r="C54" s="2" t="s">
         <v>373</v>
@@ -6037,8 +7254,7 @@
       <c r="H54" s="2"/>
       <c r="I54" s="2"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A55" s="2"/>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B55" s="2"/>
       <c r="C55" s="2" t="s">
         <v>373</v>
@@ -6056,8 +7272,7 @@
       <c r="H55" s="2"/>
       <c r="I55" s="2"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A56" s="2"/>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B56" s="2"/>
       <c r="C56" s="2" t="s">
         <v>373</v>
@@ -6071,8 +7286,7 @@
       <c r="H56" s="2"/>
       <c r="I56" s="2"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A57" s="2"/>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B57" s="2"/>
       <c r="C57" s="2" t="s">
         <v>374</v>
@@ -6090,8 +7304,7 @@
       <c r="H57" s="2"/>
       <c r="I57" s="2"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A58" s="2"/>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B58" s="2"/>
       <c r="C58" s="2" t="s">
         <v>374</v>
@@ -6109,8 +7322,7 @@
       <c r="H58" s="2"/>
       <c r="I58" s="2"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A59" s="2"/>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B59" s="2"/>
       <c r="C59" s="2" t="s">
         <v>374</v>
@@ -6124,8 +7336,7 @@
       <c r="H59" s="2"/>
       <c r="I59" s="2"/>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A60" s="2"/>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B60" s="2"/>
       <c r="C60" s="2" t="s">
         <v>375</v>
@@ -6143,8 +7354,7 @@
       <c r="H60" s="2"/>
       <c r="I60" s="2"/>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A61" s="2"/>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B61" s="2"/>
       <c r="C61" s="2" t="s">
         <v>375</v>
@@ -6162,8 +7372,7 @@
       <c r="H61" s="2"/>
       <c r="I61" s="2"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A62" s="2"/>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B62" s="2"/>
       <c r="C62" s="2" t="s">
         <v>375</v>
@@ -6177,8 +7386,7 @@
       <c r="H62" s="2"/>
       <c r="I62" s="2"/>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A63" s="2"/>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B63" s="2"/>
       <c r="C63" s="2" t="s">
         <v>376</v>
@@ -6196,8 +7404,7 @@
       <c r="H63" s="2"/>
       <c r="I63" s="2"/>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A64" s="2"/>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B64" s="2"/>
       <c r="C64" s="2" t="s">
         <v>376</v>
@@ -6216,7 +7423,6 @@
       <c r="I64" s="2"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2" t="s">
         <v>376</v>
@@ -6231,7 +7437,6 @@
       <c r="I65" s="2"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2" t="s">
         <v>377</v>
@@ -6250,7 +7455,6 @@
       <c r="I66" s="2"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2" t="s">
         <v>377</v>
@@ -6269,7 +7473,6 @@
       <c r="I67" s="2"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2" t="s">
         <v>377</v>
@@ -6284,7 +7487,6 @@
       <c r="I68" s="2"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2" t="s">
         <v>378</v>
@@ -6303,7 +7505,6 @@
       <c r="I69" s="2"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2" t="s">
         <v>378</v>
@@ -6322,7 +7523,6 @@
       <c r="I70" s="2"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2" t="s">
         <v>378</v>
@@ -6337,7 +7537,6 @@
       <c r="I71" s="2"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2" t="s">
         <v>379</v>
@@ -6356,7 +7555,6 @@
       <c r="I72" s="2"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2" t="s">
         <v>379</v>
@@ -6375,7 +7573,6 @@
       <c r="I73" s="2"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2" t="s">
         <v>379</v>
@@ -6390,7 +7587,6 @@
       <c r="I74" s="2"/>
     </row>
     <row r="75" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="8"/>
       <c r="B75" s="13" t="s">
         <v>137</v>
       </c>
@@ -6403,7 +7599,7 @@
       <c r="I75" s="8"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A76" s="2" t="s">
+      <c r="A76" s="1" t="s">
         <v>86</v>
       </c>
       <c r="G76" s="2"/>
@@ -6411,7 +7607,7 @@
       <c r="I76" s="2"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A77" s="2" t="s">
+      <c r="A77" s="1" t="s">
         <v>98</v>
       </c>
       <c r="B77" s="2" t="s">
@@ -6431,7 +7627,6 @@
       <c r="I77" s="2"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2" t="s">
         <v>302</v>
@@ -6445,7 +7640,6 @@
       <c r="I78" s="2"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2" t="s">
         <v>302</v>
@@ -6461,7 +7655,7 @@
       <c r="I79" s="2"/>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A80" s="2" t="s">
+      <c r="A80" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B80" s="2" t="s">
@@ -6476,7 +7670,6 @@
       <c r="I80" s="2"/>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2" t="s">
         <v>302</v>
@@ -6491,7 +7684,6 @@
       <c r="I81" s="2"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2" t="s">
         <v>302</v>
@@ -6508,7 +7700,6 @@
       <c r="I82" s="2"/>
     </row>
     <row r="83" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="8"/>
       <c r="B83" s="13" t="s">
         <v>145</v>
       </c>
@@ -6521,7 +7712,7 @@
       <c r="I83" s="8"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A84" s="2" t="s">
+      <c r="A84" s="1" t="s">
         <v>138</v>
       </c>
       <c r="C84" s="2"/>
@@ -6532,7 +7723,7 @@
       <c r="I84" s="2"/>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A85" s="2" t="s">
+      <c r="A85" s="1" t="s">
         <v>158</v>
       </c>
       <c r="B85" s="2" t="s">
@@ -6546,7 +7737,6 @@
       <c r="I85" s="2"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A86" s="2"/>
       <c r="C86" s="1" t="s">
         <v>205</v>
       </c>
@@ -6558,7 +7748,6 @@
       <c r="I86" s="2"/>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2" t="s">
         <v>305</v>
@@ -6571,7 +7760,6 @@
       <c r="I87" s="2"/>
     </row>
     <row r="88" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="8"/>
       <c r="B88" s="13" t="s">
         <v>146</v>
       </c>
@@ -6584,7 +7772,7 @@
       <c r="I88" s="8"/>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A89" s="2" t="s">
+      <c r="A89" s="1" t="s">
         <v>138</v>
       </c>
       <c r="C89" s="2"/>
@@ -6595,7 +7783,7 @@
       <c r="I89" s="2"/>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A90" s="2" t="s">
+      <c r="A90" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B90" s="2" t="s">
@@ -6609,7 +7797,6 @@
       <c r="I90" s="2"/>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A91" s="2"/>
       <c r="C91" s="1" t="s">
         <v>205</v>
       </c>
@@ -6621,7 +7808,6 @@
       <c r="I91" s="2"/>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2" t="s">
         <v>305</v>
@@ -6634,7 +7820,6 @@
       <c r="I92" s="2"/>
     </row>
     <row r="93" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="8"/>
       <c r="B93" s="13" t="s">
         <v>139</v>
       </c>
@@ -6647,7 +7832,7 @@
       <c r="I93" s="8"/>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A94" s="2" t="s">
+      <c r="A94" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B94" s="2" t="s">
@@ -6662,7 +7847,6 @@
       <c r="I94" s="2"/>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2" t="s">
         <v>205</v>
@@ -6675,7 +7859,6 @@
       <c r="I95" s="2"/>
     </row>
     <row r="96" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="8"/>
       <c r="B96" s="13" t="s">
         <v>140</v>
       </c>
@@ -6688,7 +7871,7 @@
       <c r="I96" s="8"/>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A97" s="2" t="s">
+      <c r="A97" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B97" s="2" t="s">
@@ -6706,7 +7889,6 @@
       <c r="I97" s="2"/>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2" t="s">
         <v>306</v>
@@ -6718,7 +7900,6 @@
       <c r="I98" s="2"/>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2" t="s">
         <v>307</v>
@@ -6732,7 +7913,6 @@
       <c r="I99" s="2"/>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2" t="s">
         <v>307</v>
@@ -6746,7 +7926,6 @@
       <c r="I100" s="2"/>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2" t="s">
         <v>307</v>
@@ -6760,19 +7939,17 @@
       <c r="I101" s="2"/>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A102" s="2"/>
       <c r="B102" s="2"/>
-      <c r="C102" s="20" t="s">
+      <c r="C102" s="21" t="s">
         <v>205</v>
       </c>
-      <c r="D102" s="20"/>
+      <c r="D102" s="21"/>
       <c r="F102" s="2"/>
       <c r="G102" s="2"/>
       <c r="H102" s="2"/>
       <c r="I102" s="2"/>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="D103" s="2" t="s">
         <v>308</v>
@@ -6783,7 +7960,6 @@
       <c r="I103" s="2"/>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="D104" s="2" t="s">
         <v>309</v>
@@ -6794,7 +7970,6 @@
       <c r="I104" s="2"/>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="D105" s="2" t="s">
         <v>310</v>
@@ -6805,7 +7980,6 @@
       <c r="I105" s="2"/>
     </row>
     <row r="106" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="8"/>
       <c r="B106" s="13" t="s">
         <v>141</v>
       </c>
@@ -6818,7 +7992,7 @@
       <c r="I106" s="8"/>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A107" s="2" t="s">
+      <c r="A107" s="1" t="s">
         <v>156</v>
       </c>
       <c r="B107" s="2" t="s">
@@ -6839,7 +8013,6 @@
       <c r="I107" s="2"/>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2" t="s">
         <v>311</v>
@@ -6853,7 +8026,6 @@
       <c r="I108" s="2"/>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2" t="s">
         <v>312</v>
@@ -6867,7 +8039,6 @@
       <c r="I109" s="2"/>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2" t="s">
         <v>313</v>
@@ -6884,7 +8055,6 @@
       <c r="I110" s="2"/>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2" t="s">
         <v>314</v>
@@ -6898,7 +8068,6 @@
       <c r="I111" s="2"/>
     </row>
     <row r="112" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="8"/>
       <c r="B112" s="13" t="s">
         <v>142</v>
       </c>
@@ -6911,7 +8080,7 @@
       <c r="I112" s="8"/>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A113" s="2" t="s">
+      <c r="A113" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B113" s="2" t="s">
@@ -6926,7 +8095,7 @@
       <c r="I113" s="2"/>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A114" s="12" t="s">
+      <c r="A114" s="3" t="s">
         <v>96</v>
       </c>
       <c r="B114" s="12" t="s">
@@ -6949,7 +8118,6 @@
       <c r="I114" s="2"/>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="15" t="s">
         <v>209</v>
@@ -6968,7 +8136,6 @@
       <c r="I115" s="2"/>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2" t="s">
         <v>262</v>
@@ -6987,7 +8154,6 @@
       <c r="I116" s="2"/>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2" t="s">
         <v>319</v>
@@ -7006,7 +8172,6 @@
       <c r="I117" s="2"/>
     </row>
     <row r="118" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="8"/>
       <c r="B118" s="13" t="s">
         <v>143</v>
       </c>
@@ -7019,7 +8184,7 @@
       <c r="I118" s="8"/>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A119" s="2" t="s">
+      <c r="A119" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B119" s="2" t="s">
@@ -7034,7 +8199,7 @@
       <c r="I119" s="2"/>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A120" s="12" t="s">
+      <c r="A120" s="3" t="s">
         <v>96</v>
       </c>
       <c r="B120" s="12" t="s">
@@ -7057,7 +8222,6 @@
       <c r="I120" s="2"/>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="15" t="s">
         <v>209</v>
@@ -7076,7 +8240,6 @@
       <c r="I121" s="2"/>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2" t="s">
         <v>262</v>
@@ -7095,7 +8258,6 @@
       <c r="I122" s="2"/>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2" t="s">
         <v>319</v>
@@ -7114,7 +8276,6 @@
       <c r="I123" s="2"/>
     </row>
     <row r="124" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="8"/>
       <c r="B124" s="13" t="s">
         <v>144</v>
       </c>
@@ -7127,7 +8288,7 @@
       <c r="I124" s="8"/>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A125" s="2" t="s">
+      <c r="A125" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B125" s="2" t="s">
@@ -7137,7 +8298,7 @@
       <c r="I125" s="2"/>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A126" s="12" t="s">
+      <c r="A126" s="3" t="s">
         <v>96</v>
       </c>
       <c r="B126" s="12" t="s">
@@ -7159,7 +8320,6 @@
       <c r="I126" s="2"/>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="15" t="s">
         <v>209</v>
@@ -7178,7 +8338,6 @@
       <c r="I127" s="2"/>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2" t="s">
         <v>262</v>
@@ -7197,7 +8356,6 @@
       <c r="I128" s="2"/>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2" t="s">
         <v>319</v>
@@ -7216,7 +8374,6 @@
       <c r="I129" s="2"/>
     </row>
     <row r="130" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="8"/>
       <c r="B130" s="13" t="s">
         <v>147</v>
       </c>
@@ -7229,7 +8386,7 @@
       <c r="I130" s="8"/>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A131" s="2" t="s">
+      <c r="A131" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B131" s="2" t="s">
@@ -7244,7 +8401,6 @@
       <c r="I131" s="2"/>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="1" t="s">
         <v>205</v>
@@ -7257,7 +8413,6 @@
       <c r="I132" s="2"/>
     </row>
     <row r="133" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="8"/>
       <c r="B133" s="13" t="s">
         <v>148</v>
       </c>
@@ -7269,7 +8424,7 @@
       <c r="I133" s="8"/>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A134" s="2" t="s">
+      <c r="A134" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B134" s="2" t="s">
@@ -7283,7 +8438,6 @@
       <c r="I134" s="2"/>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="1" t="s">
         <v>205</v>
@@ -7296,7 +8450,6 @@
       <c r="I135" s="2"/>
     </row>
     <row r="136" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="8"/>
       <c r="B136" s="13" t="s">
         <v>149</v>
       </c>
@@ -7308,7 +8461,7 @@
       <c r="I136" s="8"/>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A137" s="2" t="s">
+      <c r="A137" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B137" s="2" t="s">
@@ -7322,7 +8475,6 @@
       <c r="I137" s="2"/>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="1" t="s">
         <v>205</v>
@@ -7335,7 +8487,6 @@
       <c r="I138" s="2"/>
     </row>
     <row r="139" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="8"/>
       <c r="B139" s="13" t="s">
         <v>150</v>
       </c>
@@ -7361,7 +8512,7 @@
       <c r="I140" s="2"/>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A141" s="2" t="s">
+      <c r="A141" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B141" s="2" t="s">
@@ -7376,7 +8527,7 @@
       <c r="I141" s="2"/>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A142" s="2" t="s">
+      <c r="A142" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B142" s="2" t="s">
@@ -7391,7 +8542,7 @@
       <c r="I142" s="2"/>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A143" s="2" t="s">
+      <c r="A143" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B143" s="2" t="s">
@@ -7406,7 +8557,7 @@
       <c r="I143" s="2"/>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A144" s="2" t="s">
+      <c r="A144" s="1" t="s">
         <v>287</v>
       </c>
       <c r="B144" s="2" t="s">
@@ -7421,7 +8572,7 @@
       <c r="I144" s="2"/>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A145" s="2" t="s">
+      <c r="A145" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B145" s="2" t="s">
@@ -7436,7 +8587,7 @@
       <c r="I145" s="2"/>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A146" s="2" t="s">
+      <c r="A146" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B146" s="2" t="s">
@@ -7538,7 +8689,6 @@
       <c r="I152" s="2"/>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A153" s="2"/>
       <c r="B153" s="2" t="s">
         <v>195</v>
       </c>
@@ -7551,7 +8701,6 @@
       <c r="I153" s="2"/>
     </row>
     <row r="154" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A154" s="8"/>
       <c r="B154" s="13" t="s">
         <v>152</v>
       </c>
@@ -7564,12 +8713,12 @@
       <c r="I154" s="8"/>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A155" s="2" t="s">
+      <c r="A155" s="1" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A156" s="2" t="s">
+      <c r="A156" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B156" s="2" t="s">
@@ -7697,7 +8846,6 @@
       </c>
     </row>
     <row r="164" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A164" s="8"/>
       <c r="B164" s="13" t="s">
         <v>154</v>
       </c>
@@ -7710,12 +8858,12 @@
       <c r="I164" s="8"/>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A165" s="2" t="s">
+      <c r="A165" s="1" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A166" s="2" t="s">
+      <c r="A166" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B166" s="2" t="s">
@@ -7736,7 +8884,6 @@
       </c>
     </row>
     <row r="169" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A169" s="8"/>
       <c r="B169" s="13" t="s">
         <v>153</v>
       </c>
@@ -7749,12 +8896,12 @@
       <c r="I169" s="8"/>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A170" s="2" t="s">
+      <c r="A170" s="1" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A171" s="2" t="s">
+      <c r="A171" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B171" s="2" t="s">
@@ -7786,12 +8933,842 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{732D935C-EC39-4DBE-84B4-44CD168E0101}">
+  <dimension ref="A1:I66"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B59" sqref="B59"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="36.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+    </row>
+    <row r="2" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="16" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="G4" t="s">
+        <v>393</v>
+      </c>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="C8" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="C9" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="C12" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="16" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="C18" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="16" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>407</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>415</v>
+      </c>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+    </row>
+    <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="B21" s="4"/>
+      <c r="C21" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="C22" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="C23" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>412</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="D24" s="22" t="s">
+        <v>414</v>
+      </c>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+    </row>
+    <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="B25" s="4"/>
+      <c r="C25" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="C26" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="C27" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="16" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>418</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="C30" s="1" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="C31" s="1" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="16" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>422</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="D33" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="C34" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="D34" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="16" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>429</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B37" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="C37" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C38" s="5" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C39" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="16" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B42" s="4" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C43" t="s">
+        <v>435</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>436</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C44" t="s">
+        <v>435</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>436</v>
+      </c>
+      <c r="E44" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C45" t="s">
+        <v>435</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>436</v>
+      </c>
+      <c r="E45" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B46" s="16" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B47" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="B48" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D48" t="s">
+        <v>443</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="H48" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="B49" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D49" t="s">
+        <v>443</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="H49" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="B50" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D50" t="s">
+        <v>444</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="F50" t="s">
+        <v>445</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="H50" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="B51" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D51" t="s">
+        <v>444</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="F51" t="s">
+        <v>445</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="H51" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B52" s="16" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="B53" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="C54" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="C55" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="C56" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="C57" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B58" s="16" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="B59" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="D59" s="20" t="s">
+        <v>415</v>
+      </c>
+      <c r="E59" s="20"/>
+      <c r="F59" s="20"/>
+    </row>
+    <row r="60" spans="2:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="B60" s="4"/>
+      <c r="C60" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="C61" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="62" spans="2:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="C62" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="63" spans="2:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="B63" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="D63" s="22" t="s">
+        <v>414</v>
+      </c>
+      <c r="E63" s="22"/>
+      <c r="F63" s="22"/>
+    </row>
+    <row r="64" spans="2:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="B64" s="4"/>
+      <c r="C64" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="65" spans="3:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="C65" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="66" spans="3:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="C66" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>408</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="D59:F59"/>
+    <mergeCell ref="D63:F63"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{988C78EB-4E00-466C-9BD2-B10965380DEB}">
   <dimension ref="A1:I233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E223" sqref="E223:F227"/>
+      <pane ySplit="1" topLeftCell="A192" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7814,15 +9791,15 @@
       <c r="B1" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
     </row>
     <row r="2" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B2" s="16" t="s">
@@ -7830,12 +9807,12 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="5" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="5" t="s">
         <v>100</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -7843,7 +9820,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="5" t="s">
         <v>99</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -7851,7 +9828,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="5" t="s">
         <v>277</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -7860,13 +9837,13 @@
       <c r="C6" s="4"/>
     </row>
     <row r="7" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="6"/>
+      <c r="A7" s="19"/>
       <c r="B7" s="17" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="5" t="s">
         <v>74</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -8021,7 +9998,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="5" t="s">
         <v>75</v>
       </c>
       <c r="B23" s="4" t="s">
@@ -8679,7 +10656,7 @@
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A74" s="4" t="s">
+      <c r="A74" s="5" t="s">
         <v>44</v>
       </c>
       <c r="B74" s="4" t="s">
@@ -8692,7 +10669,7 @@
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A76" s="4" t="s">
+      <c r="A76" s="5" t="s">
         <v>200</v>
       </c>
       <c r="B76" s="4" t="s">
@@ -8725,12 +10702,12 @@
       </c>
     </row>
     <row r="79" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A79" s="2" t="s">
+      <c r="A79" s="1" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A80" s="2" t="s">
+      <c r="A80" s="1" t="s">
         <v>102</v>
       </c>
       <c r="B80" s="2" t="s">
@@ -8744,7 +10721,7 @@
       </c>
     </row>
     <row r="81" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A81" s="2"/>
+      <c r="A81" s="1"/>
       <c r="B81" s="2"/>
       <c r="C81" s="4" t="s">
         <v>335</v>
@@ -8754,7 +10731,7 @@
       </c>
     </row>
     <row r="82" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A82" s="2"/>
+      <c r="A82" s="1"/>
       <c r="B82" s="2"/>
       <c r="C82" s="4" t="s">
         <v>336</v>
@@ -8764,7 +10741,7 @@
       </c>
     </row>
     <row r="83" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A83" s="2"/>
+      <c r="A83" s="1"/>
       <c r="B83" s="2"/>
       <c r="C83" s="4" t="s">
         <v>337</v>
@@ -8774,7 +10751,7 @@
       </c>
     </row>
     <row r="84" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A84" s="2"/>
+      <c r="A84" s="1"/>
       <c r="B84" s="2"/>
       <c r="C84" s="4" t="s">
         <v>338</v>
@@ -8784,7 +10761,7 @@
       </c>
     </row>
     <row r="85" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A85" s="2"/>
+      <c r="A85" s="1"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2" t="s">
         <v>311</v>
@@ -8805,7 +10782,7 @@
       </c>
     </row>
     <row r="87" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A87" s="2"/>
+      <c r="A87" s="1"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2" t="s">
         <v>312</v>
@@ -8815,7 +10792,7 @@
       </c>
     </row>
     <row r="88" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A88" s="2"/>
+      <c r="A88" s="1"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2" t="s">
         <v>314</v>
@@ -8825,7 +10802,7 @@
       </c>
     </row>
     <row r="89" spans="1:5" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A89" s="8"/>
+      <c r="A89" s="9"/>
       <c r="B89" s="10" t="s">
         <v>137</v>
       </c>
@@ -8833,7 +10810,7 @@
       <c r="D89" s="8"/>
     </row>
     <row r="90" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A90" s="4" t="s">
+      <c r="A90" s="5" t="s">
         <v>101</v>
       </c>
       <c r="B90" s="2" t="s">
@@ -8847,7 +10824,7 @@
       </c>
     </row>
     <row r="91" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A91" s="2"/>
+      <c r="A91" s="1"/>
       <c r="B91" s="2"/>
       <c r="C91" s="4" t="s">
         <v>335</v>
@@ -8857,7 +10834,7 @@
       </c>
     </row>
     <row r="92" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A92" s="2"/>
+      <c r="A92" s="1"/>
       <c r="B92" s="2"/>
       <c r="C92" s="4" t="s">
         <v>336</v>
@@ -8867,7 +10844,7 @@
       </c>
     </row>
     <row r="93" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A93" s="2"/>
+      <c r="A93" s="1"/>
       <c r="B93" s="2"/>
       <c r="C93" s="4" t="s">
         <v>337</v>
@@ -8925,7 +10902,7 @@
       </c>
     </row>
     <row r="100" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A100" s="4" t="s">
+      <c r="A100" s="5" t="s">
         <v>157</v>
       </c>
       <c r="B100" s="4" t="s">
@@ -8951,7 +10928,7 @@
       </c>
     </row>
     <row r="101" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A101" s="4" t="s">
+      <c r="A101" s="5" t="s">
         <v>90</v>
       </c>
       <c r="C101" s="1" t="s">
@@ -9059,7 +11036,7 @@
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A112" s="4" t="s">
+      <c r="A112" s="5" t="s">
         <v>91</v>
       </c>
       <c r="B112" s="4" t="s">
@@ -9122,7 +11099,7 @@
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A119" s="4" t="s">
+      <c r="A119" s="5" t="s">
         <v>201</v>
       </c>
       <c r="B119" s="4" t="s">
@@ -9188,49 +11165,49 @@
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A126" s="4"/>
+      <c r="A126" s="5"/>
       <c r="B126" s="4" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A127" s="4"/>
+      <c r="A127" s="5"/>
       <c r="B127" s="18" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="128" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="6"/>
+      <c r="A128" s="19"/>
       <c r="B128" s="17" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A129" s="4"/>
+      <c r="A129" s="5"/>
       <c r="B129" s="4" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A130" s="4"/>
+      <c r="A130" s="5"/>
       <c r="B130" s="18" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="131" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="6"/>
+      <c r="A131" s="19"/>
       <c r="B131" s="17" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A132" s="4"/>
+      <c r="A132" s="5"/>
       <c r="B132" s="4" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A133" s="4"/>
+      <c r="A133" s="5"/>
       <c r="B133" s="18" t="s">
         <v>229</v>
       </c>
@@ -9586,12 +11563,12 @@
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A170" s="4" t="s">
+      <c r="A170" s="5" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A171" s="4" t="s">
+      <c r="A171" s="5" t="s">
         <v>128</v>
       </c>
       <c r="B171" s="11" t="s">
@@ -9599,7 +11576,7 @@
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A172" s="4" t="s">
+      <c r="A172" s="5" t="s">
         <v>129</v>
       </c>
       <c r="B172" s="4" t="s">
@@ -9607,7 +11584,7 @@
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A173" s="4" t="s">
+      <c r="A173" s="5" t="s">
         <v>130</v>
       </c>
       <c r="B173" s="11" t="s">
@@ -9615,7 +11592,7 @@
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A174" s="4" t="s">
+      <c r="A174" s="5" t="s">
         <v>131</v>
       </c>
       <c r="B174" s="4" t="s">
@@ -9686,7 +11663,7 @@
       <c r="G178" s="4"/>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A179" s="4" t="s">
+      <c r="A179" s="5" t="s">
         <v>350</v>
       </c>
       <c r="B179" s="4" t="s">
@@ -9715,7 +11692,7 @@
       <c r="G181" s="4"/>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A182" s="4"/>
+      <c r="A182" s="5"/>
       <c r="B182" s="4"/>
       <c r="C182" s="4" t="s">
         <v>347</v>
@@ -9742,7 +11719,7 @@
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A185" s="4" t="s">
+      <c r="A185" s="5" t="s">
         <v>244</v>
       </c>
       <c r="B185" s="4" t="s">
@@ -9750,7 +11727,7 @@
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A186" s="4" t="s">
+      <c r="A186" s="5" t="s">
         <v>245</v>
       </c>
       <c r="B186" s="4"/>
@@ -9771,7 +11748,7 @@
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A187" s="4"/>
+      <c r="A187" s="5"/>
       <c r="B187" s="4"/>
       <c r="C187" s="4" t="s">
         <v>262</v>
@@ -9790,7 +11767,7 @@
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A188" s="4"/>
+      <c r="A188" s="5"/>
       <c r="B188" s="4"/>
       <c r="C188" s="4" t="s">
         <v>202</v>
@@ -9831,7 +11808,7 @@
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A191" s="4" t="s">
+      <c r="A191" s="5" t="s">
         <v>94</v>
       </c>
     </row>
@@ -9871,7 +11848,7 @@
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A196" s="4" t="s">
+      <c r="A196" s="5" t="s">
         <v>62</v>
       </c>
       <c r="B196" s="4" t="s">
@@ -9889,12 +11866,12 @@
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A199" s="4" t="s">
+      <c r="A199" s="5" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A200" s="4" t="s">
+      <c r="A200" s="5" t="s">
         <v>69</v>
       </c>
       <c r="B200" s="4" t="s">
@@ -9914,13 +11891,13 @@
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A201" s="4"/>
+      <c r="A201" s="5"/>
       <c r="C201" s="4" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A202" s="4" t="s">
+      <c r="A202" s="5" t="s">
         <v>70</v>
       </c>
       <c r="B202" s="4" t="s">
@@ -9928,13 +11905,13 @@
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A203" s="4"/>
+      <c r="A203" s="5"/>
       <c r="C203" s="4" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A204" s="4" t="s">
+      <c r="A204" s="5" t="s">
         <v>120</v>
       </c>
       <c r="B204" s="4" t="s">
@@ -9942,7 +11919,7 @@
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A205" s="4" t="s">
+      <c r="A205" s="5" t="s">
         <v>127</v>
       </c>
       <c r="C205" s="4" t="s">
@@ -10015,7 +11992,7 @@
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A210" s="4" t="s">
+      <c r="A210" s="5" t="s">
         <v>121</v>
       </c>
       <c r="B210" s="4" t="s">
@@ -10023,7 +12000,7 @@
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A211" s="4" t="s">
+      <c r="A211" s="5" t="s">
         <v>127</v>
       </c>
       <c r="C211" s="4" t="s">
@@ -10096,7 +12073,7 @@
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A216" s="4" t="s">
+      <c r="A216" s="5" t="s">
         <v>120</v>
       </c>
       <c r="B216" s="4" t="s">
@@ -10104,7 +12081,7 @@
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A217" s="4" t="s">
+      <c r="A217" s="5" t="s">
         <v>126</v>
       </c>
       <c r="C217" s="4" t="s">
@@ -10177,7 +12154,7 @@
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A222" s="4" t="s">
+      <c r="A222" s="5" t="s">
         <v>121</v>
       </c>
       <c r="B222" s="4" t="s">
@@ -10185,7 +12162,7 @@
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A223" s="4" t="s">
+      <c r="A223" s="5" t="s">
         <v>126</v>
       </c>
       <c r="C223" s="4" t="s">
@@ -10263,7 +12240,7 @@
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A229" s="4" t="s">
+      <c r="A229" s="5" t="s">
         <v>162</v>
       </c>
       <c r="B229" s="4" t="s">
@@ -10271,21 +12248,21 @@
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A230" s="4"/>
+      <c r="A230" s="5"/>
       <c r="B230" s="4"/>
       <c r="C230" s="5" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="231" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A231" s="6"/>
+      <c r="A231" s="19"/>
       <c r="B231" s="17" t="s">
         <v>241</v>
       </c>
       <c r="C231" s="6"/>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A232" s="4" t="s">
+      <c r="A232" s="5" t="s">
         <v>72</v>
       </c>
       <c r="B232" s="4" t="s">

--- a/P4E_psuedo_instruction_set.xlsx
+++ b/P4E_psuedo_instruction_set.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\P4EngineAssembler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{724416F4-9769-467A-9D69-2B38FE560BBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6DE9A96-11D2-4FB8-8DDC-5655A8F18640}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24585" yWindow="4905" windowWidth="24630" windowHeight="12825" activeTab="1" xr2:uid="{87164962-7B7D-4BAA-98E0-B9A8D7C47112}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="2" xr2:uid="{87164962-7B7D-4BAA-98E0-B9A8D7C47112}"/>
   </bookViews>
   <sheets>
     <sheet name="parser" sheetId="1" r:id="rId1"/>
@@ -1114,7 +1114,33 @@
         </r>
       </text>
     </comment>
-    <comment ref="C194" authorId="0" shapeId="0" xr:uid="{DFB4FAA4-43F6-4B75-ABE8-01CB5D2DA0F6}">
+    <comment ref="D127" authorId="0" shapeId="0" xr:uid="{A3BBB9B6-6FEE-4677-8A3B-DB59F1F7A659}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Dianchao Wang:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+src_len9 + 1 will be actually used.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C204" authorId="0" shapeId="0" xr:uid="{DFB4FAA4-43F6-4B75-ABE8-01CB5D2DA0F6}">
       <text>
         <r>
           <rPr>
@@ -1145,7 +1171,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1398" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1411" uniqueCount="459">
   <si>
     <t>isr SHiFT</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1515,18 +1541,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">    （bit_maks / bit_mask_r)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>counter operations:</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Valid BiTS selection</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>(shift value in bits)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1559,14 +1577,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>VLDALL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VLDADDR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">    SLCT = 0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1577,14 +1587,6 @@
     <t xml:space="preserve">    SLCT = 2</t>
   </si>
   <si>
-    <t>CRC16M</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CRC32M</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>(length in nibble)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1932,10 +1934,6 @@
   </si>
   <si>
     <t>MoVe data from Phv to Temp register</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>eXtraCT data in source Phv, store into dest Phv</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2072,9 +2070,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CSUMM</t>
-  </si>
-  <si>
     <t>5'b01111</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2368,14 +2363,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>XCT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>XCTR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>META</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -5626,6 +5613,66 @@
   </si>
   <si>
     <t>WSML</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5'b11100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5'b11101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AND</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ANDR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ORR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CRC16MO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CRC16MA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CRC32MO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CRC32MA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSUMMO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSUMMA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MSKALL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MSKADDR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>valid bits selection with mask ram</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6185,7 +6232,7 @@
         <v>15</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C1" s="20" t="s">
         <v>22</v>
@@ -6199,7 +6246,7 @@
     </row>
     <row r="2" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B2" s="13" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -6207,10 +6254,10 @@
         <v>45</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>25</v>
@@ -6228,16 +6275,16 @@
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
@@ -6246,16 +6293,16 @@
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
@@ -6264,10 +6311,10 @@
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -6290,10 +6337,10 @@
         <v>81</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>26</v>
@@ -6320,25 +6367,25 @@
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -6347,43 +6394,43 @@
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B11" s="2"/>
       <c r="C11" s="2" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -6391,74 +6438,74 @@
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B12" s="2"/>
       <c r="C12" s="2" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B13" s="2"/>
       <c r="C13" s="2" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B14" s="2"/>
       <c r="C14" s="2" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
     </row>
     <row r="15" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="13" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
@@ -6473,7 +6520,7 @@
         <v>80</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>26</v>
@@ -6498,60 +6545,60 @@
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B17" s="2"/>
       <c r="C17" s="2" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="I17" s="2"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B18" s="2"/>
       <c r="C18" s="2" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="I18" s="2"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B19" s="2"/>
       <c r="C19" s="2" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
@@ -6560,60 +6607,60 @@
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B20" s="2"/>
       <c r="C20" s="2" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="I20" s="2"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B21" s="2"/>
       <c r="C21" s="2" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="I21" s="2"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B22" s="2"/>
       <c r="C22" s="2" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
@@ -6621,7 +6668,7 @@
     </row>
     <row r="23" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B23" s="13" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
@@ -6636,7 +6683,7 @@
         <v>78</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>26</v>
@@ -6664,60 +6711,60 @@
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="2" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="I25" s="2"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B26" s="2"/>
       <c r="C26" s="2" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="I26" s="2"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B27" s="2"/>
       <c r="C27" s="2" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
@@ -6726,60 +6773,60 @@
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B28" s="2"/>
       <c r="C28" s="2" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="I28" s="2"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B29" s="2"/>
       <c r="C29" s="2" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="I29" s="2"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B30" s="2"/>
       <c r="C30" s="2" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
@@ -6787,7 +6834,7 @@
     </row>
     <row r="31" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B31" s="13" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C31" s="8"/>
       <c r="D31" s="8"/>
@@ -6802,7 +6849,7 @@
         <v>84</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -6814,7 +6861,7 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B33" s="2" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>29</v>
@@ -6840,267 +6887,267 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C34" s="2" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C35" s="2" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C36" s="2" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C37" s="2" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C38" s="2" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C39" s="2" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C40" s="2" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C41" s="2" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C42" s="2" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C43" s="2" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C44" s="2" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C45" s="2" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
     </row>
     <row r="46" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B46" s="13" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C46" s="8"/>
       <c r="D46" s="8"/>
@@ -7112,10 +7159,10 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>23</v>
@@ -7139,16 +7186,16 @@
       </c>
       <c r="B48" s="2"/>
       <c r="C48" s="2" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
@@ -7157,16 +7204,16 @@
     <row r="49" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B49" s="2"/>
       <c r="C49" s="2" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="G49" s="2"/>
       <c r="H49" s="2"/>
@@ -7175,10 +7222,10 @@
     <row r="50" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B50" s="2"/>
       <c r="C50" s="2" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
@@ -7189,16 +7236,16 @@
     <row r="51" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B51" s="2"/>
       <c r="C51" s="2" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
@@ -7207,16 +7254,16 @@
     <row r="52" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B52" s="2"/>
       <c r="C52" s="2" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="G52" s="2"/>
       <c r="H52" s="2"/>
@@ -7225,10 +7272,10 @@
     <row r="53" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B53" s="2"/>
       <c r="C53" s="2" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
@@ -7239,16 +7286,16 @@
     <row r="54" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B54" s="2"/>
       <c r="C54" s="2" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="G54" s="2"/>
       <c r="H54" s="2"/>
@@ -7257,16 +7304,16 @@
     <row r="55" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B55" s="2"/>
       <c r="C55" s="2" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="G55" s="2"/>
       <c r="H55" s="2"/>
@@ -7275,10 +7322,10 @@
     <row r="56" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B56" s="2"/>
       <c r="C56" s="2" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
@@ -7289,16 +7336,16 @@
     <row r="57" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B57" s="2"/>
       <c r="C57" s="2" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="G57" s="2"/>
       <c r="H57" s="2"/>
@@ -7307,16 +7354,16 @@
     <row r="58" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B58" s="2"/>
       <c r="C58" s="2" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="G58" s="2"/>
       <c r="H58" s="2"/>
@@ -7325,10 +7372,10 @@
     <row r="59" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B59" s="2"/>
       <c r="C59" s="2" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
@@ -7339,16 +7386,16 @@
     <row r="60" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B60" s="2"/>
       <c r="C60" s="2" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="G60" s="2"/>
       <c r="H60" s="2"/>
@@ -7357,16 +7404,16 @@
     <row r="61" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B61" s="2"/>
       <c r="C61" s="2" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="G61" s="2"/>
       <c r="H61" s="2"/>
@@ -7375,10 +7422,10 @@
     <row r="62" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B62" s="2"/>
       <c r="C62" s="2" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
@@ -7389,16 +7436,16 @@
     <row r="63" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B63" s="2"/>
       <c r="C63" s="2" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="G63" s="2"/>
       <c r="H63" s="2"/>
@@ -7407,16 +7454,16 @@
     <row r="64" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B64" s="2"/>
       <c r="C64" s="2" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="G64" s="2"/>
       <c r="H64" s="2"/>
@@ -7425,10 +7472,10 @@
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B65" s="2"/>
       <c r="C65" s="2" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
@@ -7439,16 +7486,16 @@
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B66" s="2"/>
       <c r="C66" s="2" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="G66" s="2"/>
       <c r="H66" s="2"/>
@@ -7457,16 +7504,16 @@
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B67" s="2"/>
       <c r="C67" s="2" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="G67" s="2"/>
       <c r="H67" s="2"/>
@@ -7475,10 +7522,10 @@
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B68" s="2"/>
       <c r="C68" s="2" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
@@ -7489,16 +7536,16 @@
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B69" s="2"/>
       <c r="C69" s="2" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="G69" s="2"/>
       <c r="H69" s="2"/>
@@ -7507,16 +7554,16 @@
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B70" s="2"/>
       <c r="C70" s="2" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="G70" s="2"/>
       <c r="H70" s="2"/>
@@ -7525,10 +7572,10 @@
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B71" s="2"/>
       <c r="C71" s="2" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
@@ -7539,16 +7586,16 @@
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B72" s="2"/>
       <c r="C72" s="2" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="G72" s="2"/>
       <c r="H72" s="2"/>
@@ -7557,16 +7604,16 @@
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B73" s="2"/>
       <c r="C73" s="2" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="G73" s="2"/>
       <c r="H73" s="2"/>
@@ -7575,10 +7622,10 @@
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B74" s="2"/>
       <c r="C74" s="2" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" s="2"/>
@@ -7588,7 +7635,7 @@
     </row>
     <row r="75" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B75" s="13" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="C75" s="8"/>
       <c r="D75" s="8"/>
@@ -7608,13 +7655,13 @@
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>33</v>
@@ -7629,10 +7676,10 @@
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B78" s="2"/>
       <c r="C78" s="2" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="E78" s="2"/>
       <c r="G78" s="2"/>
@@ -7642,13 +7689,13 @@
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B79" s="2"/>
       <c r="C79" s="2" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="G79" s="2"/>
       <c r="H79" s="2"/>
@@ -7656,10 +7703,10 @@
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
@@ -7672,10 +7719,10 @@
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B81" s="2"/>
       <c r="C81" s="2" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" s="2"/>
@@ -7686,13 +7733,13 @@
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B82" s="2"/>
       <c r="C82" s="2" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="F82" s="2"/>
       <c r="G82" s="2"/>
@@ -7701,7 +7748,7 @@
     </row>
     <row r="83" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B83" s="13" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C83" s="8"/>
       <c r="D83" s="8"/>
@@ -7713,7 +7760,7 @@
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
@@ -7724,10 +7771,10 @@
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" s="2"/>
@@ -7738,7 +7785,7 @@
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" s="2"/>
@@ -7750,7 +7797,7 @@
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B87" s="2"/>
       <c r="C87" s="2" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" s="2"/>
@@ -7761,7 +7808,7 @@
     </row>
     <row r="88" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B88" s="13" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="C88" s="8"/>
       <c r="D88" s="8"/>
@@ -7773,7 +7820,7 @@
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
@@ -7787,7 +7834,7 @@
         <v>87</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" s="2"/>
@@ -7798,7 +7845,7 @@
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" s="2"/>
@@ -7810,7 +7857,7 @@
     <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B92" s="2"/>
       <c r="C92" s="2" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" s="2"/>
@@ -7821,7 +7868,7 @@
     </row>
     <row r="93" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B93" s="13" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C93" s="8"/>
       <c r="D93" s="8"/>
@@ -7836,7 +7883,7 @@
         <v>88</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
@@ -7849,7 +7896,7 @@
     <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B95" s="2"/>
       <c r="C95" s="2" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="D95" s="2"/>
       <c r="E95" s="2"/>
@@ -7860,7 +7907,7 @@
     </row>
     <row r="96" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B96" s="13" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C96" s="8"/>
       <c r="D96" s="8"/>
@@ -7875,10 +7922,10 @@
         <v>0</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>34</v>
@@ -7891,7 +7938,7 @@
     <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B98" s="2"/>
       <c r="C98" s="2" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="D98" s="2"/>
       <c r="F98" s="2"/>
@@ -7902,10 +7949,10 @@
     <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B99" s="2"/>
       <c r="C99" s="2" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="F99" s="2"/>
       <c r="G99" s="2"/>
@@ -7915,10 +7962,10 @@
     <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B100" s="2"/>
       <c r="C100" s="2" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="F100" s="2"/>
       <c r="G100" s="2"/>
@@ -7928,10 +7975,10 @@
     <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B101" s="2"/>
       <c r="C101" s="2" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="F101" s="2"/>
       <c r="G101" s="2"/>
@@ -7941,7 +7988,7 @@
     <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B102" s="2"/>
       <c r="C102" s="21" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="D102" s="21"/>
       <c r="F102" s="2"/>
@@ -7952,7 +7999,7 @@
     <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B103" s="2"/>
       <c r="D103" s="2" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="F103" s="2"/>
       <c r="G103" s="2"/>
@@ -7962,7 +8009,7 @@
     <row r="104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B104" s="2"/>
       <c r="D104" s="2" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="F104" s="2"/>
       <c r="G104" s="2"/>
@@ -7972,7 +8019,7 @@
     <row r="105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B105" s="2"/>
       <c r="D105" s="2" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="F105" s="2"/>
       <c r="G105" s="2"/>
@@ -7981,7 +8028,7 @@
     </row>
     <row r="106" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B106" s="13" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C106" s="8"/>
       <c r="D106" s="8"/>
@@ -7993,16 +8040,16 @@
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="E107" s="1" t="s">
         <v>35</v>
@@ -8015,10 +8062,10 @@
     <row r="108" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B108" s="2"/>
       <c r="C108" s="2" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="F108" s="2"/>
       <c r="G108" s="2"/>
@@ -8028,10 +8075,10 @@
     <row r="109" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B109" s="2"/>
       <c r="C109" s="2" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="F109" s="2"/>
       <c r="G109" s="2"/>
@@ -8041,13 +8088,13 @@
     <row r="110" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B110" s="2"/>
       <c r="C110" s="2" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="F110" s="2"/>
       <c r="G110" s="2"/>
@@ -8057,10 +8104,10 @@
     <row r="111" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B111" s="2"/>
       <c r="C111" s="2" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="F111" s="2"/>
       <c r="G111" s="2"/>
@@ -8069,7 +8116,7 @@
     </row>
     <row r="112" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B112" s="13" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C112" s="8"/>
       <c r="D112" s="8"/>
@@ -8084,7 +8131,7 @@
         <v>1</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" s="2"/>
@@ -8096,10 +8143,10 @@
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A114" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B114" s="12" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>23</v>
@@ -8111,7 +8158,7 @@
         <v>24</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="G114" s="2"/>
       <c r="H114" s="2"/>
@@ -8120,16 +8167,16 @@
     <row r="115" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B115" s="2"/>
       <c r="C115" s="15" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="D115" s="15" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="E115" s="15" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="F115" s="15" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="G115" s="2"/>
       <c r="H115" s="2"/>
@@ -8138,16 +8185,16 @@
     <row r="116" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B116" s="2"/>
       <c r="C116" s="2" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="G116" s="2"/>
       <c r="H116" s="2"/>
@@ -8156,16 +8203,16 @@
     <row r="117" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B117" s="2"/>
       <c r="C117" s="2" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="G117" s="2"/>
       <c r="H117" s="2"/>
@@ -8173,7 +8220,7 @@
     </row>
     <row r="118" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B118" s="13" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C118" s="8"/>
       <c r="D118" s="8"/>
@@ -8188,7 +8235,7 @@
         <v>2</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" s="2"/>
@@ -8200,10 +8247,10 @@
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B120" s="12" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>23</v>
@@ -8215,7 +8262,7 @@
         <v>24</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="G120" s="2"/>
       <c r="H120" s="2"/>
@@ -8224,16 +8271,16 @@
     <row r="121" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B121" s="2"/>
       <c r="C121" s="15" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="D121" s="15" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="E121" s="15" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="F121" s="15" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="G121" s="2"/>
       <c r="H121" s="2"/>
@@ -8242,16 +8289,16 @@
     <row r="122" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B122" s="2"/>
       <c r="C122" s="2" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="G122" s="2"/>
       <c r="H122" s="2"/>
@@ -8260,16 +8307,16 @@
     <row r="123" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B123" s="2"/>
       <c r="C123" s="2" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="G123" s="2"/>
       <c r="H123" s="2"/>
@@ -8277,7 +8324,7 @@
     </row>
     <row r="124" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B124" s="13" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="C124" s="8"/>
       <c r="D124" s="8"/>
@@ -8292,17 +8339,17 @@
         <v>3</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="H125" s="2"/>
       <c r="I125" s="2"/>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A126" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B126" s="12" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>23</v>
@@ -8314,7 +8361,7 @@
         <v>24</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="H126" s="2"/>
       <c r="I126" s="2"/>
@@ -8322,16 +8369,16 @@
     <row r="127" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B127" s="2"/>
       <c r="C127" s="15" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="D127" s="15" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="E127" s="15" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="F127" s="15" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="G127" s="2"/>
       <c r="H127" s="2"/>
@@ -8340,16 +8387,16 @@
     <row r="128" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B128" s="2"/>
       <c r="C128" s="2" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="G128" s="2"/>
       <c r="H128" s="2"/>
@@ -8358,16 +8405,16 @@
     <row r="129" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B129" s="2"/>
       <c r="C129" s="2" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="G129" s="2"/>
       <c r="H129" s="2"/>
@@ -8375,7 +8422,7 @@
     </row>
     <row r="130" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B130" s="13" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C130" s="8"/>
       <c r="D130" s="8"/>
@@ -8390,7 +8437,7 @@
         <v>4</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" s="2"/>
@@ -8403,7 +8450,7 @@
     <row r="132" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B132" s="2"/>
       <c r="C132" s="1" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="D132" s="2"/>
       <c r="E132" s="2"/>
@@ -8414,7 +8461,7 @@
     </row>
     <row r="133" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B133" s="13" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
@@ -8428,7 +8475,7 @@
         <v>5</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="D134" s="2"/>
       <c r="E134" s="2"/>
@@ -8440,7 +8487,7 @@
     <row r="135" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B135" s="2"/>
       <c r="C135" s="1" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="D135" s="2"/>
       <c r="E135" s="2"/>
@@ -8451,7 +8498,7 @@
     </row>
     <row r="136" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B136" s="13" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="D136" s="8"/>
       <c r="E136" s="8"/>
@@ -8465,7 +8512,7 @@
         <v>6</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="D137" s="2"/>
       <c r="E137" s="2"/>
@@ -8477,7 +8524,7 @@
     <row r="138" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B138" s="2"/>
       <c r="C138" s="1" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="D138" s="2"/>
       <c r="E138" s="2"/>
@@ -8488,7 +8535,7 @@
     </row>
     <row r="139" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B139" s="13" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="C139" s="8"/>
       <c r="D139" s="8"/>
@@ -8500,7 +8547,7 @@
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
@@ -8516,7 +8563,7 @@
         <v>7</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" s="2"/>
@@ -8531,7 +8578,7 @@
         <v>8</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" s="2"/>
@@ -8546,7 +8593,7 @@
         <v>9</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" s="2"/>
@@ -8558,10 +8605,10 @@
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" s="2"/>
@@ -8576,7 +8623,7 @@
         <v>10</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" s="2"/>
@@ -8591,16 +8638,16 @@
         <v>11</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="G146" s="2"/>
       <c r="H146" s="2"/>
@@ -8608,17 +8655,17 @@
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="B147" s="2"/>
       <c r="C147" s="2" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="F147" s="2"/>
       <c r="G147" s="2"/>
@@ -8627,10 +8674,10 @@
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B148" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="B148" s="2" t="s">
-        <v>191</v>
       </c>
       <c r="C148" s="2"/>
       <c r="D148" s="2"/>
@@ -8642,7 +8689,7 @@
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B149" s="2" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" s="2"/>
@@ -8654,7 +8701,7 @@
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B150" s="2" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" s="2"/>
@@ -8666,7 +8713,7 @@
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B151" s="2" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" s="2"/>
@@ -8678,7 +8725,7 @@
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B152" s="2" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" s="2"/>
@@ -8690,7 +8737,7 @@
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B153" s="2" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="C153" s="2"/>
       <c r="D153" s="2"/>
@@ -8702,7 +8749,7 @@
     </row>
     <row r="154" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B154" s="13" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="C154" s="8"/>
       <c r="D154" s="8"/>
@@ -8714,7 +8761,7 @@
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.2">
@@ -8722,7 +8769,7 @@
         <v>13</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="C156" s="1" t="s">
         <v>17</v>
@@ -8737,7 +8784,7 @@
         <v>18</v>
       </c>
       <c r="G156" s="1" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="H156" s="1" t="s">
         <v>16</v>
@@ -8745,54 +8792,54 @@
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C157" s="2" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="H157" s="14" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C158" s="2" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="E158" s="2"/>
       <c r="F158" s="2"/>
       <c r="G158" s="2" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="H158" s="14" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C159" s="2"/>
       <c r="D159" s="2"/>
       <c r="E159" s="2" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="H159" s="14" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.2">
@@ -8801,38 +8848,38 @@
       <c r="E160" s="2"/>
       <c r="F160" s="2"/>
       <c r="G160" s="2" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="H160" s="14" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C161" s="2" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="E161" s="2"/>
       <c r="F161" s="2"/>
       <c r="G161" s="2"/>
       <c r="H161" s="14" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C162" s="2"/>
       <c r="D162" s="2"/>
       <c r="E162" s="2" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="G162" s="2"/>
       <c r="H162" s="14" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.2">
@@ -8842,12 +8889,12 @@
       <c r="F163" s="2"/>
       <c r="G163" s="2"/>
       <c r="H163" s="14" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
     </row>
     <row r="164" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B164" s="13" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="C164" s="8"/>
       <c r="D164" s="8"/>
@@ -8859,7 +8906,7 @@
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.2">
@@ -8867,7 +8914,7 @@
         <v>14</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="C166" s="1" t="s">
         <v>21</v>
@@ -8875,17 +8922,17 @@
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C167" s="2" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C168" s="1" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
     </row>
     <row r="169" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B169" s="13" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C169" s="8"/>
       <c r="D169" s="8"/>
@@ -8897,7 +8944,7 @@
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.2">
@@ -8905,7 +8952,7 @@
         <v>12</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C171" s="1" t="s">
         <v>21</v>
@@ -8913,12 +8960,12 @@
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C172" s="2" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C173" s="1" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -8936,7 +8983,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{732D935C-EC39-4DBE-84B4-44CD168E0101}">
   <dimension ref="A1:I66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B59" sqref="B59"/>
     </sheetView>
@@ -8959,7 +9006,7 @@
         <v>15</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C1" s="20" t="s">
         <v>22</v>
@@ -8973,7 +9020,7 @@
     </row>
     <row r="2" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B2" s="16" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -8981,7 +9028,7 @@
         <v>81</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -8989,22 +9036,22 @@
     </row>
     <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>36</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="G4" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -9013,36 +9060,36 @@
       <c r="A5" s="1"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="1"/>
@@ -9051,191 +9098,191 @@
     </row>
     <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="C8" s="2" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="C9" s="2" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="C12" s="2" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
     </row>
     <row r="13" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="16" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>36</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="C18" s="2" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
     </row>
     <row r="19" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="16" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="D20" s="20" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="E20" s="20"/>
       <c r="F20" s="20"/>
@@ -9243,55 +9290,55 @@
     <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B21" s="4"/>
       <c r="C21" s="1" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="D24" s="22" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="E24" s="22"/>
       <c r="F24" s="22"/>
@@ -9299,170 +9346,170 @@
     <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B25" s="4"/>
       <c r="C25" s="1" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
     </row>
     <row r="28" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B28" s="16" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
     </row>
     <row r="32" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B32" s="16" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="D33" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="D34" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
     </row>
     <row r="35" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B35" s="16" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B37" s="4" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="C37" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C38" s="5" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C39" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
     </row>
     <row r="41" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B41" s="16" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B42" s="4" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C43" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C44" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="E44" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C45" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="E45" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
     </row>
     <row r="46" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B46" s="16" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
@@ -9475,16 +9522,16 @@
         <v>52</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="D48" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="H48" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
     </row>
     <row r="49" spans="2:8" ht="16.5" x14ac:dyDescent="0.2">
@@ -9492,16 +9539,16 @@
         <v>53</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="D49" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="H49" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
     </row>
     <row r="50" spans="2:8" ht="16.5" x14ac:dyDescent="0.2">
@@ -9509,22 +9556,22 @@
         <v>54</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="D50" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="F50" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="H50" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
     </row>
     <row r="51" spans="2:8" ht="16.5" x14ac:dyDescent="0.2">
@@ -9532,125 +9579,125 @@
         <v>55</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="D51" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="F51" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="H51" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
     </row>
     <row r="52" spans="2:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B52" s="16" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
     </row>
     <row r="53" spans="2:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B53" s="4" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>36</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
     </row>
     <row r="54" spans="2:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="C54" s="2" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
     </row>
     <row r="55" spans="2:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="C55" s="2" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
     </row>
     <row r="56" spans="2:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="C56" s="2" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
     </row>
     <row r="57" spans="2:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="C57" s="2" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
     </row>
     <row r="58" spans="2:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B58" s="16" t="s">
-        <v>449</v>
+        <v>439</v>
       </c>
     </row>
     <row r="59" spans="2:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B59" s="4" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="D59" s="20" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="E59" s="20"/>
       <c r="F59" s="20"/>
@@ -9658,52 +9705,52 @@
     <row r="60" spans="2:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B60" s="4"/>
       <c r="C60" s="1" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
     </row>
     <row r="61" spans="2:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
     </row>
     <row r="62" spans="2:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
     </row>
     <row r="63" spans="2:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B63" s="4" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="D63" s="22" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="E63" s="22"/>
       <c r="F63" s="22"/>
@@ -9711,41 +9758,41 @@
     <row r="64" spans="2:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B64" s="4"/>
       <c r="C64" s="1" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
     </row>
     <row r="65" spans="3:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
     </row>
     <row r="66" spans="3:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
     </row>
   </sheetData>
@@ -9764,11 +9811,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{988C78EB-4E00-466C-9BD2-B10965380DEB}">
-  <dimension ref="A1:I233"/>
+  <dimension ref="A1:I243"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A192" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A35" sqref="A35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A180" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A201" sqref="A201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9789,7 +9836,7 @@
         <v>15</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C1" s="20" t="s">
         <v>22</v>
@@ -9803,7 +9850,7 @@
     </row>
     <row r="2" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B2" s="16" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -9813,33 +9860,33 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="C6" s="4"/>
     </row>
     <row r="7" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="19"/>
       <c r="B7" s="17" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -9861,140 +9908,140 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C9" s="4" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C10" s="4" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C11" s="4" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C12" s="4" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C13" s="4" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C14" s="4" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C15" s="4" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C16" s="4" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C17" s="4" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C18" s="4" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="E18" s="4"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C19" s="4" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="E19" s="4"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C20" s="4" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="E20" s="4"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C21" s="5" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
     </row>
     <row r="22" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" s="16" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -10019,640 +10066,640 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C24" s="4" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C25" s="4" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C26" s="4" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C27" s="4" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C28" s="4" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C29" s="4" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C30" s="4" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C31" s="4" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C32" s="4" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
     </row>
     <row r="33" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C33" s="4" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
     </row>
     <row r="34" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C34" s="4" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
     </row>
     <row r="35" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C35" s="4" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
     </row>
     <row r="36" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C36" s="4" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
     </row>
     <row r="37" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C37" s="4" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
     </row>
     <row r="38" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C38" s="4" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
     </row>
     <row r="39" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C39" s="4" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
     </row>
     <row r="40" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C40" s="4" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
     </row>
     <row r="41" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C41" s="4" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
     </row>
     <row r="42" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C42" s="4" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
     </row>
     <row r="43" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C43" s="4" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
     </row>
     <row r="44" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C44" s="4" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
     </row>
     <row r="45" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C45" s="4" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
     </row>
     <row r="46" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C46" s="4" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
     </row>
     <row r="47" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C47" s="4" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
     </row>
     <row r="48" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C48" s="4" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
     </row>
     <row r="49" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C49" s="4" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
     </row>
     <row r="50" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C50" s="4" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
     </row>
     <row r="51" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C51" s="4" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
     </row>
     <row r="52" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C52" s="4" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
     </row>
     <row r="53" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C53" s="4" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
     </row>
     <row r="54" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C54" s="4" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
     </row>
     <row r="55" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C55" s="4" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
     </row>
     <row r="56" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C56" s="4" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
     </row>
     <row r="57" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C57" s="4" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
     </row>
     <row r="58" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C58" s="4" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
     </row>
     <row r="59" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C59" s="4" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
     </row>
     <row r="60" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C60" s="4" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
     </row>
     <row r="61" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C61" s="4" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
     </row>
     <row r="62" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C62" s="4" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
     </row>
     <row r="63" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C63" s="4" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
     </row>
     <row r="64" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C64" s="4" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C65" s="4" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C66" s="4" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C67" s="4" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C68" s="4" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C69" s="4" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C70" s="4" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C71" s="4" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C72" s="5" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="D72" s="4"/>
     </row>
     <row r="73" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B73" s="16" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
@@ -10660,20 +10707,20 @@
         <v>44</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
     </row>
     <row r="75" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B75" s="16" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="5" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="C76" t="s">
         <v>67</v>
@@ -10687,244 +10734,244 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C77" s="4" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
     </row>
     <row r="78" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B78" s="16" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>57</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A81" s="1"/>
       <c r="B81" s="2"/>
       <c r="C81" s="4" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A82" s="1"/>
       <c r="B82" s="2"/>
       <c r="C82" s="4" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A83" s="1"/>
       <c r="B83" s="2"/>
       <c r="C83" s="4" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A84" s="1"/>
       <c r="B84" s="2"/>
       <c r="C84" s="4" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A85" s="1"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="C86" s="2" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A87" s="1"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A88" s="1"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
     </row>
     <row r="89" spans="1:5" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A89" s="9"/>
       <c r="B89" s="10" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="C89" s="8"/>
       <c r="D89" s="8"/>
     </row>
     <row r="90" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A90" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>89</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A91" s="1"/>
       <c r="B91" s="2"/>
       <c r="C91" s="4" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A92" s="1"/>
       <c r="B92" s="2"/>
       <c r="C92" s="4" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A93" s="1"/>
       <c r="B93" s="2"/>
       <c r="C93" s="4" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="C94" s="4" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="C95" s="2" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="C96" s="2" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
     </row>
     <row r="97" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="C97" s="2" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
     </row>
     <row r="98" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="C98" s="2" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
     </row>
     <row r="99" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B99" s="16" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A100" s="5" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="F100" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="G100" t="s">
         <v>56</v>
       </c>
       <c r="H100" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
     </row>
     <row r="101" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
@@ -10932,107 +10979,107 @@
         <v>90</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="G101" s="4" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="H101" s="4" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
     </row>
     <row r="102" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
     </row>
     <row r="103" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="C103" s="1" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="C104" s="1" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
     </row>
     <row r="105" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B105" s="16" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="D105" s="6"/>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B106" s="4" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="D106" s="4"/>
     </row>
     <row r="107" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="C107" s="1" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="F107" s="4" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="G107" s="4" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="H107" s="4" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
     </row>
     <row r="108" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="C108" s="1" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
     </row>
     <row r="109" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="C109" s="1" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
     </row>
     <row r="110" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="C110" s="1" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
     </row>
     <row r="111" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B111" s="16" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.2">
@@ -11043,10 +11090,10 @@
         <v>47</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="D112" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="E112" t="s">
         <v>56</v>
@@ -11054,18 +11101,18 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C113" s="4" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="E113" s="4" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
     </row>
     <row r="114" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B114" s="16" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="C114" s="6"/>
       <c r="D114" s="6"/>
@@ -11073,7 +11120,7 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B115" s="4" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="C115" s="4"/>
       <c r="D115" s="4"/>
@@ -11083,55 +11130,50 @@
       <c r="C116" s="4"/>
       <c r="D116" s="4"/>
       <c r="E116" s="4" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C117" s="5" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="D117" s="4"/>
       <c r="E117" s="4"/>
     </row>
     <row r="118" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B118" s="16" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A119" s="5" t="s">
-        <v>201</v>
-      </c>
+      <c r="A119" s="5"/>
       <c r="B119" s="4" t="s">
-        <v>260</v>
+        <v>446</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="D119" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="E119" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A120" t="s">
-        <v>92</v>
-      </c>
       <c r="C120" s="4" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="E120" s="4" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
     </row>
     <row r="121" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B121" s="16" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="C121" s="6"/>
       <c r="D121" s="6"/>
@@ -11139,7 +11181,7 @@
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B122" s="4" t="s">
-        <v>261</v>
+        <v>447</v>
       </c>
       <c r="C122" s="4"/>
       <c r="D122" s="4"/>
@@ -11149,1129 +11191,1208 @@
       <c r="C123" s="4"/>
       <c r="D123" s="4"/>
       <c r="E123" s="4" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C124" s="5" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="D124" s="4"/>
       <c r="E124" s="4"/>
     </row>
     <row r="125" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B125" s="16" t="s">
-        <v>148</v>
+        <v>444</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" s="5"/>
       <c r="B126" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="C126" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="D126" t="s">
+        <v>257</v>
+      </c>
+      <c r="E126" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C127" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="D127" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="E127" s="4" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B128" s="16" t="s">
+        <v>445</v>
+      </c>
+      <c r="C128" s="6"/>
+      <c r="D128" s="6"/>
+      <c r="E128" s="6"/>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B129" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="C129" s="4"/>
+      <c r="D129" s="4"/>
+      <c r="E129" s="4"/>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C130" s="4"/>
+      <c r="D130" s="4"/>
+      <c r="E130" s="4" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C131" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="D131" s="4"/>
+      <c r="E131" s="4"/>
+    </row>
+    <row r="132" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B132" s="16" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A133" s="5"/>
+      <c r="B133" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A127" s="5"/>
-      <c r="B127" s="18" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="19"/>
-      <c r="B128" s="17" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A129" s="5"/>
-      <c r="B129" s="4" t="s">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A134" s="5"/>
+      <c r="B134" s="18" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A135" s="5"/>
+      <c r="B135" s="18" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A136" s="19"/>
+      <c r="B136" s="17" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A137" s="5"/>
+      <c r="B137" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A130" s="5"/>
-      <c r="B130" s="18" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="19"/>
-      <c r="B131" s="17" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A132" s="5"/>
-      <c r="B132" s="4" t="s">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A138" s="5"/>
+      <c r="B138" s="18" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A139" s="5"/>
+      <c r="B139" s="18" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A140" s="19"/>
+      <c r="B140" s="17" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A141" s="5"/>
+      <c r="B141" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A133" s="5"/>
-      <c r="B133" s="18" t="s">
-        <v>229</v>
-      </c>
-      <c r="C133" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="D133" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="E133" s="4" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C134" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="D134" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="E134" s="4" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C135" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="D135" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="E135" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="F135" s="4"/>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C136" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="D136" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="E136" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="F136" s="4"/>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C137" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="D137" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="E137" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="F137" s="4"/>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C138" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="D138" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="E138" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="F138" s="4"/>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C139" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="D139" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="E139" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="F139" s="4"/>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C140" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="D140" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="E140" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="F140" s="4"/>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C141" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="D141" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="E141" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="F141" s="4"/>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C142" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="D142" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="E142" s="4"/>
-      <c r="F142" s="4"/>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A142" s="5"/>
+      <c r="B142" s="18" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A143" s="5"/>
+      <c r="B143" s="18" t="s">
+        <v>454</v>
+      </c>
       <c r="C143" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="D143" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="E143" s="4"/>
-      <c r="F143" s="4"/>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
+        <v>195</v>
+      </c>
+      <c r="D143" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="E143" s="4" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C144" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="D144" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="E144" s="4"/>
-      <c r="F144" s="4"/>
+        <v>196</v>
+      </c>
+      <c r="D144" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="E144" s="4" t="s">
+        <v>249</v>
+      </c>
     </row>
     <row r="145" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C145" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="D145" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="E145" s="4"/>
+        <v>197</v>
+      </c>
+      <c r="D145" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="E145" s="4" t="s">
+        <v>249</v>
+      </c>
       <c r="F145" s="4"/>
     </row>
-    <row r="146" spans="2:6" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B146" s="16" t="s">
-        <v>232</v>
-      </c>
+    <row r="146" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C146" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="D146" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="E146" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="F146" s="4"/>
     </row>
     <row r="147" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B147" s="4" t="s">
-        <v>52</v>
-      </c>
+      <c r="C147" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="D147" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="E147" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="F147" s="4"/>
     </row>
     <row r="148" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B148" s="4" t="s">
-        <v>53</v>
-      </c>
+      <c r="C148" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="D148" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="E148" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="F148" s="4"/>
     </row>
     <row r="149" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B149" s="4" t="s">
-        <v>54</v>
-      </c>
+      <c r="C149" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="D149" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="E149" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="F149" s="4"/>
     </row>
     <row r="150" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B150" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C150" t="s">
-        <v>48</v>
-      </c>
-      <c r="D150" t="s">
-        <v>110</v>
-      </c>
-      <c r="E150" t="s">
-        <v>57</v>
-      </c>
-      <c r="F150" t="s">
-        <v>56</v>
-      </c>
+      <c r="C150" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="D150" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="E150" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="F150" s="4"/>
     </row>
     <row r="151" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B151" s="4"/>
       <c r="C151" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="D151" s="4" t="s">
-        <v>265</v>
+        <v>197</v>
+      </c>
+      <c r="D151" s="5" t="s">
+        <v>271</v>
       </c>
       <c r="E151" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="F151" s="4" t="s">
-        <v>263</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="F151" s="4"/>
     </row>
     <row r="152" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C152" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="D152" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="E152" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="F152" s="4" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="153" spans="2:6" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B153" s="16" t="s">
-        <v>233</v>
-      </c>
-      <c r="C153" s="6"/>
-      <c r="D153" s="6"/>
-      <c r="E153" s="6"/>
-      <c r="F153" s="6"/>
+        <v>195</v>
+      </c>
+      <c r="D152" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="E152" s="4"/>
+      <c r="F152" s="4"/>
+    </row>
+    <row r="153" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C153" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="D153" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="E153" s="4"/>
+      <c r="F153" s="4"/>
     </row>
     <row r="154" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B154" s="4" t="s">
-        <v>268</v>
-      </c>
+      <c r="C154" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="D154" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="E154" s="4"/>
+      <c r="F154" s="4"/>
     </row>
     <row r="155" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B155" s="4" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="156" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B156" s="4" t="s">
-        <v>270</v>
+      <c r="C155" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="D155" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="E155" s="4"/>
+      <c r="F155" s="4"/>
+    </row>
+    <row r="156" spans="2:6" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B156" s="16" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="157" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B157" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="C157" s="4"/>
-      <c r="D157" s="4"/>
+        <v>52</v>
+      </c>
     </row>
     <row r="158" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="E158" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="F158" s="4" t="s">
-        <v>263</v>
+      <c r="B158" s="4" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="159" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C159" s="4"/>
-      <c r="D159" s="4"/>
-      <c r="E159" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="F159" s="4" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="160" spans="2:6" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B160" s="16" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B161" s="4" t="s">
+      <c r="B159" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="160" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B160" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C160" t="s">
+        <v>48</v>
+      </c>
+      <c r="D160" t="s">
+        <v>104</v>
+      </c>
+      <c r="E160" t="s">
+        <v>57</v>
+      </c>
+      <c r="F160" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="161" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B161" s="4"/>
+      <c r="C161" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="D161" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="E161" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="F161" s="4" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="162" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C162" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="D162" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="E162" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="F162" s="4" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="163" spans="2:6" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B163" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="C163" s="6"/>
+      <c r="D163" s="6"/>
+      <c r="E163" s="6"/>
+      <c r="F163" s="6"/>
+    </row>
+    <row r="164" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B164" s="4" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="165" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B165" s="4" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="166" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B166" s="4" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="167" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B167" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="C167" s="4"/>
+      <c r="D167" s="4"/>
+    </row>
+    <row r="168" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E168" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="F168" s="4" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="169" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C169" s="4"/>
+      <c r="D169" s="4"/>
+      <c r="E169" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="F169" s="4" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="170" spans="2:6" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B170" s="16" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="171" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B171" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C162" t="s">
+    <row r="172" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C172" t="s">
         <v>48</v>
       </c>
-      <c r="D162" t="s">
-        <v>110</v>
-      </c>
-      <c r="E162" t="s">
+      <c r="D172" t="s">
+        <v>104</v>
+      </c>
+      <c r="E172" t="s">
         <v>57</v>
       </c>
-      <c r="F162" t="s">
+      <c r="F172" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C163" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="D163" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="E163" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="F163" s="4" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C164" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="D164" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="E164" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="F164" s="4" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="165" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B165" s="16" t="s">
-        <v>235</v>
-      </c>
-      <c r="C165" s="6"/>
-      <c r="D165" s="6"/>
-      <c r="E165" s="6"/>
-      <c r="F165" s="6"/>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B166" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="C166" s="4"/>
-      <c r="D166" s="4"/>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E167" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="F167" s="4" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C168" s="4"/>
-      <c r="D168" s="4"/>
-      <c r="E168" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="F168" s="4" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B169" s="16" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A170" s="5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A171" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="B171" s="11" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A172" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="B172" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A173" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="B173" s="11" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A174" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="B174" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="C174" t="s">
-        <v>59</v>
-      </c>
-      <c r="D174" t="s">
-        <v>60</v>
-      </c>
-      <c r="E174" t="s">
-        <v>272</v>
-      </c>
-      <c r="F174" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C175" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="D175" s="4" t="s">
-        <v>351</v>
-      </c>
-      <c r="E175" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="F175" s="4" t="s">
-        <v>348</v>
-      </c>
-      <c r="G175" s="4"/>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D176" s="4" t="s">
-        <v>351</v>
-      </c>
-      <c r="E176" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="F176" s="4" t="s">
-        <v>348</v>
-      </c>
-      <c r="G176" s="4"/>
+    <row r="173" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C173" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="D173" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="E173" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="F173" s="4" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="174" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C174" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="D174" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="E174" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="F174" s="4" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="175" spans="2:6" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B175" s="16" t="s">
+        <v>227</v>
+      </c>
+      <c r="C175" s="6"/>
+      <c r="D175" s="6"/>
+      <c r="E175" s="6"/>
+      <c r="F175" s="6"/>
+    </row>
+    <row r="176" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B176" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="C176" s="4"/>
+      <c r="D176" s="4"/>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C177" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="D177" s="4"/>
       <c r="E177" s="4" t="s">
-        <v>273</v>
+        <v>195</v>
       </c>
       <c r="F177" s="4" t="s">
-        <v>348</v>
-      </c>
-      <c r="G177" s="4"/>
+        <v>253</v>
+      </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C178" s="4"/>
       <c r="D178" s="4"/>
       <c r="E178" s="4" t="s">
-        <v>273</v>
+        <v>252</v>
       </c>
       <c r="F178" s="4" t="s">
-        <v>348</v>
-      </c>
-      <c r="G178" s="4"/>
-    </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A179" s="5" t="s">
-        <v>350</v>
-      </c>
-      <c r="B179" s="4" t="s">
-        <v>349</v>
+        <v>253</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B179" s="16" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C180" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="D180" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="F180" s="4" t="s">
-        <v>348</v>
-      </c>
-      <c r="G180" s="4"/>
+      <c r="A180" s="5" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D181" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="F181" s="4" t="s">
-        <v>348</v>
-      </c>
-      <c r="G181" s="4"/>
+      <c r="A181" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B181" s="11" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A182" s="5"/>
-      <c r="B182" s="4"/>
-      <c r="C182" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="D182" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="F182" s="4" t="s">
-        <v>348</v>
+      <c r="A182" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B182" s="4" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D183" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="F183" s="4" t="s">
-        <v>348</v>
-      </c>
-      <c r="G183" s="4"/>
-    </row>
-    <row r="184" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B184" s="16" t="s">
+      <c r="A183" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B183" s="11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A184" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B184" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C184" t="s">
+        <v>59</v>
+      </c>
+      <c r="D184" t="s">
+        <v>60</v>
+      </c>
+      <c r="E184" t="s">
+        <v>262</v>
+      </c>
+      <c r="F184" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C185" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="D185" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="E185" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="F185" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="G185" s="4"/>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D186" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="E186" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="F186" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="G186" s="4"/>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C187" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="D187" s="4"/>
+      <c r="E187" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="F187" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="G187" s="4"/>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C188" s="4"/>
+      <c r="D188" s="4"/>
+      <c r="E188" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="F188" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="G188" s="4"/>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A189" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="B189" s="4" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C190" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="D190" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="F190" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="G190" s="4"/>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D191" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="F191" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="G191" s="4"/>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A192" s="5"/>
+      <c r="B192" s="4"/>
+      <c r="C192" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="D192" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="F192" s="4" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D193" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="F193" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="G193" s="4"/>
+    </row>
+    <row r="194" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B194" s="16" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A195" s="5" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A185" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="B185" s="4" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A186" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="B186" s="4"/>
-      <c r="C186" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="D186" t="s">
-        <v>274</v>
-      </c>
-      <c r="E186" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="F186" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="G186" s="5" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A187" s="5"/>
-      <c r="B187" s="4"/>
-      <c r="C187" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="D187" t="s">
-        <v>274</v>
-      </c>
-      <c r="E187" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="F187" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="G187" s="5" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A188" s="5"/>
-      <c r="B188" s="4"/>
-      <c r="C188" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="D188" t="s">
-        <v>274</v>
-      </c>
-      <c r="E188" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="F188" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="G188" s="5" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C189" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="D189" t="s">
-        <v>274</v>
-      </c>
-      <c r="E189" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="F189" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="G189" s="5" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="190" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B190" s="16" t="s">
+      <c r="B195" s="4" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A196" s="5" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A191" s="5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A192" t="s">
-        <v>105</v>
-      </c>
-      <c r="B192" s="4" t="s">
+      <c r="B196" s="4"/>
+      <c r="C196" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="D196" t="s">
+        <v>264</v>
+      </c>
+      <c r="E196" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="F196" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="G196" s="5" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A197" s="5"/>
+      <c r="B197" s="4"/>
+      <c r="C197" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="D197" t="s">
+        <v>264</v>
+      </c>
+      <c r="E197" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="F197" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="G197" s="5" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A198" s="5"/>
+      <c r="B198" s="4"/>
+      <c r="C198" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="D198" t="s">
+        <v>264</v>
+      </c>
+      <c r="E198" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="F198" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="G198" s="5" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C199" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="D199" t="s">
+        <v>264</v>
+      </c>
+      <c r="E199" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="F199" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="G199" s="5" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B200" s="16" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A201" s="5" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A202" t="s">
+        <v>101</v>
+      </c>
+      <c r="B202" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="C202" s="5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A203" t="s">
+        <v>102</v>
+      </c>
+      <c r="B203" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="C203" s="4" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A204" t="s">
         <v>103</v>
       </c>
-      <c r="C192" s="5" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A193" t="s">
-        <v>106</v>
-      </c>
-      <c r="B193" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="C193" s="4" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A194" t="s">
-        <v>107</v>
-      </c>
-      <c r="C194" s="5" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B195" s="16" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A196" s="5" t="s">
+      <c r="C204" s="5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B205" s="16" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A206" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B196" s="4" t="s">
+      <c r="B206" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C197" s="5" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="198" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B198" s="16" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A199" s="5" t="s">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C207" s="5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B208" s="16" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A209" s="5" t="s">
         <v>68</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A200" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="B200" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C200" t="s">
-        <v>65</v>
-      </c>
-      <c r="D200" t="s">
-        <v>66</v>
-      </c>
-      <c r="E200" t="s">
-        <v>39</v>
-      </c>
-      <c r="F200" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A201" s="5"/>
-      <c r="C201" s="4" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A202" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B202" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A203" s="5"/>
-      <c r="C203" s="4" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A204" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="B204" s="4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A205" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="C205" s="4" t="s">
-        <v>354</v>
-      </c>
-      <c r="D205" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="E205" s="4" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A206" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="C206" s="4" t="s">
-        <v>354</v>
-      </c>
-      <c r="D206" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="E206" s="4" t="s">
-        <v>359</v>
-      </c>
-      <c r="F206" s="4" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C207" s="4" t="s">
-        <v>354</v>
-      </c>
-      <c r="D207" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="E207" s="4" t="s">
-        <v>360</v>
-      </c>
-      <c r="F207" s="4" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C208" s="4" t="s">
-        <v>354</v>
-      </c>
-      <c r="D208" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="E208" s="4" t="s">
-        <v>361</v>
-      </c>
-      <c r="F208" s="4" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C209" s="4" t="s">
-        <v>354</v>
-      </c>
-      <c r="D209" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="E209" s="4" t="s">
-        <v>362</v>
-      </c>
-      <c r="F209" s="4" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A210" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B210" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C210" t="s">
+        <v>65</v>
+      </c>
+      <c r="D210" t="s">
+        <v>66</v>
+      </c>
+      <c r="E210" t="s">
+        <v>39</v>
+      </c>
+      <c r="F210" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A211" s="5"/>
+      <c r="C211" s="4" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A212" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B212" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A213" s="5"/>
+      <c r="C213" s="4" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A214" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B214" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A215" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="B210" s="4" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A211" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="C211" s="4" t="s">
-        <v>354</v>
-      </c>
-      <c r="D211" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="E211" s="4" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A212" t="s">
-        <v>123</v>
-      </c>
-      <c r="C212" s="4" t="s">
-        <v>354</v>
-      </c>
-      <c r="D212" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="E212" s="4" t="s">
-        <v>359</v>
-      </c>
-      <c r="F212" s="4" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C213" s="4" t="s">
-        <v>354</v>
-      </c>
-      <c r="D213" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="E213" s="4" t="s">
-        <v>360</v>
-      </c>
-      <c r="F213" s="4" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C214" s="4" t="s">
-        <v>354</v>
-      </c>
-      <c r="D214" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="E214" s="4" t="s">
-        <v>361</v>
-      </c>
-      <c r="F214" s="4" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C215" s="4" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="D215" s="4" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="E215" s="4" t="s">
-        <v>362</v>
-      </c>
-      <c r="F215" s="4" t="s">
-        <v>366</v>
+        <v>348</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A216" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="B216" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
+      </c>
+      <c r="C216" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="D216" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="E216" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="F216" s="4" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A217" s="5" t="s">
-        <v>126</v>
-      </c>
       <c r="C217" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="D217" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="E217" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="F217" s="4" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C218" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="D218" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="E218" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="F218" s="4" t="s">
         <v>355</v>
-      </c>
-      <c r="D217" s="4" t="s">
-        <v>357</v>
-      </c>
-      <c r="E217" s="4" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A218" t="s">
-        <v>124</v>
-      </c>
-      <c r="C218" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="D218" s="4" t="s">
-        <v>357</v>
-      </c>
-      <c r="E218" s="4" t="s">
-        <v>359</v>
-      </c>
-      <c r="F218" s="4" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C219" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="D219" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="E219" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="F219" s="4" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A220" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B220" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A221" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C221" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="D221" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="E221" s="4" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A222" t="s">
+        <v>117</v>
+      </c>
+      <c r="C222" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="D222" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="E222" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="F222" s="4" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C223" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="D223" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="E223" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="F223" s="4" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C224" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="D224" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="E224" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="F224" s="4" t="s">
         <v>355</v>
-      </c>
-      <c r="D219" s="4" t="s">
-        <v>357</v>
-      </c>
-      <c r="E219" s="4" t="s">
-        <v>360</v>
-      </c>
-      <c r="F219" s="4" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C220" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="D220" s="4" t="s">
-        <v>357</v>
-      </c>
-      <c r="E220" s="4" t="s">
-        <v>361</v>
-      </c>
-      <c r="F220" s="4" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C221" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="D221" s="4" t="s">
-        <v>357</v>
-      </c>
-      <c r="E221" s="4" t="s">
-        <v>362</v>
-      </c>
-      <c r="F221" s="4" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A222" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="B222" s="4" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A223" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="C223" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="D223" s="4" t="s">
-        <v>357</v>
-      </c>
-      <c r="E223" s="4" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A224" t="s">
-        <v>125</v>
-      </c>
-      <c r="C224" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="D224" s="4" t="s">
-        <v>357</v>
-      </c>
-      <c r="E224" s="4" t="s">
-        <v>359</v>
-      </c>
-      <c r="F224" s="4" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C225" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="D225" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="E225" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="F225" s="4" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A226" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B226" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A227" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C227" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="D227" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="E227" s="4" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A228" t="s">
+        <v>118</v>
+      </c>
+      <c r="C228" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="D228" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="E228" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="F228" s="4" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C229" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="D229" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="E229" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="F229" s="4" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C230" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="D230" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="E230" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="F230" s="4" t="s">
         <v>355</v>
       </c>
-      <c r="D225" s="4" t="s">
-        <v>357</v>
-      </c>
-      <c r="E225" s="4" t="s">
-        <v>360</v>
-      </c>
-      <c r="F225" s="4" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C226" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="D226" s="4" t="s">
-        <v>357</v>
-      </c>
-      <c r="E226" s="4" t="s">
-        <v>361</v>
-      </c>
-      <c r="F226" s="4" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C227" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="D227" s="4" t="s">
-        <v>357</v>
-      </c>
-      <c r="E227" s="4" t="s">
-        <v>362</v>
-      </c>
-      <c r="F227" s="4" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="228" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B228" s="16" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A229" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="B229" s="4" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A230" s="5"/>
-      <c r="B230" s="4"/>
-      <c r="C230" s="5" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="231" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A231" s="19"/>
-      <c r="B231" s="17" t="s">
-        <v>241</v>
-      </c>
-      <c r="C231" s="6"/>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C231" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="D231" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="E231" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="F231" s="4" t="s">
+        <v>356</v>
+      </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A232" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B232" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A233" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C233" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="D233" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="E233" s="4" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A234" t="s">
+        <v>119</v>
+      </c>
+      <c r="C234" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="D234" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="E234" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="F234" s="4" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C235" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="D235" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="E235" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="F235" s="4" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C236" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="D236" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="E236" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="F236" s="4" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C237" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="D237" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="E237" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="F237" s="4" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B238" s="16" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A239" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="B239" s="4" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A240" s="5"/>
+      <c r="B240" s="4"/>
+      <c r="C240" s="5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A241" s="19"/>
+      <c r="B241" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="C241" s="6"/>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A242" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="B232" s="4" t="s">
+      <c r="B242" s="4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C233" s="5" t="s">
-        <v>205</v>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C243" s="5" t="s">
+        <v>198</v>
       </c>
     </row>
   </sheetData>

--- a/P4E_psuedo_instruction_set.xlsx
+++ b/P4E_psuedo_instruction_set.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\P4EngineAssembler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6DE9A96-11D2-4FB8-8DDC-5655A8F18640}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B4734BE-4D2F-4466-9B68-06DA7EFDAF94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="2" xr2:uid="{87164962-7B7D-4BAA-98E0-B9A8D7C47112}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{87164962-7B7D-4BAA-98E0-B9A8D7C47112}"/>
   </bookViews>
   <sheets>
     <sheet name="parser" sheetId="1" r:id="rId1"/>
@@ -6208,9 +6208,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA14F7B7-5F50-4FFB-AE20-84853F321386}">
   <dimension ref="A1:I173"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C128" sqref="C128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.2"/>
@@ -8185,7 +8185,7 @@
     <row r="116" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B116" s="2"/>
       <c r="C116" s="2" t="s">
-        <v>252</v>
+        <v>312</v>
       </c>
       <c r="D116" s="2" t="s">
         <v>310</v>
@@ -8289,7 +8289,7 @@
     <row r="122" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B122" s="2"/>
       <c r="C122" s="2" t="s">
-        <v>252</v>
+        <v>312</v>
       </c>
       <c r="D122" s="2" t="s">
         <v>310</v>
@@ -8387,7 +8387,7 @@
     <row r="128" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B128" s="2"/>
       <c r="C128" s="2" t="s">
-        <v>252</v>
+        <v>312</v>
       </c>
       <c r="D128" s="2" t="s">
         <v>310</v>
@@ -9813,7 +9813,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{988C78EB-4E00-466C-9BD2-B10965380DEB}">
   <dimension ref="A1:I243"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A180" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A201" sqref="A201"/>
     </sheetView>

--- a/P4E_psuedo_instruction_set.xlsx
+++ b/P4E_psuedo_instruction_set.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\P4EngineAssembler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50254C9C-03CB-451B-BB94-518E3462E342}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D07DCFFC-F8BF-4804-9E3C-36D167D3A06C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22665" yWindow="4860" windowWidth="21600" windowHeight="12645" xr2:uid="{87164962-7B7D-4BAA-98E0-B9A8D7C47112}"/>
+    <workbookView xWindow="-38520" yWindow="-3645" windowWidth="38640" windowHeight="21840" activeTab="1" xr2:uid="{87164962-7B7D-4BAA-98E0-B9A8D7C47112}"/>
   </bookViews>
   <sheets>
     <sheet name="parser" sheetId="1" r:id="rId1"/>
@@ -668,7 +668,7 @@
     <author>Dianchao Wang</author>
   </authors>
   <commentList>
-    <comment ref="D6" authorId="0" shapeId="0" xr:uid="{FD23ABF1-9BA5-43EC-BD51-CD1D2C4163A7}">
+    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{FD23ABF1-9BA5-43EC-BD51-CD1D2C4163A7}">
       <text>
         <r>
           <rPr>
@@ -694,7 +694,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E6" authorId="0" shapeId="0" xr:uid="{A072DAF5-C9B0-4947-8A4B-34DF2F362652}">
+    <comment ref="F5" authorId="0" shapeId="0" xr:uid="{A072DAF5-C9B0-4947-8A4B-34DF2F362652}">
       <text>
         <r>
           <rPr>
@@ -720,7 +720,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D9" authorId="0" shapeId="0" xr:uid="{48435A18-75AC-4A01-BDFA-9D53E3A996D4}">
+    <comment ref="E7" authorId="0" shapeId="0" xr:uid="{48435A18-75AC-4A01-BDFA-9D53E3A996D4}">
       <text>
         <r>
           <rPr>
@@ -746,7 +746,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E9" authorId="0" shapeId="0" xr:uid="{E2857198-AF24-4C1C-9596-AE516EE637EB}">
+    <comment ref="F7" authorId="0" shapeId="0" xr:uid="{E2857198-AF24-4C1C-9596-AE516EE637EB}">
       <text>
         <r>
           <rPr>
@@ -772,7 +772,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D11" authorId="0" shapeId="0" xr:uid="{EA2363D6-F85A-42E6-8FFE-DA4AE48A21CC}">
+    <comment ref="F11" authorId="0" shapeId="0" xr:uid="{EA2363D6-F85A-42E6-8FFE-DA4AE48A21CC}">
       <text>
         <r>
           <rPr>
@@ -798,7 +798,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E11" authorId="0" shapeId="0" xr:uid="{F76CD282-689D-4F21-86A6-ED532F7CD372}">
+    <comment ref="G11" authorId="0" shapeId="0" xr:uid="{29E8DBBF-547E-4581-8FAC-49ABB336E6FE}">
       <text>
         <r>
           <rPr>
@@ -824,7 +824,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D12" authorId="0" shapeId="0" xr:uid="{185784FC-5D96-46AC-A768-2C895E7CF7F2}">
+    <comment ref="F13" authorId="0" shapeId="0" xr:uid="{185784FC-5D96-46AC-A768-2C895E7CF7F2}">
       <text>
         <r>
           <rPr>
@@ -850,7 +850,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E12" authorId="0" shapeId="0" xr:uid="{B826A159-F267-4848-98F5-AD093A73E5CD}">
+    <comment ref="G13" authorId="0" shapeId="0" xr:uid="{D8040E88-91B1-4939-9F72-CA608FF9007F}">
       <text>
         <r>
           <rPr>
@@ -876,7 +876,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D16" authorId="0" shapeId="0" xr:uid="{ACD05614-D653-4576-AD66-24BC8BB78B46}">
+    <comment ref="D17" authorId="0" shapeId="0" xr:uid="{ACD05614-D653-4576-AD66-24BC8BB78B46}">
       <text>
         <r>
           <rPr>
@@ -902,7 +902,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D18" authorId="0" shapeId="0" xr:uid="{2D208463-E52D-44A0-82FB-FCF7F6E0CF94}">
+    <comment ref="D19" authorId="0" shapeId="0" xr:uid="{2D208463-E52D-44A0-82FB-FCF7F6E0CF94}">
       <text>
         <r>
           <rPr>
@@ -928,7 +928,111 @@
         </r>
       </text>
     </comment>
-    <comment ref="D55" authorId="0" shapeId="0" xr:uid="{39D8881B-BC18-434C-A8F7-A45AD42A5267}">
+    <comment ref="C32" authorId="0" shapeId="0" xr:uid="{0C0D1569-05B5-4671-BE18-70994A53B622}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Dianchao Wang:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+flow id in metadata</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C36" authorId="0" shapeId="0" xr:uid="{B7B4802A-BD39-4EFD-8EF3-BD5110CA966B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Dianchao Wang:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+flow id in metadata</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G54" authorId="0" shapeId="0" xr:uid="{935D5833-A655-4765-81F8-C6C0E8C143C3}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Dianchao Wang:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+bordered at 4b</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G56" authorId="0" shapeId="0" xr:uid="{28896C20-A56E-4FB2-A2DA-D4EEEF5DF3A8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Dianchao Wang:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+bordered at 4b</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D60" authorId="0" shapeId="0" xr:uid="{39D8881B-BC18-434C-A8F7-A45AD42A5267}">
       <text>
         <r>
           <rPr>
@@ -954,7 +1058,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D57" authorId="0" shapeId="0" xr:uid="{AD6B4964-80AF-492C-A8E5-94AAAA6F6F5F}">
+    <comment ref="D62" authorId="0" shapeId="0" xr:uid="{AD6B4964-80AF-492C-A8E5-94AAAA6F6F5F}">
       <text>
         <r>
           <rPr>
@@ -1177,7 +1281,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1411" uniqueCount="458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1405" uniqueCount="475">
   <si>
     <t>isr SHiFT</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3045,22 +3149,6 @@
   </si>
   <si>
     <r>
-      <t>meta_lshift3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei Light"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> ;</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">flow_id </t>
     </r>
     <r>
@@ -4622,10 +4710,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MDF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0b'00001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4672,13 +4756,30 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">    to be replaced by immediate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">len </t>
-    </r>
+    <t>(bit mask)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COPY data between PHV &lt;---&gt; PHV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    or META &lt;---&gt; META</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    or PHV &lt;---&gt; META</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    or META &lt;---&gt; PHV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(value to use)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -4687,57 +4788,69 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>(1-8) } ,</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>imm32</t>
-    </r>
-    <r>
-      <rPr>
+      <t xml:space="preserve">[ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Microsoft YaHei Light"/>
         <family val="2"/>
         <charset val="134"/>
       </rPr>
+      <t>off9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> ] ;</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>line_offset2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve"> ;</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">    or by AD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    or modify metadata with mask</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(bit mask)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>mask16</t>
-    </r>
-    <r>
-      <rPr>
+    <r>
+      <t xml:space="preserve">PHV [ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Microsoft YaHei Light"/>
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve"> ;</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">len </t>
+      <t>off9</t>
     </r>
     <r>
       <rPr>
@@ -4747,13 +4860,46 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>(1-4) } ,</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
+      <t xml:space="preserve"> ] ,</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>base_addr_h36</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> ,</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>( destination )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> ( source )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
@@ -4761,8 +4907,116 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
+      <t>left_shift3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> } ,</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0b'00100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COUNT packet &amp; byte</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COUNT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">AD [ </t>
     </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>index</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> ] ;</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Meter packet &amp; byte</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>METER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">AD [ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>index</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> ] ,</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0b'00101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0b'00110</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOCK / UnLoCK access to public resource</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOCK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ULCK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -4773,10 +5027,28 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>idx6</t>
-    </r>
-    <r>
-      <rPr>
+      <t>flow_id24</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ;</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>AD [</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
@@ -4784,222 +5056,33 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
+      <t xml:space="preserve"> index</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve"> ] ;</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">    the immediate or AD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0b'00010</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>COPY data between PHV &lt;---&gt; PHV</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    or META &lt;---&gt; META</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    or PHV &lt;---&gt; META</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    or META &lt;---&gt; PHV</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(value to use)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei Light"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
+    <t>0b'10100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0b'10101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">[ </t>
     </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei Light"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>off9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei Light"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> ] ;</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">len </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei Light"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>(1-16) } ,</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0b'00011</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Read Stateful Memory</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei Light"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>line_offset2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei Light"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> ;</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">PHV [ </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei Light"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>off9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei Light"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> ] ,</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei Light"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>base_addr_h36</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei Light"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> ,</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei Light"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">AD { </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei Light"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">index </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei Light"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Write Stateful Memory</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>META { STM_ADDR :</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>( destination )</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> ( source )</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -5010,7 +5093,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>left_shift3</t>
+      <t>dst_off9</t>
     </r>
     <r>
       <rPr>
@@ -5021,23 +5104,101 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> } ,</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0b'00100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>COUNT packet &amp; byte</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>COUNT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
+      <t xml:space="preserve"> ] ;</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(length in 8b / 4b)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0b'10110</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COPYL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0b'10111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5'b11100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5'b11101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AND</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ANDR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ORR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CRC16MO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CRC16MA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CRC32MO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CRC32MA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSUMMO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSUMMA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MSKALL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MSKADDR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>valid bits selection with mask ram</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(offset)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">{ </t>
+    </r>
     <r>
       <rPr>
         <b/>
@@ -5047,7 +5208,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>counter_id24</t>
+      <t>offset5</t>
     </r>
     <r>
       <rPr>
@@ -5057,13 +5218,20 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve"> ;</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">AD [ </t>
+      <t xml:space="preserve"> (in bit) :</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">{ </t>
     </r>
     <r>
       <rPr>
@@ -5074,7 +5242,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>index</t>
+      <t>offset5</t>
     </r>
     <r>
       <rPr>
@@ -5084,21 +5252,144 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve"> ] ;</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Meter packet &amp; byte</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>METER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">META [ </t>
+      <t xml:space="preserve"> (in byte) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0b'00010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0b'00011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(dest selection)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(dest offset)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(src selection)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(offset in 8b / 4b)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">len </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(1-8) } , (in 8b)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">len </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(1-8) } , (in 4b)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(length)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    by MOVing immediate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(dst selection)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>replace field of destination,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    data in AD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MOV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dst selection)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    or</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MDF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MoDiFy field of destination,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    by moving masked immediate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    masked data in AD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MOVL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(counter id)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(meter id)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(flow id)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">PHV [ </t>
     </r>
     <r>
       <rPr>
@@ -5126,6 +5417,48 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>CRC16P1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CRC16P2</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">len </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(1-16) } , (in 8b)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">len </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(1-16) } , (in 4b)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">PHV { </t>
+    </r>
     <r>
       <rPr>
         <b/>
@@ -5135,7 +5468,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>meter_id11</t>
+      <t>src_off9</t>
     </r>
     <r>
       <rPr>
@@ -5145,55 +5478,8 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve"> ,</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">AD [ </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei Light"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>index</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei Light"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> ] ,</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0b'00101</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0b'00110</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LOCK / UnLoCK access to public resource</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LOCK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ULCK</t>
+      <t xml:space="preserve"> :</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -5207,7 +5493,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>flow_id24</t>
+      <t>len</t>
     </r>
     <r>
       <rPr>
@@ -5218,13 +5504,40 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> ;</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>AD [</t>
+      <t xml:space="preserve"> (1-4) } ,</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">PHV [ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>src1_off9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> ] ,</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">META { </t>
     </r>
     <r>
       <rPr>
@@ -5236,32 +5549,10 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> index</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ] ;</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MDFL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">PHV { </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+      <t>src2_off9</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
@@ -5269,22 +5560,48 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>offset9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t xml:space="preserve"> :</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">AD { </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">index6 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">AD { </t>
+    </r>
     <r>
       <rPr>
         <b/>
@@ -5295,7 +5612,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>len</t>
+      <t>index6</t>
     </r>
     <r>
       <rPr>
@@ -5306,14 +5623,37 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> (1-16) } ,</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
+      <t xml:space="preserve"> :</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RSM16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RSM32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WSM16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WSM32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0b'11000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0b'00111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
@@ -5321,23 +5661,6 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>imm32</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ;</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">AD [ </t>
     </r>
     <r>
@@ -5357,18 +5680,47 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="2"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> ] ;</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">ADDR [ </t>
-    </r>
+      <t xml:space="preserve"> ] ,</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>mask16</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> ,</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">len </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(1-2) } ;</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -5379,36 +5731,10 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>imm10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ] ;</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0b'10100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0b'10101</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">[ </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+      <t xml:space="preserve">id24 </t>
+    </r>
+    <r>
+      <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
@@ -5416,7 +5742,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>dst_off9</t>
+      <t>(hex)</t>
     </r>
     <r>
       <rPr>
@@ -5427,14 +5753,59 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> ] ;</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">[ </t>
-    </r>
+      <t xml:space="preserve"> ;</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>id12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> (hex) ,</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>id24</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> (hex) ;</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -5445,7 +5816,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>src_off9</t>
+      <t>IMM_L8B</t>
     </r>
     <r>
       <rPr>
@@ -5456,14 +5827,11 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> ] ,</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">[ </t>
-    </r>
+      <t xml:space="preserve"> (hex) , </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -5474,7 +5842,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>src1_off9</t>
+      <t>IMM_H</t>
     </r>
     <r>
       <rPr>
@@ -5485,14 +5853,11 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> ] ,</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">[ </t>
-    </r>
+      <t xml:space="preserve"> (hex, 1-8) , </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -5503,7 +5868,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>src2_off9</t>
+      <t>len6</t>
     </r>
     <r>
       <rPr>
@@ -5514,107 +5879,14 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> ] ,</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(length in 8b / 4b)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0b'10110</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>COPYL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0b'10111</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RSM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WSM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RSML</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WSML</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5'b11100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5'b11101</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AND</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ANDR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ORR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CRC16MO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CRC16MA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CRC32MO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CRC32MA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CSUMMO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CSUMMA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MSKALL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MSKADDR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>valid bits selection with mask ram</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(offset)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
+      <t xml:space="preserve"> (1-40) } ,</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>meta_lshift3</t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -5623,73 +5895,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">{ </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei Light"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>offset5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei Light"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> (in bit) :</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei Light"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">{ </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei Light"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>offset5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei Light"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> (in byte) </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei Light"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>:</t>
+      <t xml:space="preserve"> ,</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -5762,7 +5968,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5772,6 +5978,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5790,7 +6002,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5846,6 +6058,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -6193,9 +6408,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA14F7B7-5F50-4FFB-AE20-84853F321386}">
   <dimension ref="A1:I173"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D127" sqref="D127"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D79" sqref="D79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.2"/>
@@ -6219,15 +6434,15 @@
       <c r="B1" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
     </row>
     <row r="2" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B2" s="13" t="s">
@@ -6242,7 +6457,7 @@
         <v>157</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>25</v>
@@ -6266,7 +6481,7 @@
         <v>195</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>284</v>
@@ -6284,7 +6499,7 @@
         <v>249</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>285</v>
@@ -6325,7 +6540,7 @@
         <v>158</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>26</v>
@@ -6355,10 +6570,10 @@
         <v>283</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>287</v>
@@ -6367,7 +6582,7 @@
         <v>195</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>284</v>
@@ -6382,10 +6597,10 @@
         <v>283</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>287</v>
@@ -6394,7 +6609,7 @@
         <v>249</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>285</v>
@@ -6406,10 +6621,10 @@
         <v>283</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>287</v>
@@ -6426,10 +6641,10 @@
         <v>283</v>
       </c>
       <c r="D12" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>306</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>307</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>287</v>
@@ -6438,7 +6653,7 @@
         <v>195</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>284</v>
@@ -6450,10 +6665,10 @@
         <v>283</v>
       </c>
       <c r="D13" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>306</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>307</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>287</v>
@@ -6462,7 +6677,7 @@
         <v>249</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>285</v>
@@ -6474,10 +6689,10 @@
         <v>283</v>
       </c>
       <c r="D14" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>306</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>307</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>287</v>
@@ -6530,10 +6745,10 @@
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B17" s="2"/>
       <c r="C17" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>287</v>
@@ -6542,7 +6757,7 @@
         <v>195</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>284</v>
@@ -6552,10 +6767,10 @@
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B18" s="2"/>
       <c r="C18" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>287</v>
@@ -6564,7 +6779,7 @@
         <v>249</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>285</v>
@@ -6574,10 +6789,10 @@
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B19" s="2"/>
       <c r="C19" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>287</v>
@@ -6592,10 +6807,10 @@
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B20" s="2"/>
       <c r="C20" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>306</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>307</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>287</v>
@@ -6604,7 +6819,7 @@
         <v>195</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>284</v>
@@ -6614,10 +6829,10 @@
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B21" s="2"/>
       <c r="C21" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>306</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>307</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>287</v>
@@ -6626,7 +6841,7 @@
         <v>249</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>285</v>
@@ -6636,10 +6851,10 @@
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B22" s="2"/>
       <c r="C22" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>306</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>307</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>287</v>
@@ -6696,10 +6911,10 @@
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>287</v>
@@ -6708,7 +6923,7 @@
         <v>195</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>284</v>
@@ -6718,10 +6933,10 @@
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B26" s="2"/>
       <c r="C26" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>287</v>
@@ -6730,7 +6945,7 @@
         <v>249</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>285</v>
@@ -6740,10 +6955,10 @@
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B27" s="2"/>
       <c r="C27" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>287</v>
@@ -6758,10 +6973,10 @@
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B28" s="2"/>
       <c r="C28" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>306</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>307</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>287</v>
@@ -6770,7 +6985,7 @@
         <v>195</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H28" s="2" t="s">
         <v>284</v>
@@ -6780,10 +6995,10 @@
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B29" s="2"/>
       <c r="C29" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>306</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>307</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>287</v>
@@ -6792,7 +7007,7 @@
         <v>249</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>285</v>
@@ -6802,10 +7017,10 @@
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B30" s="2"/>
       <c r="C30" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>306</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>307</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>287</v>
@@ -6872,22 +7087,22 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C34" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>287</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>195</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I34" s="2" t="s">
         <v>284</v>
@@ -6895,22 +7110,22 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C35" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>287</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>249</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I35" s="2" t="s">
         <v>285</v>
@@ -6918,16 +7133,16 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C36" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>287</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>286</v>
@@ -6937,22 +7152,22 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C37" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="D37" s="2" t="s">
         <v>306</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>307</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>287</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>195</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I37" s="2" t="s">
         <v>284</v>
@@ -6960,22 +7175,22 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C38" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="D38" s="2" t="s">
         <v>306</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>307</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>287</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>249</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I38" s="2" t="s">
         <v>285</v>
@@ -6983,16 +7198,16 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C39" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="D39" s="2" t="s">
         <v>306</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>307</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>287</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>286</v>
@@ -7002,10 +7217,10 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C40" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>287</v>
@@ -7017,7 +7232,7 @@
         <v>195</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I40" s="2" t="s">
         <v>284</v>
@@ -7025,10 +7240,10 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C41" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>287</v>
@@ -7040,7 +7255,7 @@
         <v>249</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I41" s="2" t="s">
         <v>285</v>
@@ -7048,10 +7263,10 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C42" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>287</v>
@@ -7067,10 +7282,10 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C43" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="D43" s="2" t="s">
         <v>306</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>307</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>287</v>
@@ -7082,7 +7297,7 @@
         <v>195</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I43" s="2" t="s">
         <v>284</v>
@@ -7090,10 +7305,10 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C44" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="D44" s="2" t="s">
         <v>306</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>307</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>287</v>
@@ -7105,7 +7320,7 @@
         <v>249</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I44" s="2" t="s">
         <v>285</v>
@@ -7113,10 +7328,10 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C45" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="D45" s="2" t="s">
         <v>306</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>307</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>287</v>
@@ -7144,10 +7359,10 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>23</v>
@@ -7171,13 +7386,13 @@
       </c>
       <c r="B48" s="2"/>
       <c r="C48" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>195</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>284</v>
@@ -7189,13 +7404,13 @@
     <row r="49" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B49" s="2"/>
       <c r="C49" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>249</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>285</v>
@@ -7207,7 +7422,7 @@
     <row r="50" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B50" s="2"/>
       <c r="C50" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>286</v>
@@ -7221,13 +7436,13 @@
     <row r="51" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B51" s="2"/>
       <c r="C51" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>195</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>284</v>
@@ -7239,13 +7454,13 @@
     <row r="52" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B52" s="2"/>
       <c r="C52" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>249</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>285</v>
@@ -7257,7 +7472,7 @@
     <row r="53" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B53" s="2"/>
       <c r="C53" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>286</v>
@@ -7271,13 +7486,13 @@
     <row r="54" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B54" s="2"/>
       <c r="C54" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>195</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>284</v>
@@ -7289,13 +7504,13 @@
     <row r="55" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B55" s="2"/>
       <c r="C55" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>249</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>285</v>
@@ -7307,7 +7522,7 @@
     <row r="56" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B56" s="2"/>
       <c r="C56" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>286</v>
@@ -7321,13 +7536,13 @@
     <row r="57" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B57" s="2"/>
       <c r="C57" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>195</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>284</v>
@@ -7339,13 +7554,13 @@
     <row r="58" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B58" s="2"/>
       <c r="C58" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>249</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>285</v>
@@ -7357,7 +7572,7 @@
     <row r="59" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B59" s="2"/>
       <c r="C59" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>286</v>
@@ -7371,13 +7586,13 @@
     <row r="60" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B60" s="2"/>
       <c r="C60" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>195</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>284</v>
@@ -7389,13 +7604,13 @@
     <row r="61" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B61" s="2"/>
       <c r="C61" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>249</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>285</v>
@@ -7407,7 +7622,7 @@
     <row r="62" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B62" s="2"/>
       <c r="C62" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>286</v>
@@ -7421,13 +7636,13 @@
     <row r="63" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B63" s="2"/>
       <c r="C63" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>195</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>284</v>
@@ -7439,13 +7654,13 @@
     <row r="64" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B64" s="2"/>
       <c r="C64" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>249</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>285</v>
@@ -7457,7 +7672,7 @@
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B65" s="2"/>
       <c r="C65" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>286</v>
@@ -7471,13 +7686,13 @@
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B66" s="2"/>
       <c r="C66" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>195</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>284</v>
@@ -7489,13 +7704,13 @@
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B67" s="2"/>
       <c r="C67" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>249</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>285</v>
@@ -7507,7 +7722,7 @@
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B68" s="2"/>
       <c r="C68" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>286</v>
@@ -7521,13 +7736,13 @@
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B69" s="2"/>
       <c r="C69" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>195</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>284</v>
@@ -7539,13 +7754,13 @@
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B70" s="2"/>
       <c r="C70" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>249</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>285</v>
@@ -7557,7 +7772,7 @@
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B71" s="2"/>
       <c r="C71" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>286</v>
@@ -7571,13 +7786,13 @@
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B72" s="2"/>
       <c r="C72" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>195</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>284</v>
@@ -7589,13 +7804,13 @@
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B73" s="2"/>
       <c r="C73" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>249</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>285</v>
@@ -7607,7 +7822,7 @@
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B74" s="2"/>
       <c r="C74" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>286</v>
@@ -7649,10 +7864,10 @@
         <v>208</v>
       </c>
       <c r="D77" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E77" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>77</v>
       </c>
       <c r="G77" s="2"/>
       <c r="H77" s="2"/>
@@ -7663,10 +7878,10 @@
       <c r="C78" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="D78" s="2" t="s">
+      <c r="D78" s="2"/>
+      <c r="E78" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="E78" s="2"/>
       <c r="G78" s="2"/>
       <c r="H78" s="2"/>
       <c r="I78" s="2"/>
@@ -7677,10 +7892,10 @@
         <v>289</v>
       </c>
       <c r="D79" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="E79" s="2" t="s">
         <v>290</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>291</v>
       </c>
       <c r="G79" s="2"/>
       <c r="H79" s="2"/>
@@ -7696,7 +7911,6 @@
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
       <c r="E80" s="2"/>
-      <c r="F80" s="2"/>
       <c r="G80" s="2"/>
       <c r="H80" s="2"/>
       <c r="I80" s="2"/>
@@ -7706,11 +7920,10 @@
       <c r="C81" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="D81" s="2" t="s">
+      <c r="D81" s="2"/>
+      <c r="E81" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="E81" s="2"/>
-      <c r="F81" s="2"/>
       <c r="G81" s="2"/>
       <c r="H81" s="2"/>
       <c r="I81" s="2"/>
@@ -7721,12 +7934,11 @@
         <v>289</v>
       </c>
       <c r="D82" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="E82" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="E82" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="F82" s="2"/>
       <c r="G82" s="2"/>
       <c r="H82" s="2"/>
       <c r="I82" s="2"/>
@@ -7782,7 +7994,7 @@
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B87" s="2"/>
       <c r="C87" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" s="2"/>
@@ -7842,7 +8054,7 @@
     <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B92" s="2"/>
       <c r="C92" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" s="2"/>
@@ -7923,7 +8135,7 @@
     <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B98" s="2"/>
       <c r="C98" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D98" s="2"/>
       <c r="F98" s="2"/>
@@ -7934,10 +8146,10 @@
     <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B99" s="2"/>
       <c r="C99" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="D99" s="2" t="s">
         <v>294</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>295</v>
       </c>
       <c r="F99" s="2"/>
       <c r="G99" s="2"/>
@@ -7947,10 +8159,10 @@
     <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B100" s="2"/>
       <c r="C100" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F100" s="2"/>
       <c r="G100" s="2"/>
@@ -7960,10 +8172,10 @@
     <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B101" s="2"/>
       <c r="C101" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F101" s="2"/>
       <c r="G101" s="2"/>
@@ -7972,10 +8184,10 @@
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B102" s="2"/>
-      <c r="C102" s="20" t="s">
+      <c r="C102" s="21" t="s">
         <v>198</v>
       </c>
-      <c r="D102" s="20"/>
+      <c r="D102" s="21"/>
       <c r="F102" s="2"/>
       <c r="G102" s="2"/>
       <c r="H102" s="2"/>
@@ -7984,7 +8196,7 @@
     <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B103" s="2"/>
       <c r="D103" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F103" s="2"/>
       <c r="G103" s="2"/>
@@ -7994,7 +8206,7 @@
     <row r="104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B104" s="2"/>
       <c r="D104" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F104" s="2"/>
       <c r="G104" s="2"/>
@@ -8004,7 +8216,7 @@
     <row r="105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B105" s="2"/>
       <c r="D105" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F105" s="2"/>
       <c r="G105" s="2"/>
@@ -8047,10 +8259,10 @@
     <row r="108" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B108" s="2"/>
       <c r="C108" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F108" s="2"/>
       <c r="G108" s="2"/>
@@ -8060,10 +8272,10 @@
     <row r="109" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B109" s="2"/>
       <c r="C109" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F109" s="2"/>
       <c r="G109" s="2"/>
@@ -8073,13 +8285,13 @@
     <row r="110" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B110" s="2"/>
       <c r="C110" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F110" s="2"/>
       <c r="G110" s="2"/>
@@ -8089,10 +8301,10 @@
     <row r="111" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B111" s="2"/>
       <c r="C111" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="E111" s="2" t="s">
         <v>301</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>302</v>
       </c>
       <c r="F111" s="2"/>
       <c r="G111" s="2"/>
@@ -8137,7 +8349,7 @@
         <v>23</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>455</v>
+        <v>421</v>
       </c>
       <c r="E114" s="1" t="s">
         <v>24</v>
@@ -8155,10 +8367,10 @@
         <v>195</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>457</v>
+        <v>423</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>201</v>
@@ -8170,16 +8382,16 @@
     <row r="116" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B116" s="2"/>
       <c r="C116" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>456</v>
+        <v>422</v>
       </c>
       <c r="E116" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="F116" s="2" t="s">
         <v>303</v>
-      </c>
-      <c r="F116" s="2" t="s">
-        <v>304</v>
       </c>
       <c r="G116" s="2"/>
       <c r="H116" s="2"/>
@@ -8188,16 +8400,16 @@
     <row r="117" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B117" s="2"/>
       <c r="C117" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>456</v>
+        <v>422</v>
       </c>
       <c r="E117" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="F117" s="2" t="s">
         <v>303</v>
-      </c>
-      <c r="F117" s="2" t="s">
-        <v>304</v>
       </c>
       <c r="G117" s="2"/>
       <c r="H117" s="2"/>
@@ -8241,7 +8453,7 @@
         <v>23</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>455</v>
+        <v>421</v>
       </c>
       <c r="E120" s="1" t="s">
         <v>24</v>
@@ -8259,10 +8471,10 @@
         <v>195</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>457</v>
+        <v>423</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>201</v>
@@ -8274,16 +8486,16 @@
     <row r="122" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B122" s="2"/>
       <c r="C122" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>456</v>
+        <v>422</v>
       </c>
       <c r="E122" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="F122" s="2" t="s">
         <v>303</v>
-      </c>
-      <c r="F122" s="2" t="s">
-        <v>304</v>
       </c>
       <c r="G122" s="2"/>
       <c r="H122" s="2"/>
@@ -8292,16 +8504,16 @@
     <row r="123" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B123" s="2"/>
       <c r="C123" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>456</v>
+        <v>422</v>
       </c>
       <c r="E123" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="F123" s="2" t="s">
         <v>303</v>
-      </c>
-      <c r="F123" s="2" t="s">
-        <v>304</v>
       </c>
       <c r="G123" s="2"/>
       <c r="H123" s="2"/>
@@ -8340,7 +8552,7 @@
         <v>23</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>455</v>
+        <v>421</v>
       </c>
       <c r="E126" s="1" t="s">
         <v>24</v>
@@ -8357,10 +8569,10 @@
         <v>195</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>457</v>
+        <v>423</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>201</v>
@@ -8372,16 +8584,16 @@
     <row r="128" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B128" s="2"/>
       <c r="C128" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>456</v>
+        <v>422</v>
       </c>
       <c r="E128" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="F128" s="2" t="s">
         <v>303</v>
-      </c>
-      <c r="F128" s="2" t="s">
-        <v>304</v>
       </c>
       <c r="G128" s="2"/>
       <c r="H128" s="2"/>
@@ -8390,16 +8602,16 @@
     <row r="129" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B129" s="2"/>
       <c r="C129" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>456</v>
+        <v>422</v>
       </c>
       <c r="E129" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="F129" s="2" t="s">
         <v>303</v>
-      </c>
-      <c r="F129" s="2" t="s">
-        <v>304</v>
       </c>
       <c r="G129" s="2"/>
       <c r="H129" s="2"/>
@@ -8780,16 +8992,16 @@
         <v>280</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E157" s="2" t="s">
         <v>281</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H157" s="14" t="s">
         <v>282</v>
@@ -8800,12 +9012,12 @@
         <v>280</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E158" s="2"/>
       <c r="F158" s="2"/>
       <c r="G158" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H158" s="14" t="s">
         <v>282</v>
@@ -8818,10 +9030,10 @@
         <v>281</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H159" s="14" t="s">
         <v>282</v>
@@ -8833,7 +9045,7 @@
       <c r="E160" s="2"/>
       <c r="F160" s="2"/>
       <c r="G160" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H160" s="14" t="s">
         <v>282</v>
@@ -8844,7 +9056,7 @@
         <v>280</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E161" s="2"/>
       <c r="F161" s="2"/>
@@ -8860,7 +9072,7 @@
         <v>281</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G162" s="2"/>
       <c r="H162" s="14" t="s">
@@ -8907,7 +9119,7 @@
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C167" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.2">
@@ -8945,7 +9157,7 @@
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C172" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.2">
@@ -8966,22 +9178,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{732D935C-EC39-4DBE-84B4-44CD168E0101}">
-  <dimension ref="A1:I66"/>
+  <dimension ref="A1:I70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B59" sqref="B59"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A70" sqref="A70:XFD70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="36.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="17.75" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.625" bestFit="1" customWidth="1"/>
   </cols>
@@ -8993,27 +9204,39 @@
       <c r="B1" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
     </row>
     <row r="2" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B2" s="15" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>81</v>
+        <v>435</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>369</v>
+        <v>437</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>402</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -9021,772 +9244,753 @@
     </row>
     <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="G4" t="s">
-        <v>379</v>
+        <v>433</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>284</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
-      <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>465</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B6" s="2"/>
-      <c r="C6" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>373</v>
-      </c>
       <c r="E6" s="2" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>376</v>
+        <v>284</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
+        <v>436</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>465</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="B8" s="15" t="s">
+        <v>424</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="6"/>
+    </row>
+    <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="C8" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="C9" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>382</v>
+      <c r="D9" t="s">
+        <v>372</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>378</v>
-      </c>
-      <c r="F10" s="1"/>
+        <v>442</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
-        <v>383</v>
-      </c>
       <c r="C11" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>381</v>
-      </c>
       <c r="F11" s="2" t="s">
-        <v>353</v>
+        <v>371</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>380</v>
+        <v>284</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="C12" s="2" t="s">
+      <c r="A12" s="5" t="s">
+        <v>439</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>465</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>465</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>382</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="15" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
-        <v>385</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E14" s="1" t="s">
+      <c r="F13" s="2" t="s">
         <v>371</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="15" t="s">
+        <v>425</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>386</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="D15" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>390</v>
+      <c r="B15" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>249</v>
+        <v>195</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>375</v>
+        <v>430</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>249</v>
+        <v>195</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>390</v>
+        <v>378</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
-        <v>388</v>
+        <v>375</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>195</v>
+        <v>249</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>375</v>
+        <v>431</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>249</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>390</v>
+        <v>378</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
+        <v>376</v>
+      </c>
       <c r="C18" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="F18" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="F18" s="2" t="s">
+      <c r="G18" s="2" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="C19" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="F19" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="G18" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="15" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>393</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>436</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="D20" s="19" t="s">
-        <v>401</v>
-      </c>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
+      <c r="G19" s="2" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="15" t="s">
+        <v>385</v>
+      </c>
     </row>
     <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B21" s="4"/>
+      <c r="A21" t="s">
+        <v>386</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>387</v>
+      </c>
       <c r="C21" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>394</v>
+        <v>445</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>402</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>394</v>
+        <v>470</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="C24" s="1" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="15" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>389</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D26" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="B27" s="4"/>
+      <c r="C27" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="D27" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="B28" s="4"/>
+      <c r="C28" s="1"/>
+      <c r="D28" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="C29" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D29" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="15" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>394</v>
+      </c>
+      <c r="B31" s="4" t="s">
         <v>395</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="C31" s="1" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B32" s="4"/>
+      <c r="C32" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B33" s="4"/>
+      <c r="C33" s="5" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B34" s="4"/>
+      <c r="C34" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B35" s="15" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B36" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="C36" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C37" s="5" t="s">
         <v>397</v>
       </c>
-      <c r="E23" s="5" t="s">
-        <v>402</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C38" t="s">
         <v>398</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>437</v>
-      </c>
-      <c r="C24" s="1" t="s">
+    </row>
+    <row r="39" spans="2:5" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="40" spans="2:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="15" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B41" s="4" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B42" s="4"/>
+      <c r="C42" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="D42" s="5"/>
+      <c r="E42" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C43" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="E43" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C44" t="s">
+        <v>458</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>454</v>
+      </c>
+      <c r="E44" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B45" s="15" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B46" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B47" s="4" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B48" s="4" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B49" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B50" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B51" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B52" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="C53" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>473</v>
+      </c>
+      <c r="E53" s="5"/>
+      <c r="F53" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="G53" t="s">
         <v>401</v>
       </c>
-      <c r="D24" s="21" t="s">
-        <v>400</v>
-      </c>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-    </row>
-    <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B25" s="4"/>
-      <c r="C25" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="C26" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>402</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="C27" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>402</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="15" t="s">
+    </row>
+    <row r="54" spans="2:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="C54" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>473</v>
+      </c>
+      <c r="E54" s="5"/>
+      <c r="F54" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="G54" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="C55" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>456</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>473</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="G55" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="C56" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>456</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>473</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="G56" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B57" s="15" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+    <row r="58" spans="2:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="B58" s="4" t="s">
         <v>404</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="C58" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="C59" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="C60" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="C61" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="62" spans="2:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="C62" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="63" spans="2:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B63" s="15" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="C30" s="1" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="C31" s="1" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="15" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>408</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>409</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="D33" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="C34" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="D34" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="15" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>415</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B37" s="4" t="s">
-        <v>417</v>
-      </c>
-      <c r="C37" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C38" s="5" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C39" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="15" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B42" s="4" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C43" t="s">
-        <v>421</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>422</v>
-      </c>
-      <c r="E43" s="5" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C44" t="s">
-        <v>421</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>422</v>
-      </c>
-      <c r="E44" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C45" t="s">
-        <v>421</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>422</v>
-      </c>
-      <c r="E45" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="15" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B47" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B48" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="D48" t="s">
-        <v>429</v>
-      </c>
-      <c r="G48" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="H48" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="49" spans="2:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B49" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="D49" t="s">
-        <v>429</v>
-      </c>
-      <c r="G49" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="H49" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="50" spans="2:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B50" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="D50" t="s">
-        <v>430</v>
-      </c>
-      <c r="E50" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="F50" t="s">
-        <v>431</v>
-      </c>
-      <c r="G50" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="H50" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="51" spans="2:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B51" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="D51" t="s">
-        <v>430</v>
-      </c>
-      <c r="E51" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="F51" t="s">
-        <v>431</v>
-      </c>
-      <c r="G51" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="H51" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="52" spans="2:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="15" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="53" spans="2:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B53" s="4" t="s">
-        <v>434</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="54" spans="2:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="C54" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="G54" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="55" spans="2:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="C55" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="G55" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="56" spans="2:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="C56" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="G56" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="57" spans="2:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="C57" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="G57" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="58" spans="2:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="15" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="59" spans="2:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B59" s="4" t="s">
-        <v>438</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="D59" s="19" t="s">
-        <v>401</v>
-      </c>
-      <c r="E59" s="19"/>
-      <c r="F59" s="19"/>
-    </row>
-    <row r="60" spans="2:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B60" s="4"/>
-      <c r="C60" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="61" spans="2:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="C61" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="E61" s="5" t="s">
-        <v>402</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="62" spans="2:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="C62" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="E62" s="5" t="s">
-        <v>402</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="63" spans="2:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B63" s="4" t="s">
-        <v>439</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="D63" s="21" t="s">
-        <v>400</v>
-      </c>
-      <c r="E63" s="21"/>
-      <c r="F63" s="21"/>
-    </row>
-    <row r="64" spans="2:8" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B64" s="4"/>
+    <row r="64" spans="2:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="B64" s="4" t="s">
+        <v>459</v>
+      </c>
       <c r="C64" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="65" spans="3:6" ht="16.5" x14ac:dyDescent="0.2">
+        <v>382</v>
+      </c>
+      <c r="D64" s="20" t="s">
+        <v>383</v>
+      </c>
+      <c r="E64" s="20"/>
+      <c r="F64" s="20"/>
+    </row>
+    <row r="65" spans="2:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="B65" s="4" t="s">
+        <v>460</v>
+      </c>
       <c r="C65" s="1" t="s">
-        <v>395</v>
+        <v>380</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="E65" s="5" t="s">
-        <v>402</v>
+        <v>381</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="66" spans="3:6" ht="16.5" x14ac:dyDescent="0.2">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
-        <v>395</v>
+        <v>380</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>397</v>
+        <v>457</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>402</v>
+        <v>384</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>394</v>
+        <v>379</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="B67" s="15" t="s">
+        <v>463</v>
+      </c>
+      <c r="C67" s="9"/>
+      <c r="D67" s="8"/>
+      <c r="E67" s="18"/>
+      <c r="F67" s="9"/>
+    </row>
+    <row r="68" spans="2:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="B68" s="4" t="s">
+        <v>461</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="D68" s="22" t="s">
+        <v>382</v>
+      </c>
+      <c r="E68" s="22"/>
+      <c r="F68" s="22"/>
+    </row>
+    <row r="69" spans="2:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="B69" s="4" t="s">
+        <v>462</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="70" spans="2:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="C70" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>379</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="3">
     <mergeCell ref="C1:I1"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="D59:F59"/>
-    <mergeCell ref="D63:F63"/>
+    <mergeCell ref="D64:F64"/>
+    <mergeCell ref="D68:F68"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9799,7 +10003,7 @@
   <dimension ref="A1:I243"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A180" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A198" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A201" sqref="A201"/>
     </sheetView>
   </sheetViews>
@@ -9823,15 +10027,15 @@
       <c r="B1" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
     </row>
     <row r="2" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B2" s="15" t="s">
@@ -9848,7 +10052,7 @@
         <v>98</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -9856,7 +10060,7 @@
         <v>97</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -9864,7 +10068,7 @@
         <v>264</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C6" s="4"/>
     </row>
@@ -10054,7 +10258,7 @@
         <v>195</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>269</v>
@@ -10068,7 +10272,7 @@
         <v>196</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>269</v>
@@ -10082,7 +10286,7 @@
         <v>197</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>269</v>
@@ -10096,7 +10300,7 @@
         <v>195</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>269</v>
@@ -10110,7 +10314,7 @@
         <v>196</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>269</v>
@@ -10124,7 +10328,7 @@
         <v>197</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>269</v>
@@ -10138,7 +10342,7 @@
         <v>195</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>269</v>
@@ -10152,7 +10356,7 @@
         <v>196</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>269</v>
@@ -10166,7 +10370,7 @@
         <v>197</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>269</v>
@@ -10180,7 +10384,7 @@
         <v>195</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>272</v>
@@ -10194,7 +10398,7 @@
         <v>196</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>272</v>
@@ -10208,7 +10412,7 @@
         <v>197</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>272</v>
@@ -10222,7 +10426,7 @@
         <v>195</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>206</v>
@@ -10236,7 +10440,7 @@
         <v>196</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>206</v>
@@ -10250,7 +10454,7 @@
         <v>197</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E38" s="5" t="s">
         <v>206</v>
@@ -10264,7 +10468,7 @@
         <v>195</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E39" s="5" t="s">
         <v>206</v>
@@ -10278,7 +10482,7 @@
         <v>196</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E40" s="5" t="s">
         <v>206</v>
@@ -10292,7 +10496,7 @@
         <v>197</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E41" s="5" t="s">
         <v>206</v>
@@ -10306,7 +10510,7 @@
         <v>195</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E42" s="5" t="s">
         <v>206</v>
@@ -10320,7 +10524,7 @@
         <v>196</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E43" s="5" t="s">
         <v>206</v>
@@ -10334,7 +10538,7 @@
         <v>197</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E44" s="5" t="s">
         <v>206</v>
@@ -10348,7 +10552,7 @@
         <v>195</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E45" s="5" t="s">
         <v>203</v>
@@ -10362,7 +10566,7 @@
         <v>196</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E46" s="5" t="s">
         <v>203</v>
@@ -10376,7 +10580,7 @@
         <v>197</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E47" s="5" t="s">
         <v>203</v>
@@ -10735,7 +10939,7 @@
     </row>
     <row r="79" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -10743,94 +10947,94 @@
         <v>100</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>57</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A81" s="1"/>
       <c r="B81" s="2"/>
       <c r="C81" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A82" s="1"/>
       <c r="B82" s="2"/>
       <c r="C82" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A83" s="1"/>
       <c r="B83" s="2"/>
       <c r="C83" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A84" s="1"/>
       <c r="B84" s="2"/>
       <c r="C84" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A85" s="1"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="C86" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A87" s="1"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A88" s="1"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="89" spans="1:5" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -10846,86 +11050,86 @@
         <v>99</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>89</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A91" s="1"/>
       <c r="B91" s="2"/>
       <c r="C91" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A92" s="1"/>
       <c r="B92" s="2"/>
       <c r="C92" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A93" s="1"/>
       <c r="B93" s="2"/>
       <c r="C93" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="C94" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="C95" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="C96" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="97" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="C97" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="98" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="C98" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="99" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -10970,16 +11174,16 @@
         <v>195</v>
       </c>
       <c r="E101" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="F101" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="G101" s="4" t="s">
         <v>310</v>
       </c>
-      <c r="F101" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="G101" s="4" t="s">
+      <c r="H101" s="4" t="s">
         <v>311</v>
-      </c>
-      <c r="H101" s="4" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="102" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
@@ -10987,7 +11191,7 @@
         <v>200</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="103" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
@@ -10995,7 +11199,7 @@
         <v>200</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
@@ -11003,7 +11207,7 @@
         <v>200</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="105" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -11026,16 +11230,16 @@
         <v>195</v>
       </c>
       <c r="E107" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="F107" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="G107" s="4" t="s">
         <v>310</v>
       </c>
-      <c r="F107" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="G107" s="4" t="s">
+      <c r="H107" s="4" t="s">
         <v>311</v>
-      </c>
-      <c r="H107" s="4" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="108" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
@@ -11043,7 +11247,7 @@
         <v>200</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="109" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
@@ -11051,7 +11255,7 @@
         <v>200</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="110" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
@@ -11059,7 +11263,7 @@
         <v>200</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="111" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -11133,7 +11337,7 @@
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" s="5"/>
       <c r="B119" s="4" t="s">
-        <v>442</v>
+        <v>408</v>
       </c>
       <c r="C119" s="5" t="s">
         <v>253</v>
@@ -11166,7 +11370,7 @@
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B122" s="4" t="s">
-        <v>443</v>
+        <v>409</v>
       </c>
       <c r="C122" s="4"/>
       <c r="D122" s="4"/>
@@ -11188,13 +11392,13 @@
     </row>
     <row r="125" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B125" s="15" t="s">
-        <v>440</v>
+        <v>406</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" s="5"/>
       <c r="B126" s="4" t="s">
-        <v>444</v>
+        <v>410</v>
       </c>
       <c r="C126" s="5" t="s">
         <v>253</v>
@@ -11219,7 +11423,7 @@
     </row>
     <row r="128" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B128" s="15" t="s">
-        <v>441</v>
+        <v>407</v>
       </c>
       <c r="C128" s="6"/>
       <c r="D128" s="6"/>
@@ -11227,7 +11431,7 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B129" s="4" t="s">
-        <v>445</v>
+        <v>411</v>
       </c>
       <c r="C129" s="4"/>
       <c r="D129" s="4"/>
@@ -11261,13 +11465,13 @@
     <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" s="5"/>
       <c r="B134" s="17" t="s">
-        <v>447</v>
+        <v>413</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" s="5"/>
       <c r="B135" s="17" t="s">
-        <v>446</v>
+        <v>412</v>
       </c>
     </row>
     <row r="136" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -11285,13 +11489,13 @@
     <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" s="5"/>
       <c r="B138" s="17" t="s">
-        <v>449</v>
+        <v>415</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" s="5"/>
       <c r="B139" s="17" t="s">
-        <v>448</v>
+        <v>414</v>
       </c>
     </row>
     <row r="140" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -11309,19 +11513,19 @@
     <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142" s="5"/>
       <c r="B142" s="17" t="s">
-        <v>451</v>
+        <v>417</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" s="5"/>
       <c r="B143" s="17" t="s">
-        <v>450</v>
+        <v>416</v>
       </c>
       <c r="C143" s="4" t="s">
         <v>195</v>
       </c>
       <c r="D143" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E143" s="4" t="s">
         <v>246</v>
@@ -11332,7 +11536,7 @@
         <v>196</v>
       </c>
       <c r="D144" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E144" s="4" t="s">
         <v>246</v>
@@ -11343,7 +11547,7 @@
         <v>197</v>
       </c>
       <c r="D145" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E145" s="4" t="s">
         <v>246</v>
@@ -11355,7 +11559,7 @@
         <v>195</v>
       </c>
       <c r="D146" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E146" s="5" t="s">
         <v>205</v>
@@ -11367,7 +11571,7 @@
         <v>196</v>
       </c>
       <c r="D147" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E147" s="5" t="s">
         <v>205</v>
@@ -11379,7 +11583,7 @@
         <v>197</v>
       </c>
       <c r="D148" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E148" s="5" t="s">
         <v>205</v>
@@ -11719,41 +11923,41 @@
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C185" s="4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D185" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E185" s="4" t="s">
         <v>260</v>
       </c>
       <c r="F185" s="4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G185" s="4"/>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D186" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E186" s="4" t="s">
         <v>260</v>
       </c>
       <c r="F186" s="4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G186" s="4"/>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C187" s="4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D187" s="4"/>
       <c r="E187" s="4" t="s">
         <v>260</v>
       </c>
       <c r="F187" s="4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G187" s="4"/>
     </row>
@@ -11764,27 +11968,27 @@
         <v>260</v>
       </c>
       <c r="F188" s="4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G188" s="4"/>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A189" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C190" s="4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D190" s="4" t="s">
         <v>260</v>
       </c>
       <c r="F190" s="4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G190" s="4"/>
     </row>
@@ -11793,7 +11997,7 @@
         <v>260</v>
       </c>
       <c r="F191" s="4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G191" s="4"/>
     </row>
@@ -11801,13 +12005,13 @@
       <c r="A192" s="5"/>
       <c r="B192" s="4"/>
       <c r="C192" s="4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D192" s="5" t="s">
         <v>200</v>
       </c>
       <c r="F192" s="4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.2">
@@ -11815,7 +12019,7 @@
         <v>200</v>
       </c>
       <c r="F193" s="4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G193" s="4"/>
     </row>
@@ -11915,7 +12119,7 @@
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A201" s="5" t="s">
-        <v>454</v>
+        <v>420</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.2">
@@ -11923,7 +12127,7 @@
         <v>101</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>452</v>
+        <v>418</v>
       </c>
       <c r="C202" s="5" t="s">
         <v>198</v>
@@ -11934,10 +12138,10 @@
         <v>102</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>453</v>
+        <v>419</v>
       </c>
       <c r="C203" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.2">
@@ -11999,7 +12203,7 @@
     <row r="211" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A211" s="5"/>
       <c r="C211" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.2">
@@ -12013,7 +12217,7 @@
     <row r="213" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A213" s="5"/>
       <c r="C213" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.2">
@@ -12029,13 +12233,13 @@
         <v>121</v>
       </c>
       <c r="C215" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D215" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E215" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.2">
@@ -12043,58 +12247,58 @@
         <v>116</v>
       </c>
       <c r="C216" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D216" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E216" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F216" s="4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C217" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D217" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E217" s="4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F217" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C218" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D218" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E218" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F218" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C219" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D219" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E219" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F219" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.2">
@@ -12110,13 +12314,13 @@
         <v>121</v>
       </c>
       <c r="C221" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D221" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E221" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.2">
@@ -12124,58 +12328,58 @@
         <v>117</v>
       </c>
       <c r="C222" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D222" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E222" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F222" s="4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C223" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D223" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E223" s="4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F223" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C224" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D224" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E224" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F224" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C225" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D225" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E225" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F225" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.2">
@@ -12191,13 +12395,13 @@
         <v>120</v>
       </c>
       <c r="C227" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D227" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="E227" s="4" t="s">
         <v>343</v>
-      </c>
-      <c r="E227" s="4" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.2">
@@ -12205,58 +12409,58 @@
         <v>118</v>
       </c>
       <c r="C228" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D228" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E228" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F228" s="4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C229" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D229" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E229" s="4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F229" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C230" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D230" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E230" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F230" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C231" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D231" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E231" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F231" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.2">
@@ -12272,13 +12476,13 @@
         <v>120</v>
       </c>
       <c r="C233" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D233" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="E233" s="4" t="s">
         <v>343</v>
-      </c>
-      <c r="E233" s="4" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.2">
@@ -12286,58 +12490,58 @@
         <v>119</v>
       </c>
       <c r="C234" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D234" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E234" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F234" s="4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C235" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D235" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E235" s="4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F235" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C236" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D236" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E236" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F236" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C237" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D237" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E237" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F237" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="238" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.2">

--- a/P4E_psuedo_instruction_set.xlsx
+++ b/P4E_psuedo_instruction_set.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\P4EngineAssembler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D07DCFFC-F8BF-4804-9E3C-36D167D3A06C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11174EC2-5B15-4517-9D46-EFC848D39B06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-3645" windowWidth="38640" windowHeight="21840" activeTab="1" xr2:uid="{87164962-7B7D-4BAA-98E0-B9A8D7C47112}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="2" xr2:uid="{87164962-7B7D-4BAA-98E0-B9A8D7C47112}"/>
   </bookViews>
   <sheets>
     <sheet name="parser" sheetId="1" r:id="rId1"/>
@@ -1281,7 +1281,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1405" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1359" uniqueCount="470">
   <si>
     <t>isr SHiFT</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1721,43 +1721,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>BGT0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BGE0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BGT0R</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BGE0R</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    Branch to dest, if source Greater Than 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    Branch to dest, if source Greater than or Equal to 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">        (mode = 4'b10)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">        (mode = 4'b100)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">        (mode = 4'b11)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">        (mode = 4'b101)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -5897,6 +5865,18 @@
       </rPr>
       <t xml:space="preserve"> ,</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BEZ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BEZR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    Branch to dest, if source Equals Zero</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6432,7 +6412,7 @@
         <v>15</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C1" s="20" t="s">
         <v>22</v>
@@ -6446,7 +6426,7 @@
     </row>
     <row r="2" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B2" s="13" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -6454,10 +6434,10 @@
         <v>45</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>25</v>
@@ -6475,16 +6455,16 @@
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
@@ -6493,16 +6473,16 @@
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
@@ -6511,10 +6491,10 @@
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -6537,10 +6517,10 @@
         <v>81</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>26</v>
@@ -6567,25 +6547,25 @@
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -6594,43 +6574,43 @@
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B11" s="2"/>
       <c r="C11" s="2" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -6638,74 +6618,74 @@
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B12" s="2"/>
       <c r="C12" s="2" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B13" s="2"/>
       <c r="C13" s="2" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B14" s="2"/>
       <c r="C14" s="2" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
     </row>
     <row r="15" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="13" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
@@ -6720,7 +6700,7 @@
         <v>80</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>26</v>
@@ -6745,60 +6725,60 @@
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B17" s="2"/>
       <c r="C17" s="2" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="I17" s="2"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B18" s="2"/>
       <c r="C18" s="2" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="I18" s="2"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B19" s="2"/>
       <c r="C19" s="2" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
@@ -6807,60 +6787,60 @@
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B20" s="2"/>
       <c r="C20" s="2" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="I20" s="2"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B21" s="2"/>
       <c r="C21" s="2" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="I21" s="2"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B22" s="2"/>
       <c r="C22" s="2" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
@@ -6868,7 +6848,7 @@
     </row>
     <row r="23" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B23" s="13" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
@@ -6883,7 +6863,7 @@
         <v>78</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>26</v>
@@ -6911,60 +6891,60 @@
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="2" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="I25" s="2"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B26" s="2"/>
       <c r="C26" s="2" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="I26" s="2"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B27" s="2"/>
       <c r="C27" s="2" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
@@ -6973,60 +6953,60 @@
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B28" s="2"/>
       <c r="C28" s="2" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="I28" s="2"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B29" s="2"/>
       <c r="C29" s="2" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="I29" s="2"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B30" s="2"/>
       <c r="C30" s="2" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
@@ -7034,7 +7014,7 @@
     </row>
     <row r="31" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B31" s="13" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="C31" s="8"/>
       <c r="D31" s="8"/>
@@ -7049,7 +7029,7 @@
         <v>84</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -7061,7 +7041,7 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B33" s="2" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>29</v>
@@ -7087,267 +7067,267 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C34" s="2" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C35" s="2" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C36" s="2" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C37" s="2" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C38" s="2" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C39" s="2" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C40" s="2" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C41" s="2" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C42" s="2" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C43" s="2" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C44" s="2" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C45" s="2" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
     </row>
     <row r="46" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B46" s="13" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="C46" s="8"/>
       <c r="D46" s="8"/>
@@ -7359,10 +7339,10 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>23</v>
@@ -7386,16 +7366,16 @@
       </c>
       <c r="B48" s="2"/>
       <c r="C48" s="2" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
@@ -7404,16 +7384,16 @@
     <row r="49" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B49" s="2"/>
       <c r="C49" s="2" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="G49" s="2"/>
       <c r="H49" s="2"/>
@@ -7422,10 +7402,10 @@
     <row r="50" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B50" s="2"/>
       <c r="C50" s="2" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
@@ -7436,16 +7416,16 @@
     <row r="51" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B51" s="2"/>
       <c r="C51" s="2" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
@@ -7454,16 +7434,16 @@
     <row r="52" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B52" s="2"/>
       <c r="C52" s="2" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="G52" s="2"/>
       <c r="H52" s="2"/>
@@ -7472,10 +7452,10 @@
     <row r="53" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B53" s="2"/>
       <c r="C53" s="2" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
@@ -7486,16 +7466,16 @@
     <row r="54" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B54" s="2"/>
       <c r="C54" s="2" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="G54" s="2"/>
       <c r="H54" s="2"/>
@@ -7504,16 +7484,16 @@
     <row r="55" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B55" s="2"/>
       <c r="C55" s="2" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="G55" s="2"/>
       <c r="H55" s="2"/>
@@ -7522,10 +7502,10 @@
     <row r="56" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B56" s="2"/>
       <c r="C56" s="2" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
@@ -7536,16 +7516,16 @@
     <row r="57" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B57" s="2"/>
       <c r="C57" s="2" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="G57" s="2"/>
       <c r="H57" s="2"/>
@@ -7554,16 +7534,16 @@
     <row r="58" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B58" s="2"/>
       <c r="C58" s="2" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="G58" s="2"/>
       <c r="H58" s="2"/>
@@ -7572,10 +7552,10 @@
     <row r="59" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B59" s="2"/>
       <c r="C59" s="2" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
@@ -7586,16 +7566,16 @@
     <row r="60" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B60" s="2"/>
       <c r="C60" s="2" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="G60" s="2"/>
       <c r="H60" s="2"/>
@@ -7604,16 +7584,16 @@
     <row r="61" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B61" s="2"/>
       <c r="C61" s="2" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="G61" s="2"/>
       <c r="H61" s="2"/>
@@ -7622,10 +7602,10 @@
     <row r="62" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B62" s="2"/>
       <c r="C62" s="2" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
@@ -7636,16 +7616,16 @@
     <row r="63" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B63" s="2"/>
       <c r="C63" s="2" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="G63" s="2"/>
       <c r="H63" s="2"/>
@@ -7654,16 +7634,16 @@
     <row r="64" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B64" s="2"/>
       <c r="C64" s="2" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="G64" s="2"/>
       <c r="H64" s="2"/>
@@ -7672,10 +7652,10 @@
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B65" s="2"/>
       <c r="C65" s="2" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
@@ -7686,16 +7666,16 @@
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B66" s="2"/>
       <c r="C66" s="2" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="G66" s="2"/>
       <c r="H66" s="2"/>
@@ -7704,16 +7684,16 @@
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B67" s="2"/>
       <c r="C67" s="2" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="G67" s="2"/>
       <c r="H67" s="2"/>
@@ -7722,10 +7702,10 @@
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B68" s="2"/>
       <c r="C68" s="2" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
@@ -7736,16 +7716,16 @@
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B69" s="2"/>
       <c r="C69" s="2" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="G69" s="2"/>
       <c r="H69" s="2"/>
@@ -7754,16 +7734,16 @@
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B70" s="2"/>
       <c r="C70" s="2" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="G70" s="2"/>
       <c r="H70" s="2"/>
@@ -7772,10 +7752,10 @@
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B71" s="2"/>
       <c r="C71" s="2" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
@@ -7786,16 +7766,16 @@
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B72" s="2"/>
       <c r="C72" s="2" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="G72" s="2"/>
       <c r="H72" s="2"/>
@@ -7804,16 +7784,16 @@
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B73" s="2"/>
       <c r="C73" s="2" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="G73" s="2"/>
       <c r="H73" s="2"/>
@@ -7822,10 +7802,10 @@
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B74" s="2"/>
       <c r="C74" s="2" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" s="2"/>
@@ -7835,7 +7815,7 @@
     </row>
     <row r="75" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B75" s="13" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="C75" s="8"/>
       <c r="D75" s="8"/>
@@ -7858,10 +7838,10 @@
         <v>96</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>77</v>
@@ -7876,11 +7856,11 @@
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B78" s="2"/>
       <c r="C78" s="2" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" s="2" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="G78" s="2"/>
       <c r="H78" s="2"/>
@@ -7889,13 +7869,13 @@
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B79" s="2"/>
       <c r="C79" s="2" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="G79" s="2"/>
       <c r="H79" s="2"/>
@@ -7906,7 +7886,7 @@
         <v>95</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
@@ -7918,11 +7898,11 @@
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B81" s="2"/>
       <c r="C81" s="2" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" s="2" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="G81" s="2"/>
       <c r="H81" s="2"/>
@@ -7931,13 +7911,13 @@
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B82" s="2"/>
       <c r="C82" s="2" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="G82" s="2"/>
       <c r="H82" s="2"/>
@@ -7945,7 +7925,7 @@
     </row>
     <row r="83" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B83" s="13" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="C83" s="8"/>
       <c r="D83" s="8"/>
@@ -7957,7 +7937,7 @@
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
@@ -7968,10 +7948,10 @@
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" s="2"/>
@@ -7982,7 +7962,7 @@
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" s="2"/>
@@ -7994,7 +7974,7 @@
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B87" s="2"/>
       <c r="C87" s="2" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" s="2"/>
@@ -8005,7 +7985,7 @@
     </row>
     <row r="88" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B88" s="13" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="C88" s="8"/>
       <c r="D88" s="8"/>
@@ -8017,7 +7997,7 @@
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
@@ -8031,7 +8011,7 @@
         <v>87</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" s="2"/>
@@ -8042,7 +8022,7 @@
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" s="2"/>
@@ -8054,7 +8034,7 @@
     <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B92" s="2"/>
       <c r="C92" s="2" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" s="2"/>
@@ -8065,7 +8045,7 @@
     </row>
     <row r="93" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B93" s="13" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="C93" s="8"/>
       <c r="D93" s="8"/>
@@ -8080,7 +8060,7 @@
         <v>88</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
@@ -8093,7 +8073,7 @@
     <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B95" s="2"/>
       <c r="C95" s="2" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="D95" s="2"/>
       <c r="E95" s="2"/>
@@ -8104,7 +8084,7 @@
     </row>
     <row r="96" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B96" s="13" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="C96" s="8"/>
       <c r="D96" s="8"/>
@@ -8119,7 +8099,7 @@
         <v>0</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>93</v>
@@ -8135,7 +8115,7 @@
     <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B98" s="2"/>
       <c r="C98" s="2" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="D98" s="2"/>
       <c r="F98" s="2"/>
@@ -8146,10 +8126,10 @@
     <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B99" s="2"/>
       <c r="C99" s="2" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="F99" s="2"/>
       <c r="G99" s="2"/>
@@ -8159,10 +8139,10 @@
     <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B100" s="2"/>
       <c r="C100" s="2" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="F100" s="2"/>
       <c r="G100" s="2"/>
@@ -8172,10 +8152,10 @@
     <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B101" s="2"/>
       <c r="C101" s="2" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="F101" s="2"/>
       <c r="G101" s="2"/>
@@ -8185,7 +8165,7 @@
     <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B102" s="2"/>
       <c r="C102" s="21" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="D102" s="21"/>
       <c r="F102" s="2"/>
@@ -8196,7 +8176,7 @@
     <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B103" s="2"/>
       <c r="D103" s="2" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="F103" s="2"/>
       <c r="G103" s="2"/>
@@ -8206,7 +8186,7 @@
     <row r="104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B104" s="2"/>
       <c r="D104" s="2" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="F104" s="2"/>
       <c r="G104" s="2"/>
@@ -8216,7 +8196,7 @@
     <row r="105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B105" s="2"/>
       <c r="D105" s="2" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="F105" s="2"/>
       <c r="G105" s="2"/>
@@ -8225,7 +8205,7 @@
     </row>
     <row r="106" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B106" s="13" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="C106" s="8"/>
       <c r="D106" s="8"/>
@@ -8237,16 +8217,16 @@
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="E107" s="1" t="s">
         <v>35</v>
@@ -8259,10 +8239,10 @@
     <row r="108" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B108" s="2"/>
       <c r="C108" s="2" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="F108" s="2"/>
       <c r="G108" s="2"/>
@@ -8272,10 +8252,10 @@
     <row r="109" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B109" s="2"/>
       <c r="C109" s="2" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="F109" s="2"/>
       <c r="G109" s="2"/>
@@ -8285,13 +8265,13 @@
     <row r="110" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B110" s="2"/>
       <c r="C110" s="2" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="F110" s="2"/>
       <c r="G110" s="2"/>
@@ -8301,10 +8281,10 @@
     <row r="111" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B111" s="2"/>
       <c r="C111" s="2" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="F111" s="2"/>
       <c r="G111" s="2"/>
@@ -8313,7 +8293,7 @@
     </row>
     <row r="112" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B112" s="13" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="C112" s="8"/>
       <c r="D112" s="8"/>
@@ -8328,7 +8308,7 @@
         <v>1</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" s="2"/>
@@ -8343,19 +8323,19 @@
         <v>94</v>
       </c>
       <c r="B114" s="12" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="E114" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="G114" s="2"/>
       <c r="H114" s="2"/>
@@ -8364,16 +8344,16 @@
     <row r="115" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B115" s="2"/>
       <c r="C115" s="2" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="G115" s="2"/>
       <c r="H115" s="2"/>
@@ -8382,16 +8362,16 @@
     <row r="116" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B116" s="2"/>
       <c r="C116" s="2" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="G116" s="2"/>
       <c r="H116" s="2"/>
@@ -8400,16 +8380,16 @@
     <row r="117" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B117" s="2"/>
       <c r="C117" s="2" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="G117" s="2"/>
       <c r="H117" s="2"/>
@@ -8417,7 +8397,7 @@
     </row>
     <row r="118" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B118" s="13" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="C118" s="8"/>
       <c r="D118" s="8"/>
@@ -8432,7 +8412,7 @@
         <v>2</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" s="2"/>
@@ -8447,19 +8427,19 @@
         <v>94</v>
       </c>
       <c r="B120" s="12" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="E120" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="G120" s="2"/>
       <c r="H120" s="2"/>
@@ -8468,16 +8448,16 @@
     <row r="121" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B121" s="2"/>
       <c r="C121" s="2" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="G121" s="2"/>
       <c r="H121" s="2"/>
@@ -8486,16 +8466,16 @@
     <row r="122" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B122" s="2"/>
       <c r="C122" s="2" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="G122" s="2"/>
       <c r="H122" s="2"/>
@@ -8504,16 +8484,16 @@
     <row r="123" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B123" s="2"/>
       <c r="C123" s="2" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="G123" s="2"/>
       <c r="H123" s="2"/>
@@ -8521,7 +8501,7 @@
     </row>
     <row r="124" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B124" s="13" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="C124" s="8"/>
       <c r="D124" s="8"/>
@@ -8536,7 +8516,7 @@
         <v>3</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="H125" s="2"/>
       <c r="I125" s="2"/>
@@ -8546,19 +8526,19 @@
         <v>94</v>
       </c>
       <c r="B126" s="12" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="E126" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="H126" s="2"/>
       <c r="I126" s="2"/>
@@ -8566,16 +8546,16 @@
     <row r="127" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B127" s="2"/>
       <c r="C127" s="2" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="G127" s="2"/>
       <c r="H127" s="2"/>
@@ -8584,16 +8564,16 @@
     <row r="128" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B128" s="2"/>
       <c r="C128" s="2" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="G128" s="2"/>
       <c r="H128" s="2"/>
@@ -8602,16 +8582,16 @@
     <row r="129" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B129" s="2"/>
       <c r="C129" s="2" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="G129" s="2"/>
       <c r="H129" s="2"/>
@@ -8619,7 +8599,7 @@
     </row>
     <row r="130" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B130" s="13" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C130" s="8"/>
       <c r="D130" s="8"/>
@@ -8634,7 +8614,7 @@
         <v>4</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" s="2"/>
@@ -8647,7 +8627,7 @@
     <row r="132" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B132" s="2"/>
       <c r="C132" s="1" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="D132" s="2"/>
       <c r="E132" s="2"/>
@@ -8658,7 +8638,7 @@
     </row>
     <row r="133" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B133" s="13" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
@@ -8672,7 +8652,7 @@
         <v>5</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="D134" s="2"/>
       <c r="E134" s="2"/>
@@ -8684,7 +8664,7 @@
     <row r="135" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B135" s="2"/>
       <c r="C135" s="1" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="D135" s="2"/>
       <c r="E135" s="2"/>
@@ -8695,7 +8675,7 @@
     </row>
     <row r="136" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B136" s="13" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="D136" s="8"/>
       <c r="E136" s="8"/>
@@ -8709,7 +8689,7 @@
         <v>6</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="D137" s="2"/>
       <c r="E137" s="2"/>
@@ -8721,7 +8701,7 @@
     <row r="138" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B138" s="2"/>
       <c r="C138" s="1" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="D138" s="2"/>
       <c r="E138" s="2"/>
@@ -8732,7 +8712,7 @@
     </row>
     <row r="139" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B139" s="13" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="C139" s="8"/>
       <c r="D139" s="8"/>
@@ -8744,7 +8724,7 @@
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
@@ -8760,7 +8740,7 @@
         <v>7</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" s="2"/>
@@ -8775,7 +8755,7 @@
         <v>8</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" s="2"/>
@@ -8790,7 +8770,7 @@
         <v>9</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" s="2"/>
@@ -8802,10 +8782,10 @@
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" s="2"/>
@@ -8820,7 +8800,7 @@
         <v>10</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" s="2"/>
@@ -8835,7 +8815,7 @@
         <v>11</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>37</v>
@@ -8844,7 +8824,7 @@
         <v>104</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="G146" s="2"/>
       <c r="H146" s="2"/>
@@ -8852,17 +8832,17 @@
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="B147" s="2"/>
       <c r="C147" s="2" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="F147" s="2"/>
       <c r="G147" s="2"/>
@@ -8871,10 +8851,10 @@
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="C148" s="2"/>
       <c r="D148" s="2"/>
@@ -8886,7 +8866,7 @@
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B149" s="2" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" s="2"/>
@@ -8898,7 +8878,7 @@
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B150" s="2" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" s="2"/>
@@ -8910,7 +8890,7 @@
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B151" s="2" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" s="2"/>
@@ -8922,7 +8902,7 @@
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B152" s="2" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" s="2"/>
@@ -8934,7 +8914,7 @@
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B153" s="2" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="C153" s="2"/>
       <c r="D153" s="2"/>
@@ -8946,7 +8926,7 @@
     </row>
     <row r="154" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B154" s="13" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="C154" s="8"/>
       <c r="D154" s="8"/>
@@ -8958,7 +8938,7 @@
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.2">
@@ -8966,7 +8946,7 @@
         <v>13</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="C156" s="1" t="s">
         <v>17</v>
@@ -8981,7 +8961,7 @@
         <v>18</v>
       </c>
       <c r="G156" s="1" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="H156" s="1" t="s">
         <v>16</v>
@@ -8989,54 +8969,54 @@
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C157" s="2" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="H157" s="14" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C158" s="2" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="E158" s="2"/>
       <c r="F158" s="2"/>
       <c r="G158" s="2" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="H158" s="14" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C159" s="2"/>
       <c r="D159" s="2"/>
       <c r="E159" s="2" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="H159" s="14" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.2">
@@ -9045,38 +9025,38 @@
       <c r="E160" s="2"/>
       <c r="F160" s="2"/>
       <c r="G160" s="2" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="H160" s="14" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C161" s="2" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="E161" s="2"/>
       <c r="F161" s="2"/>
       <c r="G161" s="2"/>
       <c r="H161" s="14" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C162" s="2"/>
       <c r="D162" s="2"/>
       <c r="E162" s="2" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="G162" s="2"/>
       <c r="H162" s="14" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.2">
@@ -9086,12 +9066,12 @@
       <c r="F163" s="2"/>
       <c r="G163" s="2"/>
       <c r="H163" s="14" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
     </row>
     <row r="164" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B164" s="13" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="C164" s="8"/>
       <c r="D164" s="8"/>
@@ -9103,7 +9083,7 @@
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.2">
@@ -9111,7 +9091,7 @@
         <v>14</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="C166" s="1" t="s">
         <v>21</v>
@@ -9119,17 +9099,17 @@
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C167" s="2" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C168" s="1" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
     </row>
     <row r="169" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B169" s="13" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="C169" s="8"/>
       <c r="D169" s="8"/>
@@ -9141,7 +9121,7 @@
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.2">
@@ -9149,7 +9129,7 @@
         <v>12</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="C171" s="1" t="s">
         <v>21</v>
@@ -9157,12 +9137,12 @@
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C172" s="2" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C173" s="1" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -9180,7 +9160,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{732D935C-EC39-4DBE-84B4-44CD168E0101}">
   <dimension ref="A1:I70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A70" sqref="A70:XFD70"/>
     </sheetView>
@@ -9202,7 +9182,7 @@
         <v>15</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C1" s="20" t="s">
         <v>22</v>
@@ -9216,27 +9196,27 @@
     </row>
     <row r="2" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B2" s="15" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -9244,19 +9224,19 @@
     </row>
     <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -9264,55 +9244,55 @@
     <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="C5" s="2" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B8" s="15" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
@@ -9321,255 +9301,255 @@
     </row>
     <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="D9" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="2" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="C11" s="2" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
     </row>
     <row r="14" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="15" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="C19" s="2" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
     </row>
     <row r="20" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B20" s="15" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
     </row>
     <row r="25" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B25" s="15" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="D26" t="s">
         <v>65</v>
@@ -9578,130 +9558,130 @@
     <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B27" s="4"/>
       <c r="C27" s="1" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="D27" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B28" s="4"/>
       <c r="C28" s="1"/>
       <c r="D28" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="D29" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
     </row>
     <row r="30" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B30" s="15" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B32" s="4"/>
       <c r="C32" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B33" s="4"/>
       <c r="C33" s="5" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B34" s="4"/>
       <c r="C34" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B35" s="15" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B36" s="4" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="C36" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C37" s="5" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C38" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
     </row>
     <row r="39" spans="2:5" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="40" spans="2:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B40" s="15" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B41" s="4" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B42" s="4"/>
       <c r="C42" s="5" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="D42" s="5"/>
       <c r="E42" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C43" s="5" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="E43" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C44" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="E44" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
     </row>
     <row r="45" spans="2:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B45" s="15" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.2">
@@ -9711,12 +9691,12 @@
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B47" s="4" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B48" s="4" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.2">
@@ -9741,204 +9721,204 @@
     </row>
     <row r="53" spans="2:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="E53" s="5"/>
       <c r="F53" s="4" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="G53" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
     </row>
     <row r="54" spans="2:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="E54" s="5"/>
       <c r="F54" s="4" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="G54" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
     </row>
     <row r="55" spans="2:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="G55" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
     </row>
     <row r="56" spans="2:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="G56" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
     </row>
     <row r="57" spans="2:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B57" s="15" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
     </row>
     <row r="58" spans="2:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B58" s="4" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>36</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
     </row>
     <row r="59" spans="2:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="C59" s="2" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
     </row>
     <row r="60" spans="2:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="C60" s="2" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
     </row>
     <row r="61" spans="2:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="C61" s="2" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
     </row>
     <row r="62" spans="2:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="C62" s="2" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
     </row>
     <row r="63" spans="2:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B63" s="15" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
     </row>
     <row r="64" spans="2:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B64" s="4" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="D64" s="20" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="E64" s="20"/>
       <c r="F64" s="20"/>
     </row>
     <row r="65" spans="2:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B65" s="4" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
     </row>
     <row r="66" spans="2:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
     </row>
     <row r="67" spans="2:6" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B67" s="15" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="C67" s="9"/>
       <c r="D67" s="8"/>
@@ -9947,43 +9927,43 @@
     </row>
     <row r="68" spans="2:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B68" s="4" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="D68" s="22" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="E68" s="22"/>
       <c r="F68" s="22"/>
     </row>
     <row r="69" spans="2:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B69" s="4" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
     </row>
     <row r="70" spans="2:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
     </row>
   </sheetData>
@@ -10000,11 +9980,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{988C78EB-4E00-466C-9BD2-B10965380DEB}">
-  <dimension ref="A1:I243"/>
+  <dimension ref="A1:I231"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A198" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A201" sqref="A201"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A207" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A221" sqref="A221"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -10025,7 +10005,7 @@
         <v>15</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C1" s="20" t="s">
         <v>22</v>
@@ -10039,7 +10019,7 @@
     </row>
     <row r="2" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B2" s="15" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -10052,7 +10032,7 @@
         <v>98</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -10060,22 +10040,22 @@
         <v>97</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="C6" s="4"/>
     </row>
     <row r="7" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="18"/>
       <c r="B7" s="16" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -10097,140 +10077,140 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C9" s="4" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C10" s="4" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C11" s="4" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C12" s="4" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C13" s="4" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C14" s="4" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C15" s="4" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C16" s="4" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C17" s="4" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C18" s="4" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="E18" s="4"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C19" s="4" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="E19" s="4"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C20" s="4" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="E20" s="4"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C21" s="5" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
     </row>
     <row r="22" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" s="15" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -10255,640 +10235,640 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C24" s="4" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C25" s="4" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C26" s="4" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C27" s="4" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C28" s="4" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C29" s="4" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C30" s="4" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C31" s="4" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C32" s="4" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
     </row>
     <row r="33" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C33" s="4" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
     </row>
     <row r="34" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C34" s="4" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
     </row>
     <row r="35" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C35" s="4" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
     </row>
     <row r="36" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C36" s="4" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
     </row>
     <row r="37" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C37" s="4" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
     </row>
     <row r="38" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C38" s="4" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
     </row>
     <row r="39" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C39" s="4" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
     </row>
     <row r="40" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C40" s="4" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
     </row>
     <row r="41" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C41" s="4" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
     </row>
     <row r="42" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C42" s="4" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
     </row>
     <row r="43" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C43" s="4" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
     </row>
     <row r="44" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C44" s="4" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
     </row>
     <row r="45" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C45" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="E45" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="D45" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="E45" s="5" t="s">
-        <v>203</v>
-      </c>
       <c r="F45" s="5" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
     </row>
     <row r="46" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C46" s="4" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
     </row>
     <row r="47" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C47" s="4" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
     </row>
     <row r="48" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C48" s="4" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
     </row>
     <row r="49" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C49" s="4" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
     </row>
     <row r="50" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C50" s="4" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
     </row>
     <row r="51" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C51" s="4" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
     </row>
     <row r="52" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C52" s="4" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
     </row>
     <row r="53" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C53" s="4" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
     </row>
     <row r="54" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C54" s="4" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
     </row>
     <row r="55" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C55" s="4" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
     </row>
     <row r="56" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C56" s="4" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
     </row>
     <row r="57" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C57" s="4" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
     </row>
     <row r="58" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C58" s="4" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
     </row>
     <row r="59" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C59" s="4" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
     </row>
     <row r="60" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C60" s="4" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
     </row>
     <row r="61" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C61" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="D61" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="D61" s="5" t="s">
-        <v>204</v>
-      </c>
       <c r="F61" s="4" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
     </row>
     <row r="62" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C62" s="4" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
     </row>
     <row r="63" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C63" s="4" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
     </row>
     <row r="64" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C64" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="D64" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="D64" s="5" t="s">
-        <v>204</v>
-      </c>
       <c r="F64" s="4" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C65" s="4" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C66" s="4" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C67" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="D67" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="D67" s="5" t="s">
-        <v>204</v>
-      </c>
       <c r="F67" s="4" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C68" s="4" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C69" s="4" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C70" s="4" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C71" s="4" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C72" s="5" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="D72" s="4"/>
     </row>
     <row r="73" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B73" s="15" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
@@ -10896,20 +10876,20 @@
         <v>44</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
     </row>
     <row r="75" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B75" s="15" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="5" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="C76" t="s">
         <v>67</v>
@@ -10923,23 +10903,23 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C77" s="4" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
     </row>
     <row r="78" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B78" s="15" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -10947,100 +10927,100 @@
         <v>100</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>57</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A81" s="1"/>
       <c r="B81" s="2"/>
       <c r="C81" s="4" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A82" s="1"/>
       <c r="B82" s="2"/>
       <c r="C82" s="4" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A83" s="1"/>
       <c r="B83" s="2"/>
       <c r="C83" s="4" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A84" s="1"/>
       <c r="B84" s="2"/>
       <c r="C84" s="4" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A85" s="1"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="C86" s="2" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A87" s="1"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A88" s="1"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
     </row>
     <row r="89" spans="1:5" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A89" s="9"/>
       <c r="B89" s="10" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="C89" s="8"/>
       <c r="D89" s="8"/>
@@ -11050,117 +11030,117 @@
         <v>99</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>89</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A91" s="1"/>
       <c r="B91" s="2"/>
       <c r="C91" s="4" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A92" s="1"/>
       <c r="B92" s="2"/>
       <c r="C92" s="4" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A93" s="1"/>
       <c r="B93" s="2"/>
       <c r="C93" s="4" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="C94" s="4" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="C95" s="2" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="C96" s="2" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
     </row>
     <row r="97" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="C97" s="2" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
     </row>
     <row r="98" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="C98" s="2" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
     </row>
     <row r="99" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B99" s="15" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A100" s="5" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="F100" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="G100" t="s">
         <v>56</v>
       </c>
       <c r="H100" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
     </row>
     <row r="101" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
@@ -11168,107 +11148,107 @@
         <v>90</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="G101" s="4" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="H101" s="4" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
     </row>
     <row r="102" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
     </row>
     <row r="103" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="C103" s="1" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="C104" s="1" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
     </row>
     <row r="105" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B105" s="15" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="D105" s="6"/>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B106" s="4" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="D106" s="4"/>
     </row>
     <row r="107" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="C107" s="1" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="F107" s="4" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="G107" s="4" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="H107" s="4" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
     </row>
     <row r="108" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="C108" s="1" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
     </row>
     <row r="109" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="C109" s="1" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
     </row>
     <row r="110" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="C110" s="1" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
     </row>
     <row r="111" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B111" s="15" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.2">
@@ -11279,10 +11259,10 @@
         <v>47</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="D112" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="E112" t="s">
         <v>56</v>
@@ -11290,18 +11270,18 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C113" s="4" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="E113" s="4" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
     </row>
     <row r="114" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B114" s="15" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="C114" s="6"/>
       <c r="D114" s="6"/>
@@ -11309,7 +11289,7 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B115" s="4" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="C115" s="4"/>
       <c r="D115" s="4"/>
@@ -11319,31 +11299,31 @@
       <c r="C116" s="4"/>
       <c r="D116" s="4"/>
       <c r="E116" s="4" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C117" s="5" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="D117" s="4"/>
       <c r="E117" s="4"/>
     </row>
     <row r="118" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B118" s="15" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" s="5"/>
       <c r="B119" s="4" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="D119" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="E119" t="s">
         <v>56</v>
@@ -11351,18 +11331,18 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C120" s="4" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="E120" s="4" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
     </row>
     <row r="121" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B121" s="15" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="C121" s="6"/>
       <c r="D121" s="6"/>
@@ -11370,7 +11350,7 @@
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B122" s="4" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="C122" s="4"/>
       <c r="D122" s="4"/>
@@ -11380,31 +11360,31 @@
       <c r="C123" s="4"/>
       <c r="D123" s="4"/>
       <c r="E123" s="4" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C124" s="5" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="D124" s="4"/>
       <c r="E124" s="4"/>
     </row>
     <row r="125" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B125" s="15" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" s="5"/>
       <c r="B126" s="4" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="D126" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="E126" t="s">
         <v>56</v>
@@ -11412,18 +11392,18 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C127" s="4" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="D127" s="4" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="E127" s="4" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
     </row>
     <row r="128" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B128" s="15" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="C128" s="6"/>
       <c r="D128" s="6"/>
@@ -11431,7 +11411,7 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B129" s="4" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="C129" s="4"/>
       <c r="D129" s="4"/>
@@ -11441,19 +11421,19 @@
       <c r="C130" s="4"/>
       <c r="D130" s="4"/>
       <c r="E130" s="4" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C131" s="5" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="D131" s="4"/>
       <c r="E131" s="4"/>
     </row>
     <row r="132" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B132" s="15" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.2">
@@ -11465,19 +11445,19 @@
     <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" s="5"/>
       <c r="B134" s="17" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" s="5"/>
       <c r="B135" s="17" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
     </row>
     <row r="136" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A136" s="18"/>
       <c r="B136" s="16" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.2">
@@ -11489,19 +11469,19 @@
     <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" s="5"/>
       <c r="B138" s="17" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" s="5"/>
       <c r="B139" s="17" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
     </row>
     <row r="140" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A140" s="18"/>
       <c r="B140" s="16" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.2">
@@ -11513,162 +11493,162 @@
     <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142" s="5"/>
       <c r="B142" s="17" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" s="5"/>
       <c r="B143" s="17" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="D143" s="4" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="E143" s="4" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C144" s="4" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="D144" s="4" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="E144" s="4" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
     </row>
     <row r="145" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C145" s="4" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="D145" s="4" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="E145" s="4" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="F145" s="4"/>
     </row>
     <row r="146" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C146" s="4" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="D146" s="4" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="E146" s="5" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="F146" s="4"/>
     </row>
     <row r="147" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C147" s="4" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="D147" s="4" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="E147" s="5" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="F147" s="4"/>
     </row>
     <row r="148" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C148" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="D148" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="E148" s="5" t="s">
         <v>197</v>
-      </c>
-      <c r="D148" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="E148" s="5" t="s">
-        <v>205</v>
       </c>
       <c r="F148" s="4"/>
     </row>
     <row r="149" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C149" s="4" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="D149" s="5" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="E149" s="4" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="F149" s="4"/>
     </row>
     <row r="150" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C150" s="4" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="D150" s="5" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="E150" s="4" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="F150" s="4"/>
     </row>
     <row r="151" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C151" s="4" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="D151" s="5" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="E151" s="4" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="F151" s="4"/>
     </row>
     <row r="152" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C152" s="4" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="D152" s="5" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="E152" s="4"/>
       <c r="F152" s="4"/>
     </row>
     <row r="153" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C153" s="4" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="D153" s="5" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="E153" s="4"/>
       <c r="F153" s="4"/>
     </row>
     <row r="154" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C154" s="4" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="D154" s="5" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="E154" s="4"/>
       <c r="F154" s="4"/>
     </row>
     <row r="155" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C155" s="4" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="D155" s="5" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="E155" s="4"/>
       <c r="F155" s="4"/>
     </row>
     <row r="156" spans="2:6" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B156" s="15" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
     </row>
     <row r="157" spans="2:6" x14ac:dyDescent="0.2">
@@ -11706,35 +11686,35 @@
     <row r="161" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B161" s="4"/>
       <c r="C161" s="4" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="D161" s="4" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="E161" s="4" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="F161" s="4" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
     </row>
     <row r="162" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C162" s="4" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="D162" s="4" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="E162" s="4" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="F162" s="4" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
     </row>
     <row r="163" spans="2:6" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B163" s="15" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="C163" s="6"/>
       <c r="D163" s="6"/>
@@ -11743,47 +11723,47 @@
     </row>
     <row r="164" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B164" s="4" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
     </row>
     <row r="165" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B165" s="4" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
     </row>
     <row r="166" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B166" s="4" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="167" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B167" s="4" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="C167" s="4"/>
       <c r="D167" s="4"/>
     </row>
     <row r="168" spans="2:6" x14ac:dyDescent="0.2">
       <c r="E168" s="4" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="F168" s="4" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
     </row>
     <row r="169" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C169" s="4"/>
       <c r="D169" s="4"/>
       <c r="E169" s="4" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="F169" s="4" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
     </row>
     <row r="170" spans="2:6" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B170" s="15" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
     </row>
     <row r="171" spans="2:6" x14ac:dyDescent="0.2">
@@ -11807,35 +11787,35 @@
     </row>
     <row r="173" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C173" s="4" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="D173" s="4" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="E173" s="4" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="F173" s="4" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
     </row>
     <row r="174" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C174" s="4" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="D174" s="4" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="E174" s="4" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="F174" s="4" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
     </row>
     <row r="175" spans="2:6" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B175" s="15" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="C175" s="6"/>
       <c r="D175" s="6"/>
@@ -11844,32 +11824,32 @@
     </row>
     <row r="176" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B176" s="4" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="C176" s="4"/>
       <c r="D176" s="4"/>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E177" s="4" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="F177" s="4" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C178" s="4"/>
       <c r="D178" s="4"/>
       <c r="E178" s="4" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="F178" s="4" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
     </row>
     <row r="179" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B179" s="15" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.2">
@@ -11879,7 +11859,7 @@
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A181" s="5" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="B181" s="11" t="s">
         <v>107</v>
@@ -11887,7 +11867,7 @@
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A182" s="5" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="B182" s="4" t="s">
         <v>106</v>
@@ -11895,7 +11875,7 @@
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A183" s="5" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B183" s="11" t="s">
         <v>108</v>
@@ -11903,7 +11883,7 @@
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A184" s="5" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="B184" s="4" t="s">
         <v>109</v>
@@ -11915,7 +11895,7 @@
         <v>60</v>
       </c>
       <c r="E184" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="F184" t="s">
         <v>105</v>
@@ -11923,41 +11903,41 @@
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C185" s="4" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="D185" s="4" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="E185" s="4" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="F185" s="4" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="G185" s="4"/>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D186" s="4" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="E186" s="4" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="F186" s="4" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="G186" s="4"/>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C187" s="4" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="D187" s="4"/>
       <c r="E187" s="4" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="F187" s="4" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="G187" s="4"/>
     </row>
@@ -11965,39 +11945,39 @@
       <c r="C188" s="4"/>
       <c r="D188" s="4"/>
       <c r="E188" s="4" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="F188" s="4" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="G188" s="4"/>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A189" s="5" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C190" s="4" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="D190" s="4" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="F190" s="4" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="G190" s="4"/>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D191" s="4" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="F191" s="4" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="G191" s="4"/>
     </row>
@@ -12005,121 +11985,121 @@
       <c r="A192" s="5"/>
       <c r="B192" s="4"/>
       <c r="C192" s="4" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="D192" s="5" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="F192" s="4" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D193" s="5" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="F193" s="4" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="G193" s="4"/>
     </row>
     <row r="194" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B194" s="15" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A195" s="5" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A196" s="5" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="B196" s="4"/>
       <c r="C196" s="4" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="D196" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="E196" s="4" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="F196" s="4" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="G196" s="5" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A197" s="5"/>
       <c r="B197" s="4"/>
       <c r="C197" s="4" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="D197" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="E197" s="4" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="F197" s="4" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="G197" s="5" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A198" s="5"/>
       <c r="B198" s="4"/>
       <c r="C198" s="4" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="D198" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="E198" s="4" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="F198" s="4" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="G198" s="5" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C199" s="4" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="D199" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="E199" s="4" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="F199" s="4" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="G199" s="5" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
     </row>
     <row r="200" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B200" s="15" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A201" s="5" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.2">
@@ -12127,10 +12107,10 @@
         <v>101</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="C202" s="5" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.2">
@@ -12138,10 +12118,10 @@
         <v>102</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="C203" s="4" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.2">
@@ -12149,12 +12129,12 @@
         <v>103</v>
       </c>
       <c r="C204" s="5" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
     </row>
     <row r="205" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B205" s="15" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.2">
@@ -12167,12 +12147,12 @@
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C207" s="5" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
     </row>
     <row r="208" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B208" s="15" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.2">
@@ -12203,7 +12183,7 @@
     <row r="211" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A211" s="5"/>
       <c r="C211" s="4" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.2">
@@ -12217,371 +12197,209 @@
     <row r="213" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A213" s="5"/>
       <c r="C213" s="4" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A214" s="5" t="s">
-        <v>114</v>
+        <v>469</v>
       </c>
       <c r="B214" s="4" t="s">
-        <v>110</v>
+        <v>467</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A215" s="5" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C215" s="4" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="D215" s="4" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="E215" s="4" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A216" s="5" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C216" s="4" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="D216" s="4" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="E216" s="4" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="F216" s="4" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C217" s="4" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="D217" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="E217" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="F217" s="4" t="s">
         <v>341</v>
-      </c>
-      <c r="E217" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="F217" s="4" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C218" s="4" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="D218" s="4" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="E218" s="4" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="F218" s="4" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C219" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="D219" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="E219" s="4" t="s">
         <v>339</v>
       </c>
-      <c r="D219" s="4" t="s">
-        <v>341</v>
-      </c>
-      <c r="E219" s="4" t="s">
-        <v>347</v>
-      </c>
       <c r="F219" s="4" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A220" s="5" t="s">
-        <v>115</v>
+        <v>469</v>
       </c>
       <c r="B220" s="4" t="s">
-        <v>111</v>
+        <v>468</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A221" s="5" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="C221" s="4" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="D221" s="4" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="E221" s="4" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C222" s="4" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="D222" s="4" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="E222" s="4" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="F222" s="4" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C223" s="4" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="D223" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="E223" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="F223" s="4" t="s">
         <v>341</v>
-      </c>
-      <c r="E223" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="F223" s="4" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C224" s="4" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="D224" s="4" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="E224" s="4" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="F224" s="4" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C225" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="D225" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="E225" s="4" t="s">
         <v>339</v>
       </c>
-      <c r="D225" s="4" t="s">
-        <v>341</v>
-      </c>
-      <c r="E225" s="4" t="s">
-        <v>347</v>
-      </c>
       <c r="F225" s="4" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A226" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="B226" s="4" t="s">
-        <v>112</v>
+        <v>343</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B226" s="15" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A227" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="C227" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="D227" s="4" t="s">
-        <v>342</v>
-      </c>
-      <c r="E227" s="4" t="s">
-        <v>343</v>
+        <v>148</v>
+      </c>
+      <c r="B227" s="4" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A228" t="s">
-        <v>118</v>
-      </c>
-      <c r="C228" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="D228" s="4" t="s">
-        <v>342</v>
-      </c>
-      <c r="E228" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="F228" s="4" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C229" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="D229" s="4" t="s">
-        <v>342</v>
-      </c>
-      <c r="E229" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="F229" s="4" t="s">
-        <v>349</v>
-      </c>
+      <c r="A228" s="5"/>
+      <c r="B228" s="4"/>
+      <c r="C228" s="5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A229" s="18"/>
+      <c r="B229" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="C229" s="6"/>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C230" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="D230" s="4" t="s">
-        <v>342</v>
-      </c>
-      <c r="E230" s="4" t="s">
-        <v>346</v>
-      </c>
-      <c r="F230" s="4" t="s">
-        <v>350</v>
+      <c r="A230" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B230" s="4" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C231" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="D231" s="4" t="s">
-        <v>342</v>
-      </c>
-      <c r="E231" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="F231" s="4" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A232" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="B232" s="4" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A233" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="C233" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="D233" s="4" t="s">
-        <v>342</v>
-      </c>
-      <c r="E233" s="4" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A234" t="s">
-        <v>119</v>
-      </c>
-      <c r="C234" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="D234" s="4" t="s">
-        <v>342</v>
-      </c>
-      <c r="E234" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="F234" s="4" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C235" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="D235" s="4" t="s">
-        <v>342</v>
-      </c>
-      <c r="E235" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="F235" s="4" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C236" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="D236" s="4" t="s">
-        <v>342</v>
-      </c>
-      <c r="E236" s="4" t="s">
-        <v>346</v>
-      </c>
-      <c r="F236" s="4" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C237" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="D237" s="4" t="s">
-        <v>342</v>
-      </c>
-      <c r="E237" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="F237" s="4" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="238" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B238" s="15" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A239" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="B239" s="4" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A240" s="5"/>
-      <c r="B240" s="4"/>
-      <c r="C240" s="5" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="241" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A241" s="18"/>
-      <c r="B241" s="16" t="s">
-        <v>230</v>
-      </c>
-      <c r="C241" s="6"/>
-    </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A242" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B242" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C243" s="5" t="s">
-        <v>198</v>
+      <c r="C231" s="5" t="s">
+        <v>190</v>
       </c>
     </row>
   </sheetData>

--- a/P4E_psuedo_instruction_set.xlsx
+++ b/P4E_psuedo_instruction_set.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\P4EngineAssembler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11174EC2-5B15-4517-9D46-EFC848D39B06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AB2B8B9-AA42-4D23-9E92-C447E5FDEE41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="2" xr2:uid="{87164962-7B7D-4BAA-98E0-B9A8D7C47112}"/>
+    <workbookView xWindow="-38520" yWindow="-3645" windowWidth="38640" windowHeight="21840" activeTab="1" xr2:uid="{87164962-7B7D-4BAA-98E0-B9A8D7C47112}"/>
   </bookViews>
   <sheets>
     <sheet name="parser" sheetId="1" r:id="rId1"/>
@@ -928,7 +928,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C32" authorId="0" shapeId="0" xr:uid="{0C0D1569-05B5-4671-BE18-70994A53B622}">
+    <comment ref="C34" authorId="0" shapeId="0" xr:uid="{0C0D1569-05B5-4671-BE18-70994A53B622}">
       <text>
         <r>
           <rPr>
@@ -954,7 +954,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C36" authorId="0" shapeId="0" xr:uid="{B7B4802A-BD39-4EFD-8EF3-BD5110CA966B}">
+    <comment ref="C38" authorId="0" shapeId="0" xr:uid="{B7B4802A-BD39-4EFD-8EF3-BD5110CA966B}">
       <text>
         <r>
           <rPr>
@@ -980,7 +980,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G54" authorId="0" shapeId="0" xr:uid="{935D5833-A655-4765-81F8-C6C0E8C143C3}">
+    <comment ref="G56" authorId="0" shapeId="0" xr:uid="{935D5833-A655-4765-81F8-C6C0E8C143C3}">
       <text>
         <r>
           <rPr>
@@ -1006,7 +1006,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G56" authorId="0" shapeId="0" xr:uid="{28896C20-A56E-4FB2-A2DA-D4EEEF5DF3A8}">
+    <comment ref="G58" authorId="0" shapeId="0" xr:uid="{28896C20-A56E-4FB2-A2DA-D4EEEF5DF3A8}">
       <text>
         <r>
           <rPr>
@@ -1032,7 +1032,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D60" authorId="0" shapeId="0" xr:uid="{39D8881B-BC18-434C-A8F7-A45AD42A5267}">
+    <comment ref="D62" authorId="0" shapeId="0" xr:uid="{39D8881B-BC18-434C-A8F7-A45AD42A5267}">
       <text>
         <r>
           <rPr>
@@ -1058,7 +1058,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D62" authorId="0" shapeId="0" xr:uid="{AD6B4964-80AF-492C-A8E5-94AAAA6F6F5F}">
+    <comment ref="D64" authorId="0" shapeId="0" xr:uid="{AD6B4964-80AF-492C-A8E5-94AAAA6F6F5F}">
       <text>
         <r>
           <rPr>
@@ -1281,7 +1281,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1359" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1374" uniqueCount="475">
   <si>
     <t>isr SHiFT</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -5877,6 +5877,118 @@
   </si>
   <si>
     <t xml:space="preserve">    Branch to dest, if source Equals Zero</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOPL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">{ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0 :</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> }</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> ];</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> ] ;</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -9158,11 +9270,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{732D935C-EC39-4DBE-84B4-44CD168E0101}">
-  <dimension ref="A1:I70"/>
+  <dimension ref="A1:I74"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A70" sqref="A70:XFD70"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9505,260 +9617,260 @@
         <v>370</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="15" t="s">
+    <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="B20" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="B21" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="15" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+    <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>378</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B23" s="4" t="s">
         <v>379</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>437</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="C22" s="1" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="C23" s="1" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="C25" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="C26" s="1" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="15" t="s">
+    <row r="27" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="15" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+    <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>381</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B28" s="4" t="s">
         <v>382</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D28" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B27" s="4"/>
-      <c r="C27" s="1" t="s">
+    <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="B29" s="4"/>
+      <c r="C29" s="1" t="s">
         <v>461</v>
-      </c>
-      <c r="D27" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B28" s="4"/>
-      <c r="C28" s="1"/>
-      <c r="D28" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="C29" s="1" t="s">
-        <v>383</v>
       </c>
       <c r="D29" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="30" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="15" t="s">
+    <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="B30" s="4"/>
+      <c r="C30" s="1"/>
+      <c r="D30" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="C31" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="D31" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="15" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+    <row r="33" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
         <v>386</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B33" s="4" t="s">
         <v>387</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C33" s="1" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B32" s="4"/>
-      <c r="C32" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B33" s="4"/>
-      <c r="C33" s="5" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B34" s="4"/>
       <c r="C34" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B35" s="4"/>
+      <c r="C35" s="5" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B36" s="4"/>
+      <c r="C36" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B35" s="15" t="s">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B37" s="15" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B36" s="4" t="s">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B38" s="4" t="s">
         <v>388</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C38" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C37" s="5" t="s">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C39" s="5" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C38" t="s">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C40" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="39" spans="2:5" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="40" spans="2:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="15" t="s">
+    <row r="41" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="42" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="15" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B41" s="4" t="s">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B43" s="4" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B42" s="4"/>
-      <c r="C42" s="5" t="s">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B44" s="4"/>
+      <c r="C44" s="5" t="s">
         <v>463</v>
       </c>
-      <c r="D42" s="5"/>
-      <c r="E42" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C43" s="5" t="s">
-        <v>463</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>464</v>
-      </c>
-      <c r="E43" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C44" t="s">
-        <v>450</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>446</v>
-      </c>
+      <c r="D44" s="5"/>
       <c r="E44" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="45" spans="2:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="15" t="s">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C45" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>464</v>
+      </c>
+      <c r="E45" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C46" t="s">
+        <v>450</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>446</v>
+      </c>
+      <c r="E46" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B47" s="15" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B46" s="4" t="s">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B48" s="4" t="s">
         <v>58</v>
-      </c>
-    </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B47" s="4" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B48" s="4" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B49" s="4" t="s">
-        <v>52</v>
+        <v>441</v>
       </c>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B50" s="4" t="s">
-        <v>53</v>
+        <v>442</v>
       </c>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B51" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B52" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B53" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B54" s="4" t="s">
         <v>55</v>
-      </c>
-    </row>
-    <row r="53" spans="2:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="C53" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="D53" s="5" t="s">
-        <v>465</v>
-      </c>
-      <c r="E53" s="5"/>
-      <c r="F53" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="G53" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="54" spans="2:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="C54" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="D54" s="5" t="s">
-        <v>465</v>
-      </c>
-      <c r="E54" s="5"/>
-      <c r="F54" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="G54" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="55" spans="2:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>448</v>
-      </c>
-      <c r="E55" s="5" t="s">
         <v>465</v>
       </c>
+      <c r="E55" s="5"/>
       <c r="F55" s="4" t="s">
         <v>187</v>
       </c>
@@ -9768,14 +9880,12 @@
     </row>
     <row r="56" spans="2:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>448</v>
-      </c>
-      <c r="E56" s="5" t="s">
         <v>465</v>
       </c>
+      <c r="E56" s="5"/>
       <c r="F56" s="4" t="s">
         <v>241</v>
       </c>
@@ -9783,57 +9893,57 @@
         <v>393</v>
       </c>
     </row>
-    <row r="57" spans="2:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B57" s="15" t="s">
+    <row r="57" spans="2:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="C57" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>465</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="G57" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="C58" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>465</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="G58" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B59" s="15" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="58" spans="2:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B58" s="4" t="s">
+    <row r="60" spans="2:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="B60" s="4" t="s">
         <v>396</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C60" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="D58" s="1" t="s">
+      <c r="D60" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E58" s="1" t="s">
+      <c r="E60" s="1" t="s">
         <v>361</v>
-      </c>
-    </row>
-    <row r="59" spans="2:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="C59" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="G59" s="2" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="60" spans="2:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="C60" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="G60" s="2" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="61" spans="2:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -9844,10 +9954,10 @@
         <v>363</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>241</v>
+        <v>187</v>
       </c>
       <c r="G61" s="2" t="s">
         <v>370</v>
@@ -9861,86 +9971,100 @@
         <v>363</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>187</v>
+        <v>241</v>
       </c>
       <c r="G62" s="2" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="63" spans="2:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B63" s="15" t="s">
+    <row r="63" spans="2:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="C63" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="64" spans="2:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="C64" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="B65" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="2"/>
+    </row>
+    <row r="66" spans="2:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="B66" s="17" t="s">
+        <v>396</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="67" spans="2:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B67" s="15" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="64" spans="2:7" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B64" s="4" t="s">
+    <row r="68" spans="2:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="B68" s="4" t="s">
         <v>451</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="C68" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="D64" s="20" t="s">
+      <c r="D68" s="20" t="s">
         <v>375</v>
       </c>
-      <c r="E64" s="20"/>
-      <c r="F64" s="20"/>
-    </row>
-    <row r="65" spans="2:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B65" s="4" t="s">
+      <c r="E68" s="20"/>
+      <c r="F68" s="20"/>
+    </row>
+    <row r="69" spans="2:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="B69" s="4" t="s">
         <v>452</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="66" spans="2:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="C66" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="E66" s="5" t="s">
-        <v>376</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="67" spans="2:6" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B67" s="15" t="s">
-        <v>455</v>
-      </c>
-      <c r="C67" s="9"/>
-      <c r="D67" s="8"/>
-      <c r="E67" s="18"/>
-      <c r="F67" s="9"/>
-    </row>
-    <row r="68" spans="2:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B68" s="4" t="s">
-        <v>453</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="D68" s="22" t="s">
-        <v>374</v>
-      </c>
-      <c r="E68" s="22"/>
-      <c r="F68" s="22"/>
-    </row>
-    <row r="69" spans="2:6" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B69" s="4" t="s">
-        <v>454</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>372</v>
@@ -9952,7 +10076,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="70" spans="2:6" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>372</v>
       </c>
@@ -9963,14 +10087,64 @@
         <v>376</v>
       </c>
       <c r="F70" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="71" spans="2:7" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="B71" s="15" t="s">
+        <v>455</v>
+      </c>
+      <c r="C71" s="9"/>
+      <c r="D71" s="8"/>
+      <c r="E71" s="18"/>
+      <c r="F71" s="9"/>
+    </row>
+    <row r="72" spans="2:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="B72" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="D72" s="22" t="s">
+        <v>374</v>
+      </c>
+      <c r="E72" s="22"/>
+      <c r="F72" s="22"/>
+    </row>
+    <row r="73" spans="2:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="B73" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="74" spans="2:7" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="C74" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="F74" s="1" t="s">
         <v>371</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="C1:I1"/>
-    <mergeCell ref="D64:F64"/>
     <mergeCell ref="D68:F68"/>
+    <mergeCell ref="D72:F72"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9982,7 +10156,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{988C78EB-4E00-466C-9BD2-B10965380DEB}">
   <dimension ref="A1:I231"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A207" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A221" sqref="A221"/>
     </sheetView>

--- a/P4E_psuedo_instruction_set.xlsx
+++ b/P4E_psuedo_instruction_set.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\P4EngineAssembler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AB2B8B9-AA42-4D23-9E92-C447E5FDEE41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADA52403-C013-4C68-A7B9-6671DAC5CFB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-3645" windowWidth="38640" windowHeight="21840" activeTab="1" xr2:uid="{87164962-7B7D-4BAA-98E0-B9A8D7C47112}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{87164962-7B7D-4BAA-98E0-B9A8D7C47112}"/>
   </bookViews>
   <sheets>
     <sheet name="parser" sheetId="1" r:id="rId1"/>
@@ -419,7 +419,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C102" authorId="0" shapeId="0" xr:uid="{42B3C977-0E44-4FF0-87CE-41EADF029358}">
+    <comment ref="C98" authorId="0" shapeId="0" xr:uid="{5EAEF23C-593A-4A37-B755-360B9209963D}">
       <text>
         <r>
           <rPr>
@@ -441,11 +441,89 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-shift value from temp, no calculation</t>
+shift value from temp</t>
         </r>
       </text>
     </comment>
-    <comment ref="D110" authorId="0" shapeId="0" xr:uid="{B3419830-61AE-41B1-8075-0EDBC5F16888}">
+    <comment ref="C100" authorId="0" shapeId="0" xr:uid="{AD49495F-3BDD-40D6-ADD1-408F470BCB83}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Dianchao Wang:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+shift value from temp</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C101" authorId="0" shapeId="0" xr:uid="{31ADC337-9E94-4153-8412-495E39530DEF}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Dianchao Wang:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+shift value from temp</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C102" authorId="0" shapeId="0" xr:uid="{4B0BBC75-4AFD-4999-8471-DC753FD0455A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Dianchao Wang:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+shift value from temp</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D114" authorId="0" shapeId="0" xr:uid="{B3419830-61AE-41B1-8075-0EDBC5F16888}">
       <text>
         <r>
           <rPr>
@@ -472,7 +550,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A140" authorId="0" shapeId="0" xr:uid="{9DF95069-D8AA-4D9B-B036-F6570707C225}">
+    <comment ref="A144" authorId="0" shapeId="0" xr:uid="{9DF95069-D8AA-4D9B-B036-F6570707C225}">
       <text>
         <r>
           <rPr>
@@ -502,7 +580,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D157" authorId="0" shapeId="0" xr:uid="{10355003-BB36-4D9F-BEF6-AC796CED51BC}">
+    <comment ref="D161" authorId="0" shapeId="0" xr:uid="{10355003-BB36-4D9F-BEF6-AC796CED51BC}">
       <text>
         <r>
           <rPr>
@@ -528,7 +606,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F157" authorId="0" shapeId="0" xr:uid="{EADD36A3-0C54-43FE-AD07-DAE0F1C398C8}">
+    <comment ref="F161" authorId="0" shapeId="0" xr:uid="{EADD36A3-0C54-43FE-AD07-DAE0F1C398C8}">
       <text>
         <r>
           <rPr>
@@ -554,7 +632,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D158" authorId="0" shapeId="0" xr:uid="{5EDDCAB0-8CF8-4E69-91EC-FCEBB8FBFB81}">
+    <comment ref="D162" authorId="0" shapeId="0" xr:uid="{5EDDCAB0-8CF8-4E69-91EC-FCEBB8FBFB81}">
       <text>
         <r>
           <rPr>
@@ -580,7 +658,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F159" authorId="0" shapeId="0" xr:uid="{E9CC35BA-90D8-4E68-A63E-1BDF886428EA}">
+    <comment ref="F163" authorId="0" shapeId="0" xr:uid="{E9CC35BA-90D8-4E68-A63E-1BDF886428EA}">
       <text>
         <r>
           <rPr>
@@ -606,7 +684,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D161" authorId="0" shapeId="0" xr:uid="{C0E77B6C-0F0F-459E-A010-D438E2938743}">
+    <comment ref="D165" authorId="0" shapeId="0" xr:uid="{C0E77B6C-0F0F-459E-A010-D438E2938743}">
       <text>
         <r>
           <rPr>
@@ -632,7 +710,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F162" authorId="0" shapeId="0" xr:uid="{149FA3A0-4084-461C-8457-384C4EC1B272}">
+    <comment ref="F166" authorId="0" shapeId="0" xr:uid="{149FA3A0-4084-461C-8457-384C4EC1B272}">
       <text>
         <r>
           <rPr>
@@ -1281,7 +1359,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1374" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1386" uniqueCount="481">
   <si>
     <t>isr SHiFT</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -5988,6 +6066,101 @@
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> ] ;</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>len</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> (1 - 256），</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">PHV [ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>offset9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> ] ;</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>( store to PHV or not )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>CRC16</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> ,</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>CRC32</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> ,</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">CSUM </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -6094,7 +6267,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -6157,9 +6330,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6498,11 +6668,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA14F7B7-5F50-4FFB-AE20-84853F321386}">
-  <dimension ref="A1:I173"/>
+  <dimension ref="A1:I177"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D79" sqref="D79"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A106" sqref="A106:XFD106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.2"/>
@@ -8219,6 +8389,9 @@
       <c r="D97" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="E97" s="1" t="s">
+        <v>477</v>
+      </c>
       <c r="F97" s="2"/>
       <c r="G97" s="2"/>
       <c r="H97" s="2"/>
@@ -8226,10 +8399,9 @@
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B98" s="2"/>
-      <c r="C98" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="D98" s="2"/>
+      <c r="C98" s="1" t="s">
+        <v>190</v>
+      </c>
       <c r="F98" s="2"/>
       <c r="G98" s="2"/>
       <c r="H98" s="2"/>
@@ -8238,11 +8410,9 @@
     <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B99" s="2"/>
       <c r="C99" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>286</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="D99" s="2"/>
       <c r="F99" s="2"/>
       <c r="G99" s="2"/>
       <c r="H99" s="2"/>
@@ -8250,100 +8420,91 @@
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B100" s="2"/>
-      <c r="C100" s="2" t="s">
-        <v>285</v>
-      </c>
       <c r="D100" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="F100" s="2"/>
+        <v>286</v>
+      </c>
       <c r="G100" s="2"/>
       <c r="H100" s="2"/>
       <c r="I100" s="2"/>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B101" s="2"/>
-      <c r="C101" s="2" t="s">
-        <v>285</v>
-      </c>
       <c r="D101" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="F101" s="2"/>
+        <v>287</v>
+      </c>
       <c r="G101" s="2"/>
       <c r="H101" s="2"/>
       <c r="I101" s="2"/>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B102" s="2"/>
-      <c r="C102" s="21" t="s">
-        <v>190</v>
-      </c>
-      <c r="D102" s="21"/>
-      <c r="F102" s="2"/>
+      <c r="D102" s="2" t="s">
+        <v>288</v>
+      </c>
       <c r="G102" s="2"/>
       <c r="H102" s="2"/>
       <c r="I102" s="2"/>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B103" s="2"/>
+      <c r="C103" s="2" t="s">
+        <v>285</v>
+      </c>
       <c r="D103" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="F103" s="2"/>
       <c r="G103" s="2"/>
       <c r="H103" s="2"/>
       <c r="I103" s="2"/>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B104" s="2"/>
+      <c r="C104" s="2" t="s">
+        <v>285</v>
+      </c>
       <c r="D104" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="F104" s="2"/>
       <c r="G104" s="2"/>
       <c r="H104" s="2"/>
       <c r="I104" s="2"/>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B105" s="2"/>
+      <c r="C105" s="2" t="s">
+        <v>285</v>
+      </c>
       <c r="D105" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="F105" s="2"/>
       <c r="G105" s="2"/>
       <c r="H105" s="2"/>
       <c r="I105" s="2"/>
     </row>
-    <row r="106" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B106" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="C106" s="8"/>
-      <c r="D106" s="8"/>
-      <c r="E106" s="8"/>
-      <c r="F106" s="8"/>
-      <c r="G106" s="8"/>
-      <c r="H106" s="8"/>
-      <c r="I106" s="8"/>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B106" s="2"/>
+      <c r="C106" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="D106" s="2"/>
+      <c r="E106" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="G106" s="2"/>
+      <c r="H106" s="2"/>
+      <c r="I106" s="2"/>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A107" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B107" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D107" s="1" t="s">
-        <v>201</v>
+      <c r="B107" s="2"/>
+      <c r="C107" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>480</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F107" s="2"/>
+        <v>476</v>
+      </c>
       <c r="G107" s="2"/>
       <c r="H107" s="2"/>
       <c r="I107" s="2"/>
@@ -8351,12 +8512,14 @@
     <row r="108" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B108" s="2"/>
       <c r="C108" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="F108" s="2"/>
+        <v>285</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>476</v>
+      </c>
       <c r="G108" s="2"/>
       <c r="H108" s="2"/>
       <c r="I108" s="2"/>
@@ -8364,91 +8527,89 @@
     <row r="109" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B109" s="2"/>
       <c r="C109" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="F109" s="2"/>
+        <v>285</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>476</v>
+      </c>
       <c r="G109" s="2"/>
       <c r="H109" s="2"/>
       <c r="I109" s="2"/>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B110" s="2"/>
-      <c r="C110" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="F110" s="2"/>
-      <c r="G110" s="2"/>
-      <c r="H110" s="2"/>
-      <c r="I110" s="2"/>
+    <row r="110" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B110" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="C110" s="8"/>
+      <c r="D110" s="8"/>
+      <c r="E110" s="8"/>
+      <c r="F110" s="8"/>
+      <c r="G110" s="8"/>
+      <c r="H110" s="8"/>
+      <c r="I110" s="8"/>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B111" s="2"/>
-      <c r="C111" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>293</v>
+      <c r="A111" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="F111" s="2"/>
       <c r="G111" s="2"/>
       <c r="H111" s="2"/>
       <c r="I111" s="2"/>
     </row>
-    <row r="112" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B112" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="C112" s="8"/>
-      <c r="D112" s="8"/>
-      <c r="E112" s="8"/>
-      <c r="F112" s="8"/>
-      <c r="G112" s="8"/>
-      <c r="H112" s="8"/>
-      <c r="I112" s="8"/>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B112" s="2"/>
+      <c r="C112" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="F112" s="2"/>
+      <c r="G112" s="2"/>
+      <c r="H112" s="2"/>
+      <c r="I112" s="2"/>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A113" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B113" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="C113" s="2"/>
-      <c r="D113" s="2"/>
-      <c r="E113" s="2"/>
+      <c r="B113" s="2"/>
+      <c r="C113" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="F113" s="2"/>
       <c r="G113" s="2"/>
       <c r="H113" s="2"/>
       <c r="I113" s="2"/>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A114" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B114" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D114" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="E114" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F114" s="1" t="s">
-        <v>194</v>
-      </c>
+      <c r="B114" s="2"/>
+      <c r="C114" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="F114" s="2"/>
       <c r="G114" s="2"/>
       <c r="H114" s="2"/>
       <c r="I114" s="2"/>
@@ -8456,102 +8617,97 @@
     <row r="115" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B115" s="2"/>
       <c r="C115" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>415</v>
+        <v>292</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="F115" s="2" t="s">
-        <v>193</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="F115" s="2"/>
       <c r="G115" s="2"/>
       <c r="H115" s="2"/>
       <c r="I115" s="2"/>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B116" s="2"/>
-      <c r="C116" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="E116" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="F116" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="G116" s="2"/>
-      <c r="H116" s="2"/>
-      <c r="I116" s="2"/>
+    <row r="116" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B116" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="C116" s="8"/>
+      <c r="D116" s="8"/>
+      <c r="E116" s="8"/>
+      <c r="F116" s="8"/>
+      <c r="G116" s="8"/>
+      <c r="H116" s="8"/>
+      <c r="I116" s="8"/>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B117" s="2"/>
-      <c r="C117" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="E117" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="F117" s="2" t="s">
-        <v>295</v>
-      </c>
+      <c r="A117" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C117" s="2"/>
+      <c r="D117" s="2"/>
+      <c r="E117" s="2"/>
+      <c r="F117" s="2"/>
       <c r="G117" s="2"/>
       <c r="H117" s="2"/>
       <c r="I117" s="2"/>
     </row>
-    <row r="118" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B118" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="C118" s="8"/>
-      <c r="D118" s="8"/>
-      <c r="E118" s="8"/>
-      <c r="F118" s="8"/>
-      <c r="G118" s="8"/>
-      <c r="H118" s="8"/>
-      <c r="I118" s="8"/>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A118" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B118" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="G118" s="2"/>
+      <c r="H118" s="2"/>
+      <c r="I118" s="2"/>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A119" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B119" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="C119" s="2"/>
-      <c r="D119" s="2"/>
-      <c r="E119" s="2"/>
-      <c r="F119" s="2"/>
+      <c r="B119" s="2"/>
+      <c r="C119" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>193</v>
+      </c>
       <c r="G119" s="2"/>
       <c r="H119" s="2"/>
       <c r="I119" s="2"/>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A120" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B120" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="C120" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D120" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="E120" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F120" s="1" t="s">
-        <v>194</v>
+      <c r="B120" s="2"/>
+      <c r="C120" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>295</v>
       </c>
       <c r="G120" s="2"/>
       <c r="H120" s="2"/>
@@ -8560,224 +8716,243 @@
     <row r="121" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B121" s="2"/>
       <c r="C121" s="2" t="s">
-        <v>187</v>
+        <v>297</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>294</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>193</v>
+        <v>295</v>
       </c>
       <c r="G121" s="2"/>
       <c r="H121" s="2"/>
       <c r="I121" s="2"/>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B122" s="2"/>
-      <c r="C122" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="E122" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="F122" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="G122" s="2"/>
-      <c r="H122" s="2"/>
-      <c r="I122" s="2"/>
+    <row r="122" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B122" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="C122" s="8"/>
+      <c r="D122" s="8"/>
+      <c r="E122" s="8"/>
+      <c r="F122" s="8"/>
+      <c r="G122" s="8"/>
+      <c r="H122" s="8"/>
+      <c r="I122" s="8"/>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B123" s="2"/>
-      <c r="C123" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="D123" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="E123" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="F123" s="2" t="s">
-        <v>295</v>
-      </c>
+      <c r="A123" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C123" s="2"/>
+      <c r="D123" s="2"/>
+      <c r="E123" s="2"/>
+      <c r="F123" s="2"/>
       <c r="G123" s="2"/>
       <c r="H123" s="2"/>
       <c r="I123" s="2"/>
     </row>
-    <row r="124" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B124" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="C124" s="8"/>
-      <c r="D124" s="8"/>
-      <c r="E124" s="8"/>
-      <c r="F124" s="8"/>
-      <c r="G124" s="8"/>
-      <c r="H124" s="8"/>
-      <c r="I124" s="8"/>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A124" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B124" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="G124" s="2"/>
+      <c r="H124" s="2"/>
+      <c r="I124" s="2"/>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A125" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B125" s="2" t="s">
-        <v>166</v>
-      </c>
+      <c r="B125" s="2"/>
+      <c r="C125" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="G125" s="2"/>
       <c r="H125" s="2"/>
       <c r="I125" s="2"/>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A126" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B126" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="C126" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D126" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="E126" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F126" s="1" t="s">
-        <v>194</v>
-      </c>
+      <c r="B126" s="2"/>
+      <c r="C126" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="G126" s="2"/>
       <c r="H126" s="2"/>
       <c r="I126" s="2"/>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B127" s="2"/>
       <c r="C127" s="2" t="s">
-        <v>187</v>
+        <v>297</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E127" s="2" t="s">
         <v>294</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>193</v>
+        <v>295</v>
       </c>
       <c r="G127" s="2"/>
       <c r="H127" s="2"/>
       <c r="I127" s="2"/>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B128" s="2"/>
-      <c r="C128" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="D128" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="E128" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="F128" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="G128" s="2"/>
-      <c r="H128" s="2"/>
-      <c r="I128" s="2"/>
+    <row r="128" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B128" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="C128" s="8"/>
+      <c r="D128" s="8"/>
+      <c r="E128" s="8"/>
+      <c r="F128" s="8"/>
+      <c r="G128" s="8"/>
+      <c r="H128" s="8"/>
+      <c r="I128" s="8"/>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B129" s="2"/>
-      <c r="C129" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="D129" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="E129" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="F129" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="G129" s="2"/>
+      <c r="A129" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>166</v>
+      </c>
       <c r="H129" s="2"/>
       <c r="I129" s="2"/>
     </row>
-    <row r="130" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B130" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="C130" s="8"/>
-      <c r="D130" s="8"/>
-      <c r="E130" s="8"/>
-      <c r="F130" s="8"/>
-      <c r="G130" s="8"/>
-      <c r="H130" s="8"/>
-      <c r="I130" s="8"/>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A130" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B130" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F130" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="H130" s="2"/>
+      <c r="I130" s="2"/>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A131" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B131" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="C131" s="2"/>
-      <c r="D131" s="2"/>
-      <c r="E131" s="2"/>
-      <c r="F131" s="2"/>
+      <c r="B131" s="2"/>
+      <c r="C131" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>193</v>
+      </c>
       <c r="G131" s="2"/>
       <c r="H131" s="2"/>
       <c r="I131" s="2"/>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B132" s="2"/>
-      <c r="C132" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="D132" s="2"/>
-      <c r="E132" s="2"/>
-      <c r="F132" s="2"/>
+      <c r="C132" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>295</v>
+      </c>
       <c r="G132" s="2"/>
       <c r="H132" s="2"/>
       <c r="I132" s="2"/>
     </row>
-    <row r="133" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B133" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="D133" s="8"/>
-      <c r="E133" s="8"/>
-      <c r="F133" s="8"/>
-      <c r="G133" s="8"/>
-      <c r="H133" s="8"/>
-      <c r="I133" s="8"/>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A134" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B134" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="D134" s="2"/>
-      <c r="E134" s="2"/>
-      <c r="F134" s="2"/>
-      <c r="G134" s="2"/>
-      <c r="H134" s="2"/>
-      <c r="I134" s="2"/>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B133" s="2"/>
+      <c r="C133" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="G133" s="2"/>
+      <c r="H133" s="2"/>
+      <c r="I133" s="2"/>
+    </row>
+    <row r="134" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B134" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="C134" s="8"/>
+      <c r="D134" s="8"/>
+      <c r="E134" s="8"/>
+      <c r="F134" s="8"/>
+      <c r="G134" s="8"/>
+      <c r="H134" s="8"/>
+      <c r="I134" s="8"/>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B135" s="2"/>
-      <c r="C135" s="1" t="s">
-        <v>190</v>
-      </c>
+      <c r="A135" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C135" s="2"/>
       <c r="D135" s="2"/>
       <c r="E135" s="2"/>
       <c r="F135" s="2"/>
@@ -8785,35 +8960,35 @@
       <c r="H135" s="2"/>
       <c r="I135" s="2"/>
     </row>
-    <row r="136" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B136" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="D136" s="8"/>
-      <c r="E136" s="8"/>
-      <c r="F136" s="8"/>
-      <c r="G136" s="8"/>
-      <c r="H136" s="8"/>
-      <c r="I136" s="8"/>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A137" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B137" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="D137" s="2"/>
-      <c r="E137" s="2"/>
-      <c r="F137" s="2"/>
-      <c r="G137" s="2"/>
-      <c r="H137" s="2"/>
-      <c r="I137" s="2"/>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B136" s="2"/>
+      <c r="C136" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D136" s="2"/>
+      <c r="E136" s="2"/>
+      <c r="F136" s="2"/>
+      <c r="G136" s="2"/>
+      <c r="H136" s="2"/>
+      <c r="I136" s="2"/>
+    </row>
+    <row r="137" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B137" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="D137" s="8"/>
+      <c r="E137" s="8"/>
+      <c r="F137" s="8"/>
+      <c r="G137" s="8"/>
+      <c r="H137" s="8"/>
+      <c r="I137" s="8"/>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B138" s="2"/>
-      <c r="C138" s="1" t="s">
-        <v>190</v>
+      <c r="A138" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>169</v>
       </c>
       <c r="D138" s="2"/>
       <c r="E138" s="2"/>
@@ -8822,39 +8997,36 @@
       <c r="H138" s="2"/>
       <c r="I138" s="2"/>
     </row>
-    <row r="139" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B139" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="C139" s="8"/>
-      <c r="D139" s="8"/>
-      <c r="E139" s="8"/>
-      <c r="F139" s="8"/>
-      <c r="G139" s="8"/>
-      <c r="H139" s="8"/>
-      <c r="I139" s="8"/>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A140" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B140" s="2"/>
-      <c r="C140" s="2"/>
-      <c r="D140" s="2"/>
-      <c r="E140" s="2"/>
-      <c r="F140" s="2"/>
-      <c r="G140" s="2"/>
-      <c r="H140" s="2"/>
-      <c r="I140" s="2"/>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B139" s="2"/>
+      <c r="C139" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D139" s="2"/>
+      <c r="E139" s="2"/>
+      <c r="F139" s="2"/>
+      <c r="G139" s="2"/>
+      <c r="H139" s="2"/>
+      <c r="I139" s="2"/>
+    </row>
+    <row r="140" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B140" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="D140" s="8"/>
+      <c r="E140" s="8"/>
+      <c r="F140" s="8"/>
+      <c r="G140" s="8"/>
+      <c r="H140" s="8"/>
+      <c r="I140" s="8"/>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="C141" s="2"/>
+        <v>170</v>
+      </c>
       <c r="D141" s="2"/>
       <c r="E141" s="2"/>
       <c r="F141" s="2"/>
@@ -8863,13 +9035,10 @@
       <c r="I141" s="2"/>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A142" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B142" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C142" s="2"/>
+      <c r="B142" s="2"/>
+      <c r="C142" s="1" t="s">
+        <v>190</v>
+      </c>
       <c r="D142" s="2"/>
       <c r="E142" s="2"/>
       <c r="F142" s="2"/>
@@ -8877,28 +9046,23 @@
       <c r="H142" s="2"/>
       <c r="I142" s="2"/>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A143" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B143" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="C143" s="2"/>
-      <c r="D143" s="2"/>
-      <c r="E143" s="2"/>
-      <c r="F143" s="2"/>
-      <c r="G143" s="2"/>
-      <c r="H143" s="2"/>
-      <c r="I143" s="2"/>
+    <row r="143" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B143" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="C143" s="8"/>
+      <c r="D143" s="8"/>
+      <c r="E143" s="8"/>
+      <c r="F143" s="8"/>
+      <c r="G143" s="8"/>
+      <c r="H143" s="8"/>
+      <c r="I143" s="8"/>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="B144" s="2" t="s">
-        <v>267</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="B144" s="2"/>
       <c r="C144" s="2"/>
       <c r="D144" s="2"/>
       <c r="E144" s="2"/>
@@ -8909,10 +9073,10 @@
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" s="2"/>
@@ -8924,38 +9088,29 @@
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="C146" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D146" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="E146" s="1" t="s">
-        <v>147</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="C146" s="2"/>
+      <c r="D146" s="2"/>
+      <c r="E146" s="2"/>
+      <c r="F146" s="2"/>
       <c r="G146" s="2"/>
       <c r="H146" s="2"/>
       <c r="I146" s="2"/>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B147" s="2"/>
-      <c r="C147" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="D147" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="E147" s="2" t="s">
-        <v>271</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C147" s="2"/>
+      <c r="D147" s="2"/>
+      <c r="E147" s="2"/>
       <c r="F147" s="2"/>
       <c r="G147" s="2"/>
       <c r="H147" s="2"/>
@@ -8963,10 +9118,10 @@
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
-        <v>171</v>
+        <v>266</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>177</v>
+        <v>267</v>
       </c>
       <c r="C148" s="2"/>
       <c r="D148" s="2"/>
@@ -8977,8 +9132,11 @@
       <c r="I148" s="2"/>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A149" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="B149" s="2" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" s="2"/>
@@ -8989,32 +9147,50 @@
       <c r="I149" s="2"/>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A150" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="B150" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="C150" s="2"/>
-      <c r="D150" s="2"/>
-      <c r="E150" s="2"/>
-      <c r="F150" s="2"/>
+        <v>176</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>147</v>
+      </c>
       <c r="G150" s="2"/>
       <c r="H150" s="2"/>
       <c r="I150" s="2"/>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B151" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="C151" s="2"/>
-      <c r="D151" s="2"/>
-      <c r="E151" s="2"/>
+      <c r="A151" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B151" s="2"/>
+      <c r="C151" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="E151" s="2" t="s">
+        <v>271</v>
+      </c>
       <c r="F151" s="2"/>
       <c r="G151" s="2"/>
       <c r="H151" s="2"/>
       <c r="I151" s="2"/>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A152" s="1" t="s">
+        <v>171</v>
+      </c>
       <c r="B152" s="2" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" s="2"/>
@@ -9026,7 +9202,7 @@
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B153" s="2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C153" s="2"/>
       <c r="D153" s="2"/>
@@ -9036,111 +9212,95 @@
       <c r="H153" s="2"/>
       <c r="I153" s="2"/>
     </row>
-    <row r="154" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B154" s="13" t="s">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B154" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C154" s="2"/>
+      <c r="D154" s="2"/>
+      <c r="E154" s="2"/>
+      <c r="F154" s="2"/>
+      <c r="G154" s="2"/>
+      <c r="H154" s="2"/>
+      <c r="I154" s="2"/>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B155" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="C155" s="2"/>
+      <c r="D155" s="2"/>
+      <c r="E155" s="2"/>
+      <c r="F155" s="2"/>
+      <c r="G155" s="2"/>
+      <c r="H155" s="2"/>
+      <c r="I155" s="2"/>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B156" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C156" s="2"/>
+      <c r="D156" s="2"/>
+      <c r="E156" s="2"/>
+      <c r="F156" s="2"/>
+      <c r="G156" s="2"/>
+      <c r="H156" s="2"/>
+      <c r="I156" s="2"/>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B157" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C157" s="2"/>
+      <c r="D157" s="2"/>
+      <c r="E157" s="2"/>
+      <c r="F157" s="2"/>
+      <c r="G157" s="2"/>
+      <c r="H157" s="2"/>
+      <c r="I157" s="2"/>
+    </row>
+    <row r="158" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B158" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="C154" s="8"/>
-      <c r="D154" s="8"/>
-      <c r="E154" s="8"/>
-      <c r="F154" s="8"/>
-      <c r="G154" s="8"/>
-      <c r="H154" s="8"/>
-      <c r="I154" s="8"/>
-    </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A155" s="1" t="s">
+      <c r="C158" s="8"/>
+      <c r="D158" s="8"/>
+      <c r="E158" s="8"/>
+      <c r="F158" s="8"/>
+      <c r="G158" s="8"/>
+      <c r="H158" s="8"/>
+      <c r="I158" s="8"/>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A159" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A156" s="1" t="s">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A160" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B156" s="2" t="s">
+      <c r="B160" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="C156" s="1" t="s">
+      <c r="C160" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D156" s="1" t="s">
+      <c r="D160" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E156" s="1" t="s">
+      <c r="E160" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F156" s="1" t="s">
+      <c r="F160" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G156" s="1" t="s">
+      <c r="G160" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="H156" s="1" t="s">
+      <c r="H160" s="1" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C157" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="D157" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="E157" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="F157" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="G157" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="H157" s="14" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C158" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="D158" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="E158" s="2"/>
-      <c r="F158" s="2"/>
-      <c r="G158" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="H158" s="14" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C159" s="2"/>
-      <c r="D159" s="2"/>
-      <c r="E159" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="F159" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="G159" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="H159" s="14" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C160" s="2"/>
-      <c r="D160" s="2"/>
-      <c r="E160" s="2"/>
-      <c r="F160" s="2"/>
-      <c r="G160" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="H160" s="14" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.2">
@@ -9150,23 +9310,31 @@
       <c r="D161" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="E161" s="2"/>
-      <c r="F161" s="2"/>
-      <c r="G161" s="2"/>
+      <c r="E161" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="F161" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="G161" s="2" t="s">
+        <v>357</v>
+      </c>
       <c r="H161" s="14" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C162" s="2"/>
-      <c r="D162" s="2"/>
-      <c r="E162" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="F162" s="2" t="s">
+      <c r="C162" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="D162" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="G162" s="2"/>
+      <c r="E162" s="2"/>
+      <c r="F162" s="2"/>
+      <c r="G162" s="2" t="s">
+        <v>357</v>
+      </c>
       <c r="H162" s="14" t="s">
         <v>274</v>
       </c>
@@ -9174,93 +9342,148 @@
     <row r="163" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C163" s="2"/>
       <c r="D163" s="2"/>
-      <c r="E163" s="2"/>
-      <c r="F163" s="2"/>
-      <c r="G163" s="2"/>
+      <c r="E163" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="F163" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="G163" s="2" t="s">
+        <v>357</v>
+      </c>
       <c r="H163" s="14" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="164" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B164" s="13" t="s">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C164" s="2"/>
+      <c r="D164" s="2"/>
+      <c r="E164" s="2"/>
+      <c r="F164" s="2"/>
+      <c r="G164" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="H164" s="14" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C165" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="E165" s="2"/>
+      <c r="F165" s="2"/>
+      <c r="G165" s="2"/>
+      <c r="H165" s="14" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C166" s="2"/>
+      <c r="D166" s="2"/>
+      <c r="E166" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="F166" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="G166" s="2"/>
+      <c r="H166" s="14" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C167" s="2"/>
+      <c r="D167" s="2"/>
+      <c r="E167" s="2"/>
+      <c r="F167" s="2"/>
+      <c r="G167" s="2"/>
+      <c r="H167" s="14" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B168" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="C164" s="8"/>
-      <c r="D164" s="8"/>
-      <c r="E164" s="8"/>
-      <c r="F164" s="8"/>
-      <c r="G164" s="8"/>
-      <c r="H164" s="8"/>
-      <c r="I164" s="8"/>
-    </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A165" s="1" t="s">
+      <c r="C168" s="8"/>
+      <c r="D168" s="8"/>
+      <c r="E168" s="8"/>
+      <c r="F168" s="8"/>
+      <c r="G168" s="8"/>
+      <c r="H168" s="8"/>
+      <c r="I168" s="8"/>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A169" s="1" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A166" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B166" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="C166" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C167" s="2" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C168" s="1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B169" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="C169" s="8"/>
-      <c r="D169" s="8"/>
-      <c r="E169" s="8"/>
-      <c r="F169" s="8"/>
-      <c r="G169" s="8"/>
-      <c r="H169" s="8"/>
-      <c r="I169" s="8"/>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C171" s="2" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C172" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B173" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="C173" s="8"/>
+      <c r="D173" s="8"/>
+      <c r="E173" s="8"/>
+      <c r="F173" s="8"/>
+      <c r="G173" s="8"/>
+      <c r="H173" s="8"/>
+      <c r="I173" s="8"/>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A174" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A171" s="1" t="s">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A175" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B171" s="2" t="s">
+      <c r="B175" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="C171" s="1" t="s">
+      <c r="C175" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C172" s="2" t="s">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C176" s="2" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C173" s="1" t="s">
+    <row r="177" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C177" s="1" t="s">
         <v>190</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="1">
     <mergeCell ref="C1:I1"/>
-    <mergeCell ref="C102:D102"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9272,7 +9495,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{732D935C-EC39-4DBE-84B4-44CD168E0101}">
   <dimension ref="A1:I74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
     </sheetView>
@@ -10106,11 +10329,11 @@
       <c r="C72" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="D72" s="22" t="s">
+      <c r="D72" s="21" t="s">
         <v>374</v>
       </c>
-      <c r="E72" s="22"/>
-      <c r="F72" s="22"/>
+      <c r="E72" s="21"/>
+      <c r="F72" s="21"/>
     </row>
     <row r="73" spans="2:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B73" s="4" t="s">

--- a/P4E_psuedo_instruction_set.xlsx
+++ b/P4E_psuedo_instruction_set.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\P4EngineAssembler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADA52403-C013-4C68-A7B9-6671DAC5CFB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D98A87B9-06E7-46D8-82BD-91637EE237AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{87164962-7B7D-4BAA-98E0-B9A8D7C47112}"/>
+    <workbookView xWindow="-38520" yWindow="-3645" windowWidth="38640" windowHeight="21840" xr2:uid="{87164962-7B7D-4BAA-98E0-B9A8D7C47112}"/>
   </bookViews>
   <sheets>
     <sheet name="parser" sheetId="1" r:id="rId1"/>
@@ -205,7 +205,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G24" authorId="0" shapeId="0" xr:uid="{C583D8AB-E013-4381-8744-C1A9F8AD110D}">
+    <comment ref="G28" authorId="0" shapeId="0" xr:uid="{C583D8AB-E013-4381-8744-C1A9F8AD110D}">
       <text>
         <r>
           <rPr>
@@ -232,7 +232,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H24" authorId="0" shapeId="0" xr:uid="{27BF8553-F81E-402A-9E32-1E8BF31559E7}">
+    <comment ref="H28" authorId="0" shapeId="0" xr:uid="{27BF8553-F81E-402A-9E32-1E8BF31559E7}">
       <text>
         <r>
           <rPr>
@@ -259,7 +259,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H33" authorId="0" shapeId="0" xr:uid="{D74AB13C-21EE-417A-A33E-E1DFB10E5B1A}">
+    <comment ref="H41" authorId="0" shapeId="0" xr:uid="{D74AB13C-21EE-417A-A33E-E1DFB10E5B1A}">
       <text>
         <r>
           <rPr>
@@ -286,7 +286,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I33" authorId="0" shapeId="0" xr:uid="{8DAD58C9-7FF9-4A56-9FDF-8206E60D90C1}">
+    <comment ref="I41" authorId="0" shapeId="0" xr:uid="{8DAD58C9-7FF9-4A56-9FDF-8206E60D90C1}">
       <text>
         <r>
           <rPr>
@@ -313,7 +313,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E47" authorId="0" shapeId="0" xr:uid="{70DD23D8-71AE-407E-8A53-DA5E57A5B8A3}">
+    <comment ref="E55" authorId="0" shapeId="0" xr:uid="{70DD23D8-71AE-407E-8A53-DA5E57A5B8A3}">
       <text>
         <r>
           <rPr>
@@ -340,7 +340,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F47" authorId="0" shapeId="0" xr:uid="{FFE5B977-FFE6-4DFE-A7A6-D08DD3A4A1A2}">
+    <comment ref="F55" authorId="0" shapeId="0" xr:uid="{FFE5B977-FFE6-4DFE-A7A6-D08DD3A4A1A2}">
       <text>
         <r>
           <rPr>
@@ -367,7 +367,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C86" authorId="0" shapeId="0" xr:uid="{020F32A4-8410-4792-B861-B3374DCA6F2E}">
+    <comment ref="C94" authorId="0" shapeId="0" xr:uid="{020F32A4-8410-4792-B861-B3374DCA6F2E}">
       <text>
         <r>
           <rPr>
@@ -393,7 +393,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C91" authorId="0" shapeId="0" xr:uid="{1A5CA081-D5E2-473C-BA18-38DD621C5C2B}">
+    <comment ref="C99" authorId="0" shapeId="0" xr:uid="{1A5CA081-D5E2-473C-BA18-38DD621C5C2B}">
       <text>
         <r>
           <rPr>
@@ -419,7 +419,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C98" authorId="0" shapeId="0" xr:uid="{5EAEF23C-593A-4A37-B755-360B9209963D}">
+    <comment ref="C106" authorId="0" shapeId="0" xr:uid="{5EAEF23C-593A-4A37-B755-360B9209963D}">
       <text>
         <r>
           <rPr>
@@ -445,7 +445,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C100" authorId="0" shapeId="0" xr:uid="{AD49495F-3BDD-40D6-ADD1-408F470BCB83}">
+    <comment ref="C108" authorId="0" shapeId="0" xr:uid="{AD49495F-3BDD-40D6-ADD1-408F470BCB83}">
       <text>
         <r>
           <rPr>
@@ -471,7 +471,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C101" authorId="0" shapeId="0" xr:uid="{31ADC337-9E94-4153-8412-495E39530DEF}">
+    <comment ref="C109" authorId="0" shapeId="0" xr:uid="{31ADC337-9E94-4153-8412-495E39530DEF}">
       <text>
         <r>
           <rPr>
@@ -497,7 +497,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C102" authorId="0" shapeId="0" xr:uid="{4B0BBC75-4AFD-4999-8471-DC753FD0455A}">
+    <comment ref="C110" authorId="0" shapeId="0" xr:uid="{4B0BBC75-4AFD-4999-8471-DC753FD0455A}">
       <text>
         <r>
           <rPr>
@@ -523,7 +523,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D114" authorId="0" shapeId="0" xr:uid="{B3419830-61AE-41B1-8075-0EDBC5F16888}">
+    <comment ref="D122" authorId="0" shapeId="0" xr:uid="{B3419830-61AE-41B1-8075-0EDBC5F16888}">
       <text>
         <r>
           <rPr>
@@ -550,7 +550,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A144" authorId="0" shapeId="0" xr:uid="{9DF95069-D8AA-4D9B-B036-F6570707C225}">
+    <comment ref="A152" authorId="0" shapeId="0" xr:uid="{9DF95069-D8AA-4D9B-B036-F6570707C225}">
       <text>
         <r>
           <rPr>
@@ -580,7 +580,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D161" authorId="0" shapeId="0" xr:uid="{10355003-BB36-4D9F-BEF6-AC796CED51BC}">
+    <comment ref="D169" authorId="0" shapeId="0" xr:uid="{10355003-BB36-4D9F-BEF6-AC796CED51BC}">
       <text>
         <r>
           <rPr>
@@ -606,7 +606,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F161" authorId="0" shapeId="0" xr:uid="{EADD36A3-0C54-43FE-AD07-DAE0F1C398C8}">
+    <comment ref="F169" authorId="0" shapeId="0" xr:uid="{EADD36A3-0C54-43FE-AD07-DAE0F1C398C8}">
       <text>
         <r>
           <rPr>
@@ -632,7 +632,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D162" authorId="0" shapeId="0" xr:uid="{5EDDCAB0-8CF8-4E69-91EC-FCEBB8FBFB81}">
+    <comment ref="D170" authorId="0" shapeId="0" xr:uid="{5EDDCAB0-8CF8-4E69-91EC-FCEBB8FBFB81}">
       <text>
         <r>
           <rPr>
@@ -658,7 +658,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F163" authorId="0" shapeId="0" xr:uid="{E9CC35BA-90D8-4E68-A63E-1BDF886428EA}">
+    <comment ref="F171" authorId="0" shapeId="0" xr:uid="{E9CC35BA-90D8-4E68-A63E-1BDF886428EA}">
       <text>
         <r>
           <rPr>
@@ -684,7 +684,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D165" authorId="0" shapeId="0" xr:uid="{C0E77B6C-0F0F-459E-A010-D438E2938743}">
+    <comment ref="D173" authorId="0" shapeId="0" xr:uid="{C0E77B6C-0F0F-459E-A010-D438E2938743}">
       <text>
         <r>
           <rPr>
@@ -710,7 +710,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F166" authorId="0" shapeId="0" xr:uid="{149FA3A0-4084-461C-8457-384C4EC1B272}">
+    <comment ref="F174" authorId="0" shapeId="0" xr:uid="{149FA3A0-4084-461C-8457-384C4EC1B272}">
       <text>
         <r>
           <rPr>
@@ -1359,7 +1359,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1386" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1398" uniqueCount="490">
   <si>
     <t>isr SHiFT</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -6162,6 +6162,42 @@
       </rPr>
       <t>,</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>parameters same as above</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R32XCT(L)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R16XCT(L)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R32RMV(L)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R16RMV(L)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>byte Reverse 32_bit then ReMoVe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>byte Reverse two 16_bits then ReMoVe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>byte Reverse two 16_bits then eXtraCT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>byte Reverse 32_bit then eXtraCT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6668,11 +6704,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA14F7B7-5F50-4FFB-AE20-84853F321386}">
-  <dimension ref="A1:I177"/>
+  <dimension ref="A1:I185"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A106" sqref="A106:XFD106"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.2"/>
@@ -7128,136 +7164,98 @@
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
     </row>
-    <row r="23" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>78</v>
+        <v>489</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>152</v>
+        <v>482</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>76</v>
+        <v>481</v>
       </c>
       <c r="I24" s="2"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>276</v>
-      </c>
+        <v>488</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
       <c r="I25" s="2"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B26" s="2"/>
-      <c r="C26" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>277</v>
-      </c>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
       <c r="I26" s="2"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B27" s="2"/>
-      <c r="C27" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
+    <row r="27" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B28" s="2"/>
-      <c r="C28" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>276</v>
+      <c r="A28" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="I28" s="2"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="B29" s="2"/>
       <c r="C29" s="2" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>298</v>
@@ -7266,20 +7264,20 @@
         <v>279</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>241</v>
+        <v>187</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>296</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I29" s="2"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B30" s="2"/>
       <c r="C30" s="2" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>298</v>
@@ -7288,68 +7286,82 @@
         <v>279</v>
       </c>
       <c r="F30" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="I30" s="2"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B31" s="2"/>
+      <c r="C31" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="F31" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-    </row>
-    <row r="31" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>276</v>
+      </c>
       <c r="I32" s="2"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B33" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>76</v>
-      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="I33" s="2"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B34" s="2"/>
       <c r="C34" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>298</v>
@@ -7358,169 +7370,109 @@
         <v>279</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="I34" s="2" t="s">
-        <v>276</v>
-      </c>
+        <v>278</v>
+      </c>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C35" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="I35" s="2" t="s">
-        <v>277</v>
-      </c>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C36" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="H36" s="2"/>
+      <c r="A36" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>481</v>
+      </c>
       <c r="I36" s="2"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C37" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="H37" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="I37" s="2" t="s">
-        <v>276</v>
-      </c>
+      <c r="A37" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="I37" s="2"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C38" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C39" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="I38" s="2"/>
+    </row>
+    <row r="39" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C40" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="H40" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="I40" s="2" t="s">
-        <v>276</v>
-      </c>
+      <c r="A40" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C41" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="H41" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="I41" s="2" t="s">
-        <v>277</v>
+      <c r="B41" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
@@ -7534,17 +7486,21 @@
         <v>279</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>280</v>
+        <v>344</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="H42" s="2"/>
-      <c r="I42" s="2"/>
+        <v>187</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>276</v>
+      </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C43" s="2" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>298</v>
@@ -7553,21 +7509,21 @@
         <v>279</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>280</v>
+        <v>344</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>187</v>
+        <v>241</v>
       </c>
       <c r="H43" s="2" t="s">
         <v>296</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C44" s="2" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>298</v>
@@ -7576,17 +7532,13 @@
         <v>279</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>280</v>
+        <v>344</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="H44" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="I44" s="2" t="s">
-        <v>277</v>
-      </c>
+        <v>278</v>
+      </c>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C45" s="2" t="s">
@@ -7599,580 +7551,642 @@
         <v>279</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>280</v>
+        <v>344</v>
       </c>
       <c r="G45" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C46" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C47" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="G47" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="H45" s="2"/>
-      <c r="I45" s="2"/>
-    </row>
-    <row r="46" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="C46" s="8"/>
-      <c r="D46" s="8"/>
-      <c r="E46" s="8"/>
-      <c r="F46" s="8"/>
-      <c r="G46" s="8"/>
-      <c r="H46" s="8"/>
-      <c r="I46" s="8"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A47" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G47" s="2"/>
       <c r="H47" s="2"/>
       <c r="I47" s="2"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A48" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B48" s="2"/>
       <c r="C48" s="2" t="s">
-        <v>348</v>
+        <v>299</v>
       </c>
       <c r="D48" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="G48" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="E48" s="2" t="s">
+      <c r="H48" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="F48" s="2" t="s">
+      <c r="I48" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="G48" s="2"/>
-      <c r="H48" s="2"/>
-      <c r="I48" s="2"/>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B49" s="2"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C49" s="2" t="s">
-        <v>348</v>
+        <v>299</v>
       </c>
       <c r="D49" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="G49" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="E49" s="2" t="s">
+      <c r="H49" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="F49" s="2" t="s">
+      <c r="I49" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="G49" s="2"/>
-      <c r="H49" s="2"/>
-      <c r="I49" s="2"/>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B50" s="2"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C50" s="2" t="s">
-        <v>348</v>
+        <v>299</v>
       </c>
       <c r="D50" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="G50" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
-      <c r="G50" s="2"/>
       <c r="H50" s="2"/>
       <c r="I50" s="2"/>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B51" s="2"/>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C51" s="2" t="s">
-        <v>349</v>
+        <v>297</v>
       </c>
       <c r="D51" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="G51" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="E51" s="2" t="s">
+      <c r="H51" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="F51" s="2" t="s">
+      <c r="I51" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="G51" s="2"/>
-      <c r="H51" s="2"/>
-      <c r="I51" s="2"/>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B52" s="2"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C52" s="2" t="s">
-        <v>349</v>
+        <v>297</v>
       </c>
       <c r="D52" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="G52" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="E52" s="2" t="s">
+      <c r="H52" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="F52" s="2" t="s">
+      <c r="I52" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="G52" s="2"/>
-      <c r="H52" s="2"/>
-      <c r="I52" s="2"/>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B53" s="2"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C53" s="2" t="s">
-        <v>349</v>
+        <v>297</v>
       </c>
       <c r="D53" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="G53" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
-      <c r="G53" s="2"/>
       <c r="H53" s="2"/>
       <c r="I53" s="2"/>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B54" s="2"/>
-      <c r="C54" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="G54" s="2"/>
-      <c r="H54" s="2"/>
-      <c r="I54" s="2"/>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B55" s="2"/>
-      <c r="C55" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>277</v>
+    <row r="54" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B54" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="C54" s="8"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c r="H54" s="8"/>
+      <c r="I54" s="8"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="G55" s="2"/>
       <c r="H55" s="2"/>
       <c r="I55" s="2"/>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="B56" s="2"/>
       <c r="C56" s="2" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="E56" s="2"/>
-      <c r="F56" s="2"/>
+        <v>187</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>276</v>
+      </c>
       <c r="G56" s="2"/>
       <c r="H56" s="2"/>
       <c r="I56" s="2"/>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B57" s="2"/>
       <c r="C57" s="2" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>187</v>
+        <v>241</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>296</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G57" s="2"/>
       <c r="H57" s="2"/>
       <c r="I57" s="2"/>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B58" s="2"/>
       <c r="C58" s="2" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>277</v>
-      </c>
+        <v>278</v>
+      </c>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
       <c r="G58" s="2"/>
       <c r="H58" s="2"/>
       <c r="I58" s="2"/>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B59" s="2"/>
       <c r="C59" s="2" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="E59" s="2"/>
-      <c r="F59" s="2"/>
+        <v>187</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>276</v>
+      </c>
       <c r="G59" s="2"/>
       <c r="H59" s="2"/>
       <c r="I59" s="2"/>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B60" s="2"/>
       <c r="C60" s="2" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>187</v>
+        <v>241</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>296</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G60" s="2"/>
       <c r="H60" s="2"/>
       <c r="I60" s="2"/>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B61" s="2"/>
       <c r="C61" s="2" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>277</v>
-      </c>
+        <v>278</v>
+      </c>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
       <c r="G61" s="2"/>
       <c r="H61" s="2"/>
       <c r="I61" s="2"/>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B62" s="2"/>
       <c r="C62" s="2" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="E62" s="2"/>
-      <c r="F62" s="2"/>
+        <v>187</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>276</v>
+      </c>
       <c r="G62" s="2"/>
       <c r="H62" s="2"/>
       <c r="I62" s="2"/>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B63" s="2"/>
       <c r="C63" s="2" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>187</v>
+        <v>241</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>296</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G63" s="2"/>
       <c r="H63" s="2"/>
       <c r="I63" s="2"/>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B64" s="2"/>
       <c r="C64" s="2" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>277</v>
-      </c>
+        <v>278</v>
+      </c>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
       <c r="G64" s="2"/>
       <c r="H64" s="2"/>
       <c r="I64" s="2"/>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B65" s="2"/>
       <c r="C65" s="2" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="E65" s="2"/>
-      <c r="F65" s="2"/>
+        <v>187</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>276</v>
+      </c>
       <c r="G65" s="2"/>
       <c r="H65" s="2"/>
       <c r="I65" s="2"/>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B66" s="2"/>
       <c r="C66" s="2" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>187</v>
+        <v>241</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>296</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G66" s="2"/>
       <c r="H66" s="2"/>
       <c r="I66" s="2"/>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B67" s="2"/>
       <c r="C67" s="2" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="F67" s="2" t="s">
-        <v>277</v>
-      </c>
+        <v>278</v>
+      </c>
+      <c r="E67" s="2"/>
+      <c r="F67" s="2"/>
       <c r="G67" s="2"/>
       <c r="H67" s="2"/>
       <c r="I67" s="2"/>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B68" s="2"/>
       <c r="C68" s="2" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="E68" s="2"/>
-      <c r="F68" s="2"/>
+        <v>187</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>276</v>
+      </c>
       <c r="G68" s="2"/>
       <c r="H68" s="2"/>
       <c r="I68" s="2"/>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B69" s="2"/>
       <c r="C69" s="2" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>187</v>
+        <v>241</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>296</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G69" s="2"/>
       <c r="H69" s="2"/>
       <c r="I69" s="2"/>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B70" s="2"/>
       <c r="C70" s="2" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="F70" s="2" t="s">
-        <v>277</v>
-      </c>
+        <v>278</v>
+      </c>
+      <c r="E70" s="2"/>
+      <c r="F70" s="2"/>
       <c r="G70" s="2"/>
       <c r="H70" s="2"/>
       <c r="I70" s="2"/>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B71" s="2"/>
       <c r="C71" s="2" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="E71" s="2"/>
-      <c r="F71" s="2"/>
+        <v>187</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>276</v>
+      </c>
       <c r="G71" s="2"/>
       <c r="H71" s="2"/>
       <c r="I71" s="2"/>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B72" s="2"/>
       <c r="C72" s="2" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>187</v>
+        <v>241</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>296</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G72" s="2"/>
       <c r="H72" s="2"/>
       <c r="I72" s="2"/>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B73" s="2"/>
       <c r="C73" s="2" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="F73" s="2" t="s">
-        <v>277</v>
-      </c>
+        <v>278</v>
+      </c>
+      <c r="E73" s="2"/>
+      <c r="F73" s="2"/>
       <c r="G73" s="2"/>
       <c r="H73" s="2"/>
       <c r="I73" s="2"/>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B74" s="2"/>
       <c r="C74" s="2" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="E74" s="2"/>
-      <c r="F74" s="2"/>
+        <v>187</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>276</v>
+      </c>
       <c r="G74" s="2"/>
       <c r="H74" s="2"/>
       <c r="I74" s="2"/>
     </row>
-    <row r="75" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B75" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="C75" s="8"/>
-      <c r="D75" s="8"/>
-      <c r="E75" s="8"/>
-      <c r="F75" s="8"/>
-      <c r="G75" s="8"/>
-      <c r="H75" s="8"/>
-      <c r="I75" s="8"/>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A76" s="1" t="s">
-        <v>86</v>
-      </c>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B75" s="2"/>
+      <c r="C75" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="G75" s="2"/>
+      <c r="H75" s="2"/>
+      <c r="I75" s="2"/>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B76" s="2"/>
+      <c r="C76" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="E76" s="2"/>
+      <c r="F76" s="2"/>
       <c r="G76" s="2"/>
       <c r="H76" s="2"/>
       <c r="I76" s="2"/>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A77" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>33</v>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B77" s="2"/>
+      <c r="C77" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>276</v>
       </c>
       <c r="G77" s="2"/>
       <c r="H77" s="2"/>
       <c r="I77" s="2"/>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B78" s="2"/>
       <c r="C78" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="D78" s="2"/>
+        <v>355</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>241</v>
+      </c>
       <c r="E78" s="2" t="s">
-        <v>282</v>
+        <v>296</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>277</v>
       </c>
       <c r="G78" s="2"/>
       <c r="H78" s="2"/>
       <c r="I78" s="2"/>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B79" s="2"/>
       <c r="C79" s="2" t="s">
-        <v>281</v>
+        <v>355</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>282</v>
-      </c>
+        <v>278</v>
+      </c>
+      <c r="E79" s="2"/>
+      <c r="F79" s="2"/>
       <c r="G79" s="2"/>
       <c r="H79" s="2"/>
       <c r="I79" s="2"/>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A80" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C80" s="2"/>
-      <c r="D80" s="2"/>
-      <c r="E80" s="2"/>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B80" s="2"/>
+      <c r="C80" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>276</v>
+      </c>
       <c r="G80" s="2"/>
       <c r="H80" s="2"/>
       <c r="I80" s="2"/>
@@ -8180,11 +8194,16 @@
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B81" s="2"/>
       <c r="C81" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="D81" s="2"/>
+        <v>356</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>241</v>
+      </c>
       <c r="E81" s="2" t="s">
-        <v>282</v>
+        <v>296</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>277</v>
       </c>
       <c r="G81" s="2"/>
       <c r="H81" s="2"/>
@@ -8193,21 +8212,20 @@
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B82" s="2"/>
       <c r="C82" s="2" t="s">
-        <v>281</v>
+        <v>356</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>282</v>
-      </c>
+        <v>278</v>
+      </c>
+      <c r="E82" s="2"/>
+      <c r="F82" s="2"/>
       <c r="G82" s="2"/>
       <c r="H82" s="2"/>
       <c r="I82" s="2"/>
     </row>
     <row r="83" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B83" s="13" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="C83" s="8"/>
       <c r="D83" s="8"/>
@@ -8219,36 +8237,41 @@
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C84" s="2"/>
-      <c r="D84" s="2"/>
-      <c r="F84" s="2"/>
+        <v>86</v>
+      </c>
       <c r="G84" s="2"/>
       <c r="H84" s="2"/>
       <c r="I84" s="2"/>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>144</v>
+        <v>96</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="D85" s="2"/>
-      <c r="E85" s="2"/>
-      <c r="F85" s="2"/>
+        <v>155</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="G85" s="2"/>
       <c r="H85" s="2"/>
       <c r="I85" s="2"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C86" s="1" t="s">
-        <v>190</v>
+      <c r="B86" s="2"/>
+      <c r="C86" s="2" t="s">
+        <v>281</v>
       </c>
       <c r="D86" s="2"/>
-      <c r="E86" s="2"/>
-      <c r="F86" s="2"/>
+      <c r="E86" s="2" t="s">
+        <v>282</v>
+      </c>
       <c r="G86" s="2"/>
       <c r="H86" s="2"/>
       <c r="I86" s="2"/>
@@ -8256,95 +8279,101 @@
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B87" s="2"/>
       <c r="C87" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="D87" s="2"/>
-      <c r="E87" s="2"/>
-      <c r="F87" s="2"/>
+        <v>281</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>282</v>
+      </c>
       <c r="G87" s="2"/>
       <c r="H87" s="2"/>
       <c r="I87" s="2"/>
     </row>
-    <row r="88" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B88" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="C88" s="8"/>
-      <c r="D88" s="8"/>
-      <c r="E88" s="8"/>
-      <c r="F88" s="8"/>
-      <c r="G88" s="8"/>
-      <c r="H88" s="8"/>
-      <c r="I88" s="8"/>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A88" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C88" s="2"/>
+      <c r="D88" s="2"/>
+      <c r="E88" s="2"/>
+      <c r="G88" s="2"/>
+      <c r="H88" s="2"/>
+      <c r="I88" s="2"/>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A89" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C89" s="2"/>
+      <c r="B89" s="2"/>
+      <c r="C89" s="2" t="s">
+        <v>281</v>
+      </c>
       <c r="D89" s="2"/>
-      <c r="F89" s="2"/>
+      <c r="E89" s="2" t="s">
+        <v>282</v>
+      </c>
       <c r="G89" s="2"/>
       <c r="H89" s="2"/>
       <c r="I89" s="2"/>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A90" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="D90" s="2"/>
-      <c r="E90" s="2"/>
-      <c r="F90" s="2"/>
+      <c r="B90" s="2"/>
+      <c r="C90" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>282</v>
+      </c>
       <c r="G90" s="2"/>
       <c r="H90" s="2"/>
       <c r="I90" s="2"/>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C91" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="D91" s="2"/>
-      <c r="E91" s="2"/>
-      <c r="F91" s="2"/>
-      <c r="G91" s="2"/>
-      <c r="H91" s="2"/>
-      <c r="I91" s="2"/>
+    <row r="91" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B91" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="C91" s="8"/>
+      <c r="D91" s="8"/>
+      <c r="E91" s="8"/>
+      <c r="F91" s="8"/>
+      <c r="G91" s="8"/>
+      <c r="H91" s="8"/>
+      <c r="I91" s="8"/>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B92" s="2"/>
-      <c r="C92" s="2" t="s">
-        <v>283</v>
-      </c>
+      <c r="A92" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C92" s="2"/>
       <c r="D92" s="2"/>
-      <c r="E92" s="2"/>
       <c r="F92" s="2"/>
       <c r="G92" s="2"/>
       <c r="H92" s="2"/>
       <c r="I92" s="2"/>
     </row>
-    <row r="93" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B93" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="C93" s="8"/>
-      <c r="D93" s="8"/>
-      <c r="E93" s="8"/>
-      <c r="F93" s="8"/>
-      <c r="G93" s="8"/>
-      <c r="H93" s="8"/>
-      <c r="I93" s="8"/>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A93" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D93" s="2"/>
+      <c r="E93" s="2"/>
+      <c r="F93" s="2"/>
+      <c r="G93" s="2"/>
+      <c r="H93" s="2"/>
+      <c r="I93" s="2"/>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A94" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="C94" s="2"/>
+      <c r="C94" s="1" t="s">
+        <v>190</v>
+      </c>
       <c r="D94" s="2"/>
       <c r="E94" s="2"/>
       <c r="F94" s="2"/>
@@ -8355,7 +8384,7 @@
     <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B95" s="2"/>
       <c r="C95" s="2" t="s">
-        <v>190</v>
+        <v>283</v>
       </c>
       <c r="D95" s="2"/>
       <c r="E95" s="2"/>
@@ -8366,7 +8395,7 @@
     </row>
     <row r="96" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B96" s="13" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="C96" s="8"/>
       <c r="D96" s="8"/>
@@ -8378,41 +8407,35 @@
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B97" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D97" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E97" s="1" t="s">
-        <v>477</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="C97" s="2"/>
+      <c r="D97" s="2"/>
       <c r="F97" s="2"/>
       <c r="G97" s="2"/>
       <c r="H97" s="2"/>
       <c r="I97" s="2"/>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B98" s="2"/>
-      <c r="C98" s="1" t="s">
-        <v>190</v>
-      </c>
+      <c r="A98" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D98" s="2"/>
+      <c r="E98" s="2"/>
       <c r="F98" s="2"/>
       <c r="G98" s="2"/>
       <c r="H98" s="2"/>
       <c r="I98" s="2"/>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B99" s="2"/>
-      <c r="C99" s="2" t="s">
-        <v>284</v>
+      <c r="C99" s="1" t="s">
+        <v>190</v>
       </c>
       <c r="D99" s="2"/>
+      <c r="E99" s="2"/>
       <c r="F99" s="2"/>
       <c r="G99" s="2"/>
       <c r="H99" s="2"/>
@@ -8420,27 +8443,39 @@
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B100" s="2"/>
-      <c r="D100" s="2" t="s">
-        <v>286</v>
-      </c>
+      <c r="C100" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="D100" s="2"/>
+      <c r="E100" s="2"/>
+      <c r="F100" s="2"/>
       <c r="G100" s="2"/>
       <c r="H100" s="2"/>
       <c r="I100" s="2"/>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B101" s="2"/>
-      <c r="D101" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="G101" s="2"/>
-      <c r="H101" s="2"/>
-      <c r="I101" s="2"/>
+    <row r="101" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B101" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="C101" s="8"/>
+      <c r="D101" s="8"/>
+      <c r="E101" s="8"/>
+      <c r="F101" s="8"/>
+      <c r="G101" s="8"/>
+      <c r="H101" s="8"/>
+      <c r="I101" s="8"/>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B102" s="2"/>
-      <c r="D102" s="2" t="s">
-        <v>288</v>
-      </c>
+      <c r="A102" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C102" s="2"/>
+      <c r="D102" s="2"/>
+      <c r="E102" s="2"/>
+      <c r="F102" s="2"/>
       <c r="G102" s="2"/>
       <c r="H102" s="2"/>
       <c r="I102" s="2"/>
@@ -8448,48 +8483,54 @@
     <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B103" s="2"/>
       <c r="C103" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>286</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="D103" s="2"/>
+      <c r="E103" s="2"/>
+      <c r="F103" s="2"/>
       <c r="G103" s="2"/>
       <c r="H103" s="2"/>
       <c r="I103" s="2"/>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B104" s="2"/>
-      <c r="C104" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="G104" s="2"/>
-      <c r="H104" s="2"/>
-      <c r="I104" s="2"/>
+    <row r="104" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B104" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="C104" s="8"/>
+      <c r="D104" s="8"/>
+      <c r="E104" s="8"/>
+      <c r="F104" s="8"/>
+      <c r="G104" s="8"/>
+      <c r="H104" s="8"/>
+      <c r="I104" s="8"/>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B105" s="2"/>
-      <c r="C105" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>288</v>
-      </c>
+      <c r="A105" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="F105" s="2"/>
       <c r="G105" s="2"/>
       <c r="H105" s="2"/>
       <c r="I105" s="2"/>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B106" s="2"/>
-      <c r="C106" s="2" t="s">
-        <v>475</v>
-      </c>
-      <c r="D106" s="2"/>
-      <c r="E106" s="1" t="s">
-        <v>476</v>
-      </c>
+      <c r="C106" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="F106" s="2"/>
       <c r="G106" s="2"/>
       <c r="H106" s="2"/>
       <c r="I106" s="2"/>
@@ -8497,28 +8538,18 @@
     <row r="107" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B107" s="2"/>
       <c r="C107" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>480</v>
-      </c>
-      <c r="E107" s="1" t="s">
-        <v>476</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="D107" s="2"/>
+      <c r="F107" s="2"/>
       <c r="G107" s="2"/>
       <c r="H107" s="2"/>
       <c r="I107" s="2"/>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B108" s="2"/>
-      <c r="C108" s="2" t="s">
-        <v>285</v>
-      </c>
       <c r="D108" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="E108" s="1" t="s">
-        <v>476</v>
+        <v>286</v>
       </c>
       <c r="G108" s="2"/>
       <c r="H108" s="2"/>
@@ -8526,48 +8557,30 @@
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B109" s="2"/>
-      <c r="C109" s="2" t="s">
-        <v>285</v>
-      </c>
       <c r="D109" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="E109" s="1" t="s">
-        <v>476</v>
+        <v>287</v>
       </c>
       <c r="G109" s="2"/>
       <c r="H109" s="2"/>
       <c r="I109" s="2"/>
     </row>
-    <row r="110" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B110" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="C110" s="8"/>
-      <c r="D110" s="8"/>
-      <c r="E110" s="8"/>
-      <c r="F110" s="8"/>
-      <c r="G110" s="8"/>
-      <c r="H110" s="8"/>
-      <c r="I110" s="8"/>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B110" s="2"/>
+      <c r="D110" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="G110" s="2"/>
+      <c r="H110" s="2"/>
+      <c r="I110" s="2"/>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A111" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B111" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D111" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="E111" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F111" s="2"/>
+      <c r="B111" s="2"/>
+      <c r="C111" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>286</v>
+      </c>
       <c r="G111" s="2"/>
       <c r="H111" s="2"/>
       <c r="I111" s="2"/>
@@ -8575,12 +8588,11 @@
     <row r="112" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B112" s="2"/>
       <c r="C112" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="F112" s="2"/>
+        <v>285</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="G112" s="2"/>
       <c r="H112" s="2"/>
       <c r="I112" s="2"/>
@@ -8588,12 +8600,11 @@
     <row r="113" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B113" s="2"/>
       <c r="C113" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="E113" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="F113" s="2"/>
+        <v>285</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>288</v>
+      </c>
       <c r="G113" s="2"/>
       <c r="H113" s="2"/>
       <c r="I113" s="2"/>
@@ -8601,15 +8612,12 @@
     <row r="114" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B114" s="2"/>
       <c r="C114" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="E114" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="F114" s="2"/>
+        <v>475</v>
+      </c>
+      <c r="D114" s="2"/>
+      <c r="E114" s="1" t="s">
+        <v>476</v>
+      </c>
       <c r="G114" s="2"/>
       <c r="H114" s="2"/>
       <c r="I114" s="2"/>
@@ -8617,80 +8625,77 @@
     <row r="115" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B115" s="2"/>
       <c r="C115" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="F115" s="2"/>
+        <v>285</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>476</v>
+      </c>
       <c r="G115" s="2"/>
       <c r="H115" s="2"/>
       <c r="I115" s="2"/>
     </row>
-    <row r="116" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B116" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="C116" s="8"/>
-      <c r="D116" s="8"/>
-      <c r="E116" s="8"/>
-      <c r="F116" s="8"/>
-      <c r="G116" s="8"/>
-      <c r="H116" s="8"/>
-      <c r="I116" s="8"/>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B116" s="2"/>
+      <c r="C116" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="G116" s="2"/>
+      <c r="H116" s="2"/>
+      <c r="I116" s="2"/>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A117" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B117" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="C117" s="2"/>
-      <c r="D117" s="2"/>
-      <c r="E117" s="2"/>
-      <c r="F117" s="2"/>
+      <c r="B117" s="2"/>
+      <c r="C117" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>476</v>
+      </c>
       <c r="G117" s="2"/>
       <c r="H117" s="2"/>
       <c r="I117" s="2"/>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A118" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B118" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="C118" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D118" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="E118" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F118" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="G118" s="2"/>
-      <c r="H118" s="2"/>
-      <c r="I118" s="2"/>
+    <row r="118" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B118" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="C118" s="8"/>
+      <c r="D118" s="8"/>
+      <c r="E118" s="8"/>
+      <c r="F118" s="8"/>
+      <c r="G118" s="8"/>
+      <c r="H118" s="8"/>
+      <c r="I118" s="8"/>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B119" s="2"/>
-      <c r="C119" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="E119" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="F119" s="2" t="s">
-        <v>193</v>
-      </c>
+      <c r="A119" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F119" s="2"/>
       <c r="G119" s="2"/>
       <c r="H119" s="2"/>
       <c r="I119" s="2"/>
@@ -8698,17 +8703,12 @@
     <row r="120" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B120" s="2"/>
       <c r="C120" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>414</v>
+        <v>289</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="F120" s="2" t="s">
-        <v>295</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="F120" s="2"/>
       <c r="G120" s="2"/>
       <c r="H120" s="2"/>
       <c r="I120" s="2"/>
@@ -8716,102 +8716,90 @@
     <row r="121" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B121" s="2"/>
       <c r="C121" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>414</v>
+        <v>290</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="F121" s="2" t="s">
-        <v>295</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="F121" s="2"/>
       <c r="G121" s="2"/>
       <c r="H121" s="2"/>
       <c r="I121" s="2"/>
     </row>
-    <row r="122" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B122" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="C122" s="8"/>
-      <c r="D122" s="8"/>
-      <c r="E122" s="8"/>
-      <c r="F122" s="8"/>
-      <c r="G122" s="8"/>
-      <c r="H122" s="8"/>
-      <c r="I122" s="8"/>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B122" s="2"/>
+      <c r="C122" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="F122" s="2"/>
+      <c r="G122" s="2"/>
+      <c r="H122" s="2"/>
+      <c r="I122" s="2"/>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A123" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B123" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="C123" s="2"/>
-      <c r="D123" s="2"/>
-      <c r="E123" s="2"/>
+      <c r="B123" s="2"/>
+      <c r="C123" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="F123" s="2"/>
       <c r="G123" s="2"/>
       <c r="H123" s="2"/>
       <c r="I123" s="2"/>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A124" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B124" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="C124" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D124" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="E124" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F124" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="G124" s="2"/>
-      <c r="H124" s="2"/>
-      <c r="I124" s="2"/>
+    <row r="124" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B124" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="C124" s="8"/>
+      <c r="D124" s="8"/>
+      <c r="E124" s="8"/>
+      <c r="F124" s="8"/>
+      <c r="G124" s="8"/>
+      <c r="H124" s="8"/>
+      <c r="I124" s="8"/>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B125" s="2"/>
-      <c r="C125" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="D125" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="E125" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="F125" s="2" t="s">
-        <v>193</v>
-      </c>
+      <c r="A125" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C125" s="2"/>
+      <c r="D125" s="2"/>
+      <c r="E125" s="2"/>
+      <c r="F125" s="2"/>
       <c r="G125" s="2"/>
       <c r="H125" s="2"/>
       <c r="I125" s="2"/>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B126" s="2"/>
-      <c r="C126" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="E126" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="F126" s="2" t="s">
-        <v>295</v>
+      <c r="A126" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B126" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>194</v>
       </c>
       <c r="G126" s="2"/>
       <c r="H126" s="2"/>
@@ -8820,96 +8808,102 @@
     <row r="127" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B127" s="2"/>
       <c r="C127" s="2" t="s">
-        <v>297</v>
+        <v>187</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="E127" s="2" t="s">
         <v>294</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>295</v>
+        <v>193</v>
       </c>
       <c r="G127" s="2"/>
       <c r="H127" s="2"/>
       <c r="I127" s="2"/>
     </row>
-    <row r="128" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B128" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="C128" s="8"/>
-      <c r="D128" s="8"/>
-      <c r="E128" s="8"/>
-      <c r="F128" s="8"/>
-      <c r="G128" s="8"/>
-      <c r="H128" s="8"/>
-      <c r="I128" s="8"/>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B128" s="2"/>
+      <c r="C128" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="G128" s="2"/>
+      <c r="H128" s="2"/>
+      <c r="I128" s="2"/>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A129" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B129" s="2" t="s">
-        <v>166</v>
-      </c>
+      <c r="B129" s="2"/>
+      <c r="C129" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="G129" s="2"/>
       <c r="H129" s="2"/>
       <c r="I129" s="2"/>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A130" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B130" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="C130" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D130" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="E130" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F130" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="H130" s="2"/>
-      <c r="I130" s="2"/>
+    <row r="130" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B130" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="C130" s="8"/>
+      <c r="D130" s="8"/>
+      <c r="E130" s="8"/>
+      <c r="F130" s="8"/>
+      <c r="G130" s="8"/>
+      <c r="H130" s="8"/>
+      <c r="I130" s="8"/>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B131" s="2"/>
-      <c r="C131" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="D131" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="E131" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="F131" s="2" t="s">
-        <v>193</v>
-      </c>
+      <c r="A131" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C131" s="2"/>
+      <c r="D131" s="2"/>
+      <c r="E131" s="2"/>
+      <c r="F131" s="2"/>
       <c r="G131" s="2"/>
       <c r="H131" s="2"/>
       <c r="I131" s="2"/>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B132" s="2"/>
-      <c r="C132" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="D132" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="E132" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="F132" s="2" t="s">
-        <v>295</v>
+      <c r="A132" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B132" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F132" s="1" t="s">
+        <v>194</v>
       </c>
       <c r="G132" s="2"/>
       <c r="H132" s="2"/>
@@ -8918,152 +8912,187 @@
     <row r="133" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B133" s="2"/>
       <c r="C133" s="2" t="s">
-        <v>297</v>
+        <v>187</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="E133" s="2" t="s">
         <v>294</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>295</v>
+        <v>193</v>
       </c>
       <c r="G133" s="2"/>
       <c r="H133" s="2"/>
       <c r="I133" s="2"/>
     </row>
-    <row r="134" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B134" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="C134" s="8"/>
-      <c r="D134" s="8"/>
-      <c r="E134" s="8"/>
-      <c r="F134" s="8"/>
-      <c r="G134" s="8"/>
-      <c r="H134" s="8"/>
-      <c r="I134" s="8"/>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B134" s="2"/>
+      <c r="C134" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="F134" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="G134" s="2"/>
+      <c r="H134" s="2"/>
+      <c r="I134" s="2"/>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A135" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B135" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="C135" s="2"/>
-      <c r="D135" s="2"/>
-      <c r="E135" s="2"/>
-      <c r="F135" s="2"/>
+      <c r="B135" s="2"/>
+      <c r="C135" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>295</v>
+      </c>
       <c r="G135" s="2"/>
       <c r="H135" s="2"/>
       <c r="I135" s="2"/>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B136" s="2"/>
-      <c r="C136" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="D136" s="2"/>
-      <c r="E136" s="2"/>
-      <c r="F136" s="2"/>
-      <c r="G136" s="2"/>
-      <c r="H136" s="2"/>
-      <c r="I136" s="2"/>
-    </row>
-    <row r="137" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B137" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="D137" s="8"/>
-      <c r="E137" s="8"/>
-      <c r="F137" s="8"/>
-      <c r="G137" s="8"/>
-      <c r="H137" s="8"/>
-      <c r="I137" s="8"/>
+    <row r="136" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B136" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="C136" s="8"/>
+      <c r="D136" s="8"/>
+      <c r="E136" s="8"/>
+      <c r="F136" s="8"/>
+      <c r="G136" s="8"/>
+      <c r="H136" s="8"/>
+      <c r="I136" s="8"/>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A137" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="H137" s="2"/>
+      <c r="I137" s="2"/>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A138" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B138" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="D138" s="2"/>
-      <c r="E138" s="2"/>
-      <c r="F138" s="2"/>
-      <c r="G138" s="2"/>
+      <c r="A138" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B138" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F138" s="1" t="s">
+        <v>194</v>
+      </c>
       <c r="H138" s="2"/>
       <c r="I138" s="2"/>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B139" s="2"/>
-      <c r="C139" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="D139" s="2"/>
-      <c r="E139" s="2"/>
-      <c r="F139" s="2"/>
+      <c r="C139" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="F139" s="2" t="s">
+        <v>193</v>
+      </c>
       <c r="G139" s="2"/>
       <c r="H139" s="2"/>
       <c r="I139" s="2"/>
     </row>
-    <row r="140" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B140" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="D140" s="8"/>
-      <c r="E140" s="8"/>
-      <c r="F140" s="8"/>
-      <c r="G140" s="8"/>
-      <c r="H140" s="8"/>
-      <c r="I140" s="8"/>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B140" s="2"/>
+      <c r="C140" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="G140" s="2"/>
+      <c r="H140" s="2"/>
+      <c r="I140" s="2"/>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A141" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B141" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="D141" s="2"/>
-      <c r="E141" s="2"/>
-      <c r="F141" s="2"/>
+      <c r="B141" s="2"/>
+      <c r="C141" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>295</v>
+      </c>
       <c r="G141" s="2"/>
       <c r="H141" s="2"/>
       <c r="I141" s="2"/>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B142" s="2"/>
-      <c r="C142" s="1" t="s">
+    <row r="142" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B142" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="C142" s="8"/>
+      <c r="D142" s="8"/>
+      <c r="E142" s="8"/>
+      <c r="F142" s="8"/>
+      <c r="G142" s="8"/>
+      <c r="H142" s="8"/>
+      <c r="I142" s="8"/>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A143" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C143" s="2"/>
+      <c r="D143" s="2"/>
+      <c r="E143" s="2"/>
+      <c r="F143" s="2"/>
+      <c r="G143" s="2"/>
+      <c r="H143" s="2"/>
+      <c r="I143" s="2"/>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B144" s="2"/>
+      <c r="C144" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="D142" s="2"/>
-      <c r="E142" s="2"/>
-      <c r="F142" s="2"/>
-      <c r="G142" s="2"/>
-      <c r="H142" s="2"/>
-      <c r="I142" s="2"/>
-    </row>
-    <row r="143" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B143" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="C143" s="8"/>
-      <c r="D143" s="8"/>
-      <c r="E143" s="8"/>
-      <c r="F143" s="8"/>
-      <c r="G143" s="8"/>
-      <c r="H143" s="8"/>
-      <c r="I143" s="8"/>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A144" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B144" s="2"/>
-      <c r="C144" s="2"/>
       <c r="D144" s="2"/>
       <c r="E144" s="2"/>
       <c r="F144" s="2"/>
@@ -9071,29 +9100,24 @@
       <c r="H144" s="2"/>
       <c r="I144" s="2"/>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A145" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B145" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="C145" s="2"/>
-      <c r="D145" s="2"/>
-      <c r="E145" s="2"/>
-      <c r="F145" s="2"/>
-      <c r="G145" s="2"/>
-      <c r="H145" s="2"/>
-      <c r="I145" s="2"/>
+    <row r="145" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B145" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="D145" s="8"/>
+      <c r="E145" s="8"/>
+      <c r="F145" s="8"/>
+      <c r="G145" s="8"/>
+      <c r="H145" s="8"/>
+      <c r="I145" s="8"/>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C146" s="2"/>
+        <v>169</v>
+      </c>
       <c r="D146" s="2"/>
       <c r="E146" s="2"/>
       <c r="F146" s="2"/>
@@ -9102,13 +9126,10 @@
       <c r="I146" s="2"/>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A147" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B147" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="C147" s="2"/>
+      <c r="B147" s="2"/>
+      <c r="C147" s="1" t="s">
+        <v>190</v>
+      </c>
       <c r="D147" s="2"/>
       <c r="E147" s="2"/>
       <c r="F147" s="2"/>
@@ -9116,29 +9137,24 @@
       <c r="H147" s="2"/>
       <c r="I147" s="2"/>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A148" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="B148" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="C148" s="2"/>
-      <c r="D148" s="2"/>
-      <c r="E148" s="2"/>
-      <c r="F148" s="2"/>
-      <c r="G148" s="2"/>
-      <c r="H148" s="2"/>
-      <c r="I148" s="2"/>
+    <row r="148" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B148" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="D148" s="8"/>
+      <c r="E148" s="8"/>
+      <c r="F148" s="8"/>
+      <c r="G148" s="8"/>
+      <c r="H148" s="8"/>
+      <c r="I148" s="8"/>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="C149" s="2"/>
+        <v>170</v>
+      </c>
       <c r="D149" s="2"/>
       <c r="E149" s="2"/>
       <c r="F149" s="2"/>
@@ -9147,51 +9163,34 @@
       <c r="I149" s="2"/>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A150" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B150" s="2" t="s">
-        <v>176</v>
-      </c>
+      <c r="B150" s="2"/>
       <c r="C150" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D150" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="E150" s="1" t="s">
-        <v>147</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="D150" s="2"/>
+      <c r="E150" s="2"/>
+      <c r="F150" s="2"/>
       <c r="G150" s="2"/>
       <c r="H150" s="2"/>
       <c r="I150" s="2"/>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A151" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B151" s="2"/>
-      <c r="C151" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="D151" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="E151" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="F151" s="2"/>
-      <c r="G151" s="2"/>
-      <c r="H151" s="2"/>
-      <c r="I151" s="2"/>
+    <row r="151" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B151" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="C151" s="8"/>
+      <c r="D151" s="8"/>
+      <c r="E151" s="8"/>
+      <c r="F151" s="8"/>
+      <c r="G151" s="8"/>
+      <c r="H151" s="8"/>
+      <c r="I151" s="8"/>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="B152" s="2" t="s">
-        <v>177</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="B152" s="2"/>
       <c r="C152" s="2"/>
       <c r="D152" s="2"/>
       <c r="E152" s="2"/>
@@ -9201,8 +9200,11 @@
       <c r="I152" s="2"/>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A153" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="B153" s="2" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C153" s="2"/>
       <c r="D153" s="2"/>
@@ -9213,8 +9215,11 @@
       <c r="I153" s="2"/>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A154" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="B154" s="2" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" s="2"/>
@@ -9225,8 +9230,11 @@
       <c r="I154" s="2"/>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A155" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="B155" s="2" t="s">
-        <v>268</v>
+        <v>174</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" s="2"/>
@@ -9237,8 +9245,11 @@
       <c r="I155" s="2"/>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A156" s="1" t="s">
+        <v>266</v>
+      </c>
       <c r="B156" s="2" t="s">
-        <v>180</v>
+        <v>267</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" s="2"/>
@@ -9249,8 +9260,11 @@
       <c r="I156" s="2"/>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A157" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="B157" s="2" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="C157" s="2"/>
       <c r="D157" s="2"/>
@@ -9260,224 +9274,338 @@
       <c r="H157" s="2"/>
       <c r="I157" s="2"/>
     </row>
-    <row r="158" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B158" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="C158" s="8"/>
-      <c r="D158" s="8"/>
-      <c r="E158" s="8"/>
-      <c r="F158" s="8"/>
-      <c r="G158" s="8"/>
-      <c r="H158" s="8"/>
-      <c r="I158" s="8"/>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A158" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G158" s="2"/>
+      <c r="H158" s="2"/>
+      <c r="I158" s="2"/>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
-        <v>137</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="B159" s="2"/>
+      <c r="C159" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="E159" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="F159" s="2"/>
+      <c r="G159" s="2"/>
+      <c r="H159" s="2"/>
+      <c r="I159" s="2"/>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
-        <v>13</v>
+        <v>171</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="C160" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D160" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E160" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F160" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G160" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="H160" s="1" t="s">
-        <v>16</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="C160" s="2"/>
+      <c r="D160" s="2"/>
+      <c r="E160" s="2"/>
+      <c r="F160" s="2"/>
+      <c r="G160" s="2"/>
+      <c r="H160" s="2"/>
+      <c r="I160" s="2"/>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C161" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="D161" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="E161" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="F161" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="G161" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="H161" s="14" t="s">
-        <v>274</v>
-      </c>
+      <c r="B161" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C161" s="2"/>
+      <c r="D161" s="2"/>
+      <c r="E161" s="2"/>
+      <c r="F161" s="2"/>
+      <c r="G161" s="2"/>
+      <c r="H161" s="2"/>
+      <c r="I161" s="2"/>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C162" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="D162" s="2" t="s">
-        <v>359</v>
-      </c>
+      <c r="B162" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C162" s="2"/>
+      <c r="D162" s="2"/>
       <c r="E162" s="2"/>
       <c r="F162" s="2"/>
-      <c r="G162" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="H162" s="14" t="s">
-        <v>274</v>
-      </c>
+      <c r="G162" s="2"/>
+      <c r="H162" s="2"/>
+      <c r="I162" s="2"/>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B163" s="2" t="s">
+        <v>268</v>
+      </c>
       <c r="C163" s="2"/>
       <c r="D163" s="2"/>
-      <c r="E163" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="F163" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="G163" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="H163" s="14" t="s">
-        <v>274</v>
-      </c>
+      <c r="E163" s="2"/>
+      <c r="F163" s="2"/>
+      <c r="G163" s="2"/>
+      <c r="H163" s="2"/>
+      <c r="I163" s="2"/>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B164" s="2" t="s">
+        <v>180</v>
+      </c>
       <c r="C164" s="2"/>
       <c r="D164" s="2"/>
       <c r="E164" s="2"/>
       <c r="F164" s="2"/>
-      <c r="G164" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="H164" s="14" t="s">
-        <v>274</v>
-      </c>
+      <c r="G164" s="2"/>
+      <c r="H164" s="2"/>
+      <c r="I164" s="2"/>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C165" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="D165" s="2" t="s">
-        <v>359</v>
-      </c>
+      <c r="B165" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C165" s="2"/>
+      <c r="D165" s="2"/>
       <c r="E165" s="2"/>
       <c r="F165" s="2"/>
       <c r="G165" s="2"/>
-      <c r="H165" s="14" t="s">
+      <c r="H165" s="2"/>
+      <c r="I165" s="2"/>
+    </row>
+    <row r="166" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B166" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="C166" s="8"/>
+      <c r="D166" s="8"/>
+      <c r="E166" s="8"/>
+      <c r="F166" s="8"/>
+      <c r="G166" s="8"/>
+      <c r="H166" s="8"/>
+      <c r="I166" s="8"/>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A167" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A168" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E168" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F168" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G168" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="H168" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C169" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="E169" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="F169" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="G169" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="H169" s="14" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C166" s="2"/>
-      <c r="D166" s="2"/>
-      <c r="E166" s="2" t="s">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C170" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="E170" s="2"/>
+      <c r="F170" s="2"/>
+      <c r="G170" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="H170" s="14" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C171" s="2"/>
+      <c r="D171" s="2"/>
+      <c r="E171" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="F166" s="2" t="s">
+      <c r="F171" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="G166" s="2"/>
-      <c r="H166" s="14" t="s">
+      <c r="G171" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="H171" s="14" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C167" s="2"/>
-      <c r="D167" s="2"/>
-      <c r="E167" s="2"/>
-      <c r="F167" s="2"/>
-      <c r="G167" s="2"/>
-      <c r="H167" s="14" t="s">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C172" s="2"/>
+      <c r="D172" s="2"/>
+      <c r="E172" s="2"/>
+      <c r="F172" s="2"/>
+      <c r="G172" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="H172" s="14" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="168" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B168" s="13" t="s">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C173" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="E173" s="2"/>
+      <c r="F173" s="2"/>
+      <c r="G173" s="2"/>
+      <c r="H173" s="14" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C174" s="2"/>
+      <c r="D174" s="2"/>
+      <c r="E174" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="F174" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="G174" s="2"/>
+      <c r="H174" s="14" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C175" s="2"/>
+      <c r="D175" s="2"/>
+      <c r="E175" s="2"/>
+      <c r="F175" s="2"/>
+      <c r="G175" s="2"/>
+      <c r="H175" s="14" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B176" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="C168" s="8"/>
-      <c r="D168" s="8"/>
-      <c r="E168" s="8"/>
-      <c r="F168" s="8"/>
-      <c r="G168" s="8"/>
-      <c r="H168" s="8"/>
-      <c r="I168" s="8"/>
-    </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A169" s="1" t="s">
+      <c r="C176" s="8"/>
+      <c r="D176" s="8"/>
+      <c r="E176" s="8"/>
+      <c r="F176" s="8"/>
+      <c r="G176" s="8"/>
+      <c r="H176" s="8"/>
+      <c r="I176" s="8"/>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A177" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A170" s="1" t="s">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A178" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B170" s="2" t="s">
+      <c r="B178" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="C170" s="1" t="s">
+      <c r="C178" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C171" s="2" t="s">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C179" s="2" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C172" s="1" t="s">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C180" s="1" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="173" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B173" s="13" t="s">
+    <row r="181" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B181" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="C173" s="8"/>
-      <c r="D173" s="8"/>
-      <c r="E173" s="8"/>
-      <c r="F173" s="8"/>
-      <c r="G173" s="8"/>
-      <c r="H173" s="8"/>
-      <c r="I173" s="8"/>
-    </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A174" s="1" t="s">
+      <c r="C181" s="8"/>
+      <c r="D181" s="8"/>
+      <c r="E181" s="8"/>
+      <c r="F181" s="8"/>
+      <c r="G181" s="8"/>
+      <c r="H181" s="8"/>
+      <c r="I181" s="8"/>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A182" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A175" s="1" t="s">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A183" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B175" s="2" t="s">
+      <c r="B183" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="C175" s="1" t="s">
+      <c r="C183" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C176" s="2" t="s">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C184" s="2" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="177" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C177" s="1" t="s">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C185" s="1" t="s">
         <v>190</v>
       </c>
     </row>

--- a/P4E_psuedo_instruction_set.xlsx
+++ b/P4E_psuedo_instruction_set.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\P4EngineAssembler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D98A87B9-06E7-46D8-82BD-91637EE237AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E582B471-EAB5-4F77-B6C9-93011466651F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38520" yWindow="-3645" windowWidth="38640" windowHeight="21840" xr2:uid="{87164962-7B7D-4BAA-98E0-B9A8D7C47112}"/>
   </bookViews>
@@ -367,7 +367,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C94" authorId="0" shapeId="0" xr:uid="{020F32A4-8410-4792-B861-B3374DCA6F2E}">
+    <comment ref="C103" authorId="0" shapeId="0" xr:uid="{020F32A4-8410-4792-B861-B3374DCA6F2E}">
       <text>
         <r>
           <rPr>
@@ -393,7 +393,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C99" authorId="0" shapeId="0" xr:uid="{1A5CA081-D5E2-473C-BA18-38DD621C5C2B}">
+    <comment ref="C108" authorId="0" shapeId="0" xr:uid="{1A5CA081-D5E2-473C-BA18-38DD621C5C2B}">
       <text>
         <r>
           <rPr>
@@ -419,7 +419,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C106" authorId="0" shapeId="0" xr:uid="{5EAEF23C-593A-4A37-B755-360B9209963D}">
+    <comment ref="C115" authorId="0" shapeId="0" xr:uid="{5EAEF23C-593A-4A37-B755-360B9209963D}">
       <text>
         <r>
           <rPr>
@@ -445,7 +445,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C108" authorId="0" shapeId="0" xr:uid="{AD49495F-3BDD-40D6-ADD1-408F470BCB83}">
+    <comment ref="C117" authorId="0" shapeId="0" xr:uid="{AD49495F-3BDD-40D6-ADD1-408F470BCB83}">
       <text>
         <r>
           <rPr>
@@ -471,7 +471,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C109" authorId="0" shapeId="0" xr:uid="{31ADC337-9E94-4153-8412-495E39530DEF}">
+    <comment ref="C118" authorId="0" shapeId="0" xr:uid="{31ADC337-9E94-4153-8412-495E39530DEF}">
       <text>
         <r>
           <rPr>
@@ -497,7 +497,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C110" authorId="0" shapeId="0" xr:uid="{4B0BBC75-4AFD-4999-8471-DC753FD0455A}">
+    <comment ref="C119" authorId="0" shapeId="0" xr:uid="{4B0BBC75-4AFD-4999-8471-DC753FD0455A}">
       <text>
         <r>
           <rPr>
@@ -523,7 +523,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D122" authorId="0" shapeId="0" xr:uid="{B3419830-61AE-41B1-8075-0EDBC5F16888}">
+    <comment ref="D131" authorId="0" shapeId="0" xr:uid="{B3419830-61AE-41B1-8075-0EDBC5F16888}">
       <text>
         <r>
           <rPr>
@@ -550,7 +550,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A152" authorId="0" shapeId="0" xr:uid="{9DF95069-D8AA-4D9B-B036-F6570707C225}">
+    <comment ref="A161" authorId="0" shapeId="0" xr:uid="{9DF95069-D8AA-4D9B-B036-F6570707C225}">
       <text>
         <r>
           <rPr>
@@ -580,7 +580,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D169" authorId="0" shapeId="0" xr:uid="{10355003-BB36-4D9F-BEF6-AC796CED51BC}">
+    <comment ref="D178" authorId="0" shapeId="0" xr:uid="{10355003-BB36-4D9F-BEF6-AC796CED51BC}">
       <text>
         <r>
           <rPr>
@@ -606,7 +606,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F169" authorId="0" shapeId="0" xr:uid="{EADD36A3-0C54-43FE-AD07-DAE0F1C398C8}">
+    <comment ref="F178" authorId="0" shapeId="0" xr:uid="{EADD36A3-0C54-43FE-AD07-DAE0F1C398C8}">
       <text>
         <r>
           <rPr>
@@ -632,7 +632,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D170" authorId="0" shapeId="0" xr:uid="{5EDDCAB0-8CF8-4E69-91EC-FCEBB8FBFB81}">
+    <comment ref="D179" authorId="0" shapeId="0" xr:uid="{5EDDCAB0-8CF8-4E69-91EC-FCEBB8FBFB81}">
       <text>
         <r>
           <rPr>
@@ -658,7 +658,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F171" authorId="0" shapeId="0" xr:uid="{E9CC35BA-90D8-4E68-A63E-1BDF886428EA}">
+    <comment ref="F180" authorId="0" shapeId="0" xr:uid="{E9CC35BA-90D8-4E68-A63E-1BDF886428EA}">
       <text>
         <r>
           <rPr>
@@ -684,7 +684,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D173" authorId="0" shapeId="0" xr:uid="{C0E77B6C-0F0F-459E-A010-D438E2938743}">
+    <comment ref="D182" authorId="0" shapeId="0" xr:uid="{C0E77B6C-0F0F-459E-A010-D438E2938743}">
       <text>
         <r>
           <rPr>
@@ -710,7 +710,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F174" authorId="0" shapeId="0" xr:uid="{149FA3A0-4084-461C-8457-384C4EC1B272}">
+    <comment ref="F183" authorId="0" shapeId="0" xr:uid="{149FA3A0-4084-461C-8457-384C4EC1B272}">
       <text>
         <r>
           <rPr>
@@ -1359,7 +1359,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1398" uniqueCount="490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1428" uniqueCount="493">
   <si>
     <t>isr SHiFT</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -6198,6 +6198,108 @@
   </si>
   <si>
     <t>byte Reverse 32_bit then eXtraCT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">META [ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>INTR0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> ] ,</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">META [ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>INTR1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> ] ,</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">META [ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>INTR2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> ] ,</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6704,11 +6806,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA14F7B7-5F50-4FFB-AE20-84853F321386}">
-  <dimension ref="A1:I185"/>
+  <dimension ref="A1:I194"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A24" sqref="A24"/>
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D91" sqref="D91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.2"/>
@@ -8223,42 +8325,52 @@
       <c r="H82" s="2"/>
       <c r="I82" s="2"/>
     </row>
-    <row r="83" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B83" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="C83" s="8"/>
-      <c r="D83" s="8"/>
-      <c r="E83" s="8"/>
-      <c r="F83" s="8"/>
-      <c r="G83" s="8"/>
-      <c r="H83" s="8"/>
-      <c r="I83" s="8"/>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B83" s="2"/>
+      <c r="C83" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="G83" s="2"/>
+      <c r="H83" s="2"/>
+      <c r="I83" s="2"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A84" s="1" t="s">
-        <v>86</v>
+      <c r="B84" s="2"/>
+      <c r="C84" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>277</v>
       </c>
       <c r="G84" s="2"/>
       <c r="H84" s="2"/>
       <c r="I84" s="2"/>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A85" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="B85" s="2"/>
+      <c r="C85" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="E85" s="2"/>
+      <c r="F85" s="2"/>
       <c r="G85" s="2"/>
       <c r="H85" s="2"/>
       <c r="I85" s="2"/>
@@ -8266,11 +8378,16 @@
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B86" s="2"/>
       <c r="C86" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="D86" s="2"/>
+        <v>491</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>187</v>
+      </c>
       <c r="E86" s="2" t="s">
-        <v>282</v>
+        <v>296</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>276</v>
       </c>
       <c r="G86" s="2"/>
       <c r="H86" s="2"/>
@@ -8279,28 +8396,31 @@
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B87" s="2"/>
       <c r="C87" s="2" t="s">
-        <v>281</v>
+        <v>491</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>466</v>
+        <v>241</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>282</v>
+        <v>296</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>277</v>
       </c>
       <c r="G87" s="2"/>
       <c r="H87" s="2"/>
       <c r="I87" s="2"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A88" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C88" s="2"/>
-      <c r="D88" s="2"/>
+      <c r="B88" s="2"/>
+      <c r="C88" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>278</v>
+      </c>
       <c r="E88" s="2"/>
+      <c r="F88" s="2"/>
       <c r="G88" s="2"/>
       <c r="H88" s="2"/>
       <c r="I88" s="2"/>
@@ -8308,11 +8428,16 @@
     <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B89" s="2"/>
       <c r="C89" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="D89" s="2"/>
+        <v>492</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>187</v>
+      </c>
       <c r="E89" s="2" t="s">
-        <v>282</v>
+        <v>296</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>276</v>
       </c>
       <c r="G89" s="2"/>
       <c r="H89" s="2"/>
@@ -8321,62 +8446,71 @@
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B90" s="2"/>
       <c r="C90" s="2" t="s">
-        <v>281</v>
+        <v>492</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>466</v>
+        <v>241</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>282</v>
+        <v>296</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>277</v>
       </c>
       <c r="G90" s="2"/>
       <c r="H90" s="2"/>
       <c r="I90" s="2"/>
     </row>
-    <row r="91" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B91" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="C91" s="8"/>
-      <c r="D91" s="8"/>
-      <c r="E91" s="8"/>
-      <c r="F91" s="8"/>
-      <c r="G91" s="8"/>
-      <c r="H91" s="8"/>
-      <c r="I91" s="8"/>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A92" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C92" s="2"/>
-      <c r="D92" s="2"/>
-      <c r="F92" s="2"/>
-      <c r="G92" s="2"/>
-      <c r="H92" s="2"/>
-      <c r="I92" s="2"/>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B91" s="2"/>
+      <c r="C91" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="E91" s="2"/>
+      <c r="F91" s="2"/>
+      <c r="G91" s="2"/>
+      <c r="H91" s="2"/>
+      <c r="I91" s="2"/>
+    </row>
+    <row r="92" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B92" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="C92" s="8"/>
+      <c r="D92" s="8"/>
+      <c r="E92" s="8"/>
+      <c r="F92" s="8"/>
+      <c r="G92" s="8"/>
+      <c r="H92" s="8"/>
+      <c r="I92" s="8"/>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="D93" s="2"/>
-      <c r="E93" s="2"/>
-      <c r="F93" s="2"/>
+        <v>86</v>
+      </c>
       <c r="G93" s="2"/>
       <c r="H93" s="2"/>
       <c r="I93" s="2"/>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A94" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>155</v>
+      </c>
       <c r="C94" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="D94" s="2"/>
-      <c r="E94" s="2"/>
-      <c r="F94" s="2"/>
+        <v>200</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="G94" s="2"/>
       <c r="H94" s="2"/>
       <c r="I94" s="2"/>
@@ -8384,95 +8518,103 @@
     <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B95" s="2"/>
       <c r="C95" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D95" s="2"/>
-      <c r="E95" s="2"/>
-      <c r="F95" s="2"/>
+      <c r="E95" s="2" t="s">
+        <v>282</v>
+      </c>
       <c r="G95" s="2"/>
       <c r="H95" s="2"/>
       <c r="I95" s="2"/>
     </row>
-    <row r="96" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B96" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="C96" s="8"/>
-      <c r="D96" s="8"/>
-      <c r="E96" s="8"/>
-      <c r="F96" s="8"/>
-      <c r="G96" s="8"/>
-      <c r="H96" s="8"/>
-      <c r="I96" s="8"/>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B96" s="2"/>
+      <c r="C96" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="G96" s="2"/>
+      <c r="H96" s="2"/>
+      <c r="I96" s="2"/>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>124</v>
+        <v>95</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>156</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" s="2"/>
-      <c r="F97" s="2"/>
+      <c r="E97" s="2"/>
       <c r="G97" s="2"/>
       <c r="H97" s="2"/>
       <c r="I97" s="2"/>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A98" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>158</v>
+      <c r="B98" s="2"/>
+      <c r="C98" s="2" t="s">
+        <v>281</v>
       </c>
       <c r="D98" s="2"/>
-      <c r="E98" s="2"/>
-      <c r="F98" s="2"/>
+      <c r="E98" s="2" t="s">
+        <v>282</v>
+      </c>
       <c r="G98" s="2"/>
       <c r="H98" s="2"/>
       <c r="I98" s="2"/>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C99" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="D99" s="2"/>
-      <c r="E99" s="2"/>
-      <c r="F99" s="2"/>
+      <c r="B99" s="2"/>
+      <c r="C99" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>282</v>
+      </c>
       <c r="G99" s="2"/>
       <c r="H99" s="2"/>
       <c r="I99" s="2"/>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B100" s="2"/>
-      <c r="C100" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="D100" s="2"/>
-      <c r="E100" s="2"/>
-      <c r="F100" s="2"/>
-      <c r="G100" s="2"/>
-      <c r="H100" s="2"/>
-      <c r="I100" s="2"/>
-    </row>
-    <row r="101" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B101" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="C101" s="8"/>
-      <c r="D101" s="8"/>
-      <c r="E101" s="8"/>
-      <c r="F101" s="8"/>
-      <c r="G101" s="8"/>
-      <c r="H101" s="8"/>
-      <c r="I101" s="8"/>
+    <row r="100" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B100" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="C100" s="8"/>
+      <c r="D100" s="8"/>
+      <c r="E100" s="8"/>
+      <c r="F100" s="8"/>
+      <c r="G100" s="8"/>
+      <c r="H100" s="8"/>
+      <c r="I100" s="8"/>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A101" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C101" s="2"/>
+      <c r="D101" s="2"/>
+      <c r="F101" s="2"/>
+      <c r="G101" s="2"/>
+      <c r="H101" s="2"/>
+      <c r="I101" s="2"/>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>88</v>
+        <v>144</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="C102" s="2"/>
+        <v>157</v>
+      </c>
       <c r="D102" s="2"/>
       <c r="E102" s="2"/>
       <c r="F102" s="2"/>
@@ -8481,8 +8623,7 @@
       <c r="I102" s="2"/>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B103" s="2"/>
-      <c r="C103" s="2" t="s">
+      <c r="C103" s="1" t="s">
         <v>190</v>
       </c>
       <c r="D103" s="2"/>
@@ -8492,95 +8633,101 @@
       <c r="H103" s="2"/>
       <c r="I103" s="2"/>
     </row>
-    <row r="104" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B104" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="C104" s="8"/>
-      <c r="D104" s="8"/>
-      <c r="E104" s="8"/>
-      <c r="F104" s="8"/>
-      <c r="G104" s="8"/>
-      <c r="H104" s="8"/>
-      <c r="I104" s="8"/>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A105" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D105" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E105" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="F105" s="2"/>
-      <c r="G105" s="2"/>
-      <c r="H105" s="2"/>
-      <c r="I105" s="2"/>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B104" s="2"/>
+      <c r="C104" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="D104" s="2"/>
+      <c r="E104" s="2"/>
+      <c r="F104" s="2"/>
+      <c r="G104" s="2"/>
+      <c r="H104" s="2"/>
+      <c r="I104" s="2"/>
+    </row>
+    <row r="105" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B105" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="C105" s="8"/>
+      <c r="D105" s="8"/>
+      <c r="E105" s="8"/>
+      <c r="F105" s="8"/>
+      <c r="G105" s="8"/>
+      <c r="H105" s="8"/>
+      <c r="I105" s="8"/>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B106" s="2"/>
-      <c r="C106" s="1" t="s">
-        <v>190</v>
-      </c>
+      <c r="A106" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C106" s="2"/>
+      <c r="D106" s="2"/>
       <c r="F106" s="2"/>
       <c r="G106" s="2"/>
       <c r="H106" s="2"/>
       <c r="I106" s="2"/>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B107" s="2"/>
-      <c r="C107" s="2" t="s">
-        <v>284</v>
+      <c r="A107" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>158</v>
       </c>
       <c r="D107" s="2"/>
+      <c r="E107" s="2"/>
       <c r="F107" s="2"/>
       <c r="G107" s="2"/>
       <c r="H107" s="2"/>
       <c r="I107" s="2"/>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B108" s="2"/>
-      <c r="D108" s="2" t="s">
-        <v>286</v>
-      </c>
+      <c r="C108" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D108" s="2"/>
+      <c r="E108" s="2"/>
+      <c r="F108" s="2"/>
       <c r="G108" s="2"/>
       <c r="H108" s="2"/>
       <c r="I108" s="2"/>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B109" s="2"/>
-      <c r="D109" s="2" t="s">
-        <v>287</v>
-      </c>
+      <c r="C109" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="D109" s="2"/>
+      <c r="E109" s="2"/>
+      <c r="F109" s="2"/>
       <c r="G109" s="2"/>
       <c r="H109" s="2"/>
       <c r="I109" s="2"/>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B110" s="2"/>
-      <c r="D110" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="G110" s="2"/>
-      <c r="H110" s="2"/>
-      <c r="I110" s="2"/>
+    <row r="110" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B110" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="C110" s="8"/>
+      <c r="D110" s="8"/>
+      <c r="E110" s="8"/>
+      <c r="F110" s="8"/>
+      <c r="G110" s="8"/>
+      <c r="H110" s="8"/>
+      <c r="I110" s="8"/>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B111" s="2"/>
-      <c r="C111" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>286</v>
-      </c>
+      <c r="A111" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C111" s="2"/>
+      <c r="D111" s="2"/>
+      <c r="E111" s="2"/>
+      <c r="F111" s="2"/>
       <c r="G111" s="2"/>
       <c r="H111" s="2"/>
       <c r="I111" s="2"/>
@@ -8588,51 +8735,54 @@
     <row r="112" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B112" s="2"/>
       <c r="C112" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>287</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="D112" s="2"/>
+      <c r="E112" s="2"/>
+      <c r="F112" s="2"/>
       <c r="G112" s="2"/>
       <c r="H112" s="2"/>
       <c r="I112" s="2"/>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B113" s="2"/>
-      <c r="C113" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="G113" s="2"/>
-      <c r="H113" s="2"/>
-      <c r="I113" s="2"/>
+    <row r="113" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B113" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="C113" s="8"/>
+      <c r="D113" s="8"/>
+      <c r="E113" s="8"/>
+      <c r="F113" s="8"/>
+      <c r="G113" s="8"/>
+      <c r="H113" s="8"/>
+      <c r="I113" s="8"/>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B114" s="2"/>
-      <c r="C114" s="2" t="s">
-        <v>475</v>
-      </c>
-      <c r="D114" s="2"/>
+      <c r="A114" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="E114" s="1" t="s">
-        <v>476</v>
-      </c>
+        <v>477</v>
+      </c>
+      <c r="F114" s="2"/>
       <c r="G114" s="2"/>
       <c r="H114" s="2"/>
       <c r="I114" s="2"/>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B115" s="2"/>
-      <c r="C115" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>480</v>
-      </c>
-      <c r="E115" s="1" t="s">
-        <v>476</v>
-      </c>
+      <c r="C115" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="F115" s="2"/>
       <c r="G115" s="2"/>
       <c r="H115" s="2"/>
       <c r="I115" s="2"/>
@@ -8640,62 +8790,37 @@
     <row r="116" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B116" s="2"/>
       <c r="C116" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="E116" s="1" t="s">
-        <v>476</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="D116" s="2"/>
+      <c r="F116" s="2"/>
       <c r="G116" s="2"/>
       <c r="H116" s="2"/>
       <c r="I116" s="2"/>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B117" s="2"/>
-      <c r="C117" s="2" t="s">
-        <v>285</v>
-      </c>
       <c r="D117" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="E117" s="1" t="s">
-        <v>476</v>
+        <v>286</v>
       </c>
       <c r="G117" s="2"/>
       <c r="H117" s="2"/>
       <c r="I117" s="2"/>
     </row>
-    <row r="118" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B118" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="C118" s="8"/>
-      <c r="D118" s="8"/>
-      <c r="E118" s="8"/>
-      <c r="F118" s="8"/>
-      <c r="G118" s="8"/>
-      <c r="H118" s="8"/>
-      <c r="I118" s="8"/>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B118" s="2"/>
+      <c r="D118" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="G118" s="2"/>
+      <c r="H118" s="2"/>
+      <c r="I118" s="2"/>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A119" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B119" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="C119" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D119" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="E119" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F119" s="2"/>
+      <c r="B119" s="2"/>
+      <c r="D119" s="2" t="s">
+        <v>288</v>
+      </c>
       <c r="G119" s="2"/>
       <c r="H119" s="2"/>
       <c r="I119" s="2"/>
@@ -8703,12 +8828,11 @@
     <row r="120" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B120" s="2"/>
       <c r="C120" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="E120" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="F120" s="2"/>
+        <v>285</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>286</v>
+      </c>
       <c r="G120" s="2"/>
       <c r="H120" s="2"/>
       <c r="I120" s="2"/>
@@ -8716,12 +8840,11 @@
     <row r="121" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B121" s="2"/>
       <c r="C121" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="E121" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="F121" s="2"/>
+        <v>285</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>287</v>
+      </c>
       <c r="G121" s="2"/>
       <c r="H121" s="2"/>
       <c r="I121" s="2"/>
@@ -8729,15 +8852,11 @@
     <row r="122" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B122" s="2"/>
       <c r="C122" s="2" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="E122" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="F122" s="2"/>
+        <v>288</v>
+      </c>
       <c r="G122" s="2"/>
       <c r="H122" s="2"/>
       <c r="I122" s="2"/>
@@ -8745,98 +8864,90 @@
     <row r="123" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B123" s="2"/>
       <c r="C123" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="E123" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="F123" s="2"/>
+        <v>475</v>
+      </c>
+      <c r="D123" s="2"/>
+      <c r="E123" s="1" t="s">
+        <v>476</v>
+      </c>
       <c r="G123" s="2"/>
       <c r="H123" s="2"/>
       <c r="I123" s="2"/>
     </row>
-    <row r="124" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B124" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="C124" s="8"/>
-      <c r="D124" s="8"/>
-      <c r="E124" s="8"/>
-      <c r="F124" s="8"/>
-      <c r="G124" s="8"/>
-      <c r="H124" s="8"/>
-      <c r="I124" s="8"/>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B124" s="2"/>
+      <c r="C124" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="G124" s="2"/>
+      <c r="H124" s="2"/>
+      <c r="I124" s="2"/>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A125" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B125" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="C125" s="2"/>
-      <c r="D125" s="2"/>
-      <c r="E125" s="2"/>
-      <c r="F125" s="2"/>
+      <c r="B125" s="2"/>
+      <c r="C125" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>476</v>
+      </c>
       <c r="G125" s="2"/>
       <c r="H125" s="2"/>
       <c r="I125" s="2"/>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A126" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B126" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="C126" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D126" s="1" t="s">
-        <v>413</v>
+      <c r="B126" s="2"/>
+      <c r="C126" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>479</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F126" s="1" t="s">
-        <v>194</v>
+        <v>476</v>
       </c>
       <c r="G126" s="2"/>
       <c r="H126" s="2"/>
       <c r="I126" s="2"/>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B127" s="2"/>
-      <c r="C127" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="D127" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="E127" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="F127" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="G127" s="2"/>
-      <c r="H127" s="2"/>
-      <c r="I127" s="2"/>
+    <row r="127" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B127" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="C127" s="8"/>
+      <c r="D127" s="8"/>
+      <c r="E127" s="8"/>
+      <c r="F127" s="8"/>
+      <c r="G127" s="8"/>
+      <c r="H127" s="8"/>
+      <c r="I127" s="8"/>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B128" s="2"/>
-      <c r="C128" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="D128" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="E128" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="F128" s="2" t="s">
-        <v>295</v>
-      </c>
+      <c r="A128" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F128" s="2"/>
       <c r="G128" s="2"/>
       <c r="H128" s="2"/>
       <c r="I128" s="2"/>
@@ -8844,266 +8955,271 @@
     <row r="129" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B129" s="2"/>
       <c r="C129" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="D129" s="2" t="s">
-        <v>414</v>
+        <v>289</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="F129" s="2" t="s">
-        <v>295</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="F129" s="2"/>
       <c r="G129" s="2"/>
       <c r="H129" s="2"/>
       <c r="I129" s="2"/>
     </row>
-    <row r="130" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B130" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="C130" s="8"/>
-      <c r="D130" s="8"/>
-      <c r="E130" s="8"/>
-      <c r="F130" s="8"/>
-      <c r="G130" s="8"/>
-      <c r="H130" s="8"/>
-      <c r="I130" s="8"/>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B130" s="2"/>
+      <c r="C130" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="F130" s="2"/>
+      <c r="G130" s="2"/>
+      <c r="H130" s="2"/>
+      <c r="I130" s="2"/>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A131" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B131" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="C131" s="2"/>
-      <c r="D131" s="2"/>
-      <c r="E131" s="2"/>
+      <c r="B131" s="2"/>
+      <c r="C131" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>293</v>
+      </c>
       <c r="F131" s="2"/>
       <c r="G131" s="2"/>
       <c r="H131" s="2"/>
       <c r="I131" s="2"/>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A132" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B132" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="C132" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D132" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="E132" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F132" s="1" t="s">
-        <v>194</v>
-      </c>
+      <c r="B132" s="2"/>
+      <c r="C132" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="F132" s="2"/>
       <c r="G132" s="2"/>
       <c r="H132" s="2"/>
       <c r="I132" s="2"/>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B133" s="2"/>
-      <c r="C133" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="D133" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="E133" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="F133" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="G133" s="2"/>
-      <c r="H133" s="2"/>
-      <c r="I133" s="2"/>
+    <row r="133" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B133" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="C133" s="8"/>
+      <c r="D133" s="8"/>
+      <c r="E133" s="8"/>
+      <c r="F133" s="8"/>
+      <c r="G133" s="8"/>
+      <c r="H133" s="8"/>
+      <c r="I133" s="8"/>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B134" s="2"/>
-      <c r="C134" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="D134" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="E134" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="F134" s="2" t="s">
-        <v>295</v>
-      </c>
+      <c r="A134" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C134" s="2"/>
+      <c r="D134" s="2"/>
+      <c r="E134" s="2"/>
+      <c r="F134" s="2"/>
       <c r="G134" s="2"/>
       <c r="H134" s="2"/>
       <c r="I134" s="2"/>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B135" s="2"/>
-      <c r="C135" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="D135" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="E135" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="F135" s="2" t="s">
-        <v>295</v>
+      <c r="A135" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B135" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F135" s="1" t="s">
+        <v>194</v>
       </c>
       <c r="G135" s="2"/>
       <c r="H135" s="2"/>
       <c r="I135" s="2"/>
     </row>
-    <row r="136" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B136" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="C136" s="8"/>
-      <c r="D136" s="8"/>
-      <c r="E136" s="8"/>
-      <c r="F136" s="8"/>
-      <c r="G136" s="8"/>
-      <c r="H136" s="8"/>
-      <c r="I136" s="8"/>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B136" s="2"/>
+      <c r="C136" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="G136" s="2"/>
+      <c r="H136" s="2"/>
+      <c r="I136" s="2"/>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A137" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B137" s="2" t="s">
-        <v>166</v>
-      </c>
+      <c r="B137" s="2"/>
+      <c r="C137" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="G137" s="2"/>
       <c r="H137" s="2"/>
       <c r="I137" s="2"/>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A138" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B138" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="C138" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D138" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="E138" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F138" s="1" t="s">
-        <v>194</v>
-      </c>
+      <c r="B138" s="2"/>
+      <c r="C138" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="G138" s="2"/>
       <c r="H138" s="2"/>
       <c r="I138" s="2"/>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B139" s="2"/>
-      <c r="C139" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="D139" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="E139" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="F139" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="G139" s="2"/>
-      <c r="H139" s="2"/>
-      <c r="I139" s="2"/>
+    <row r="139" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B139" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="C139" s="8"/>
+      <c r="D139" s="8"/>
+      <c r="E139" s="8"/>
+      <c r="F139" s="8"/>
+      <c r="G139" s="8"/>
+      <c r="H139" s="8"/>
+      <c r="I139" s="8"/>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B140" s="2"/>
-      <c r="C140" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="D140" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="E140" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="F140" s="2" t="s">
-        <v>295</v>
-      </c>
+      <c r="A140" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C140" s="2"/>
+      <c r="D140" s="2"/>
+      <c r="E140" s="2"/>
+      <c r="F140" s="2"/>
       <c r="G140" s="2"/>
       <c r="H140" s="2"/>
       <c r="I140" s="2"/>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B141" s="2"/>
-      <c r="C141" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="D141" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="E141" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="F141" s="2" t="s">
-        <v>295</v>
+      <c r="A141" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B141" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F141" s="1" t="s">
+        <v>194</v>
       </c>
       <c r="G141" s="2"/>
       <c r="H141" s="2"/>
       <c r="I141" s="2"/>
     </row>
-    <row r="142" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B142" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="C142" s="8"/>
-      <c r="D142" s="8"/>
-      <c r="E142" s="8"/>
-      <c r="F142" s="8"/>
-      <c r="G142" s="8"/>
-      <c r="H142" s="8"/>
-      <c r="I142" s="8"/>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B142" s="2"/>
+      <c r="C142" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="G142" s="2"/>
+      <c r="H142" s="2"/>
+      <c r="I142" s="2"/>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A143" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B143" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="C143" s="2"/>
-      <c r="D143" s="2"/>
-      <c r="E143" s="2"/>
-      <c r="F143" s="2"/>
+      <c r="B143" s="2"/>
+      <c r="C143" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>295</v>
+      </c>
       <c r="G143" s="2"/>
       <c r="H143" s="2"/>
       <c r="I143" s="2"/>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B144" s="2"/>
-      <c r="C144" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="D144" s="2"/>
-      <c r="E144" s="2"/>
-      <c r="F144" s="2"/>
+      <c r="C144" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>295</v>
+      </c>
       <c r="G144" s="2"/>
       <c r="H144" s="2"/>
       <c r="I144" s="2"/>
     </row>
     <row r="145" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B145" s="13" t="s">
-        <v>134</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="C145" s="8"/>
       <c r="D145" s="8"/>
       <c r="E145" s="8"/>
       <c r="F145" s="8"/>
@@ -9113,70 +9229,93 @@
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="D146" s="2"/>
-      <c r="E146" s="2"/>
-      <c r="F146" s="2"/>
-      <c r="G146" s="2"/>
+        <v>166</v>
+      </c>
       <c r="H146" s="2"/>
       <c r="I146" s="2"/>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B147" s="2"/>
+      <c r="A147" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B147" s="12" t="s">
+        <v>167</v>
+      </c>
       <c r="C147" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="D147" s="2"/>
-      <c r="E147" s="2"/>
-      <c r="F147" s="2"/>
-      <c r="G147" s="2"/>
+        <v>23</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F147" s="1" t="s">
+        <v>194</v>
+      </c>
       <c r="H147" s="2"/>
       <c r="I147" s="2"/>
     </row>
-    <row r="148" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B148" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="D148" s="8"/>
-      <c r="E148" s="8"/>
-      <c r="F148" s="8"/>
-      <c r="G148" s="8"/>
-      <c r="H148" s="8"/>
-      <c r="I148" s="8"/>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B148" s="2"/>
+      <c r="C148" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="G148" s="2"/>
+      <c r="H148" s="2"/>
+      <c r="I148" s="2"/>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A149" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B149" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="D149" s="2"/>
-      <c r="E149" s="2"/>
-      <c r="F149" s="2"/>
+      <c r="B149" s="2"/>
+      <c r="C149" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>295</v>
+      </c>
       <c r="G149" s="2"/>
       <c r="H149" s="2"/>
       <c r="I149" s="2"/>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B150" s="2"/>
-      <c r="C150" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="D150" s="2"/>
-      <c r="E150" s="2"/>
-      <c r="F150" s="2"/>
+      <c r="C150" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>295</v>
+      </c>
       <c r="G150" s="2"/>
       <c r="H150" s="2"/>
       <c r="I150" s="2"/>
     </row>
     <row r="151" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B151" s="13" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C151" s="8"/>
       <c r="D151" s="8"/>
@@ -9188,9 +9327,11 @@
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B152" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>168</v>
+      </c>
       <c r="C152" s="2"/>
       <c r="D152" s="2"/>
       <c r="E152" s="2"/>
@@ -9200,13 +9341,10 @@
       <c r="I152" s="2"/>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A153" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B153" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="C153" s="2"/>
+      <c r="B153" s="2"/>
+      <c r="C153" s="1" t="s">
+        <v>190</v>
+      </c>
       <c r="D153" s="2"/>
       <c r="E153" s="2"/>
       <c r="F153" s="2"/>
@@ -9214,29 +9352,24 @@
       <c r="H153" s="2"/>
       <c r="I153" s="2"/>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A154" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B154" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C154" s="2"/>
-      <c r="D154" s="2"/>
-      <c r="E154" s="2"/>
-      <c r="F154" s="2"/>
-      <c r="G154" s="2"/>
-      <c r="H154" s="2"/>
-      <c r="I154" s="2"/>
+    <row r="154" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B154" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="D154" s="8"/>
+      <c r="E154" s="8"/>
+      <c r="F154" s="8"/>
+      <c r="G154" s="8"/>
+      <c r="H154" s="8"/>
+      <c r="I154" s="8"/>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="C155" s="2"/>
+        <v>169</v>
+      </c>
       <c r="D155" s="2"/>
       <c r="E155" s="2"/>
       <c r="F155" s="2"/>
@@ -9245,13 +9378,10 @@
       <c r="I155" s="2"/>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A156" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="B156" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="C156" s="2"/>
+      <c r="B156" s="2"/>
+      <c r="C156" s="1" t="s">
+        <v>190</v>
+      </c>
       <c r="D156" s="2"/>
       <c r="E156" s="2"/>
       <c r="F156" s="2"/>
@@ -9259,79 +9389,60 @@
       <c r="H156" s="2"/>
       <c r="I156" s="2"/>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A157" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B157" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="C157" s="2"/>
-      <c r="D157" s="2"/>
-      <c r="E157" s="2"/>
-      <c r="F157" s="2"/>
-      <c r="G157" s="2"/>
-      <c r="H157" s="2"/>
-      <c r="I157" s="2"/>
+    <row r="157" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B157" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="D157" s="8"/>
+      <c r="E157" s="8"/>
+      <c r="F157" s="8"/>
+      <c r="G157" s="8"/>
+      <c r="H157" s="8"/>
+      <c r="I157" s="8"/>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="C158" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D158" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="E158" s="1" t="s">
-        <v>147</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="D158" s="2"/>
+      <c r="E158" s="2"/>
+      <c r="F158" s="2"/>
       <c r="G158" s="2"/>
       <c r="H158" s="2"/>
       <c r="I158" s="2"/>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A159" s="1" t="s">
-        <v>146</v>
-      </c>
       <c r="B159" s="2"/>
-      <c r="C159" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="D159" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="E159" s="2" t="s">
-        <v>271</v>
-      </c>
+      <c r="C159" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D159" s="2"/>
+      <c r="E159" s="2"/>
       <c r="F159" s="2"/>
       <c r="G159" s="2"/>
       <c r="H159" s="2"/>
       <c r="I159" s="2"/>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A160" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="B160" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="C160" s="2"/>
-      <c r="D160" s="2"/>
-      <c r="E160" s="2"/>
-      <c r="F160" s="2"/>
-      <c r="G160" s="2"/>
-      <c r="H160" s="2"/>
-      <c r="I160" s="2"/>
+    <row r="160" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B160" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="C160" s="8"/>
+      <c r="D160" s="8"/>
+      <c r="E160" s="8"/>
+      <c r="F160" s="8"/>
+      <c r="G160" s="8"/>
+      <c r="H160" s="8"/>
+      <c r="I160" s="8"/>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B161" s="2" t="s">
-        <v>178</v>
-      </c>
+      <c r="A161" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B161" s="2"/>
       <c r="C161" s="2"/>
       <c r="D161" s="2"/>
       <c r="E161" s="2"/>
@@ -9341,8 +9452,11 @@
       <c r="I161" s="2"/>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A162" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="B162" s="2" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="C162" s="2"/>
       <c r="D162" s="2"/>
@@ -9353,8 +9467,11 @@
       <c r="I162" s="2"/>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A163" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="B163" s="2" t="s">
-        <v>268</v>
+        <v>173</v>
       </c>
       <c r="C163" s="2"/>
       <c r="D163" s="2"/>
@@ -9365,8 +9482,11 @@
       <c r="I163" s="2"/>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A164" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="B164" s="2" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="C164" s="2"/>
       <c r="D164" s="2"/>
@@ -9377,8 +9497,11 @@
       <c r="I164" s="2"/>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A165" s="1" t="s">
+        <v>266</v>
+      </c>
       <c r="B165" s="2" t="s">
-        <v>181</v>
+        <v>267</v>
       </c>
       <c r="C165" s="2"/>
       <c r="D165" s="2"/>
@@ -9388,224 +9511,353 @@
       <c r="H165" s="2"/>
       <c r="I165" s="2"/>
     </row>
-    <row r="166" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B166" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="C166" s="8"/>
-      <c r="D166" s="8"/>
-      <c r="E166" s="8"/>
-      <c r="F166" s="8"/>
-      <c r="G166" s="8"/>
-      <c r="H166" s="8"/>
-      <c r="I166" s="8"/>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A166" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C166" s="2"/>
+      <c r="D166" s="2"/>
+      <c r="E166" s="2"/>
+      <c r="F166" s="2"/>
+      <c r="G166" s="2"/>
+      <c r="H166" s="2"/>
+      <c r="I166" s="2"/>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
-        <v>137</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D167" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E167" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G167" s="2"/>
+      <c r="H167" s="2"/>
+      <c r="I167" s="2"/>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B168" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="C168" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D168" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E168" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F168" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G168" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="H168" s="1" t="s">
-        <v>16</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="B168" s="2"/>
+      <c r="C168" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="E168" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="F168" s="2"/>
+      <c r="G168" s="2"/>
+      <c r="H168" s="2"/>
+      <c r="I168" s="2"/>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C169" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="D169" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="E169" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="F169" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="G169" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="H169" s="14" t="s">
-        <v>274</v>
-      </c>
+      <c r="A169" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C169" s="2"/>
+      <c r="D169" s="2"/>
+      <c r="E169" s="2"/>
+      <c r="F169" s="2"/>
+      <c r="G169" s="2"/>
+      <c r="H169" s="2"/>
+      <c r="I169" s="2"/>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C170" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="D170" s="2" t="s">
-        <v>359</v>
-      </c>
+      <c r="B170" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C170" s="2"/>
+      <c r="D170" s="2"/>
       <c r="E170" s="2"/>
       <c r="F170" s="2"/>
-      <c r="G170" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="H170" s="14" t="s">
-        <v>274</v>
-      </c>
+      <c r="G170" s="2"/>
+      <c r="H170" s="2"/>
+      <c r="I170" s="2"/>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B171" s="2" t="s">
+        <v>179</v>
+      </c>
       <c r="C171" s="2"/>
       <c r="D171" s="2"/>
-      <c r="E171" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="F171" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="G171" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="H171" s="14" t="s">
-        <v>274</v>
-      </c>
+      <c r="E171" s="2"/>
+      <c r="F171" s="2"/>
+      <c r="G171" s="2"/>
+      <c r="H171" s="2"/>
+      <c r="I171" s="2"/>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B172" s="2" t="s">
+        <v>268</v>
+      </c>
       <c r="C172" s="2"/>
       <c r="D172" s="2"/>
       <c r="E172" s="2"/>
       <c r="F172" s="2"/>
-      <c r="G172" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="H172" s="14" t="s">
-        <v>274</v>
-      </c>
+      <c r="G172" s="2"/>
+      <c r="H172" s="2"/>
+      <c r="I172" s="2"/>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C173" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="D173" s="2" t="s">
-        <v>359</v>
-      </c>
+      <c r="B173" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C173" s="2"/>
+      <c r="D173" s="2"/>
       <c r="E173" s="2"/>
       <c r="F173" s="2"/>
       <c r="G173" s="2"/>
-      <c r="H173" s="14" t="s">
-        <v>274</v>
-      </c>
+      <c r="H173" s="2"/>
+      <c r="I173" s="2"/>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B174" s="2" t="s">
+        <v>181</v>
+      </c>
       <c r="C174" s="2"/>
       <c r="D174" s="2"/>
-      <c r="E174" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="F174" s="2" t="s">
-        <v>359</v>
-      </c>
+      <c r="E174" s="2"/>
+      <c r="F174" s="2"/>
       <c r="G174" s="2"/>
-      <c r="H174" s="14" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C175" s="2"/>
-      <c r="D175" s="2"/>
-      <c r="E175" s="2"/>
-      <c r="F175" s="2"/>
-      <c r="G175" s="2"/>
-      <c r="H175" s="14" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B176" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="C176" s="8"/>
-      <c r="D176" s="8"/>
-      <c r="E176" s="8"/>
-      <c r="F176" s="8"/>
-      <c r="G176" s="8"/>
-      <c r="H176" s="8"/>
-      <c r="I176" s="8"/>
+      <c r="H174" s="2"/>
+      <c r="I174" s="2"/>
+    </row>
+    <row r="175" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B175" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="C175" s="8"/>
+      <c r="D175" s="8"/>
+      <c r="E175" s="8"/>
+      <c r="F175" s="8"/>
+      <c r="G175" s="8"/>
+      <c r="H175" s="8"/>
+      <c r="I175" s="8"/>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A176" s="1" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
-        <v>137</v>
+        <v>13</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D177" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E177" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F177" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G177" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="H177" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A178" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B178" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="C178" s="1" t="s">
-        <v>21</v>
+      <c r="C178" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="E178" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="F178" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="G178" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="H178" s="14" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C179" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="E179" s="2"/>
+      <c r="F179" s="2"/>
+      <c r="G179" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="H179" s="14" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C180" s="2"/>
+      <c r="D180" s="2"/>
+      <c r="E180" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="F180" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="G180" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="H180" s="14" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C181" s="2"/>
+      <c r="D181" s="2"/>
+      <c r="E181" s="2"/>
+      <c r="F181" s="2"/>
+      <c r="G181" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="H181" s="14" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C182" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="E182" s="2"/>
+      <c r="F182" s="2"/>
+      <c r="G182" s="2"/>
+      <c r="H182" s="14" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C183" s="2"/>
+      <c r="D183" s="2"/>
+      <c r="E183" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="F183" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="G183" s="2"/>
+      <c r="H183" s="14" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C184" s="2"/>
+      <c r="D184" s="2"/>
+      <c r="E184" s="2"/>
+      <c r="F184" s="2"/>
+      <c r="G184" s="2"/>
+      <c r="H184" s="14" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B185" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="C185" s="8"/>
+      <c r="D185" s="8"/>
+      <c r="E185" s="8"/>
+      <c r="F185" s="8"/>
+      <c r="G185" s="8"/>
+      <c r="H185" s="8"/>
+      <c r="I185" s="8"/>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A186" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A187" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C188" s="2" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C180" s="1" t="s">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C189" s="1" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="181" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B181" s="13" t="s">
+    <row r="190" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B190" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="C181" s="8"/>
-      <c r="D181" s="8"/>
-      <c r="E181" s="8"/>
-      <c r="F181" s="8"/>
-      <c r="G181" s="8"/>
-      <c r="H181" s="8"/>
-      <c r="I181" s="8"/>
-    </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A182" s="1" t="s">
+      <c r="C190" s="8"/>
+      <c r="D190" s="8"/>
+      <c r="E190" s="8"/>
+      <c r="F190" s="8"/>
+      <c r="G190" s="8"/>
+      <c r="H190" s="8"/>
+      <c r="I190" s="8"/>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A191" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A183" s="1" t="s">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A192" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B183" s="2" t="s">
+      <c r="B192" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="C183" s="1" t="s">
+      <c r="C192" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C184" s="2" t="s">
+    <row r="193" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C193" s="2" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C185" s="1" t="s">
+    <row r="194" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C194" s="1" t="s">
         <v>190</v>
       </c>
     </row>

--- a/P4E_psuedo_instruction_set.xlsx
+++ b/P4E_psuedo_instruction_set.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\P4EngineAssembler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E582B471-EAB5-4F77-B6C9-93011466651F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49368393-F412-4A9B-95CE-B73D594322BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38520" yWindow="-3645" windowWidth="38640" windowHeight="21840" xr2:uid="{87164962-7B7D-4BAA-98E0-B9A8D7C47112}"/>
   </bookViews>
@@ -632,7 +632,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D179" authorId="0" shapeId="0" xr:uid="{5EDDCAB0-8CF8-4E69-91EC-FCEBB8FBFB81}">
+    <comment ref="D179" authorId="0" shapeId="0" xr:uid="{AD2C89F3-2621-4DC3-B2F0-4EEE583A6F75}">
       <text>
         <r>
           <rPr>
@@ -684,7 +684,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D182" authorId="0" shapeId="0" xr:uid="{C0E77B6C-0F0F-459E-A010-D438E2938743}">
+    <comment ref="D182" authorId="0" shapeId="0" xr:uid="{50FC7ECC-28FD-4D49-9E10-DC3BCC6B4269}">
       <text>
         <r>
           <rPr>
@@ -2990,40 +2990,6 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">ISR { </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei Light"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>off6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei Light"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> :</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Microsoft YaHei Light"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
       <t xml:space="preserve">META { </t>
     </r>
     <r>
@@ -6299,6 +6265,40 @@
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> ] ,</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">ISR { </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>off5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei Light"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> :</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -6809,8 +6809,8 @@
   <dimension ref="A1:I194"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D91" sqref="D91"/>
+      <pane ySplit="1" topLeftCell="A158" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D178" sqref="D178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.2"/>
@@ -6857,7 +6857,7 @@
         <v>149</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>25</v>
@@ -6875,16 +6875,16 @@
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>187</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
@@ -6893,16 +6893,16 @@
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>241</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
@@ -6911,10 +6911,10 @@
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -6940,7 +6940,7 @@
         <v>150</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>26</v>
@@ -6967,25 +6967,25 @@
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>187</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -6994,43 +6994,43 @@
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>241</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B11" s="2"/>
       <c r="C11" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -7038,67 +7038,67 @@
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B12" s="2"/>
       <c r="C12" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D12" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>298</v>
-      </c>
       <c r="F12" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>187</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B13" s="2"/>
       <c r="C13" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D13" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>298</v>
-      </c>
       <c r="F13" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>241</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B14" s="2"/>
       <c r="C14" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D14" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>298</v>
-      </c>
       <c r="F14" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
@@ -7145,60 +7145,60 @@
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B17" s="2"/>
       <c r="C17" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>187</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I17" s="2"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B18" s="2"/>
       <c r="C18" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>241</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I18" s="2"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B19" s="2"/>
       <c r="C19" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
@@ -7207,60 +7207,60 @@
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B20" s="2"/>
       <c r="C20" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>298</v>
-      </c>
       <c r="E20" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>187</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I20" s="2"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B21" s="2"/>
       <c r="C21" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="D21" s="2" t="s">
-        <v>298</v>
-      </c>
       <c r="E21" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>241</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I21" s="2"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B22" s="2"/>
       <c r="C22" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="D22" s="2" t="s">
-        <v>298</v>
-      </c>
       <c r="E22" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
@@ -7278,25 +7278,25 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="I24" s="2"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
@@ -7357,60 +7357,60 @@
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>187</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I29" s="2"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B30" s="2"/>
       <c r="C30" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>241</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I30" s="2"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B31" s="2"/>
       <c r="C31" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
@@ -7419,60 +7419,60 @@
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B32" s="2"/>
       <c r="C32" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="D32" s="2" t="s">
-        <v>298</v>
-      </c>
       <c r="E32" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>187</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I32" s="2"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B33" s="2"/>
       <c r="C33" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="D33" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="D33" s="2" t="s">
-        <v>298</v>
-      </c>
       <c r="E33" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>241</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I33" s="2"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B34" s="2"/>
       <c r="C34" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="D34" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="D34" s="2" t="s">
-        <v>298</v>
-      </c>
       <c r="E34" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
@@ -7490,25 +7490,25 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="I36" s="2"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
@@ -7579,260 +7579,260 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C42" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G42" s="2" t="s">
         <v>187</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C43" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G43" s="2" t="s">
         <v>241</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C44" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C45" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="D45" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="D45" s="2" t="s">
-        <v>298</v>
-      </c>
       <c r="E45" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>187</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C46" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="D46" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="D46" s="2" t="s">
-        <v>298</v>
-      </c>
       <c r="E46" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>241</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C47" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="D47" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="D47" s="2" t="s">
-        <v>298</v>
-      </c>
       <c r="E47" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H47" s="2"/>
       <c r="I47" s="2"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C48" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E48" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="F48" s="2" t="s">
         <v>279</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>280</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>187</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C49" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E49" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="F49" s="2" t="s">
         <v>279</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>280</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>241</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C50" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E50" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="F50" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="F50" s="2" t="s">
-        <v>280</v>
-      </c>
       <c r="G50" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H50" s="2"/>
       <c r="I50" s="2"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C51" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="D51" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="D51" s="2" t="s">
-        <v>298</v>
-      </c>
       <c r="E51" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="F51" s="2" t="s">
         <v>279</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>280</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>187</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C52" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="D52" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="D52" s="2" t="s">
-        <v>298</v>
-      </c>
       <c r="E52" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="F52" s="2" t="s">
         <v>279</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>280</v>
       </c>
       <c r="G52" s="2" t="s">
         <v>241</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C53" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="D53" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="D53" s="2" t="s">
-        <v>298</v>
-      </c>
       <c r="E53" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="F53" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="F53" s="2" t="s">
-        <v>280</v>
-      </c>
       <c r="G53" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H53" s="2"/>
       <c r="I53" s="2"/>
@@ -7851,10 +7851,10 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>23</v>
@@ -7878,16 +7878,16 @@
       </c>
       <c r="B56" s="2"/>
       <c r="C56" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>187</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G56" s="2"/>
       <c r="H56" s="2"/>
@@ -7896,16 +7896,16 @@
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B57" s="2"/>
       <c r="C57" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>241</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G57" s="2"/>
       <c r="H57" s="2"/>
@@ -7914,10 +7914,10 @@
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B58" s="2"/>
       <c r="C58" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
@@ -7928,16 +7928,16 @@
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B59" s="2"/>
       <c r="C59" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>187</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G59" s="2"/>
       <c r="H59" s="2"/>
@@ -7946,16 +7946,16 @@
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B60" s="2"/>
       <c r="C60" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>241</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G60" s="2"/>
       <c r="H60" s="2"/>
@@ -7964,10 +7964,10 @@
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B61" s="2"/>
       <c r="C61" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
@@ -7978,16 +7978,16 @@
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B62" s="2"/>
       <c r="C62" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>187</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G62" s="2"/>
       <c r="H62" s="2"/>
@@ -7996,16 +7996,16 @@
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B63" s="2"/>
       <c r="C63" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>241</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G63" s="2"/>
       <c r="H63" s="2"/>
@@ -8014,10 +8014,10 @@
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B64" s="2"/>
       <c r="C64" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
@@ -8028,16 +8028,16 @@
     <row r="65" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B65" s="2"/>
       <c r="C65" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>187</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G65" s="2"/>
       <c r="H65" s="2"/>
@@ -8046,16 +8046,16 @@
     <row r="66" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B66" s="2"/>
       <c r="C66" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>241</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G66" s="2"/>
       <c r="H66" s="2"/>
@@ -8064,10 +8064,10 @@
     <row r="67" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B67" s="2"/>
       <c r="C67" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
@@ -8078,16 +8078,16 @@
     <row r="68" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B68" s="2"/>
       <c r="C68" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>187</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G68" s="2"/>
       <c r="H68" s="2"/>
@@ -8096,16 +8096,16 @@
     <row r="69" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B69" s="2"/>
       <c r="C69" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>241</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G69" s="2"/>
       <c r="H69" s="2"/>
@@ -8114,10 +8114,10 @@
     <row r="70" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B70" s="2"/>
       <c r="C70" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
@@ -8128,16 +8128,16 @@
     <row r="71" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B71" s="2"/>
       <c r="C71" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>187</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G71" s="2"/>
       <c r="H71" s="2"/>
@@ -8146,16 +8146,16 @@
     <row r="72" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B72" s="2"/>
       <c r="C72" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>241</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G72" s="2"/>
       <c r="H72" s="2"/>
@@ -8164,10 +8164,10 @@
     <row r="73" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B73" s="2"/>
       <c r="C73" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" s="2"/>
@@ -8178,16 +8178,16 @@
     <row r="74" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B74" s="2"/>
       <c r="C74" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>187</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G74" s="2"/>
       <c r="H74" s="2"/>
@@ -8196,16 +8196,16 @@
     <row r="75" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B75" s="2"/>
       <c r="C75" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>241</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G75" s="2"/>
       <c r="H75" s="2"/>
@@ -8214,10 +8214,10 @@
     <row r="76" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B76" s="2"/>
       <c r="C76" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" s="2"/>
@@ -8228,16 +8228,16 @@
     <row r="77" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B77" s="2"/>
       <c r="C77" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>187</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G77" s="2"/>
       <c r="H77" s="2"/>
@@ -8246,16 +8246,16 @@
     <row r="78" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B78" s="2"/>
       <c r="C78" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>241</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G78" s="2"/>
       <c r="H78" s="2"/>
@@ -8264,10 +8264,10 @@
     <row r="79" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B79" s="2"/>
       <c r="C79" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" s="2"/>
@@ -8278,16 +8278,16 @@
     <row r="80" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B80" s="2"/>
       <c r="C80" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>187</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G80" s="2"/>
       <c r="H80" s="2"/>
@@ -8296,16 +8296,16 @@
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B81" s="2"/>
       <c r="C81" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>241</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G81" s="2"/>
       <c r="H81" s="2"/>
@@ -8314,10 +8314,10 @@
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B82" s="2"/>
       <c r="C82" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" s="2"/>
@@ -8328,16 +8328,16 @@
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B83" s="2"/>
       <c r="C83" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>187</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G83" s="2"/>
       <c r="H83" s="2"/>
@@ -8346,16 +8346,16 @@
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B84" s="2"/>
       <c r="C84" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>241</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G84" s="2"/>
       <c r="H84" s="2"/>
@@ -8364,10 +8364,10 @@
     <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B85" s="2"/>
       <c r="C85" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" s="2"/>
@@ -8378,16 +8378,16 @@
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B86" s="2"/>
       <c r="C86" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>187</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G86" s="2"/>
       <c r="H86" s="2"/>
@@ -8396,16 +8396,16 @@
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B87" s="2"/>
       <c r="C87" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>241</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G87" s="2"/>
       <c r="H87" s="2"/>
@@ -8414,10 +8414,10 @@
     <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B88" s="2"/>
       <c r="C88" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" s="2"/>
@@ -8428,16 +8428,16 @@
     <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B89" s="2"/>
       <c r="C89" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>187</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G89" s="2"/>
       <c r="H89" s="2"/>
@@ -8446,16 +8446,16 @@
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B90" s="2"/>
       <c r="C90" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>241</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G90" s="2"/>
       <c r="H90" s="2"/>
@@ -8464,10 +8464,10 @@
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B91" s="2"/>
       <c r="C91" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" s="2"/>
@@ -8518,11 +8518,11 @@
     <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B95" s="2"/>
       <c r="C95" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D95" s="2"/>
       <c r="E95" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G95" s="2"/>
       <c r="H95" s="2"/>
@@ -8531,13 +8531,13 @@
     <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B96" s="2"/>
       <c r="C96" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="E96" s="2" t="s">
         <v>281</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>282</v>
       </c>
       <c r="G96" s="2"/>
       <c r="H96" s="2"/>
@@ -8560,11 +8560,11 @@
     <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B98" s="2"/>
       <c r="C98" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D98" s="2"/>
       <c r="E98" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G98" s="2"/>
       <c r="H98" s="2"/>
@@ -8573,13 +8573,13 @@
     <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B99" s="2"/>
       <c r="C99" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="E99" s="2" t="s">
         <v>281</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>282</v>
       </c>
       <c r="G99" s="2"/>
       <c r="H99" s="2"/>
@@ -8636,7 +8636,7 @@
     <row r="104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B104" s="2"/>
       <c r="C104" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D104" s="2"/>
       <c r="E104" s="2"/>
@@ -8696,7 +8696,7 @@
     <row r="109" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B109" s="2"/>
       <c r="C109" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D109" s="2"/>
       <c r="E109" s="2"/>
@@ -8770,7 +8770,7 @@
         <v>34</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F114" s="2"/>
       <c r="G114" s="2"/>
@@ -8790,7 +8790,7 @@
     <row r="116" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B116" s="2"/>
       <c r="C116" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D116" s="2"/>
       <c r="F116" s="2"/>
@@ -8801,7 +8801,7 @@
     <row r="117" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B117" s="2"/>
       <c r="D117" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G117" s="2"/>
       <c r="H117" s="2"/>
@@ -8810,7 +8810,7 @@
     <row r="118" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B118" s="2"/>
       <c r="D118" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G118" s="2"/>
       <c r="H118" s="2"/>
@@ -8819,7 +8819,7 @@
     <row r="119" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B119" s="2"/>
       <c r="D119" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G119" s="2"/>
       <c r="H119" s="2"/>
@@ -8828,10 +8828,10 @@
     <row r="120" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B120" s="2"/>
       <c r="C120" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="D120" s="2" t="s">
         <v>285</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>286</v>
       </c>
       <c r="G120" s="2"/>
       <c r="H120" s="2"/>
@@ -8840,10 +8840,10 @@
     <row r="121" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B121" s="2"/>
       <c r="C121" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G121" s="2"/>
       <c r="H121" s="2"/>
@@ -8852,10 +8852,10 @@
     <row r="122" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B122" s="2"/>
       <c r="C122" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G122" s="2"/>
       <c r="H122" s="2"/>
@@ -8864,11 +8864,11 @@
     <row r="123" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B123" s="2"/>
       <c r="C123" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D123" s="2"/>
       <c r="E123" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="G123" s="2"/>
       <c r="H123" s="2"/>
@@ -8877,13 +8877,13 @@
     <row r="124" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B124" s="2"/>
       <c r="C124" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="G124" s="2"/>
       <c r="H124" s="2"/>
@@ -8892,13 +8892,13 @@
     <row r="125" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B125" s="2"/>
       <c r="C125" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="G125" s="2"/>
       <c r="H125" s="2"/>
@@ -8907,13 +8907,13 @@
     <row r="126" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B126" s="2"/>
       <c r="C126" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="G126" s="2"/>
       <c r="H126" s="2"/>
@@ -8955,10 +8955,10 @@
     <row r="129" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B129" s="2"/>
       <c r="C129" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F129" s="2"/>
       <c r="G129" s="2"/>
@@ -8968,10 +8968,10 @@
     <row r="130" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B130" s="2"/>
       <c r="C130" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F130" s="2"/>
       <c r="G130" s="2"/>
@@ -8981,13 +8981,13 @@
     <row r="131" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B131" s="2"/>
       <c r="C131" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F131" s="2"/>
       <c r="G131" s="2"/>
@@ -8997,10 +8997,10 @@
     <row r="132" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B132" s="2"/>
       <c r="C132" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="E132" s="2" t="s">
         <v>292</v>
-      </c>
-      <c r="E132" s="2" t="s">
-        <v>293</v>
       </c>
       <c r="F132" s="2"/>
       <c r="G132" s="2"/>
@@ -9045,7 +9045,7 @@
         <v>23</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E135" s="1" t="s">
         <v>24</v>
@@ -9063,10 +9063,10 @@
         <v>187</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>193</v>
@@ -9078,16 +9078,16 @@
     <row r="137" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B137" s="2"/>
       <c r="C137" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E137" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="F137" s="2" t="s">
         <v>294</v>
-      </c>
-      <c r="F137" s="2" t="s">
-        <v>295</v>
       </c>
       <c r="G137" s="2"/>
       <c r="H137" s="2"/>
@@ -9096,16 +9096,16 @@
     <row r="138" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B138" s="2"/>
       <c r="C138" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E138" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="F138" s="2" t="s">
         <v>294</v>
-      </c>
-      <c r="F138" s="2" t="s">
-        <v>295</v>
       </c>
       <c r="G138" s="2"/>
       <c r="H138" s="2"/>
@@ -9149,7 +9149,7 @@
         <v>23</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E141" s="1" t="s">
         <v>24</v>
@@ -9167,10 +9167,10 @@
         <v>187</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>193</v>
@@ -9182,16 +9182,16 @@
     <row r="143" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B143" s="2"/>
       <c r="C143" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E143" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="F143" s="2" t="s">
         <v>294</v>
-      </c>
-      <c r="F143" s="2" t="s">
-        <v>295</v>
       </c>
       <c r="G143" s="2"/>
       <c r="H143" s="2"/>
@@ -9200,16 +9200,16 @@
     <row r="144" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B144" s="2"/>
       <c r="C144" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E144" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="F144" s="2" t="s">
         <v>294</v>
-      </c>
-      <c r="F144" s="2" t="s">
-        <v>295</v>
       </c>
       <c r="G144" s="2"/>
       <c r="H144" s="2"/>
@@ -9248,7 +9248,7 @@
         <v>23</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E147" s="1" t="s">
         <v>24</v>
@@ -9265,10 +9265,10 @@
         <v>187</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>193</v>
@@ -9280,16 +9280,16 @@
     <row r="149" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B149" s="2"/>
       <c r="C149" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E149" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="F149" s="2" t="s">
         <v>294</v>
-      </c>
-      <c r="F149" s="2" t="s">
-        <v>295</v>
       </c>
       <c r="G149" s="2"/>
       <c r="H149" s="2"/>
@@ -9298,16 +9298,16 @@
     <row r="150" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B150" s="2"/>
       <c r="C150" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E150" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="F150" s="2" t="s">
         <v>294</v>
-      </c>
-      <c r="F150" s="2" t="s">
-        <v>295</v>
       </c>
       <c r="G150" s="2"/>
       <c r="H150" s="2"/>
@@ -9685,54 +9685,54 @@
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C178" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="E178" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="D178" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="E178" s="2" t="s">
+      <c r="F178" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="G178" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="H178" s="14" t="s">
         <v>273</v>
-      </c>
-      <c r="F178" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="G178" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="H178" s="14" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C179" s="2" t="s">
-        <v>272</v>
+        <v>492</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>359</v>
+        <v>293</v>
       </c>
       <c r="E179" s="2"/>
       <c r="F179" s="2"/>
       <c r="G179" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H179" s="14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C180" s="2"/>
       <c r="D180" s="2"/>
       <c r="E180" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="F180" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="G180" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="H180" s="14" t="s">
         <v>273</v>
-      </c>
-      <c r="F180" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="G180" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="H180" s="14" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.2">
@@ -9741,38 +9741,38 @@
       <c r="E181" s="2"/>
       <c r="F181" s="2"/>
       <c r="G181" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H181" s="14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C182" s="2" t="s">
-        <v>272</v>
+        <v>492</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>359</v>
+        <v>293</v>
       </c>
       <c r="E182" s="2"/>
       <c r="F182" s="2"/>
       <c r="G182" s="2"/>
       <c r="H182" s="14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C183" s="2"/>
       <c r="D183" s="2"/>
       <c r="E183" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="G183" s="2"/>
       <c r="H183" s="14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.2">
@@ -9782,7 +9782,7 @@
       <c r="F184" s="2"/>
       <c r="G184" s="2"/>
       <c r="H184" s="14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="185" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -9815,7 +9815,7 @@
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C188" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.2">
@@ -9853,7 +9853,7 @@
     </row>
     <row r="193" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C193" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="194" spans="3:3" x14ac:dyDescent="0.2">
@@ -9911,27 +9911,27 @@
     </row>
     <row r="2" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B2" s="15" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -9939,19 +9939,19 @@
     </row>
     <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>187</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -9959,55 +9959,55 @@
     <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="C5" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>241</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>187</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>241</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B8" s="15" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
@@ -10016,191 +10016,191 @@
     </row>
     <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D9" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>187</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="C11" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>241</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C12" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>457</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>458</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>187</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C13" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>457</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>458</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>241</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="14" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="15" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>225</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>421</v>
-      </c>
       <c r="E15" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F15" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="G15" s="1" t="s">
         <v>418</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>187</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>187</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>241</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>241</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>187</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>241</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -10208,16 +10208,16 @@
         <v>241</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>187</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -10240,37 +10240,37 @@
         <v>187</v>
       </c>
       <c r="D21" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>471</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>472</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>187</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="22" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" s="15" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>377</v>
+      </c>
+      <c r="B23" s="4" t="s">
         <v>378</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>379</v>
-      </c>
       <c r="C23" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -10280,23 +10280,23 @@
     </row>
     <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="27" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B27" s="15" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
+        <v>380</v>
+      </c>
+      <c r="B28" s="4" t="s">
         <v>381</v>
       </c>
-      <c r="B28" s="4" t="s">
-        <v>382</v>
-      </c>
       <c r="C28" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D28" t="s">
         <v>65</v>
@@ -10305,41 +10305,41 @@
     <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B29" s="4"/>
       <c r="C29" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D29" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B30" s="4"/>
       <c r="C30" s="1"/>
       <c r="D30" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D31" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="32" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B32" s="15" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
+        <v>385</v>
+      </c>
+      <c r="B33" s="4" t="s">
         <v>386</v>
       </c>
-      <c r="B33" s="4" t="s">
-        <v>387</v>
-      </c>
       <c r="C33" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
@@ -10351,23 +10351,23 @@
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B35" s="4"/>
       <c r="C35" s="5" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B36" s="4"/>
       <c r="C36" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B37" s="15" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B38" s="4" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C38" t="s">
         <v>190</v>
@@ -10375,60 +10375,60 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C39" s="5" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C40" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="41" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="42" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B42" s="15" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B43" s="4" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B44" s="4"/>
       <c r="C44" s="5" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D44" s="5"/>
       <c r="E44" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C45" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="D45" s="5" t="s">
         <v>463</v>
       </c>
-      <c r="D45" s="5" t="s">
-        <v>464</v>
-      </c>
       <c r="E45" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C46" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E46" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="47" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B47" s="15" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
@@ -10438,12 +10438,12 @@
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B49" s="4" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B50" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.2">
@@ -10468,85 +10468,85 @@
     </row>
     <row r="55" spans="2:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E55" s="5"/>
       <c r="F55" s="4" t="s">
         <v>187</v>
       </c>
       <c r="G55" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="56" spans="2:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E56" s="5"/>
       <c r="F56" s="4" t="s">
         <v>241</v>
       </c>
       <c r="G56" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="57" spans="2:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D57" s="5" t="s">
         <v>447</v>
       </c>
-      <c r="D57" s="5" t="s">
-        <v>448</v>
-      </c>
       <c r="E57" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F57" s="4" t="s">
         <v>187</v>
       </c>
       <c r="G57" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="58" spans="2:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D58" s="5" t="s">
         <v>447</v>
       </c>
-      <c r="D58" s="5" t="s">
-        <v>448</v>
-      </c>
       <c r="E58" s="5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F58" s="4" t="s">
         <v>241</v>
       </c>
       <c r="G58" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="59" spans="2:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B59" s="15" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="60" spans="2:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B60" s="4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>36</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="61" spans="2:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -10554,16 +10554,16 @@
         <v>187</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>187</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="62" spans="2:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -10571,16 +10571,16 @@
         <v>241</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>241</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="63" spans="2:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -10588,16 +10588,16 @@
         <v>187</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>241</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="64" spans="2:7" ht="16.5" x14ac:dyDescent="0.2">
@@ -10605,21 +10605,21 @@
         <v>241</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>187</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="65" spans="2:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B65" s="4" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
@@ -10629,73 +10629,73 @@
     </row>
     <row r="66" spans="2:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B66" s="17" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>187</v>
       </c>
       <c r="D66" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="E66" s="2" t="s">
         <v>471</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>472</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>187</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="67" spans="2:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B67" s="15" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="68" spans="2:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B68" s="4" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C68" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="D68" s="20" t="s">
         <v>374</v>
-      </c>
-      <c r="D68" s="20" t="s">
-        <v>375</v>
       </c>
       <c r="E68" s="20"/>
       <c r="F68" s="20"/>
     </row>
     <row r="69" spans="2:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B69" s="4" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C69" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="D69" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="D69" s="1" t="s">
-        <v>373</v>
-      </c>
       <c r="F69" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="70" spans="2:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="71" spans="2:7" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B71" s="15" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C71" s="9"/>
       <c r="D71" s="8"/>
@@ -10704,43 +10704,43 @@
     </row>
     <row r="72" spans="2:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B72" s="4" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D72" s="21" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E72" s="21"/>
       <c r="F72" s="21"/>
     </row>
     <row r="73" spans="2:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="B73" s="4" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C73" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="D73" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="D73" s="1" t="s">
-        <v>373</v>
-      </c>
       <c r="F73" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="74" spans="2:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
   </sheetData>
@@ -10809,7 +10809,7 @@
         <v>98</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -10817,7 +10817,7 @@
         <v>97</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -10825,7 +10825,7 @@
         <v>256</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C6" s="4"/>
     </row>
@@ -11015,7 +11015,7 @@
         <v>187</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>261</v>
@@ -11029,7 +11029,7 @@
         <v>188</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>261</v>
@@ -11043,7 +11043,7 @@
         <v>189</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>261</v>
@@ -11057,7 +11057,7 @@
         <v>187</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>261</v>
@@ -11071,7 +11071,7 @@
         <v>188</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>261</v>
@@ -11085,7 +11085,7 @@
         <v>189</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>261</v>
@@ -11099,7 +11099,7 @@
         <v>187</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>261</v>
@@ -11113,7 +11113,7 @@
         <v>188</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>261</v>
@@ -11127,7 +11127,7 @@
         <v>189</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>261</v>
@@ -11141,7 +11141,7 @@
         <v>187</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>264</v>
@@ -11155,7 +11155,7 @@
         <v>188</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>264</v>
@@ -11169,7 +11169,7 @@
         <v>189</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>264</v>
@@ -11183,7 +11183,7 @@
         <v>187</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>198</v>
@@ -11197,7 +11197,7 @@
         <v>188</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>198</v>
@@ -11211,7 +11211,7 @@
         <v>189</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E38" s="5" t="s">
         <v>198</v>
@@ -11225,7 +11225,7 @@
         <v>187</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E39" s="5" t="s">
         <v>198</v>
@@ -11239,7 +11239,7 @@
         <v>188</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E40" s="5" t="s">
         <v>198</v>
@@ -11253,7 +11253,7 @@
         <v>189</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E41" s="5" t="s">
         <v>198</v>
@@ -11267,7 +11267,7 @@
         <v>187</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E42" s="5" t="s">
         <v>198</v>
@@ -11281,7 +11281,7 @@
         <v>188</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E43" s="5" t="s">
         <v>198</v>
@@ -11295,7 +11295,7 @@
         <v>189</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E44" s="5" t="s">
         <v>198</v>
@@ -11309,7 +11309,7 @@
         <v>187</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E45" s="5" t="s">
         <v>195</v>
@@ -11323,7 +11323,7 @@
         <v>188</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E46" s="5" t="s">
         <v>195</v>
@@ -11337,7 +11337,7 @@
         <v>189</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E47" s="5" t="s">
         <v>195</v>
@@ -11696,7 +11696,7 @@
     </row>
     <row r="79" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -11704,94 +11704,94 @@
         <v>100</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>57</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A81" s="1"/>
       <c r="B81" s="2"/>
       <c r="C81" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A82" s="1"/>
       <c r="B82" s="2"/>
       <c r="C82" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A83" s="1"/>
       <c r="B83" s="2"/>
       <c r="C83" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A84" s="1"/>
       <c r="B84" s="2"/>
       <c r="C84" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A85" s="1"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="C86" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A87" s="1"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A88" s="1"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="89" spans="1:5" s="7" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -11807,86 +11807,86 @@
         <v>99</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>89</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A91" s="1"/>
       <c r="B91" s="2"/>
       <c r="C91" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A92" s="1"/>
       <c r="B92" s="2"/>
       <c r="C92" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A93" s="1"/>
       <c r="B93" s="2"/>
       <c r="C93" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="C94" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="C95" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="C96" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="97" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="C97" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="98" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="C98" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="99" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -11931,16 +11931,16 @@
         <v>187</v>
       </c>
       <c r="E101" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="F101" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="G101" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="F101" s="4" t="s">
-        <v>300</v>
-      </c>
-      <c r="G101" s="4" t="s">
+      <c r="H101" s="4" t="s">
         <v>302</v>
-      </c>
-      <c r="H101" s="4" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="102" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
@@ -11948,7 +11948,7 @@
         <v>192</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="103" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
@@ -11956,7 +11956,7 @@
         <v>192</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
@@ -11964,7 +11964,7 @@
         <v>192</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="105" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -11987,16 +11987,16 @@
         <v>187</v>
       </c>
       <c r="E107" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="F107" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="G107" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="F107" s="4" t="s">
-        <v>300</v>
-      </c>
-      <c r="G107" s="4" t="s">
+      <c r="H107" s="4" t="s">
         <v>302</v>
-      </c>
-      <c r="H107" s="4" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="108" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
@@ -12004,7 +12004,7 @@
         <v>192</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="109" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
@@ -12012,7 +12012,7 @@
         <v>192</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="110" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
@@ -12020,7 +12020,7 @@
         <v>192</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="111" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -12094,7 +12094,7 @@
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" s="5"/>
       <c r="B119" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C119" s="5" t="s">
         <v>245</v>
@@ -12127,7 +12127,7 @@
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B122" s="4" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C122" s="4"/>
       <c r="D122" s="4"/>
@@ -12149,13 +12149,13 @@
     </row>
     <row r="125" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B125" s="15" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" s="5"/>
       <c r="B126" s="4" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C126" s="5" t="s">
         <v>245</v>
@@ -12180,7 +12180,7 @@
     </row>
     <row r="128" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B128" s="15" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C128" s="6"/>
       <c r="D128" s="6"/>
@@ -12188,7 +12188,7 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B129" s="4" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C129" s="4"/>
       <c r="D129" s="4"/>
@@ -12222,13 +12222,13 @@
     <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" s="5"/>
       <c r="B134" s="17" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" s="5"/>
       <c r="B135" s="17" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="136" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -12246,13 +12246,13 @@
     <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" s="5"/>
       <c r="B138" s="17" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" s="5"/>
       <c r="B139" s="17" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="140" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -12270,19 +12270,19 @@
     <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142" s="5"/>
       <c r="B142" s="17" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" s="5"/>
       <c r="B143" s="17" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C143" s="4" t="s">
         <v>187</v>
       </c>
       <c r="D143" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E143" s="4" t="s">
         <v>238</v>
@@ -12293,7 +12293,7 @@
         <v>188</v>
       </c>
       <c r="D144" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E144" s="4" t="s">
         <v>238</v>
@@ -12304,7 +12304,7 @@
         <v>189</v>
       </c>
       <c r="D145" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E145" s="4" t="s">
         <v>238</v>
@@ -12316,7 +12316,7 @@
         <v>187</v>
       </c>
       <c r="D146" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E146" s="5" t="s">
         <v>197</v>
@@ -12328,7 +12328,7 @@
         <v>188</v>
       </c>
       <c r="D147" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E147" s="5" t="s">
         <v>197</v>
@@ -12340,7 +12340,7 @@
         <v>189</v>
       </c>
       <c r="D148" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E148" s="5" t="s">
         <v>197</v>
@@ -12680,41 +12680,41 @@
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C185" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D185" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E185" s="4" t="s">
         <v>252</v>
       </c>
       <c r="F185" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G185" s="4"/>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D186" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E186" s="4" t="s">
         <v>252</v>
       </c>
       <c r="F186" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G186" s="4"/>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C187" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D187" s="4"/>
       <c r="E187" s="4" t="s">
         <v>252</v>
       </c>
       <c r="F187" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G187" s="4"/>
     </row>
@@ -12725,27 +12725,27 @@
         <v>252</v>
       </c>
       <c r="F188" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G188" s="4"/>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A189" s="5" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C190" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D190" s="4" t="s">
         <v>252</v>
       </c>
       <c r="F190" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G190" s="4"/>
     </row>
@@ -12754,7 +12754,7 @@
         <v>252</v>
       </c>
       <c r="F191" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G191" s="4"/>
     </row>
@@ -12762,13 +12762,13 @@
       <c r="A192" s="5"/>
       <c r="B192" s="4"/>
       <c r="C192" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D192" s="5" t="s">
         <v>192</v>
       </c>
       <c r="F192" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.2">
@@ -12776,7 +12776,7 @@
         <v>192</v>
       </c>
       <c r="F193" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G193" s="4"/>
     </row>
@@ -12876,7 +12876,7 @@
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A201" s="5" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.2">
@@ -12884,7 +12884,7 @@
         <v>101</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C202" s="5" t="s">
         <v>190</v>
@@ -12895,10 +12895,10 @@
         <v>102</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C203" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.2">
@@ -12960,7 +12960,7 @@
     <row r="211" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A211" s="5"/>
       <c r="C211" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.2">
@@ -12974,15 +12974,15 @@
     <row r="213" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A213" s="5"/>
       <c r="C213" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A214" s="5" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B214" s="4" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.2">
@@ -12990,13 +12990,13 @@
         <v>113</v>
       </c>
       <c r="C215" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D215" s="4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E215" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.2">
@@ -13004,66 +13004,66 @@
         <v>110</v>
       </c>
       <c r="C216" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D216" s="4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E216" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F216" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C217" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D217" s="4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E217" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F217" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C218" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D218" s="4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E218" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F218" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C219" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D219" s="4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E219" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F219" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A220" s="5" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B220" s="4" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.2">
@@ -13071,13 +13071,13 @@
         <v>112</v>
       </c>
       <c r="C221" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D221" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="E221" s="4" t="s">
         <v>334</v>
-      </c>
-      <c r="E221" s="4" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.2">
@@ -13085,58 +13085,58 @@
         <v>111</v>
       </c>
       <c r="C222" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D222" s="4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E222" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F222" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C223" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D223" s="4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E223" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F223" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C224" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D224" s="4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E224" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F224" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C225" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D225" s="4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E225" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F225" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="226" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.2">

--- a/P4E_psuedo_instruction_set.xlsx
+++ b/P4E_psuedo_instruction_set.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\P4EngineAssembler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36A68664-E0AF-4D1B-9108-8829FCA38343}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4503A0C-774C-405C-80EE-67258B6BE83F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-3645" windowWidth="38640" windowHeight="21840" activeTab="1" xr2:uid="{87164962-7B7D-4BAA-98E0-B9A8D7C47112}"/>
+    <workbookView xWindow="-9290" yWindow="-21710" windowWidth="38620" windowHeight="21820" activeTab="2" xr2:uid="{87164962-7B7D-4BAA-98E0-B9A8D7C47112}"/>
   </bookViews>
   <sheets>
     <sheet name="parser" sheetId="1" r:id="rId1"/>
@@ -1224,7 +1224,7 @@
     <author>Dianchao Wang</author>
   </authors>
   <commentList>
-    <comment ref="B74" authorId="0" shapeId="0" xr:uid="{04167267-17E0-4DF6-B54E-8EB3AC806BAB}">
+    <comment ref="B77" authorId="0" shapeId="0" xr:uid="{04167267-17E0-4DF6-B54E-8EB3AC806BAB}">
       <text>
         <r>
           <rPr>
@@ -1250,7 +1250,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H101" authorId="0" shapeId="0" xr:uid="{7B59C6D1-C763-425C-8F6C-E1635B5F267C}">
+    <comment ref="H104" authorId="0" shapeId="0" xr:uid="{7B59C6D1-C763-425C-8F6C-E1635B5F267C}">
       <text>
         <r>
           <rPr>
@@ -1276,7 +1276,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H107" authorId="0" shapeId="0" xr:uid="{6766D2B6-4F7C-4D98-ABB1-B500845D4104}">
+    <comment ref="H110" authorId="0" shapeId="0" xr:uid="{6766D2B6-4F7C-4D98-ABB1-B500845D4104}">
       <text>
         <r>
           <rPr>
@@ -1302,7 +1302,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D113" authorId="0" shapeId="0" xr:uid="{1232E5F3-A694-45DA-83F2-6A0D1C7503DB}">
+    <comment ref="D116" authorId="0" shapeId="0" xr:uid="{1232E5F3-A694-45DA-83F2-6A0D1C7503DB}">
       <text>
         <r>
           <rPr>
@@ -1328,7 +1328,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D120" authorId="0" shapeId="0" xr:uid="{4C4353DC-270D-4DC9-A5D4-1860084DFD51}">
+    <comment ref="D123" authorId="0" shapeId="0" xr:uid="{4C4353DC-270D-4DC9-A5D4-1860084DFD51}">
       <text>
         <r>
           <rPr>
@@ -1354,7 +1354,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D127" authorId="0" shapeId="0" xr:uid="{A3BBB9B6-6FEE-4677-8A3B-DB59F1F7A659}">
+    <comment ref="D130" authorId="0" shapeId="0" xr:uid="{A3BBB9B6-6FEE-4677-8A3B-DB59F1F7A659}">
       <text>
         <r>
           <rPr>
@@ -1380,7 +1380,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C204" authorId="0" shapeId="0" xr:uid="{DFB4FAA4-43F6-4B75-ABE8-01CB5D2DA0F6}">
+    <comment ref="C207" authorId="0" shapeId="0" xr:uid="{DFB4FAA4-43F6-4B75-ABE8-01CB5D2DA0F6}">
       <text>
         <r>
           <rPr>
@@ -1411,7 +1411,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1442" uniqueCount="488">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1445" uniqueCount="488">
   <si>
     <t>isr SHiFT</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -6496,13 +6496,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -6867,18 +6867,18 @@
       <c r="B1" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
     </row>
     <row r="2" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>118</v>
       </c>
     </row>
@@ -7137,7 +7137,7 @@
       <c r="I14" s="1"/>
     </row>
     <row r="15" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="10" t="s">
         <v>120</v>
       </c>
       <c r="C15" s="3"/>
@@ -7346,7 +7346,7 @@
       <c r="I26" s="1"/>
     </row>
     <row r="27" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="11" t="s">
+      <c r="B27" s="10" t="s">
         <v>119</v>
       </c>
       <c r="C27" s="3"/>
@@ -7558,7 +7558,7 @@
       <c r="I38" s="1"/>
     </row>
     <row r="39" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="11" t="s">
+      <c r="B39" s="10" t="s">
         <v>122</v>
       </c>
       <c r="C39" s="3"/>
@@ -7871,7 +7871,7 @@
       <c r="I53" s="1"/>
     </row>
     <row r="54" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B54" s="11" t="s">
+      <c r="B54" s="10" t="s">
         <v>121</v>
       </c>
       <c r="C54" s="3"/>
@@ -8509,7 +8509,7 @@
       <c r="I91" s="1"/>
     </row>
     <row r="92" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B92" s="11" t="s">
+      <c r="B92" s="10" t="s">
         <v>123</v>
       </c>
       <c r="C92" s="3"/>
@@ -8619,7 +8619,7 @@
       <c r="I99" s="1"/>
     </row>
     <row r="100" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B100" s="11" t="s">
+      <c r="B100" s="10" t="s">
         <v>131</v>
       </c>
       <c r="C100" s="3"/>
@@ -8679,7 +8679,7 @@
       <c r="I104" s="1"/>
     </row>
     <row r="105" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B105" s="11" t="s">
+      <c r="B105" s="10" t="s">
         <v>132</v>
       </c>
       <c r="C105" s="3"/>
@@ -8739,7 +8739,7 @@
       <c r="I109" s="1"/>
     </row>
     <row r="110" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B110" s="11" t="s">
+      <c r="B110" s="10" t="s">
         <v>125</v>
       </c>
       <c r="C110" s="3"/>
@@ -8778,7 +8778,7 @@
       <c r="I112" s="1"/>
     </row>
     <row r="113" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B113" s="11" t="s">
+      <c r="B113" s="10" t="s">
         <v>126</v>
       </c>
       <c r="C113" s="3"/>
@@ -8953,7 +8953,7 @@
       <c r="I126" s="1"/>
     </row>
     <row r="127" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B127" s="11" t="s">
+      <c r="B127" s="10" t="s">
         <v>127</v>
       </c>
       <c r="C127" s="3"/>
@@ -9041,7 +9041,7 @@
       <c r="I132" s="1"/>
     </row>
     <row r="133" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B133" s="11" t="s">
+      <c r="B133" s="10" t="s">
         <v>128</v>
       </c>
       <c r="C133" s="3"/>
@@ -9145,7 +9145,7 @@
       <c r="I138" s="1"/>
     </row>
     <row r="139" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B139" s="11" t="s">
+      <c r="B139" s="10" t="s">
         <v>129</v>
       </c>
       <c r="C139" s="3"/>
@@ -9249,7 +9249,7 @@
       <c r="I144" s="1"/>
     </row>
     <row r="145" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B145" s="11" t="s">
+      <c r="B145" s="10" t="s">
         <v>130</v>
       </c>
       <c r="C145" s="3"/>
@@ -9347,7 +9347,7 @@
       <c r="I150" s="1"/>
     </row>
     <row r="151" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B151" s="11" t="s">
+      <c r="B151" s="10" t="s">
         <v>133</v>
       </c>
       <c r="C151" s="3"/>
@@ -9386,7 +9386,7 @@
       <c r="I153" s="1"/>
     </row>
     <row r="154" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B154" s="11" t="s">
+      <c r="B154" s="10" t="s">
         <v>134</v>
       </c>
       <c r="D154" s="3"/>
@@ -9423,7 +9423,7 @@
       <c r="I156" s="1"/>
     </row>
     <row r="157" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B157" s="11" t="s">
+      <c r="B157" s="10" t="s">
         <v>135</v>
       </c>
       <c r="D157" s="3"/>
@@ -9460,7 +9460,7 @@
       <c r="I159" s="1"/>
     </row>
     <row r="160" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B160" s="11" t="s">
+      <c r="B160" s="10" t="s">
         <v>136</v>
       </c>
       <c r="C160" s="3"/>
@@ -9674,7 +9674,7 @@
       <c r="I174" s="1"/>
     </row>
     <row r="175" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B175" s="11" t="s">
+      <c r="B175" s="10" t="s">
         <v>138</v>
       </c>
       <c r="C175" s="3"/>
@@ -9819,7 +9819,7 @@
       </c>
     </row>
     <row r="185" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B185" s="11" t="s">
+      <c r="B185" s="10" t="s">
         <v>140</v>
       </c>
       <c r="C185" s="3"/>
@@ -9857,7 +9857,7 @@
       </c>
     </row>
     <row r="190" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B190" s="11" t="s">
+      <c r="B190" s="10" t="s">
         <v>139</v>
       </c>
       <c r="C190" s="3"/>
@@ -9908,7 +9908,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{732D935C-EC39-4DBE-84B4-44CD168E0101}">
   <dimension ref="A1:I78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B47" sqref="B47"/>
     </sheetView>
@@ -9933,15 +9933,15 @@
       <c r="B1" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
     </row>
     <row r="2" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B2" s="5" t="s">
@@ -10412,7 +10412,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="41" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="41" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="42" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B42" s="5" t="s">
         <v>336</v>
@@ -10739,11 +10739,11 @@
       <c r="C72" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="D72" s="9" t="s">
+      <c r="D72" s="11" t="s">
         <v>325</v>
       </c>
-      <c r="E72" s="9"/>
-      <c r="F72" s="9"/>
+      <c r="E72" s="11"/>
+      <c r="F72" s="11"/>
     </row>
     <row r="73" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B73" s="1" t="s">
@@ -10786,11 +10786,11 @@
       <c r="C76" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="D76" s="9" t="s">
+      <c r="D76" s="11" t="s">
         <v>324</v>
       </c>
-      <c r="E76" s="9"/>
-      <c r="F76" s="9"/>
+      <c r="E76" s="11"/>
+      <c r="F76" s="11"/>
     </row>
     <row r="77" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B77" s="1" t="s">
@@ -10834,11 +10834,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{988C78EB-4E00-466C-9BD2-B10965380DEB}">
-  <dimension ref="A1:I231"/>
+  <dimension ref="A1:I234"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A168" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A173" sqref="A173"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C72" sqref="C72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -10862,15 +10862,15 @@
       <c r="B1" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
     </row>
     <row r="2" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B2" s="5" t="s">
@@ -11697,6 +11697,7 @@
       <c r="D69" s="2" t="s">
         <v>190</v>
       </c>
+      <c r="F69" s="1"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
@@ -11705,6 +11706,7 @@
       <c r="D70" s="2" t="s">
         <v>190</v>
       </c>
+      <c r="F70" s="1"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
@@ -11713,114 +11715,103 @@
       <c r="D71" s="2" t="s">
         <v>190</v>
       </c>
+      <c r="F71" s="1"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C72" s="2" t="s">
+      <c r="F72" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F73" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F74" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C75" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="D72" s="1"/>
-    </row>
-    <row r="73" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B73" s="5" t="s">
+      <c r="D75" s="1"/>
+    </row>
+    <row r="76" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B76" s="5" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A74" s="2" t="s">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A77" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="B77" s="1" t="s">
         <v>199</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B75" s="5" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A76" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C77" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="78" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B78" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C80" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B81" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A82" s="2" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A80" s="2" t="s">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A83" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="B83" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="C80" s="2" t="s">
+      <c r="C83" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E80" s="2" t="s">
+      <c r="E83" s="2" t="s">
         <v>291</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B81" s="1"/>
-      <c r="C81" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B82" s="1"/>
-      <c r="C82" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B83" s="1"/>
-      <c r="C83" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B84" s="1"/>
       <c r="C84" s="1" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="E84" s="1" t="s">
         <v>440</v>
@@ -11829,18 +11820,16 @@
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B85" s="1"/>
       <c r="C85" s="1" t="s">
-        <v>441</v>
+        <v>282</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B86" s="1"/>
       <c r="C86" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>440</v>
@@ -11849,7 +11838,7 @@
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B87" s="1"/>
       <c r="C87" s="1" t="s">
-        <v>443</v>
+        <v>284</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>440</v>
@@ -11858,79 +11847,84 @@
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B88" s="1"/>
       <c r="C88" s="1" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="E88" s="1" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="89" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B89" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="C89" s="3"/>
-      <c r="D89" s="3"/>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C89" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>440</v>
+      </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A90" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>291</v>
+      <c r="B90" s="1"/>
+      <c r="C90" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B91" s="1"/>
       <c r="C91" s="1" t="s">
-        <v>281</v>
+        <v>444</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B92" s="1"/>
-      <c r="C92" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="E92" s="1" t="s">
-        <v>440</v>
-      </c>
+    <row r="92" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B92" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C92" s="3"/>
+      <c r="D92" s="3"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B93" s="1"/>
-      <c r="C93" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="E93" s="1" t="s">
-        <v>440</v>
+      <c r="A93" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B94" s="1"/>
       <c r="C94" s="1" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="E94" s="1" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B95" s="1"/>
       <c r="C95" s="1" t="s">
-        <v>441</v>
+        <v>282</v>
       </c>
       <c r="E95" s="1" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B96" s="1"/>
       <c r="C96" s="1" t="s">
-        <v>443</v>
+        <v>283</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>440</v>
@@ -11938,10 +11932,7 @@
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="D97" s="1" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="E97" s="1" t="s">
         <v>440</v>
@@ -11949,432 +11940,424 @@
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="E98" s="1" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="99" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B99" s="5" t="s">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C99" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C100" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C101" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B102" s="5" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A100" s="2" t="s">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A103" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B100" s="1" t="s">
+      <c r="B103" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="C100" s="2" t="s">
+      <c r="C103" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="D100" s="2" t="s">
+      <c r="D103" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="E100" s="2" t="s">
+      <c r="E103" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="F100" s="2" t="s">
+      <c r="F103" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="G100" s="2" t="s">
+      <c r="G103" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="H100" s="2" t="s">
+      <c r="H103" s="2" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A101" s="2" t="s">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A104" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C101" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="D101" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="E101" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="F101" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="G101" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="H101" s="1" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C102" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="D102" s="1" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C103" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="D103" s="1" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C104" s="2" t="s">
         <v>192</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B105" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="D105" s="3"/>
+        <v>187</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="H104" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C105" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>274</v>
+      </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B106" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="D106" s="1"/>
+      <c r="C106" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>275</v>
+      </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C107" s="2" t="s">
         <v>192</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="E107" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="F107" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="G107" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="H107" s="1" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C108" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="D108" s="1" t="s">
-        <v>274</v>
-      </c>
+        <v>276</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B108" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="D108" s="3"/>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C109" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="D109" s="1" t="s">
-        <v>275</v>
-      </c>
+      <c r="B109" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D109" s="1"/>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C110" s="2" t="s">
         <v>192</v>
       </c>
       <c r="D110" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="H110" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C111" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C112" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C113" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D113" s="1" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="111" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B111" s="5" t="s">
+    <row r="114" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B114" s="5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A112" s="2" t="s">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A115" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B112" s="1" t="s">
+      <c r="B115" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C112" s="2" t="s">
+      <c r="C115" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="D112" s="2" t="s">
+      <c r="D115" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="E112" s="2" t="s">
+      <c r="E115" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="113" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C113" s="1" t="s">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C116" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="D113" s="1" t="s">
+      <c r="D116" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="E113" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="114" spans="2:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B114" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="C114" s="3"/>
-      <c r="D114" s="3"/>
-      <c r="E114" s="3"/>
-    </row>
-    <row r="115" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B115" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="C115" s="1"/>
-      <c r="D115" s="1"/>
-      <c r="E115" s="1"/>
-    </row>
-    <row r="116" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C116" s="1"/>
-      <c r="D116" s="1"/>
       <c r="E116" s="1" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="117" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C117" s="2" t="s">
+    <row r="117" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B117" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="C117" s="3"/>
+      <c r="D117" s="3"/>
+      <c r="E117" s="3"/>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B118" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C118" s="1"/>
+      <c r="D118" s="1"/>
+      <c r="E118" s="1"/>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C119" s="1"/>
+      <c r="D119" s="1"/>
+      <c r="E119" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C120" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="D117" s="1"/>
-      <c r="E117" s="1"/>
-    </row>
-    <row r="118" spans="2:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B118" s="5" t="s">
+      <c r="D120" s="1"/>
+      <c r="E120" s="1"/>
+    </row>
+    <row r="121" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B121" s="5" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="119" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B119" s="1" t="s">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B122" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="C119" s="2" t="s">
+      <c r="C122" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="D119" s="2" t="s">
+      <c r="D122" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="E119" s="2" t="s">
+      <c r="E122" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="120" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C120" s="1" t="s">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C123" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="D120" s="1" t="s">
+      <c r="D123" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="E120" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="121" spans="2:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B121" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="C121" s="3"/>
-      <c r="D121" s="3"/>
-      <c r="E121" s="3"/>
-    </row>
-    <row r="122" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B122" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="C122" s="1"/>
-      <c r="D122" s="1"/>
-      <c r="E122" s="1"/>
-    </row>
-    <row r="123" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C123" s="1"/>
-      <c r="D123" s="1"/>
       <c r="E123" s="1" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="124" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C124" s="2" t="s">
+    <row r="124" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B124" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="C124" s="3"/>
+      <c r="D124" s="3"/>
+      <c r="E124" s="3"/>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B125" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="C125" s="1"/>
+      <c r="D125" s="1"/>
+      <c r="E125" s="1"/>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C126" s="1"/>
+      <c r="D126" s="1"/>
+      <c r="E126" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C127" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="D124" s="1"/>
-      <c r="E124" s="1"/>
-    </row>
-    <row r="125" spans="2:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B125" s="5" t="s">
+      <c r="D127" s="1"/>
+      <c r="E127" s="1"/>
+    </row>
+    <row r="128" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B128" s="5" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="126" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B126" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="C126" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="E126" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="127" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C127" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="D127" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="E127" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="128" spans="2:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B128" s="5" t="s">
-        <v>343</v>
-      </c>
-      <c r="C128" s="3"/>
-      <c r="D128" s="3"/>
-      <c r="E128" s="3"/>
     </row>
     <row r="129" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B129" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="C129" s="1"/>
-      <c r="D129" s="1"/>
-      <c r="E129" s="1"/>
+        <v>346</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="130" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C130" s="1"/>
-      <c r="D130" s="1"/>
+      <c r="C130" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>236</v>
+      </c>
       <c r="E130" s="1" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="131" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C131" s="2" t="s">
+    <row r="131" spans="2:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B131" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="C131" s="3"/>
+      <c r="D131" s="3"/>
+      <c r="E131" s="3"/>
+    </row>
+    <row r="132" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B132" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="C132" s="1"/>
+      <c r="D132" s="1"/>
+      <c r="E132" s="1"/>
+    </row>
+    <row r="133" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C133" s="1"/>
+      <c r="D133" s="1"/>
+      <c r="E133" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="134" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C134" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="D131" s="1"/>
-      <c r="E131" s="1"/>
-    </row>
-    <row r="132" spans="2:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B132" s="5" t="s">
+      <c r="D134" s="1"/>
+      <c r="E134" s="1"/>
+    </row>
+    <row r="135" spans="2:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B135" s="5" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="133" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B133" s="1" t="s">
+    <row r="136" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B136" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="134" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B134" s="6" t="s">
+    <row r="137" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B137" s="6" t="s">
         <v>349</v>
-      </c>
-    </row>
-    <row r="135" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B135" s="6" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="136" spans="2:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B136" s="5" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="137" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B137" s="1" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="138" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B138" s="6" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="139" spans="2:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B139" s="5" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="140" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B140" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="141" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B141" s="6" t="s">
         <v>351</v>
-      </c>
-    </row>
-    <row r="139" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B139" s="6" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="140" spans="2:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B140" s="5" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="141" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B141" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="142" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B142" s="6" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="143" spans="2:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B143" s="5" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="144" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B144" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="145" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B145" s="6" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="143" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B143" s="6" t="s">
+    <row r="146" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B146" s="6" t="s">
         <v>352</v>
       </c>
-      <c r="C143" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D143" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="E143" s="1" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="144" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C144" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="D144" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="E144" s="1" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="145" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C145" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="D145" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="E145" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="F145" s="1"/>
-    </row>
-    <row r="146" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C146" s="1" t="s">
         <v>187</v>
       </c>
       <c r="D146" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="E146" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="F146" s="1"/>
+      <c r="E146" s="1" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="147" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C147" s="1" t="s">
@@ -12383,10 +12366,9 @@
       <c r="D147" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="E147" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="F147" s="1"/>
+      <c r="E147" s="1" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="148" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C148" s="1" t="s">
@@ -12395,8 +12377,8 @@
       <c r="D148" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="E148" s="2" t="s">
-        <v>197</v>
+      <c r="E148" s="1" t="s">
+        <v>238</v>
       </c>
       <c r="F148" s="1"/>
     </row>
@@ -12404,11 +12386,11 @@
       <c r="C149" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="D149" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="E149" s="1" t="s">
-        <v>238</v>
+      <c r="D149" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>197</v>
       </c>
       <c r="F149" s="1"/>
     </row>
@@ -12416,11 +12398,11 @@
       <c r="C150" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="D150" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="E150" s="1" t="s">
-        <v>238</v>
+      <c r="D150" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>197</v>
       </c>
       <c r="F150" s="1"/>
     </row>
@@ -12428,11 +12410,11 @@
       <c r="C151" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="D151" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="E151" s="1" t="s">
-        <v>238</v>
+      <c r="D151" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="E151" s="2" t="s">
+        <v>197</v>
       </c>
       <c r="F151" s="1"/>
     </row>
@@ -12441,9 +12423,11 @@
         <v>187</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="E152" s="1"/>
+        <v>259</v>
+      </c>
+      <c r="E152" s="1" t="s">
+        <v>238</v>
+      </c>
       <c r="F152" s="1"/>
     </row>
     <row r="153" spans="2:6" x14ac:dyDescent="0.2">
@@ -12451,9 +12435,11 @@
         <v>188</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="E153" s="1"/>
+        <v>259</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>238</v>
+      </c>
       <c r="F153" s="1"/>
     </row>
     <row r="154" spans="2:6" x14ac:dyDescent="0.2">
@@ -12461,14 +12447,16 @@
         <v>189</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="E154" s="1"/>
+        <v>259</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>238</v>
+      </c>
       <c r="F154" s="1"/>
     </row>
     <row r="155" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C155" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D155" s="2" t="s">
         <v>190</v>
@@ -12476,304 +12464,298 @@
       <c r="E155" s="1"/>
       <c r="F155" s="1"/>
     </row>
-    <row r="156" spans="2:6" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B156" s="5" t="s">
+    <row r="156" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C156" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E156" s="1"/>
+      <c r="F156" s="1"/>
+    </row>
+    <row r="157" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C157" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E157" s="1"/>
+      <c r="F157" s="1"/>
+    </row>
+    <row r="158" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C158" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E158" s="1"/>
+      <c r="F158" s="1"/>
+    </row>
+    <row r="159" spans="2:6" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B159" s="5" t="s">
         <v>213</v>
-      </c>
-    </row>
-    <row r="157" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B157" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="158" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B158" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="159" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B159" s="1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="160" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B160" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="161" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B161" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="162" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B162" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="163" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B163" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C160" s="2" t="s">
+      <c r="C163" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D160" s="2" t="s">
+      <c r="D163" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="E160" s="2" t="s">
+      <c r="E163" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="F160" s="2" t="s">
+      <c r="F163" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="161" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B161" s="1"/>
-      <c r="C161" s="1" t="s">
+    <row r="164" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B164" s="1"/>
+      <c r="C164" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="D161" s="1" t="s">
+      <c r="D164" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="E161" s="1" t="s">
+      <c r="E164" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="F161" s="1" t="s">
+      <c r="F164" s="1" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="162" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C162" s="1" t="s">
+    <row r="165" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C165" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="D162" s="1" t="s">
+      <c r="D165" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="E162" s="1" t="s">
+      <c r="E165" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="F162" s="1" t="s">
+      <c r="F165" s="1" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="163" spans="2:6" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B163" s="5" t="s">
+    <row r="166" spans="2:6" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B166" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="C163" s="3"/>
-      <c r="D163" s="3"/>
-      <c r="E163" s="3"/>
-      <c r="F163" s="3"/>
-    </row>
-    <row r="164" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B164" s="1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="165" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B165" s="1" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="166" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B166" s="1" t="s">
-        <v>249</v>
-      </c>
+      <c r="C166" s="3"/>
+      <c r="D166" s="3"/>
+      <c r="E166" s="3"/>
+      <c r="F166" s="3"/>
     </row>
     <row r="167" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B167" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="168" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B168" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="169" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B169" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="170" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B170" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="C167" s="1"/>
-      <c r="D167" s="1"/>
-    </row>
-    <row r="168" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="E168" s="1" t="s">
+      <c r="C170" s="1"/>
+      <c r="D170" s="1"/>
+    </row>
+    <row r="171" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E171" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="F168" s="1" t="s">
+      <c r="F171" s="1" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="169" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C169" s="1"/>
-      <c r="D169" s="1"/>
-      <c r="E169" s="1" t="s">
+    <row r="172" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C172" s="1"/>
+      <c r="D172" s="1"/>
+      <c r="E172" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="F169" s="1" t="s">
+      <c r="F172" s="1" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="170" spans="2:6" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B170" s="5" t="s">
+    <row r="173" spans="2:6" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B173" s="5" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="171" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B171" s="1" t="s">
+    <row r="174" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B174" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="172" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C172" s="2" t="s">
+    <row r="175" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C175" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D172" s="2" t="s">
+      <c r="D175" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="E172" s="2" t="s">
+      <c r="E175" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="F172" s="2" t="s">
+      <c r="F175" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="173" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C173" s="1" t="s">
+    <row r="176" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C176" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="D173" s="1" t="s">
+      <c r="D176" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="E173" s="1" t="s">
+      <c r="E176" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="F173" s="1" t="s">
+      <c r="F176" s="1" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="174" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C174" s="1" t="s">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C177" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="D174" s="1" t="s">
+      <c r="D177" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="E174" s="1" t="s">
+      <c r="E177" s="1" t="s">
         <v>241</v>
-      </c>
-      <c r="F174" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="175" spans="2:6" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B175" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="C175" s="3"/>
-      <c r="D175" s="3"/>
-      <c r="E175" s="3"/>
-      <c r="F175" s="3"/>
-    </row>
-    <row r="176" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B176" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="C176" s="1"/>
-      <c r="D176" s="1"/>
-    </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E177" s="1" t="s">
-        <v>187</v>
       </c>
       <c r="F177" s="1" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C178" s="1"/>
-      <c r="D178" s="1"/>
-      <c r="E178" s="1" t="s">
+    <row r="178" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B178" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="C178" s="3"/>
+      <c r="D178" s="3"/>
+      <c r="E178" s="3"/>
+      <c r="F178" s="3"/>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B179" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C179" s="1"/>
+      <c r="D179" s="1"/>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E180" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F180" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C181" s="1"/>
+      <c r="D181" s="1"/>
+      <c r="E181" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="F178" s="1" t="s">
+      <c r="F181" s="1" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="179" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B179" s="5" t="s">
+    <row r="182" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B182" s="5" t="s">
         <v>122</v>
-      </c>
-    </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A180" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A181" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B181" s="4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A182" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="B182" s="1" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A183" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="B183" s="4" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A184" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B184" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A185" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A186" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B186" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A187" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B184" s="1" t="s">
+      <c r="B187" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C184" s="2" t="s">
+      <c r="C187" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D184" s="2" t="s">
+      <c r="D187" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E184" s="2" t="s">
+      <c r="E187" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="F184" s="2" t="s">
+      <c r="F187" s="2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C185" s="1" t="s">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C188" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="D185" s="1" t="s">
+      <c r="D188" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="E185" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="F185" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="G185" s="1"/>
-    </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D186" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="E186" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="F186" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="G186" s="1"/>
-    </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C187" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="D187" s="1"/>
-      <c r="E187" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="F187" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="G187" s="1"/>
-    </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C188" s="1"/>
-      <c r="D188" s="1"/>
       <c r="E188" s="1" t="s">
         <v>252</v>
       </c>
@@ -12783,18 +12765,23 @@
       <c r="G188" s="1"/>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A189" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="B189" s="1" t="s">
-        <v>294</v>
-      </c>
+      <c r="D189" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="E189" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="F189" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="G189" s="1"/>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C190" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="D190" s="1" t="s">
+      <c r="D190" s="1"/>
+      <c r="E190" s="1" t="s">
         <v>252</v>
       </c>
       <c r="F190" s="1" t="s">
@@ -12803,7 +12790,9 @@
       <c r="G190" s="1"/>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D191" s="1" t="s">
+      <c r="C191" s="1"/>
+      <c r="D191" s="1"/>
+      <c r="E191" s="1" t="s">
         <v>252</v>
       </c>
       <c r="F191" s="1" t="s">
@@ -12812,99 +12801,75 @@
       <c r="G191" s="1"/>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B192" s="1"/>
-      <c r="C192" s="1" t="s">
+      <c r="A192" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C193" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="D192" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="F192" s="1" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D193" s="2" t="s">
-        <v>192</v>
+      <c r="D193" s="1" t="s">
+        <v>252</v>
       </c>
       <c r="F193" s="1" t="s">
         <v>293</v>
       </c>
       <c r="G193" s="1"/>
     </row>
-    <row r="194" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B194" s="5" t="s">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D194" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="F194" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="G194" s="1"/>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B195" s="1"/>
+      <c r="C195" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="D195" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="F195" s="1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D196" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="F196" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="G196" s="1"/>
+    </row>
+    <row r="197" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B197" s="5" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A195" s="2" t="s">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A198" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="B195" s="1" t="s">
+      <c r="B198" s="1" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A196" s="2" t="s">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A199" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="B196" s="1"/>
-      <c r="C196" s="1" t="s">
+      <c r="B199" s="1"/>
+      <c r="C199" s="1" t="s">
         <v>241</v>
-      </c>
-      <c r="D196" s="2" t="s">
-        <v>445</v>
-      </c>
-      <c r="E196" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="F196" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="G196" s="2" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B197" s="1"/>
-      <c r="C197" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="D197" s="2" t="s">
-        <v>445</v>
-      </c>
-      <c r="E197" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="F197" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="G197" s="2" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B198" s="1"/>
-      <c r="C198" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D198" s="2" t="s">
-        <v>445</v>
-      </c>
-      <c r="E198" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="F198" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="G198" s="2" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C199" s="1" t="s">
-        <v>187</v>
       </c>
       <c r="D199" s="2" t="s">
         <v>445</v>
@@ -12913,172 +12878,183 @@
         <v>253</v>
       </c>
       <c r="F199" s="1" t="s">
-        <v>241</v>
+        <v>187</v>
       </c>
       <c r="G199" s="2" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="200" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B200" s="5" t="s">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B200" s="1"/>
+      <c r="C200" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D200" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="E200" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="F200" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="G200" s="2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B201" s="1"/>
+      <c r="C201" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D201" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="E201" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="F201" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="G201" s="2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C202" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D202" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="E202" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="F202" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="G202" s="2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B203" s="5" t="s">
         <v>218</v>
-      </c>
-    </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A201" s="2" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A202" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B202" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="C202" s="2" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A203" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B203" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="C203" s="1" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A204" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C204" s="2" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A205" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="C205" s="2" t="s">
         <v>190</v>
-      </c>
-    </row>
-    <row r="205" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B205" s="5" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A206" s="2" t="s">
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>61</v>
+        <v>355</v>
+      </c>
+      <c r="C206" s="1" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A207" s="2" t="s">
+        <v>103</v>
+      </c>
       <c r="C207" s="2" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="208" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B208" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A209" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A210" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B210" s="1" t="s">
-        <v>63</v>
-      </c>
       <c r="C210" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D210" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E210" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F210" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C211" s="1" t="s">
-        <v>298</v>
+        <v>190</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B211" s="5" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A212" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B212" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C213" s="1" t="s">
-        <v>297</v>
+      <c r="A213" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C213" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D213" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E213" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F213" s="2" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A214" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="B214" s="1" t="s">
-        <v>389</v>
+      <c r="C214" s="1" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A215" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C216" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A217" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A218" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C215" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="D215" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="E215" s="1" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A216" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C216" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="D216" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="E216" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="F216" s="1" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C217" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="D217" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="E217" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="F217" s="1" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C218" s="1" t="s">
         <v>299</v>
       </c>
@@ -13086,13 +13062,13 @@
         <v>301</v>
       </c>
       <c r="E218" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="F218" s="1" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A219" s="2" t="s">
+        <v>110</v>
+      </c>
       <c r="C219" s="1" t="s">
         <v>299</v>
       </c>
@@ -13100,66 +13076,66 @@
         <v>301</v>
       </c>
       <c r="E219" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="F219" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C220" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="D220" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="E220" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="F220" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C221" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="D221" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="E221" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="F221" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C222" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="D222" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="E222" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="F219" s="1" t="s">
+      <c r="F222" s="1" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A220" s="2" t="s">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A223" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="B220" s="1" t="s">
+      <c r="B223" s="1" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A221" s="2" t="s">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A224" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C221" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="D221" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="E221" s="1" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A222" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C222" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="D222" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="E222" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="F222" s="1" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C223" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="D223" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="E223" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="F223" s="1" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C224" s="1" t="s">
         <v>300</v>
       </c>
@@ -13167,13 +13143,13 @@
         <v>302</v>
       </c>
       <c r="E224" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="F224" s="1" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A225" s="2" t="s">
+        <v>111</v>
+      </c>
       <c r="C225" s="1" t="s">
         <v>300</v>
       </c>
@@ -13181,47 +13157,89 @@
         <v>302</v>
       </c>
       <c r="E225" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="F225" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C226" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="D226" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="E226" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="F226" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C227" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="D227" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="E227" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="F227" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C228" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="D228" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="E228" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="F225" s="1" t="s">
+      <c r="F228" s="1" t="s">
         <v>311</v>
-      </c>
-    </row>
-    <row r="226" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B226" s="5" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A227" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="B227" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B228" s="1"/>
-      <c r="C228" s="2" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="229" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B229" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="C229" s="3"/>
+        <v>221</v>
+      </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A230" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B231" s="1"/>
+      <c r="C231" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B232" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="C232" s="3"/>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A233" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B230" s="1" t="s">
+      <c r="B233" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C231" s="2" t="s">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C234" s="2" t="s">
         <v>190</v>
       </c>
     </row>

--- a/P4E_psuedo_instruction_set.xlsx
+++ b/P4E_psuedo_instruction_set.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\P4EngineAssembler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4503A0C-774C-405C-80EE-67258B6BE83F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{055754AD-D662-4616-A8F9-7B86428A82FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-9290" yWindow="-21710" windowWidth="38620" windowHeight="21820" activeTab="2" xr2:uid="{87164962-7B7D-4BAA-98E0-B9A8D7C47112}"/>
+    <workbookView xWindow="-9290" yWindow="-21710" windowWidth="38620" windowHeight="21820" xr2:uid="{87164962-7B7D-4BAA-98E0-B9A8D7C47112}"/>
   </bookViews>
   <sheets>
     <sheet name="parser" sheetId="1" r:id="rId1"/>
@@ -1411,7 +1411,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1445" uniqueCount="488">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1445" uniqueCount="491">
   <si>
     <t>isr SHiFT</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3934,10 +3934,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>(offset)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0b'00010</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -6009,6 +6005,310 @@
   </si>
   <si>
     <r>
+      <t>len</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (1-32) } ,</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>mask32</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ;</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">TCAM_KEY { </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">offset5 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>len</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (1-10) } ,</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">imm40 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(hex) ;</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ISR { </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>off5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> :</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">META { </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">off9 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>len</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (1-40) } ,</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt;&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">val6 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(1-32),</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">-&gt;nxt_state8 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt;&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">val6 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(1-32) ;</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>len</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (8 | 16 | 24 | 32) } ,</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
@@ -6040,7 +6340,21 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> (in byte) </t>
+      <t xml:space="preserve"> (0 | 8 | 16 | 24) :</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">{ </t>
     </r>
     <r>
       <rPr>
@@ -6052,8 +6366,40 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>:</t>
-    </r>
+      <t>offset9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (0-511) :</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">mask32 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(offset in bit, in byte for PHV)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -6069,314 +6415,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> (1-32) } ,</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">{ </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>offset5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (in bit) :</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>mask32</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ;</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">TCAM_KEY { </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">offset5 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>len</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (1-10) } ,</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">imm40 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(hex) ;</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">ISR { </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>off5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> :</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">META { </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">off9 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>len</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (1-40) } ,</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&gt;&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">val6 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(1-32),</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">-&gt;nxt_state8 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>;</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&gt;&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">val6 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(1-32) ;</t>
+      <t xml:space="preserve"> (16 | 32) } ,</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -6841,9 +6880,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA14F7B7-5F50-4FFB-AE20-84853F321386}">
   <dimension ref="A1:I194"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D137" sqref="D137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6908,16 +6947,16 @@
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>187</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -6926,16 +6965,16 @@
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>241</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -6944,10 +6983,10 @@
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -7000,25 +7039,25 @@
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>269</v>
       </c>
       <c r="E9" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>448</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>449</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>187</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -7027,43 +7066,43 @@
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>269</v>
       </c>
       <c r="E10" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>448</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>449</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>241</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B11" s="1"/>
       <c r="C11" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>269</v>
       </c>
       <c r="E11" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>449</v>
-      </c>
       <c r="G11" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -7071,67 +7110,67 @@
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B12" s="1"/>
       <c r="C12" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>268</v>
       </c>
       <c r="E12" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>448</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>449</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>187</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>268</v>
       </c>
       <c r="E13" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>448</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>449</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>241</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>268</v>
       </c>
       <c r="E14" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>449</v>
-      </c>
       <c r="G14" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -7181,19 +7220,19 @@
         <v>269</v>
       </c>
       <c r="D17" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>448</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>449</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>187</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="I17" s="1"/>
     </row>
@@ -7203,19 +7242,19 @@
         <v>269</v>
       </c>
       <c r="D18" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>448</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>449</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>241</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="I18" s="1"/>
     </row>
@@ -7225,13 +7264,13 @@
         <v>269</v>
       </c>
       <c r="D19" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>449</v>
-      </c>
       <c r="F19" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
@@ -7243,19 +7282,19 @@
         <v>268</v>
       </c>
       <c r="D20" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>448</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>449</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>187</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="I20" s="1"/>
     </row>
@@ -7265,19 +7304,19 @@
         <v>268</v>
       </c>
       <c r="D21" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>448</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>449</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>241</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="I21" s="1"/>
     </row>
@@ -7287,13 +7326,13 @@
         <v>268</v>
       </c>
       <c r="D22" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>449</v>
-      </c>
       <c r="F22" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
@@ -7311,25 +7350,25 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="I24" s="1"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -7393,19 +7432,19 @@
         <v>269</v>
       </c>
       <c r="D29" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="E29" s="1" t="s">
         <v>448</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>449</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>187</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="I29" s="1"/>
     </row>
@@ -7415,19 +7454,19 @@
         <v>269</v>
       </c>
       <c r="D30" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="E30" s="1" t="s">
         <v>448</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>449</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>241</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="I30" s="1"/>
     </row>
@@ -7437,13 +7476,13 @@
         <v>269</v>
       </c>
       <c r="D31" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="E31" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="E31" s="1" t="s">
-        <v>449</v>
-      </c>
       <c r="F31" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
@@ -7455,19 +7494,19 @@
         <v>268</v>
       </c>
       <c r="D32" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="E32" s="1" t="s">
         <v>448</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>449</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>187</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="I32" s="1"/>
     </row>
@@ -7477,19 +7516,19 @@
         <v>268</v>
       </c>
       <c r="D33" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="E33" s="1" t="s">
         <v>448</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>449</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>241</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="I33" s="1"/>
     </row>
@@ -7499,13 +7538,13 @@
         <v>268</v>
       </c>
       <c r="D34" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="E34" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="E34" s="1" t="s">
-        <v>449</v>
-      </c>
       <c r="F34" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
@@ -7523,25 +7562,25 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="I36" s="1"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
@@ -7615,22 +7654,22 @@
         <v>269</v>
       </c>
       <c r="D42" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="E42" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="E42" s="1" t="s">
-        <v>449</v>
-      </c>
       <c r="F42" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>187</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
@@ -7638,22 +7677,22 @@
         <v>269</v>
       </c>
       <c r="D43" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="E43" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="E43" s="1" t="s">
-        <v>449</v>
-      </c>
       <c r="F43" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>241</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
@@ -7661,16 +7700,16 @@
         <v>269</v>
       </c>
       <c r="D44" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="E44" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="E44" s="1" t="s">
-        <v>449</v>
-      </c>
       <c r="F44" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
@@ -7680,22 +7719,22 @@
         <v>268</v>
       </c>
       <c r="D45" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="E45" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="E45" s="1" t="s">
-        <v>449</v>
-      </c>
       <c r="F45" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>187</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
@@ -7703,22 +7742,22 @@
         <v>268</v>
       </c>
       <c r="D46" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="E46" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="E46" s="1" t="s">
-        <v>449</v>
-      </c>
       <c r="F46" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="G46" s="1" t="s">
         <v>241</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
@@ -7726,16 +7765,16 @@
         <v>268</v>
       </c>
       <c r="D47" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="E47" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="E47" s="1" t="s">
-        <v>449</v>
-      </c>
       <c r="F47" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
@@ -7745,10 +7784,10 @@
         <v>269</v>
       </c>
       <c r="D48" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="E48" s="1" t="s">
         <v>448</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>449</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>281</v>
@@ -7757,10 +7796,10 @@
         <v>187</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
@@ -7768,10 +7807,10 @@
         <v>269</v>
       </c>
       <c r="D49" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="E49" s="1" t="s">
         <v>448</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>449</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>281</v>
@@ -7780,10 +7819,10 @@
         <v>241</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
@@ -7791,16 +7830,16 @@
         <v>269</v>
       </c>
       <c r="D50" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="E50" s="1" t="s">
         <v>448</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>449</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>281</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
@@ -7810,10 +7849,10 @@
         <v>268</v>
       </c>
       <c r="D51" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="E51" s="1" t="s">
         <v>448</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>449</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>281</v>
@@ -7822,10 +7861,10 @@
         <v>187</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
@@ -7833,10 +7872,10 @@
         <v>268</v>
       </c>
       <c r="D52" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="E52" s="1" t="s">
         <v>448</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>449</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>281</v>
@@ -7845,10 +7884,10 @@
         <v>241</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
@@ -7856,16 +7895,16 @@
         <v>268</v>
       </c>
       <c r="D53" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="E53" s="1" t="s">
         <v>448</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>449</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>281</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
@@ -7911,16 +7950,16 @@
       </c>
       <c r="B56" s="1"/>
       <c r="C56" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>187</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
@@ -7929,16 +7968,16 @@
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B57" s="1"/>
       <c r="C57" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>241</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
@@ -7947,10 +7986,10 @@
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B58" s="1"/>
       <c r="C58" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
@@ -7961,16 +8000,16 @@
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B59" s="1"/>
       <c r="C59" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>187</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
@@ -7979,16 +8018,16 @@
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B60" s="1"/>
       <c r="C60" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>241</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
@@ -7997,10 +8036,10 @@
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B61" s="1"/>
       <c r="C61" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
@@ -8011,16 +8050,16 @@
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B62" s="1"/>
       <c r="C62" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>187</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
@@ -8029,16 +8068,16 @@
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B63" s="1"/>
       <c r="C63" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>241</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
@@ -8047,10 +8086,10 @@
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B64" s="1"/>
       <c r="C64" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
@@ -8061,16 +8100,16 @@
     <row r="65" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B65" s="1"/>
       <c r="C65" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>187</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
@@ -8079,16 +8118,16 @@
     <row r="66" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B66" s="1"/>
       <c r="C66" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>241</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
@@ -8097,10 +8136,10 @@
     <row r="67" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B67" s="1"/>
       <c r="C67" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
@@ -8111,16 +8150,16 @@
     <row r="68" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B68" s="1"/>
       <c r="C68" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>187</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
@@ -8129,16 +8168,16 @@
     <row r="69" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B69" s="1"/>
       <c r="C69" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>241</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
@@ -8147,10 +8186,10 @@
     <row r="70" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B70" s="1"/>
       <c r="C70" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
@@ -8161,16 +8200,16 @@
     <row r="71" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B71" s="1"/>
       <c r="C71" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>187</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
@@ -8179,16 +8218,16 @@
     <row r="72" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B72" s="1"/>
       <c r="C72" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>241</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
@@ -8197,10 +8236,10 @@
     <row r="73" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B73" s="1"/>
       <c r="C73" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
@@ -8211,16 +8250,16 @@
     <row r="74" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B74" s="1"/>
       <c r="C74" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>187</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
@@ -8229,16 +8268,16 @@
     <row r="75" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B75" s="1"/>
       <c r="C75" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>241</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
@@ -8247,10 +8286,10 @@
     <row r="76" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B76" s="1"/>
       <c r="C76" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
@@ -8261,16 +8300,16 @@
     <row r="77" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B77" s="1"/>
       <c r="C77" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>187</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
@@ -8279,16 +8318,16 @@
     <row r="78" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B78" s="1"/>
       <c r="C78" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>241</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
@@ -8297,10 +8336,10 @@
     <row r="79" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B79" s="1"/>
       <c r="C79" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
@@ -8311,16 +8350,16 @@
     <row r="80" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B80" s="1"/>
       <c r="C80" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>187</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
@@ -8329,16 +8368,16 @@
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B81" s="1"/>
       <c r="C81" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>241</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
@@ -8347,10 +8386,10 @@
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B82" s="1"/>
       <c r="C82" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
@@ -8361,16 +8400,16 @@
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B83" s="1"/>
       <c r="C83" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>187</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
@@ -8379,16 +8418,16 @@
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B84" s="1"/>
       <c r="C84" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>241</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
@@ -8397,10 +8436,10 @@
     <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B85" s="1"/>
       <c r="C85" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
@@ -8411,16 +8450,16 @@
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B86" s="1"/>
       <c r="C86" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>187</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G86" s="1"/>
       <c r="H86" s="1"/>
@@ -8429,16 +8468,16 @@
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B87" s="1"/>
       <c r="C87" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>241</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
@@ -8447,10 +8486,10 @@
     <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B88" s="1"/>
       <c r="C88" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
@@ -8461,16 +8500,16 @@
     <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B89" s="1"/>
       <c r="C89" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>187</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G89" s="1"/>
       <c r="H89" s="1"/>
@@ -8479,16 +8518,16 @@
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B90" s="1"/>
       <c r="C90" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>241</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
@@ -8497,10 +8536,10 @@
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B91" s="1"/>
       <c r="C91" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
@@ -8551,11 +8590,11 @@
     <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B95" s="1"/>
       <c r="C95" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D95" s="1"/>
       <c r="E95" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="G95" s="1"/>
       <c r="H95" s="1"/>
@@ -8564,13 +8603,13 @@
     <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B96" s="1"/>
       <c r="C96" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="E96" s="1" t="s">
         <v>462</v>
-      </c>
-      <c r="D96" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="E96" s="1" t="s">
-        <v>463</v>
       </c>
       <c r="G96" s="1"/>
       <c r="H96" s="1"/>
@@ -8593,11 +8632,11 @@
     <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B98" s="1"/>
       <c r="C98" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D98" s="1"/>
       <c r="E98" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="G98" s="1"/>
       <c r="H98" s="1"/>
@@ -8606,13 +8645,13 @@
     <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B99" s="1"/>
       <c r="C99" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="E99" s="1" t="s">
         <v>462</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="E99" s="1" t="s">
-        <v>463</v>
       </c>
       <c r="G99" s="1"/>
       <c r="H99" s="1"/>
@@ -8669,7 +8708,7 @@
     <row r="104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B104" s="1"/>
       <c r="C104" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
@@ -8729,7 +8768,7 @@
     <row r="109" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B109" s="1"/>
       <c r="C109" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D109" s="1"/>
       <c r="E109" s="1"/>
@@ -8803,7 +8842,7 @@
         <v>34</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F114" s="1"/>
       <c r="G114" s="1"/>
@@ -8823,7 +8862,7 @@
     <row r="116" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B116" s="1"/>
       <c r="C116" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D116" s="1"/>
       <c r="F116" s="1"/>
@@ -8834,7 +8873,7 @@
     <row r="117" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B117" s="1"/>
       <c r="D117" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="G117" s="1"/>
       <c r="H117" s="1"/>
@@ -8861,10 +8900,10 @@
     <row r="120" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B120" s="1"/>
       <c r="C120" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="G120" s="1"/>
       <c r="H120" s="1"/>
@@ -8873,7 +8912,7 @@
     <row r="121" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B121" s="1"/>
       <c r="C121" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D121" s="1" t="s">
         <v>262</v>
@@ -8885,7 +8924,7 @@
     <row r="122" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B122" s="1"/>
       <c r="C122" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D122" s="1" t="s">
         <v>264</v>
@@ -8897,11 +8936,11 @@
     <row r="123" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B123" s="1"/>
       <c r="C123" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D123" s="1"/>
       <c r="E123" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="G123" s="1"/>
       <c r="H123" s="1"/>
@@ -8910,13 +8949,13 @@
     <row r="124" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B124" s="1"/>
       <c r="C124" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="G124" s="1"/>
       <c r="H124" s="1"/>
@@ -8925,13 +8964,13 @@
     <row r="125" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B125" s="1"/>
       <c r="C125" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="G125" s="1"/>
       <c r="H125" s="1"/>
@@ -8940,13 +8979,13 @@
     <row r="126" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B126" s="1"/>
       <c r="C126" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="G126" s="1"/>
       <c r="H126" s="1"/>
@@ -8988,10 +9027,10 @@
     <row r="129" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B129" s="1"/>
       <c r="C129" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F129" s="1"/>
       <c r="G129" s="1"/>
@@ -9001,10 +9040,10 @@
     <row r="130" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B130" s="1"/>
       <c r="C130" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F130" s="1"/>
       <c r="G130" s="1"/>
@@ -9014,13 +9053,13 @@
     <row r="131" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B131" s="1"/>
       <c r="C131" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F131" s="1"/>
       <c r="G131" s="1"/>
@@ -9030,10 +9069,10 @@
     <row r="132" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B132" s="1"/>
       <c r="C132" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F132" s="1"/>
       <c r="G132" s="1"/>
@@ -9078,7 +9117,7 @@
         <v>23</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>357</v>
+        <v>489</v>
       </c>
       <c r="E135" s="2" t="s">
         <v>24</v>
@@ -9096,13 +9135,13 @@
         <v>187</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>475</v>
+        <v>487</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>476</v>
+        <v>490</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>193</v>
+        <v>488</v>
       </c>
       <c r="G136" s="1"/>
       <c r="H136" s="1"/>
@@ -9114,13 +9153,13 @@
         <v>269</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>476</v>
+        <v>490</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="G137" s="1"/>
       <c r="H137" s="1"/>
@@ -9132,13 +9171,13 @@
         <v>268</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>476</v>
+        <v>490</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="G138" s="1"/>
       <c r="H138" s="1"/>
@@ -9182,7 +9221,7 @@
         <v>23</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>357</v>
+        <v>489</v>
       </c>
       <c r="E141" s="2" t="s">
         <v>24</v>
@@ -9200,10 +9239,10 @@
         <v>187</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>475</v>
+        <v>487</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
       <c r="F142" s="1" t="s">
         <v>193</v>
@@ -9218,13 +9257,13 @@
         <v>269</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="G143" s="1"/>
       <c r="H143" s="1"/>
@@ -9236,13 +9275,13 @@
         <v>268</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="G144" s="1"/>
       <c r="H144" s="1"/>
@@ -9281,7 +9320,7 @@
         <v>23</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>357</v>
+        <v>489</v>
       </c>
       <c r="E147" s="2" t="s">
         <v>24</v>
@@ -9298,13 +9337,13 @@
         <v>187</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>475</v>
+        <v>487</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>193</v>
+        <v>488</v>
       </c>
       <c r="G148" s="1"/>
       <c r="H148" s="1"/>
@@ -9316,13 +9355,13 @@
         <v>269</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="G149" s="1"/>
       <c r="H149" s="1"/>
@@ -9334,13 +9373,13 @@
         <v>268</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="G150" s="1"/>
       <c r="H150" s="1"/>
@@ -9585,13 +9624,13 @@
       </c>
       <c r="B168" s="1"/>
       <c r="C168" s="1" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="F168" s="1"/>
       <c r="G168" s="1"/>
@@ -9718,54 +9757,54 @@
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C178" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="D178" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="E178" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="F178" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="G178" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="D178" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="E178" s="1" t="s">
+      <c r="H178" s="4" t="s">
         <v>483</v>
-      </c>
-      <c r="F178" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="G178" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="H178" s="4" t="s">
-        <v>486</v>
       </c>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C179" s="1" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="E179" s="1"/>
       <c r="F179" s="1"/>
       <c r="G179" s="1" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="H179" s="4" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C180" s="1"/>
       <c r="D180" s="1"/>
       <c r="E180" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="F180" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="G180" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="H180" s="4" t="s">
         <v>483</v>
-      </c>
-      <c r="F180" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="G180" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="H180" s="4" t="s">
-        <v>486</v>
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.2">
@@ -9774,38 +9813,38 @@
       <c r="E181" s="1"/>
       <c r="F181" s="1"/>
       <c r="G181" s="1" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="H181" s="4" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C182" s="1" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="E182" s="1"/>
       <c r="F182" s="1"/>
       <c r="G182" s="1"/>
       <c r="H182" s="4" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C183" s="1"/>
       <c r="D183" s="1"/>
       <c r="E183" s="1" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="F183" s="1" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="G183" s="1"/>
       <c r="H183" s="4" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.2">
@@ -9815,7 +9854,7 @@
       <c r="F184" s="1"/>
       <c r="G184" s="1"/>
       <c r="H184" s="4" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
     </row>
     <row r="185" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -9848,7 +9887,7 @@
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C188" s="1" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.2">
@@ -9886,7 +9925,7 @@
     </row>
     <row r="193" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C193" s="1" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="194" spans="3:3" x14ac:dyDescent="0.2">
@@ -9950,19 +9989,19 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>323</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>338</v>
@@ -9970,74 +10009,74 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>187</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>405</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>406</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C5" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>241</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>187</v>
       </c>
       <c r="E6" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>405</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>241</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="5" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -10046,10 +10085,10 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>323</v>
@@ -10058,10 +10097,10 @@
         <v>318</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>338</v>
@@ -10069,85 +10108,85 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>408</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>409</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>187</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>408</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>409</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>241</v>
       </c>
       <c r="F11" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>405</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>187</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>241</v>
       </c>
       <c r="F13" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>405</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="14" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="5" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -10158,19 +10197,19 @@
         <v>225</v>
       </c>
       <c r="C15" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="E15" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>364</v>
-      </c>
       <c r="F15" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="G15" s="2" t="s">
         <v>360</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -10181,16 +10220,16 @@
         <v>187</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>187</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -10201,16 +10240,16 @@
         <v>241</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>241</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -10221,16 +10260,16 @@
         <v>187</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>241</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -10238,16 +10277,16 @@
         <v>241</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>187</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -10270,16 +10309,16 @@
         <v>187</v>
       </c>
       <c r="D21" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>414</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>415</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>187</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="22" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -10295,12 +10334,12 @@
         <v>328</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C24" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
@@ -10310,7 +10349,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C26" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="27" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -10326,7 +10365,7 @@
         <v>330</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>65</v>
@@ -10335,24 +10374,24 @@
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B29" s="1"/>
       <c r="C29" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>419</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B30" s="1"/>
       <c r="D30" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C31" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="32" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -10368,7 +10407,7 @@
         <v>334</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
@@ -10380,18 +10419,18 @@
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B35" s="1"/>
       <c r="C35" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B36" s="1"/>
       <c r="C36" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B37" s="5" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
@@ -10404,12 +10443,12 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C39" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C40" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="41" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -10420,38 +10459,38 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B43" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B44" s="1"/>
       <c r="C44" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C45" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="D45" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="D45" s="2" t="s">
-        <v>426</v>
-      </c>
       <c r="E45" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C46" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="D46" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="D46" s="2" t="s">
-        <v>428</v>
-      </c>
       <c r="E46" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="47" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -10467,77 +10506,77 @@
     <row r="49" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B49" s="1"/>
       <c r="C49" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>187</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B50" s="1"/>
       <c r="C50" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>241</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B51" s="1"/>
       <c r="C51" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>187</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B52" s="1"/>
       <c r="C52" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>241</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B53" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B54" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.2">
@@ -10562,52 +10601,52 @@
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C59" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>187</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C60" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>241</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C61" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>187</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="62" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C62" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>241</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="63" spans="2:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -10634,16 +10673,16 @@
         <v>187</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>187</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="66" spans="2:7" x14ac:dyDescent="0.2">
@@ -10651,16 +10690,16 @@
         <v>241</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>241</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="67" spans="2:7" x14ac:dyDescent="0.2">
@@ -10668,16 +10707,16 @@
         <v>187</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F67" s="1" t="s">
         <v>241</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="68" spans="2:7" x14ac:dyDescent="0.2">
@@ -10685,21 +10724,21 @@
         <v>241</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F68" s="1" t="s">
         <v>187</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="69" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B69" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -10715,16 +10754,16 @@
         <v>187</v>
       </c>
       <c r="D70" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="E70" s="1" t="s">
         <v>414</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>415</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>187</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="71" spans="2:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -10734,7 +10773,7 @@
     </row>
     <row r="72" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B72" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>324</v>
@@ -10747,41 +10786,41 @@
     </row>
     <row r="73" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B73" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C73" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="D73" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="D73" s="2" t="s">
+      <c r="F73" s="2" t="s">
         <v>436</v>
-      </c>
-      <c r="F73" s="2" t="s">
-        <v>437</v>
       </c>
     </row>
     <row r="74" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C74" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D74" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="E74" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="E74" s="2" t="s">
-        <v>439</v>
-      </c>
       <c r="F74" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="75" spans="2:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B75" s="5" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D75" s="3"/>
     </row>
     <row r="76" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B76" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>325</v>
@@ -10794,30 +10833,30 @@
     </row>
     <row r="77" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B77" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C77" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="D77" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="D77" s="2" t="s">
+      <c r="F77" s="2" t="s">
         <v>436</v>
-      </c>
-      <c r="F77" s="2" t="s">
-        <v>437</v>
       </c>
     </row>
     <row r="78" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C78" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D78" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="E78" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="E78" s="2" t="s">
-        <v>439</v>
-      </c>
       <c r="F78" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
   </sheetData>
@@ -10836,8 +10875,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{988C78EB-4E00-466C-9BD2-B10965380DEB}">
   <dimension ref="A1:I234"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C72" sqref="C72"/>
     </sheetView>
   </sheetViews>
@@ -11814,7 +11853,7 @@
         <v>281</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
@@ -11823,7 +11862,7 @@
         <v>282</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
@@ -11832,7 +11871,7 @@
         <v>283</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
@@ -11841,45 +11880,45 @@
         <v>284</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B88" s="1"/>
       <c r="C88" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>280</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B90" s="1"/>
       <c r="C90" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B91" s="1"/>
       <c r="C91" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="92" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -11909,7 +11948,7 @@
         <v>281</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
@@ -11918,7 +11957,7 @@
         <v>282</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
@@ -11927,7 +11966,7 @@
         <v>283</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
@@ -11935,42 +11974,42 @@
         <v>284</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>280</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="102" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -12872,7 +12911,7 @@
         <v>241</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E199" s="1" t="s">
         <v>253</v>
@@ -12890,7 +12929,7 @@
         <v>241</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E200" s="1" t="s">
         <v>253</v>
@@ -12908,7 +12947,7 @@
         <v>187</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E201" s="1" t="s">
         <v>253</v>
@@ -12925,7 +12964,7 @@
         <v>187</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E202" s="1" t="s">
         <v>253</v>
@@ -13045,10 +13084,10 @@
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A217" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.2">
@@ -13126,10 +13165,10 @@
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A223" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.2">

--- a/P4E_psuedo_instruction_set.xlsx
+++ b/P4E_psuedo_instruction_set.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\P4EngineAssembler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{055754AD-D662-4616-A8F9-7B86428A82FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F022380-F54D-483A-94E6-4A2F1B867676}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-9290" yWindow="-21710" windowWidth="38620" windowHeight="21820" xr2:uid="{87164962-7B7D-4BAA-98E0-B9A8D7C47112}"/>
+    <workbookView xWindow="-9290" yWindow="-21710" windowWidth="38620" windowHeight="21820" activeTab="1" xr2:uid="{87164962-7B7D-4BAA-98E0-B9A8D7C47112}"/>
   </bookViews>
   <sheets>
     <sheet name="parser" sheetId="1" r:id="rId1"/>
@@ -1006,7 +1006,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C34" authorId="0" shapeId="0" xr:uid="{0C0D1569-05B5-4671-BE18-70994A53B622}">
+    <comment ref="C37" authorId="0" shapeId="0" xr:uid="{0C0D1569-05B5-4671-BE18-70994A53B622}">
       <text>
         <r>
           <rPr>
@@ -1032,7 +1032,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C38" authorId="0" shapeId="0" xr:uid="{B7B4802A-BD39-4EFD-8EF3-BD5110CA966B}">
+    <comment ref="C41" authorId="0" shapeId="0" xr:uid="{B7B4802A-BD39-4EFD-8EF3-BD5110CA966B}">
       <text>
         <r>
           <rPr>
@@ -1058,7 +1058,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G50" authorId="0" shapeId="0" xr:uid="{FFBF8204-87BF-49D9-8007-D8E49DA90F04}">
+    <comment ref="G53" authorId="0" shapeId="0" xr:uid="{FFBF8204-87BF-49D9-8007-D8E49DA90F04}">
       <text>
         <r>
           <rPr>
@@ -1084,7 +1084,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G52" authorId="0" shapeId="0" xr:uid="{DDFC8BEF-8AA7-4999-A858-0492C4F1E09D}">
+    <comment ref="G55" authorId="0" shapeId="0" xr:uid="{DDFC8BEF-8AA7-4999-A858-0492C4F1E09D}">
       <text>
         <r>
           <rPr>
@@ -1110,7 +1110,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F60" authorId="0" shapeId="0" xr:uid="{935D5833-A655-4765-81F8-C6C0E8C143C3}">
+    <comment ref="F63" authorId="0" shapeId="0" xr:uid="{935D5833-A655-4765-81F8-C6C0E8C143C3}">
       <text>
         <r>
           <rPr>
@@ -1136,7 +1136,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F62" authorId="0" shapeId="0" xr:uid="{28896C20-A56E-4FB2-A2DA-D4EEEF5DF3A8}">
+    <comment ref="F65" authorId="0" shapeId="0" xr:uid="{28896C20-A56E-4FB2-A2DA-D4EEEF5DF3A8}">
       <text>
         <r>
           <rPr>
@@ -1162,7 +1162,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D66" authorId="0" shapeId="0" xr:uid="{39D8881B-BC18-434C-A8F7-A45AD42A5267}">
+    <comment ref="D69" authorId="0" shapeId="0" xr:uid="{39D8881B-BC18-434C-A8F7-A45AD42A5267}">
       <text>
         <r>
           <rPr>
@@ -1188,7 +1188,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D68" authorId="0" shapeId="0" xr:uid="{AD6B4964-80AF-492C-A8E5-94AAAA6F6F5F}">
+    <comment ref="D71" authorId="0" shapeId="0" xr:uid="{AD6B4964-80AF-492C-A8E5-94AAAA6F6F5F}">
       <text>
         <r>
           <rPr>
@@ -1411,7 +1411,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1445" uniqueCount="491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1452" uniqueCount="498">
   <si>
     <t>isr SHiFT</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -6417,6 +6417,34 @@
       </rPr>
       <t xml:space="preserve"> (16 | 32) } ,</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R16COPYL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R32COPYL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R64COPYL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R16COPY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R32COPY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R64COPY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R128COPYL</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6880,8 +6908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA14F7B7-5F50-4FFB-AE20-84853F321386}">
   <dimension ref="A1:I194"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D137" sqref="D137"/>
     </sheetView>
   </sheetViews>
@@ -9945,11 +9973,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{732D935C-EC39-4DBE-84B4-44CD168E0101}">
-  <dimension ref="A1:I78"/>
+  <dimension ref="A1:I85"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B47" sqref="B47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -10291,437 +10319,416 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
-        <v>61</v>
+        <v>494</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
-      <c r="G20" s="2" t="s">
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B21" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B22" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B23" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="2" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B21" s="6" t="s">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B24" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C24" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D24" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E24" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="F24" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="G24" s="1" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="5" t="s">
+    <row r="25" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="5" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B26" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C26" s="2" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C24" s="2" t="s">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C27" s="2" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C25" s="2" t="s">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C28" s="2" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C26" s="2" t="s">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C29" s="2" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="27" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="5" t="s">
+    <row r="30" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="5" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B31" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C31" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D31" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B29" s="1"/>
-      <c r="C29" s="2" t="s">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B32" s="1"/>
+      <c r="C32" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D32" s="2" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B30" s="1"/>
-      <c r="D30" s="2" t="s">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B33" s="1"/>
+      <c r="D33" s="2" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C31" s="2" t="s">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C34" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D34" s="2" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="32" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="5" t="s">
+    <row r="35" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="5" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="2" t="s">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B36" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C36" s="2" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B34" s="1"/>
-      <c r="C34" s="2" t="s">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B37" s="1"/>
+      <c r="C37" s="2" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B35" s="1"/>
-      <c r="C35" s="2" t="s">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B38" s="1"/>
+      <c r="C38" s="2" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B36" s="1"/>
-      <c r="C36" s="2" t="s">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B39" s="1"/>
+      <c r="C39" s="2" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B37" s="5" t="s">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B40" s="5" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B38" s="1" t="s">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B41" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C41" s="2" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C39" s="2" t="s">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C42" s="2" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C40" s="2" t="s">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C43" s="2" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="41" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="42" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="5" t="s">
+    <row r="44" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="45" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B45" s="5" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B43" s="1" t="s">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B46" s="1" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B44" s="1"/>
-      <c r="C44" s="2" t="s">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B47" s="1"/>
+      <c r="C47" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="E44" s="2" t="s">
+      <c r="E47" s="2" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C45" s="2" t="s">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C48" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="D45" s="2" t="s">
+      <c r="D48" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="E45" s="2" t="s">
+      <c r="E48" s="2" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C46" s="2" t="s">
+    <row r="49" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C49" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="D46" s="2" t="s">
+      <c r="D49" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="E46" s="2" t="s">
+      <c r="E49" s="2" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="47" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="5" t="s">
+    <row r="50" spans="2:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B50" s="5" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B48" s="1" t="s">
+    <row r="51" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B51" s="1" t="s">
         <v>58</v>
-      </c>
-    </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B49" s="1"/>
-      <c r="C49" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B50" s="1"/>
-      <c r="C50" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="G50" s="2" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B51" s="1"/>
-      <c r="C51" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="G51" s="2" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B52" s="1"/>
       <c r="C52" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>402</v>
+        <v>428</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>420</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>241</v>
+        <v>187</v>
       </c>
       <c r="G52" s="2" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B53" s="1" t="s">
-        <v>379</v>
+      <c r="B53" s="1"/>
+      <c r="C53" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B54" s="1" t="s">
-        <v>380</v>
+      <c r="B54" s="1"/>
+      <c r="C54" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B55" s="1" t="s">
-        <v>52</v>
+      <c r="B55" s="1"/>
+      <c r="C55" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B56" s="1" t="s">
-        <v>53</v>
+        <v>379</v>
       </c>
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B57" s="1" t="s">
-        <v>54</v>
+        <v>380</v>
       </c>
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B58" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B59" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B60" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B61" s="1" t="s">
         <v>55</v>
-      </c>
-    </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C59" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C60" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C61" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="62" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C62" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>402</v>
+        <v>428</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>241</v>
+        <v>187</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="63" spans="2:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B63" s="5" t="s">
+    <row r="63" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C63" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="64" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C64" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C65" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="66" spans="2:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B66" s="5" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B64" s="1" t="s">
+    <row r="67" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B67" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="C64" s="2" t="s">
+      <c r="C67" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="D64" s="2" t="s">
+      <c r="D67" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E64" s="2" t="s">
+      <c r="E67" s="2" t="s">
         <v>316</v>
-      </c>
-    </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C65" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="G65" s="1" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C66" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="G66" s="1" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C67" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="68" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
-        <v>241</v>
+        <v>187</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>404</v>
@@ -10737,133 +10744,224 @@
       </c>
     </row>
     <row r="69" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B69" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
-      <c r="E69" s="1"/>
-      <c r="F69" s="1"/>
-      <c r="G69" s="1"/>
+      <c r="C69" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>411</v>
+      </c>
     </row>
     <row r="70" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B70" s="6" t="s">
-        <v>340</v>
-      </c>
       <c r="C70" s="1" t="s">
         <v>187</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>414</v>
+        <v>432</v>
       </c>
       <c r="F70" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="71" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C71" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="F71" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="G70" s="1" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="71" spans="2:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B71" s="5" t="s">
-        <v>341</v>
+      <c r="G71" s="1" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="72" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B72" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="D72" s="11" t="s">
-        <v>325</v>
-      </c>
-      <c r="E72" s="11"/>
-      <c r="F72" s="11"/>
+        <v>491</v>
+      </c>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+      <c r="G72" s="1"/>
     </row>
     <row r="73" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B73" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>435</v>
-      </c>
-      <c r="F73" s="2" t="s">
-        <v>436</v>
-      </c>
+        <v>492</v>
+      </c>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
+      <c r="G73" s="1"/>
     </row>
     <row r="74" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C74" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>438</v>
-      </c>
-      <c r="F74" s="2" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="75" spans="2:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B75" s="5" t="s">
-        <v>385</v>
-      </c>
-      <c r="D75" s="3"/>
+      <c r="B74" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1"/>
+      <c r="G74" s="1"/>
+    </row>
+    <row r="75" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B75" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
+      <c r="F75" s="1"/>
+      <c r="G75" s="1"/>
     </row>
     <row r="76" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B76" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1"/>
+      <c r="F76" s="1"/>
+      <c r="G76" s="1"/>
+    </row>
+    <row r="77" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B77" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="78" spans="2:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B78" s="5" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="79" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B79" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="D79" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="E79" s="11"/>
+      <c r="F79" s="11"/>
+    </row>
+    <row r="80" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B80" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="81" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C81" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="82" spans="2:6" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B82" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="D82" s="3"/>
+    </row>
+    <row r="83" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B83" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="C76" s="2" t="s">
+      <c r="C83" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="D76" s="11" t="s">
+      <c r="D83" s="11" t="s">
         <v>324</v>
       </c>
-      <c r="E76" s="11"/>
-      <c r="F76" s="11"/>
-    </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B77" s="1" t="s">
+      <c r="E83" s="11"/>
+      <c r="F83" s="11"/>
+    </row>
+    <row r="84" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B84" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="C77" s="2" t="s">
+      <c r="C84" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="D77" s="2" t="s">
+      <c r="D84" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="F77" s="2" t="s">
+      <c r="F84" s="2" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C78" s="2" t="s">
+    <row r="85" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C85" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="D78" s="1" t="s">
+      <c r="D85" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="E78" s="2" t="s">
+      <c r="E85" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="F78" s="2" t="s">
+      <c r="F85" s="2" t="s">
         <v>436</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="C1:I1"/>
-    <mergeCell ref="D72:F72"/>
-    <mergeCell ref="D76:F76"/>
+    <mergeCell ref="D79:F79"/>
+    <mergeCell ref="D83:F83"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/P4E_psuedo_instruction_set.xlsx
+++ b/P4E_psuedo_instruction_set.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\P4EngineAssembler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F022380-F54D-483A-94E6-4A2F1B867676}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0448C6EF-423D-4B2A-B77A-A3C68EB6D1D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-9290" yWindow="-21710" windowWidth="38620" windowHeight="21820" activeTab="1" xr2:uid="{87164962-7B7D-4BAA-98E0-B9A8D7C47112}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{87164962-7B7D-4BAA-98E0-B9A8D7C47112}"/>
   </bookViews>
   <sheets>
     <sheet name="parser" sheetId="1" r:id="rId1"/>
@@ -1411,7 +1411,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1452" uniqueCount="498">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1459" uniqueCount="501">
   <si>
     <t>isr SHiFT</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -6445,6 +6445,65 @@
   </si>
   <si>
     <t>R128COPYL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(dest phv to hold igored tail)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">PHV { </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>offset9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>len</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (1-4) } </t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6906,18 +6965,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA14F7B7-5F50-4FFB-AE20-84853F321386}">
-  <dimension ref="A1:I194"/>
+  <dimension ref="A1:I196"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D137" sqref="D137"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A161" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E187" sqref="E187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="37" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.375" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.375" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26.625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21" style="2" bestFit="1" customWidth="1"/>
@@ -9909,61 +9968,89 @@
       <c r="B187" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="C187" s="2" t="s">
+      <c r="C187" s="11" t="s">
+        <v>498</v>
+      </c>
+      <c r="D187" s="11"/>
+      <c r="E187" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C188" s="1" t="s">
+      <c r="E188" s="1" t="s">
         <v>484</v>
       </c>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C189" s="2" t="s">
+      <c r="E189" s="2" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="190" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B190" s="10" t="s">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C190" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="D190" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="E190" s="1" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B191" s="1"/>
+      <c r="C191" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="D191" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="E191" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B192" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="C190" s="3"/>
-      <c r="D190" s="3"/>
-      <c r="E190" s="3"/>
-      <c r="F190" s="3"/>
-      <c r="G190" s="3"/>
-      <c r="H190" s="3"/>
-      <c r="I190" s="3"/>
-    </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A191" s="2" t="s">
+      <c r="C192" s="3"/>
+      <c r="D192" s="3"/>
+      <c r="E192" s="3"/>
+      <c r="F192" s="3"/>
+      <c r="G192" s="3"/>
+      <c r="H192" s="3"/>
+      <c r="I192" s="3"/>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A193" s="2" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A192" s="2" t="s">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A194" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B192" s="1" t="s">
+      <c r="B194" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="C192" s="2" t="s">
+      <c r="C194" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="193" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C193" s="1" t="s">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C195" s="1" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="194" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C194" s="2" t="s">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C196" s="2" t="s">
         <v>190</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="C1:I1"/>
+    <mergeCell ref="C187:D187"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9975,7 +10062,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{732D935C-EC39-4DBE-84B4-44CD168E0101}">
   <dimension ref="A1:I85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B74" sqref="B74"/>
     </sheetView>

--- a/P4E_psuedo_instruction_set.xlsx
+++ b/P4E_psuedo_instruction_set.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\P4EngineAssembler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E192CC8-9DAA-4C18-8D4E-18936DCB5868}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B41CBF48-DD4E-4471-ACAB-9CA456BE7088}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="2" xr2:uid="{87164962-7B7D-4BAA-98E0-B9A8D7C47112}"/>
+    <workbookView xWindow="28680" yWindow="-2475" windowWidth="38640" windowHeight="21840" activeTab="2" xr2:uid="{87164962-7B7D-4BAA-98E0-B9A8D7C47112}"/>
   </bookViews>
   <sheets>
     <sheet name="parser" sheetId="1" r:id="rId1"/>
@@ -1276,7 +1276,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H110" authorId="0" shapeId="0" xr:uid="{6766D2B6-4F7C-4D98-ABB1-B500845D4104}">
+    <comment ref="H115" authorId="0" shapeId="0" xr:uid="{6766D2B6-4F7C-4D98-ABB1-B500845D4104}">
       <text>
         <r>
           <rPr>
@@ -1302,7 +1302,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D116" authorId="0" shapeId="0" xr:uid="{1232E5F3-A694-45DA-83F2-6A0D1C7503DB}">
+    <comment ref="D126" authorId="0" shapeId="0" xr:uid="{1232E5F3-A694-45DA-83F2-6A0D1C7503DB}">
       <text>
         <r>
           <rPr>
@@ -1328,7 +1328,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D123" authorId="0" shapeId="0" xr:uid="{4C4353DC-270D-4DC9-A5D4-1860084DFD51}">
+    <comment ref="D133" authorId="0" shapeId="0" xr:uid="{4C4353DC-270D-4DC9-A5D4-1860084DFD51}">
       <text>
         <r>
           <rPr>
@@ -1354,7 +1354,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D130" authorId="0" shapeId="0" xr:uid="{A3BBB9B6-6FEE-4677-8A3B-DB59F1F7A659}">
+    <comment ref="D140" authorId="0" shapeId="0" xr:uid="{A3BBB9B6-6FEE-4677-8A3B-DB59F1F7A659}">
       <text>
         <r>
           <rPr>
@@ -1380,7 +1380,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C207" authorId="0" shapeId="0" xr:uid="{DFB4FAA4-43F6-4B75-ABE8-01CB5D2DA0F6}">
+    <comment ref="C217" authorId="0" shapeId="0" xr:uid="{DFB4FAA4-43F6-4B75-ABE8-01CB5D2DA0F6}">
       <text>
         <r>
           <rPr>
@@ -1411,7 +1411,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1459" uniqueCount="501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1487" uniqueCount="505">
   <si>
     <t>isr SHiFT</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1773,10 +1773,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">    result put back</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CoMPaCT data in source PHV, store into dest PHV</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1969,10 +1965,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ADD source data with Temp register [Unsigned]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">    LOCK</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -6504,6 +6496,30 @@
       </rPr>
       <t xml:space="preserve"> (x = 0/1) ,</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADDTU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    result put back to  phv / cond / poff / plen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    result put back to temp register</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADDT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADD data from phv / cond / poff / plen with temp register</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADD data from phv / cond / poff / plen with temp register ( Unsigned )</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6991,7 +7007,7 @@
         <v>15</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C1" s="11" t="s">
         <v>22</v>
@@ -7005,7 +7021,7 @@
     </row>
     <row r="2" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B2" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -7013,10 +7029,10 @@
         <v>45</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>25</v>
@@ -7034,16 +7050,16 @@
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>402</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>404</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -7052,16 +7068,16 @@
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -7070,10 +7086,10 @@
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -7096,10 +7112,10 @@
         <v>81</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>26</v>
@@ -7126,25 +7142,25 @@
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>402</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -7153,43 +7169,43 @@
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B11" s="1"/>
       <c r="C11" s="1" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -7197,74 +7213,74 @@
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B12" s="1"/>
       <c r="C12" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="I12" s="1" t="s">
         <v>402</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
     <row r="15" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -7279,7 +7295,7 @@
         <v>80</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>26</v>
@@ -7304,60 +7320,60 @@
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B17" s="1"/>
       <c r="C17" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="I17" s="1"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B18" s="1"/>
       <c r="C18" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="I18" s="1"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B19" s="1"/>
       <c r="C19" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
@@ -7366,60 +7382,60 @@
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B20" s="1"/>
       <c r="C20" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="I20" s="1"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B21" s="1"/>
       <c r="C21" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="I21" s="1"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B22" s="1"/>
       <c r="C22" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
@@ -7437,25 +7453,25 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="I24" s="1"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -7473,7 +7489,7 @@
     </row>
     <row r="27" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B27" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -7488,7 +7504,7 @@
         <v>78</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>26</v>
@@ -7516,60 +7532,60 @@
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="I29" s="1"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B30" s="1"/>
       <c r="C30" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="I30" s="1"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B31" s="1"/>
       <c r="C31" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
@@ -7578,60 +7594,60 @@
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B32" s="1"/>
       <c r="C32" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="I32" s="1"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B33" s="1"/>
       <c r="C33" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="I33" s="1"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B34" s="1"/>
       <c r="C34" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
@@ -7649,25 +7665,25 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="I36" s="1"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
@@ -7685,7 +7701,7 @@
     </row>
     <row r="39" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B39" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
@@ -7700,7 +7716,7 @@
         <v>84</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -7712,7 +7728,7 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B41" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>29</v>
@@ -7738,267 +7754,267 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
     </row>
     <row r="54" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B54" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
@@ -8010,10 +8026,10 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>23</v>
@@ -8037,16 +8053,16 @@
       </c>
       <c r="B56" s="1"/>
       <c r="C56" s="1" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
@@ -8055,16 +8071,16 @@
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B57" s="1"/>
       <c r="C57" s="1" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
@@ -8073,10 +8089,10 @@
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B58" s="1"/>
       <c r="C58" s="1" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
@@ -8087,16 +8103,16 @@
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B59" s="1"/>
       <c r="C59" s="1" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
@@ -8105,16 +8121,16 @@
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B60" s="1"/>
       <c r="C60" s="1" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
@@ -8123,10 +8139,10 @@
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B61" s="1"/>
       <c r="C61" s="1" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
@@ -8137,16 +8153,16 @@
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B62" s="1"/>
       <c r="C62" s="1" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
@@ -8155,16 +8171,16 @@
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B63" s="1"/>
       <c r="C63" s="1" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
@@ -8173,10 +8189,10 @@
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B64" s="1"/>
       <c r="C64" s="1" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
@@ -8187,16 +8203,16 @@
     <row r="65" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B65" s="1"/>
       <c r="C65" s="1" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
@@ -8205,16 +8221,16 @@
     <row r="66" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B66" s="1"/>
       <c r="C66" s="1" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
@@ -8223,10 +8239,10 @@
     <row r="67" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B67" s="1"/>
       <c r="C67" s="1" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
@@ -8237,16 +8253,16 @@
     <row r="68" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B68" s="1"/>
       <c r="C68" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
@@ -8255,16 +8271,16 @@
     <row r="69" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B69" s="1"/>
       <c r="C69" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
@@ -8273,10 +8289,10 @@
     <row r="70" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B70" s="1"/>
       <c r="C70" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
@@ -8287,16 +8303,16 @@
     <row r="71" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B71" s="1"/>
       <c r="C71" s="1" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
@@ -8305,16 +8321,16 @@
     <row r="72" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B72" s="1"/>
       <c r="C72" s="1" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
@@ -8323,10 +8339,10 @@
     <row r="73" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B73" s="1"/>
       <c r="C73" s="1" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
@@ -8337,16 +8353,16 @@
     <row r="74" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B74" s="1"/>
       <c r="C74" s="1" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
@@ -8355,16 +8371,16 @@
     <row r="75" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B75" s="1"/>
       <c r="C75" s="1" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
@@ -8373,10 +8389,10 @@
     <row r="76" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B76" s="1"/>
       <c r="C76" s="1" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
@@ -8387,16 +8403,16 @@
     <row r="77" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B77" s="1"/>
       <c r="C77" s="1" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
@@ -8405,16 +8421,16 @@
     <row r="78" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B78" s="1"/>
       <c r="C78" s="1" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
@@ -8423,10 +8439,10 @@
     <row r="79" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B79" s="1"/>
       <c r="C79" s="1" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
@@ -8437,16 +8453,16 @@
     <row r="80" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B80" s="1"/>
       <c r="C80" s="1" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
@@ -8455,16 +8471,16 @@
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B81" s="1"/>
       <c r="C81" s="1" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
@@ -8473,10 +8489,10 @@
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B82" s="1"/>
       <c r="C82" s="1" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
@@ -8487,16 +8503,16 @@
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B83" s="1"/>
       <c r="C83" s="1" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
@@ -8505,16 +8521,16 @@
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B84" s="1"/>
       <c r="C84" s="1" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
@@ -8523,10 +8539,10 @@
     <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B85" s="1"/>
       <c r="C85" s="1" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
@@ -8537,16 +8553,16 @@
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B86" s="1"/>
       <c r="C86" s="1" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G86" s="1"/>
       <c r="H86" s="1"/>
@@ -8555,16 +8571,16 @@
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B87" s="1"/>
       <c r="C87" s="1" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
@@ -8573,10 +8589,10 @@
     <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B88" s="1"/>
       <c r="C88" s="1" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
@@ -8587,16 +8603,16 @@
     <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B89" s="1"/>
       <c r="C89" s="1" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G89" s="1"/>
       <c r="H89" s="1"/>
@@ -8605,16 +8621,16 @@
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B90" s="1"/>
       <c r="C90" s="1" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
@@ -8623,10 +8639,10 @@
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B91" s="1"/>
       <c r="C91" s="1" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
@@ -8636,7 +8652,7 @@
     </row>
     <row r="92" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B92" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C92" s="3"/>
       <c r="D92" s="3"/>
@@ -8656,13 +8672,13 @@
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>77</v>
@@ -8677,11 +8693,11 @@
     <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B95" s="1"/>
       <c r="C95" s="1" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="D95" s="1"/>
       <c r="E95" s="1" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="G95" s="1"/>
       <c r="H95" s="1"/>
@@ -8690,13 +8706,13 @@
     <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B96" s="1"/>
       <c r="C96" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="D96" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="D96" s="1" t="s">
-        <v>462</v>
-      </c>
       <c r="E96" s="1" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="G96" s="1"/>
       <c r="H96" s="1"/>
@@ -8704,10 +8720,10 @@
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
@@ -8719,11 +8735,11 @@
     <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B98" s="1"/>
       <c r="C98" s="1" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="D98" s="1"/>
       <c r="E98" s="1" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="G98" s="1"/>
       <c r="H98" s="1"/>
@@ -8732,13 +8748,13 @@
     <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B99" s="1"/>
       <c r="C99" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="D99" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="D99" s="1" t="s">
-        <v>462</v>
-      </c>
       <c r="E99" s="1" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="G99" s="1"/>
       <c r="H99" s="1"/>
@@ -8746,7 +8762,7 @@
     </row>
     <row r="100" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B100" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C100" s="3"/>
       <c r="D100" s="3"/>
@@ -8758,7 +8774,7 @@
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
@@ -8769,10 +8785,10 @@
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
@@ -8783,7 +8799,7 @@
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C103" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
@@ -8795,7 +8811,7 @@
     <row r="104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B104" s="1"/>
       <c r="C104" s="1" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
@@ -8806,7 +8822,7 @@
     </row>
     <row r="105" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B105" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C105" s="3"/>
       <c r="D105" s="3"/>
@@ -8818,7 +8834,7 @@
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
@@ -8832,7 +8848,7 @@
         <v>87</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
@@ -8843,7 +8859,7 @@
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C108" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D108" s="1"/>
       <c r="E108" s="1"/>
@@ -8855,7 +8871,7 @@
     <row r="109" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B109" s="1"/>
       <c r="C109" s="1" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="D109" s="1"/>
       <c r="E109" s="1"/>
@@ -8866,7 +8882,7 @@
     </row>
     <row r="110" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B110" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C110" s="3"/>
       <c r="D110" s="3"/>
@@ -8881,7 +8897,7 @@
         <v>88</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
@@ -8894,7 +8910,7 @@
     <row r="112" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B112" s="1"/>
       <c r="C112" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D112" s="1"/>
       <c r="E112" s="1"/>
@@ -8905,7 +8921,7 @@
     </row>
     <row r="113" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B113" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C113" s="3"/>
       <c r="D113" s="3"/>
@@ -8920,16 +8936,16 @@
         <v>0</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D114" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F114" s="1"/>
       <c r="G114" s="1"/>
@@ -8939,7 +8955,7 @@
     <row r="115" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B115" s="1"/>
       <c r="C115" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F115" s="1"/>
       <c r="G115" s="1"/>
@@ -8949,7 +8965,7 @@
     <row r="116" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B116" s="1"/>
       <c r="C116" s="1" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="D116" s="1"/>
       <c r="F116" s="1"/>
@@ -8960,7 +8976,7 @@
     <row r="117" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B117" s="1"/>
       <c r="D117" s="1" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="G117" s="1"/>
       <c r="H117" s="1"/>
@@ -8969,7 +8985,7 @@
     <row r="118" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B118" s="1"/>
       <c r="D118" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G118" s="1"/>
       <c r="H118" s="1"/>
@@ -8978,7 +8994,7 @@
     <row r="119" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B119" s="1"/>
       <c r="D119" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G119" s="1"/>
       <c r="H119" s="1"/>
@@ -8987,10 +9003,10 @@
     <row r="120" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B120" s="1"/>
       <c r="C120" s="1" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="G120" s="1"/>
       <c r="H120" s="1"/>
@@ -8999,10 +9015,10 @@
     <row r="121" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B121" s="1"/>
       <c r="C121" s="1" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G121" s="1"/>
       <c r="H121" s="1"/>
@@ -9011,10 +9027,10 @@
     <row r="122" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B122" s="1"/>
       <c r="C122" s="1" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G122" s="1"/>
       <c r="H122" s="1"/>
@@ -9023,11 +9039,11 @@
     <row r="123" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B123" s="1"/>
       <c r="C123" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="D123" s="1"/>
       <c r="E123" s="2" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="G123" s="1"/>
       <c r="H123" s="1"/>
@@ -9036,13 +9052,13 @@
     <row r="124" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B124" s="1"/>
       <c r="C124" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="D124" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="D124" s="1" t="s">
-        <v>468</v>
-      </c>
       <c r="E124" s="2" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="G124" s="1"/>
       <c r="H124" s="1"/>
@@ -9051,13 +9067,13 @@
     <row r="125" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B125" s="1"/>
       <c r="C125" s="1" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="G125" s="1"/>
       <c r="H125" s="1"/>
@@ -9066,13 +9082,13 @@
     <row r="126" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B126" s="1"/>
       <c r="C126" s="1" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="G126" s="1"/>
       <c r="H126" s="1"/>
@@ -9080,7 +9096,7 @@
     </row>
     <row r="127" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B127" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C127" s="3"/>
       <c r="D127" s="3"/>
@@ -9092,16 +9108,16 @@
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E128" s="2" t="s">
         <v>35</v>
@@ -9114,10 +9130,10 @@
     <row r="129" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B129" s="1"/>
       <c r="C129" s="1" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="F129" s="1"/>
       <c r="G129" s="1"/>
@@ -9127,10 +9143,10 @@
     <row r="130" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B130" s="1"/>
       <c r="C130" s="1" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="F130" s="1"/>
       <c r="G130" s="1"/>
@@ -9140,13 +9156,13 @@
     <row r="131" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B131" s="1"/>
       <c r="C131" s="1" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="F131" s="1"/>
       <c r="G131" s="1"/>
@@ -9156,10 +9172,10 @@
     <row r="132" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B132" s="1"/>
       <c r="C132" s="1" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="F132" s="1"/>
       <c r="G132" s="1"/>
@@ -9168,7 +9184,7 @@
     </row>
     <row r="133" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B133" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C133" s="3"/>
       <c r="D133" s="3"/>
@@ -9183,7 +9199,7 @@
         <v>1</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
@@ -9195,22 +9211,22 @@
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A135" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="E135" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G135" s="1"/>
       <c r="H135" s="1"/>
@@ -9219,16 +9235,16 @@
     <row r="136" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B136" s="1"/>
       <c r="C136" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="G136" s="1"/>
       <c r="H136" s="1"/>
@@ -9237,16 +9253,16 @@
     <row r="137" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B137" s="1"/>
       <c r="C137" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="G137" s="1"/>
       <c r="H137" s="1"/>
@@ -9255,16 +9271,16 @@
     <row r="138" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B138" s="1"/>
       <c r="C138" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="G138" s="1"/>
       <c r="H138" s="1"/>
@@ -9272,7 +9288,7 @@
     </row>
     <row r="139" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B139" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C139" s="3"/>
       <c r="D139" s="3"/>
@@ -9287,7 +9303,7 @@
         <v>2</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
@@ -9299,22 +9315,22 @@
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A141" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="E141" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G141" s="1"/>
       <c r="H141" s="1"/>
@@ -9323,16 +9339,16 @@
     <row r="142" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B142" s="1"/>
       <c r="C142" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G142" s="1"/>
       <c r="H142" s="1"/>
@@ -9341,16 +9357,16 @@
     <row r="143" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B143" s="1"/>
       <c r="C143" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="G143" s="1"/>
       <c r="H143" s="1"/>
@@ -9359,16 +9375,16 @@
     <row r="144" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B144" s="1"/>
       <c r="C144" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="G144" s="1"/>
       <c r="H144" s="1"/>
@@ -9376,7 +9392,7 @@
     </row>
     <row r="145" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B145" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C145" s="3"/>
       <c r="D145" s="3"/>
@@ -9391,29 +9407,29 @@
         <v>3</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H146" s="1"/>
       <c r="I146" s="1"/>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A147" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="E147" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="H147" s="1"/>
       <c r="I147" s="1"/>
@@ -9421,16 +9437,16 @@
     <row r="148" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B148" s="1"/>
       <c r="C148" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="G148" s="1"/>
       <c r="H148" s="1"/>
@@ -9439,16 +9455,16 @@
     <row r="149" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B149" s="1"/>
       <c r="C149" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="G149" s="1"/>
       <c r="H149" s="1"/>
@@ -9457,16 +9473,16 @@
     <row r="150" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B150" s="1"/>
       <c r="C150" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="G150" s="1"/>
       <c r="H150" s="1"/>
@@ -9474,7 +9490,7 @@
     </row>
     <row r="151" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B151" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C151" s="3"/>
       <c r="D151" s="3"/>
@@ -9489,7 +9505,7 @@
         <v>4</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
@@ -9502,7 +9518,7 @@
     <row r="153" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B153" s="1"/>
       <c r="C153" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D153" s="1"/>
       <c r="E153" s="1"/>
@@ -9513,7 +9529,7 @@
     </row>
     <row r="154" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B154" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D154" s="3"/>
       <c r="E154" s="3"/>
@@ -9527,7 +9543,7 @@
         <v>5</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D155" s="1"/>
       <c r="E155" s="1"/>
@@ -9539,7 +9555,7 @@
     <row r="156" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B156" s="1"/>
       <c r="C156" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D156" s="1"/>
       <c r="E156" s="1"/>
@@ -9550,7 +9566,7 @@
     </row>
     <row r="157" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B157" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D157" s="3"/>
       <c r="E157" s="3"/>
@@ -9564,7 +9580,7 @@
         <v>6</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D158" s="1"/>
       <c r="E158" s="1"/>
@@ -9576,7 +9592,7 @@
     <row r="159" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B159" s="1"/>
       <c r="C159" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D159" s="1"/>
       <c r="E159" s="1"/>
@@ -9587,7 +9603,7 @@
     </row>
     <row r="160" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B160" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C160" s="3"/>
       <c r="D160" s="3"/>
@@ -9599,7 +9615,7 @@
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
@@ -9615,7 +9631,7 @@
         <v>7</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C162" s="1"/>
       <c r="D162" s="1"/>
@@ -9630,7 +9646,7 @@
         <v>8</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C163" s="1"/>
       <c r="D163" s="1"/>
@@ -9645,7 +9661,7 @@
         <v>9</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C164" s="1"/>
       <c r="D164" s="1"/>
@@ -9657,10 +9673,10 @@
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A165" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C165" s="1"/>
       <c r="D165" s="1"/>
@@ -9675,7 +9691,7 @@
         <v>10</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C166" s="1"/>
       <c r="D166" s="1"/>
@@ -9690,16 +9706,16 @@
         <v>11</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G167" s="1"/>
       <c r="H167" s="1"/>
@@ -9707,17 +9723,17 @@
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A168" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B168" s="1"/>
       <c r="C168" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="E168" s="1" t="s">
         <v>474</v>
-      </c>
-      <c r="D168" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="E168" s="1" t="s">
-        <v>476</v>
       </c>
       <c r="F168" s="1"/>
       <c r="G168" s="1"/>
@@ -9726,10 +9742,10 @@
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A169" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C169" s="1"/>
       <c r="D169" s="1"/>
@@ -9741,7 +9757,7 @@
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B170" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C170" s="1"/>
       <c r="D170" s="1"/>
@@ -9753,7 +9769,7 @@
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B171" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C171" s="1"/>
       <c r="D171" s="1"/>
@@ -9765,7 +9781,7 @@
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B172" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C172" s="1"/>
       <c r="D172" s="1"/>
@@ -9777,7 +9793,7 @@
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B173" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C173" s="1"/>
       <c r="D173" s="1"/>
@@ -9789,7 +9805,7 @@
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B174" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C174" s="1"/>
       <c r="D174" s="1"/>
@@ -9801,7 +9817,7 @@
     </row>
     <row r="175" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B175" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C175" s="3"/>
       <c r="D175" s="3"/>
@@ -9813,7 +9829,7 @@
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A176" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.2">
@@ -9821,7 +9837,7 @@
         <v>13</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>17</v>
@@ -9836,7 +9852,7 @@
         <v>18</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H177" s="2" t="s">
         <v>16</v>
@@ -9844,54 +9860,54 @@
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C178" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="D178" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="E178" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="F178" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="D178" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="E178" s="1" t="s">
+      <c r="G178" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="F178" s="1" t="s">
+      <c r="H178" s="4" t="s">
         <v>479</v>
-      </c>
-      <c r="G178" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="H178" s="4" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C179" s="1" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="E179" s="1"/>
       <c r="F179" s="1"/>
       <c r="G179" s="1" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="H179" s="4" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C180" s="1"/>
       <c r="D180" s="1"/>
       <c r="E180" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="F180" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="G180" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="F180" s="1" t="s">
+      <c r="H180" s="4" t="s">
         <v>479</v>
-      </c>
-      <c r="G180" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="H180" s="4" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.2">
@@ -9900,38 +9916,38 @@
       <c r="E181" s="1"/>
       <c r="F181" s="1"/>
       <c r="G181" s="1" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="H181" s="4" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C182" s="1" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="E182" s="1"/>
       <c r="F182" s="1"/>
       <c r="G182" s="1"/>
       <c r="H182" s="4" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C183" s="1"/>
       <c r="D183" s="1"/>
       <c r="E183" s="1" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F183" s="1" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="G183" s="1"/>
       <c r="H183" s="4" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.2">
@@ -9941,12 +9957,12 @@
       <c r="F184" s="1"/>
       <c r="G184" s="1"/>
       <c r="H184" s="4" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="185" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B185" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C185" s="3"/>
       <c r="D185" s="3"/>
@@ -9958,7 +9974,7 @@
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A186" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.2">
@@ -9966,10 +9982,10 @@
         <v>14</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C187" s="11" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="D187" s="11"/>
       <c r="E187" s="2" t="s">
@@ -9978,40 +9994,40 @@
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E188" s="1" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E189" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C190" s="2" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B191" s="1"/>
       <c r="C191" s="2" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="192" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B192" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C192" s="3"/>
       <c r="D192" s="3"/>
@@ -10023,7 +10039,7 @@
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A193" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.2">
@@ -10031,7 +10047,7 @@
         <v>12</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>21</v>
@@ -10039,12 +10055,12 @@
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C195" s="1" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C196" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -10085,7 +10101,7 @@
         <v>15</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C1" s="11" t="s">
         <v>22</v>
@@ -10099,99 +10115,99 @@
     </row>
     <row r="2" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B2" s="5" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>367</v>
-      </c>
       <c r="C3" s="2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>402</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>404</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C5" s="1" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>403</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>403</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="5" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -10200,213 +10216,213 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>406</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="14" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="5" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C15" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>362</v>
-      </c>
       <c r="F15" s="2" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -10416,7 +10432,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -10426,7 +10442,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -10443,74 +10459,74 @@
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B24" s="6" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D24" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="G24" s="1" t="s">
         <v>412</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="25" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B25" s="5" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C27" s="2" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C28" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C29" s="2" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="30" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B30" s="5" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>65</v>
@@ -10519,128 +10535,128 @@
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B32" s="1"/>
       <c r="C32" s="2" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B33" s="1"/>
       <c r="D33" s="2" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C34" s="2" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="35" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B35" s="5" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B37" s="1"/>
       <c r="C37" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B38" s="1"/>
       <c r="C38" s="2" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B39" s="1"/>
       <c r="C39" s="2" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B40" s="5" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B41" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C42" s="2" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C43" s="2" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="44" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="45" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B45" s="5" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B46" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B47" s="1"/>
       <c r="C47" s="2" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C48" s="2" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C49" s="2" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="50" spans="2:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B50" s="5" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.2">
@@ -10651,77 +10667,77 @@
     <row r="52" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B52" s="1"/>
       <c r="C52" s="2" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B53" s="1"/>
       <c r="C53" s="2" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B54" s="1"/>
       <c r="C54" s="2" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B55" s="1"/>
       <c r="C55" s="2" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B56" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B57" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.2">
@@ -10746,144 +10762,144 @@
     </row>
     <row r="62" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C62" s="2" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="63" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C63" s="2" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="64" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C64" s="2" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="65" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C65" s="2" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="66" spans="2:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B66" s="5" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="67" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B67" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="68" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="69" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="70" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="71" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="72" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B72" s="1" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -10893,7 +10909,7 @@
     </row>
     <row r="73" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B73" s="1" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -10903,7 +10919,7 @@
     </row>
     <row r="74" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B74" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -10913,7 +10929,7 @@
     </row>
     <row r="75" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B75" s="1" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -10923,7 +10939,7 @@
     </row>
     <row r="76" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B76" s="1" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -10933,115 +10949,115 @@
     </row>
     <row r="77" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B77" s="6" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="78" spans="2:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B78" s="5" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="79" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D79" s="11" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E79" s="11"/>
       <c r="F79" s="11"/>
     </row>
     <row r="80" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B80" s="1" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C80" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="F80" s="2" t="s">
         <v>433</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="F80" s="2" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="81" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C81" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="F81" s="2" t="s">
         <v>433</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>437</v>
-      </c>
-      <c r="F81" s="2" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="82" spans="2:6" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B82" s="5" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D82" s="3"/>
     </row>
     <row r="83" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B83" s="1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D83" s="11" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E83" s="11"/>
       <c r="F83" s="11"/>
     </row>
     <row r="84" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B84" s="1" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C84" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="F84" s="2" t="s">
         <v>433</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="F84" s="2" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="85" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C85" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="F85" s="2" t="s">
         <v>433</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>437</v>
-      </c>
-      <c r="F85" s="2" t="s">
-        <v>435</v>
       </c>
     </row>
   </sheetData>
@@ -11058,16 +11074,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{988C78EB-4E00-466C-9BD2-B10965380DEB}">
-  <dimension ref="A1:I234"/>
+  <dimension ref="A1:I244"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D100" sqref="D100"/>
+      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A114" sqref="A114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="54.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="64.375" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.125" style="2" bestFit="1" customWidth="1"/>
@@ -11084,7 +11100,7 @@
         <v>15</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C1" s="11" t="s">
         <v>22</v>
@@ -11098,7 +11114,7 @@
     </row>
     <row r="2" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B2" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -11108,32 +11124,32 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C6" s="1"/>
     </row>
     <row r="7" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -11155,140 +11171,140 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C16" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>259</v>
-      </c>
       <c r="E16" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E18" s="1"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>188</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>190</v>
       </c>
       <c r="E19" s="1"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C21" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
     </row>
     <row r="22" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -11313,658 +11329,658 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E27" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="F27" s="1" t="s">
         <v>260</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E28" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="F28" s="1" t="s">
         <v>260</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E29" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="F29" s="1" t="s">
         <v>260</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="33" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="34" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="F34" s="2" t="s">
         <v>188</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="35" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="36" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C36" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="37" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C37" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="38" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="39" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="40" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="41" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="42" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="43" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="44" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="45" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="46" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F46" s="2" t="s">
         <v>188</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="47" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="48" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D48" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="F48" s="1" t="s">
         <v>259</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="49" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D49" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="F49" s="1" t="s">
         <v>259</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="50" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D50" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="F50" s="1" t="s">
         <v>259</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="51" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E51" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="F51" s="1" t="s">
         <v>260</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="52" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E52" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="F52" s="1" t="s">
         <v>260</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="53" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E53" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="F53" s="1" t="s">
         <v>260</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="54" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="55" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="56" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="57" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="58" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="F58" s="2" t="s">
         <v>188</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="59" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="60" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="61" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="62" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="63" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="64" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F69" s="1"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D70" s="2" t="s">
         <v>188</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>190</v>
       </c>
       <c r="F70" s="1"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F71" s="1"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F72" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F73" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F74" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C75" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D75" s="1"/>
     </row>
     <row r="76" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B76" s="5" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
@@ -11972,20 +11988,20 @@
         <v>44</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="78" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B78" s="5" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>67</v>
@@ -11999,1472 +12015,1582 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="81" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B81" s="5" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>57</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B84" s="1"/>
       <c r="C84" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B85" s="1"/>
       <c r="C85" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B86" s="1"/>
       <c r="C86" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B87" s="1"/>
       <c r="C87" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B88" s="1"/>
       <c r="C88" s="1" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B90" s="1"/>
       <c r="C90" s="1" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B91" s="1"/>
       <c r="C91" s="1" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="92" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B92" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C92" s="3"/>
       <c r="D92" s="3"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>89</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B94" s="1"/>
       <c r="C94" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B95" s="1"/>
       <c r="C95" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B96" s="1"/>
       <c r="C96" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="102" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B102" s="5" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
-        <v>143</v>
+        <v>504</v>
       </c>
       <c r="B103" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D103" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="C103" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="D103" s="2" t="s">
+      <c r="E103" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="E103" s="2" t="s">
-        <v>231</v>
-      </c>
       <c r="F103" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G103" s="2" t="s">
         <v>56</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
-        <v>90</v>
+        <v>500</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E104" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="H104" s="1" t="s">
         <v>271</v>
-      </c>
-      <c r="F104" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="G104" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="H104" s="1" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C105" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C106" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C107" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B108" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="D108" s="3"/>
+        <v>274</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A108" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="D108" s="1"/>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B109" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="D109" s="1"/>
+      <c r="A109" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C110" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="E110" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="F110" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="G110" s="1" t="s">
         <v>272</v>
-      </c>
-      <c r="H110" s="1" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C111" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C112" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C113" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="D113" s="1" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B114" s="5" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B113" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="D113" s="3"/>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A114" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D114" s="1"/>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B115" s="1" t="s">
-        <v>47</v>
-      </c>
+        <v>500</v>
+      </c>
+      <c r="B115" s="1"/>
       <c r="C115" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C116" s="1" t="s">
-        <v>235</v>
+        <v>190</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="G115" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="H115" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B116" s="1"/>
+      <c r="C116" s="2" t="s">
+        <v>190</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="E116" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B117" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="C117" s="3"/>
-      <c r="D117" s="3"/>
-      <c r="E117" s="3"/>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B118" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="C118" s="1"/>
-      <c r="D118" s="1"/>
-      <c r="E118" s="1"/>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C119" s="1"/>
+        <v>272</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B117" s="1"/>
+      <c r="C117" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B118" s="1"/>
+      <c r="C118" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A119" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>502</v>
+      </c>
       <c r="D119" s="1"/>
-      <c r="E119" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A120" s="2" t="s">
+        <v>501</v>
+      </c>
       <c r="C120" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="D120" s="1"/>
-      <c r="E120" s="1"/>
-    </row>
-    <row r="121" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B121" s="5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B122" s="1" t="s">
-        <v>343</v>
-      </c>
+      <c r="D120" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C121" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C122" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="E122" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C123" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B124" s="5" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A125" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="E125" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C123" s="1" t="s">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C126" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="E126" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="D123" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="E123" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B124" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="C124" s="3"/>
-      <c r="D124" s="3"/>
-      <c r="E124" s="3"/>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B125" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="C125" s="1"/>
-      <c r="D125" s="1"/>
-      <c r="E125" s="1"/>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C126" s="1"/>
-      <c r="D126" s="1"/>
-      <c r="E126" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C127" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="D127" s="1"/>
-      <c r="E127" s="1"/>
-    </row>
-    <row r="128" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B128" s="5" t="s">
-        <v>341</v>
-      </c>
+    </row>
+    <row r="127" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B127" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="C127" s="3"/>
+      <c r="D127" s="3"/>
+      <c r="E127" s="3"/>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B128" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C128" s="1"/>
+      <c r="D128" s="1"/>
+      <c r="E128" s="1"/>
     </row>
     <row r="129" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B129" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="C129" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="D129" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="E129" s="2" t="s">
-        <v>56</v>
+      <c r="C129" s="1"/>
+      <c r="D129" s="1"/>
+      <c r="E129" s="1" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="130" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C130" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="D130" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="E130" s="1" t="s">
-        <v>237</v>
-      </c>
+      <c r="C130" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D130" s="1"/>
+      <c r="E130" s="1"/>
     </row>
     <row r="131" spans="2:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B131" s="5" t="s">
-        <v>342</v>
-      </c>
-      <c r="C131" s="3"/>
-      <c r="D131" s="3"/>
-      <c r="E131" s="3"/>
+        <v>127</v>
+      </c>
     </row>
     <row r="132" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B132" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="133" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C133" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="134" spans="2:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B134" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="C134" s="3"/>
+      <c r="D134" s="3"/>
+      <c r="E134" s="3"/>
+    </row>
+    <row r="135" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B135" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="C135" s="1"/>
+      <c r="D135" s="1"/>
+      <c r="E135" s="1"/>
+    </row>
+    <row r="136" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C136" s="1"/>
+      <c r="D136" s="1"/>
+      <c r="E136" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="137" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C137" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D137" s="1"/>
+      <c r="E137" s="1"/>
+    </row>
+    <row r="138" spans="2:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B138" s="5" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="139" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B139" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="140" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C140" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="141" spans="2:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B141" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="C141" s="3"/>
+      <c r="D141" s="3"/>
+      <c r="E141" s="3"/>
+    </row>
+    <row r="142" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B142" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="C142" s="1"/>
+      <c r="D142" s="1"/>
+      <c r="E142" s="1"/>
+    </row>
+    <row r="143" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C143" s="1"/>
+      <c r="D143" s="1"/>
+      <c r="E143" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="144" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C144" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D144" s="1"/>
+      <c r="E144" s="1"/>
+    </row>
+    <row r="145" spans="2:6" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B145" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="146" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B146" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="147" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B147" s="6" t="s">
         <v>346</v>
       </c>
-      <c r="C132" s="1"/>
-      <c r="D132" s="1"/>
-      <c r="E132" s="1"/>
-    </row>
-    <row r="133" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C133" s="1"/>
-      <c r="D133" s="1"/>
-      <c r="E133" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="134" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C134" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="D134" s="1"/>
-      <c r="E134" s="1"/>
-    </row>
-    <row r="135" spans="2:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B135" s="5" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="136" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B136" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="137" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B137" s="6" t="s">
+    </row>
+    <row r="148" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B148" s="6" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="149" spans="2:6" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B149" s="5" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="150" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B150" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="151" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B151" s="6" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="138" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B138" s="6" t="s">
+    <row r="152" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B152" s="6" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="139" spans="2:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B139" s="5" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="140" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B140" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="141" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B141" s="6" t="s">
+    <row r="153" spans="2:6" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B153" s="5" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="154" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B154" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="155" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B155" s="6" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="142" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B142" s="6" t="s">
+    <row r="156" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B156" s="6" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="143" spans="2:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B143" s="5" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="144" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B144" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="145" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B145" s="6" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="146" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B146" s="6" t="s">
-        <v>351</v>
-      </c>
-      <c r="C146" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D146" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="E146" s="1" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="147" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C147" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="D147" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="E147" s="1" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="148" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C148" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="D148" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="E148" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="F148" s="1"/>
-    </row>
-    <row r="149" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C149" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D149" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="E149" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="F149" s="1"/>
-    </row>
-    <row r="150" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C150" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="D150" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="E150" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="F150" s="1"/>
-    </row>
-    <row r="151" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C151" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="D151" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="E151" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="F151" s="1"/>
-    </row>
-    <row r="152" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C152" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D152" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="E152" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="F152" s="1"/>
-    </row>
-    <row r="153" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C153" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="D153" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="E153" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="F153" s="1"/>
-    </row>
-    <row r="154" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C154" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="D154" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="E154" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="F154" s="1"/>
-    </row>
-    <row r="155" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C155" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D155" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="E155" s="1"/>
-      <c r="F155" s="1"/>
-    </row>
-    <row r="156" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C156" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="D156" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="E156" s="1"/>
-      <c r="F156" s="1"/>
+        <v>185</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="E156" s="1" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="157" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C157" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="D157" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="E157" s="1"/>
-      <c r="F157" s="1"/>
+        <v>186</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="E157" s="1" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="158" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C158" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="D158" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="E158" s="1"/>
+        <v>187</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>236</v>
+      </c>
       <c r="F158" s="1"/>
     </row>
-    <row r="159" spans="2:6" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B159" s="5" t="s">
-        <v>213</v>
-      </c>
+    <row r="159" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C159" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="E159" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F159" s="1"/>
     </row>
     <row r="160" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B160" s="1" t="s">
-        <v>52</v>
-      </c>
+      <c r="C160" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="E160" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F160" s="1"/>
     </row>
     <row r="161" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B161" s="1" t="s">
-        <v>53</v>
-      </c>
+      <c r="C161" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="E161" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F161" s="1"/>
     </row>
     <row r="162" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B162" s="1" t="s">
-        <v>54</v>
-      </c>
+      <c r="C162" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="E162" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="F162" s="1"/>
     </row>
     <row r="163" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B163" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C163" s="2" t="s">
-        <v>48</v>
+      <c r="C163" s="1" t="s">
+        <v>186</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E163" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F163" s="2" t="s">
-        <v>56</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="E163" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="F163" s="1"/>
     </row>
     <row r="164" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B164" s="1"/>
       <c r="C164" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="D164" s="1" t="s">
-        <v>244</v>
+        <v>187</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>257</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="F164" s="1" t="s">
-        <v>242</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="F164" s="1"/>
     </row>
     <row r="165" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C165" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="D165" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="E165" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="F165" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="166" spans="2:6" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B166" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="C166" s="3"/>
-      <c r="D166" s="3"/>
-      <c r="E166" s="3"/>
-      <c r="F166" s="3"/>
+        <v>185</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E165" s="1"/>
+      <c r="F165" s="1"/>
+    </row>
+    <row r="166" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C166" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E166" s="1"/>
+      <c r="F166" s="1"/>
     </row>
     <row r="167" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B167" s="1" t="s">
-        <v>247</v>
-      </c>
+      <c r="C167" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E167" s="1"/>
+      <c r="F167" s="1"/>
     </row>
     <row r="168" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B168" s="1" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="169" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B169" s="1" t="s">
-        <v>249</v>
+      <c r="C168" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E168" s="1"/>
+      <c r="F168" s="1"/>
+    </row>
+    <row r="169" spans="2:6" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B169" s="5" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="170" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B170" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="C170" s="1"/>
-      <c r="D170" s="1"/>
+        <v>52</v>
+      </c>
     </row>
     <row r="171" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="E171" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="F171" s="1" t="s">
+      <c r="B171" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="172" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B172" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="173" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B173" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E173" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F173" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="174" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B174" s="1"/>
+      <c r="C174" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D174" s="1" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="172" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C172" s="1"/>
-      <c r="D172" s="1"/>
-      <c r="E172" s="1" t="s">
+      <c r="E174" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="F174" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="175" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C175" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="F172" s="1" t="s">
+      <c r="D175" s="1" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="173" spans="2:6" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B173" s="5" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="174" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B174" s="1" t="s">
+      <c r="E175" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="F175" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="176" spans="2:6" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B176" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="C176" s="3"/>
+      <c r="D176" s="3"/>
+      <c r="E176" s="3"/>
+      <c r="F176" s="3"/>
+    </row>
+    <row r="177" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B177" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="178" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B178" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="179" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B179" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="180" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B180" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C180" s="1"/>
+      <c r="D180" s="1"/>
+    </row>
+    <row r="181" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E181" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="F181" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="182" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C182" s="1"/>
+      <c r="D182" s="1"/>
+      <c r="E182" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="F182" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="183" spans="2:6" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B183" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="184" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B184" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="175" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C175" s="2" t="s">
+    <row r="185" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C185" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D175" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E175" s="2" t="s">
+      <c r="D185" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E185" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="F175" s="2" t="s">
+      <c r="F185" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="176" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C176" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="D176" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="E176" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="F176" s="1" t="s">
+    <row r="186" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C186" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D186" s="1" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C177" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="D177" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="E177" s="1" t="s">
+      <c r="E186" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="F186" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="187" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C187" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="F177" s="1" t="s">
+      <c r="D187" s="1" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="178" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B178" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="C178" s="3"/>
-      <c r="D178" s="3"/>
-      <c r="E178" s="3"/>
-      <c r="F178" s="3"/>
-    </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B179" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="C179" s="1"/>
-      <c r="D179" s="1"/>
-    </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E180" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="F180" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C181" s="1"/>
-      <c r="D181" s="1"/>
-      <c r="E181" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="F181" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="182" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B182" s="5" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A183" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A184" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B184" s="4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A185" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="B185" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A186" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="B186" s="4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A187" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="B187" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C187" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D187" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E187" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="F187" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C188" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="D188" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="E188" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="F188" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="G188" s="1"/>
-    </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D189" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="E189" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="F189" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="G189" s="1"/>
-    </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C190" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="D190" s="1"/>
+      <c r="E187" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="F187" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="188" spans="2:6" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B188" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="C188" s="3"/>
+      <c r="D188" s="3"/>
+      <c r="E188" s="3"/>
+      <c r="F188" s="3"/>
+    </row>
+    <row r="189" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B189" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C189" s="1"/>
+      <c r="D189" s="1"/>
+    </row>
+    <row r="190" spans="2:6" x14ac:dyDescent="0.2">
       <c r="E190" s="1" t="s">
-        <v>252</v>
+        <v>185</v>
       </c>
       <c r="F190" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="G190" s="1"/>
-    </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="191" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C191" s="1"/>
       <c r="D191" s="1"/>
       <c r="E191" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="F191" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="192" spans="2:6" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B192" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A193" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A194" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B194" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A195" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A196" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B196" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A197" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D197" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E197" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="F197" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C198" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="D198" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="E198" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="F198" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="G198" s="1"/>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D199" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="E199" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="F199" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="G199" s="1"/>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C200" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="D200" s="1"/>
+      <c r="E200" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="F200" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="G200" s="1"/>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C201" s="1"/>
+      <c r="D201" s="1"/>
+      <c r="E201" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="F201" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="G201" s="1"/>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A202" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C203" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="D203" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="F203" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="G203" s="1"/>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D204" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="F204" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="G204" s="1"/>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B205" s="1"/>
+      <c r="C205" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="D205" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="F205" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D206" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="F206" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="G206" s="1"/>
+    </row>
+    <row r="207" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B207" s="5" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A208" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A209" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B209" s="1"/>
+      <c r="C209" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="D209" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="E209" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="F209" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="G209" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="F191" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="G191" s="1"/>
-    </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A192" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="B192" s="1" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C193" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="D193" s="1" t="s">
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B210" s="1"/>
+      <c r="C210" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="D210" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="E210" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="F210" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="G210" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="F193" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="G193" s="1"/>
-    </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D194" s="1" t="s">
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B211" s="1"/>
+      <c r="C211" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D211" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="E211" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="F211" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="G211" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="F194" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="G194" s="1"/>
-    </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B195" s="1"/>
-      <c r="C195" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="D195" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="F195" s="1" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D196" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="F196" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="G196" s="1"/>
-    </row>
-    <row r="197" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B197" s="5" t="s">
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C212" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D212" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="E212" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="F212" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="G212" s="2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B213" s="5" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A214" s="2" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A215" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="C215" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A216" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="C216" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A217" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C217" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B218" s="5" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A198" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="B198" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A199" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="B199" s="1"/>
-      <c r="C199" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="D199" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="E199" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="F199" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="G199" s="2" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B200" s="1"/>
-      <c r="C200" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="D200" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="E200" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="F200" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="G200" s="2" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B201" s="1"/>
-      <c r="C201" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D201" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="E201" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="F201" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="G201" s="2" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C202" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D202" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="E202" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="F202" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="G202" s="2" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="203" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B203" s="5" t="s">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A219" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C220" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B221" s="5" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A204" s="2" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A205" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B205" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="C205" s="2" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A206" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B206" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="C206" s="1" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A207" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C207" s="2" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="208" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B208" s="5" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A209" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B209" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C210" s="2" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="211" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B211" s="5" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A212" s="2" t="s">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A222" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A213" s="2" t="s">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A223" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B213" s="1" t="s">
+      <c r="B223" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C213" s="2" t="s">
+      <c r="C223" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D213" s="2" t="s">
+      <c r="D223" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E213" s="2" t="s">
+      <c r="E223" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F213" s="2" t="s">
+      <c r="F223" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C214" s="1" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A215" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B215" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C216" s="1" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A217" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="B217" s="1" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A218" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C218" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="D218" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="E218" s="1" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A219" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C219" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="D219" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="E219" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="F219" s="1" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C220" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="D220" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="E220" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="F220" s="1" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C221" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="D221" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="E221" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="F221" s="1" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C222" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="D222" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="E222" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="F222" s="1" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A223" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="B223" s="1" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A224" s="2" t="s">
-        <v>112</v>
-      </c>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C224" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="D224" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="E224" s="1" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A225" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C225" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="D225" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="E225" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="F225" s="1" t="s">
-        <v>307</v>
+        <v>70</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C226" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="D226" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A227" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A228" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C228" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="D228" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="E228" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A229" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C229" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="D229" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="E229" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="E226" s="1" t="s">
+      <c r="F229" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C230" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="D230" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="E230" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="F230" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C231" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="D231" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="E231" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="F231" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C232" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="D232" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="E232" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="F226" s="1" t="s">
+      <c r="F232" s="1" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C227" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="D227" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="E227" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="F227" s="1" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C228" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="D228" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="E228" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="F228" s="1" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="229" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B229" s="5" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A230" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="B230" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B231" s="1"/>
-      <c r="C231" s="2" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="232" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B232" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="C232" s="3"/>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A233" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A234" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C234" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="D234" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="E234" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A235" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C235" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="D235" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="E235" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="F235" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C236" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="D236" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="E236" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="F236" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C237" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="D237" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="E237" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="F237" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C238" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="D238" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="E238" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="F238" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B239" s="5" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A240" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B240" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B241" s="1"/>
+      <c r="C241" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B242" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="C242" s="3"/>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A243" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B233" s="1" t="s">
+      <c r="B243" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C234" s="2" t="s">
-        <v>190</v>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C244" s="2" t="s">
+        <v>188</v>
       </c>
     </row>
   </sheetData>

--- a/P4E_psuedo_instruction_set.xlsx
+++ b/P4E_psuedo_instruction_set.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\P4EngineAssembler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B41CBF48-DD4E-4471-ACAB-9CA456BE7088}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B8A8585-1851-4070-9EAD-2C65FE4D6831}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-2475" windowWidth="38640" windowHeight="21840" activeTab="2" xr2:uid="{87164962-7B7D-4BAA-98E0-B9A8D7C47112}"/>
   </bookViews>
@@ -1380,7 +1380,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C217" authorId="0" shapeId="0" xr:uid="{DFB4FAA4-43F6-4B75-ABE8-01CB5D2DA0F6}">
+    <comment ref="C225" authorId="0" shapeId="0" xr:uid="{DFB4FAA4-43F6-4B75-ABE8-01CB5D2DA0F6}">
       <text>
         <r>
           <rPr>
@@ -1411,7 +1411,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1487" uniqueCount="505">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1501" uniqueCount="507">
   <si>
     <t>isr SHiFT</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -6520,6 +6520,70 @@
   </si>
   <si>
     <t>ADD data from phv / cond / poff / plen with temp register ( Unsigned )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PHV {</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> off9 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 32 / 64 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>} ;</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TMP ;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -11074,11 +11138,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{988C78EB-4E00-466C-9BD2-B10965380DEB}">
-  <dimension ref="A1:I244"/>
+  <dimension ref="A1:I252"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A114" sqref="A114"/>
+      <pane ySplit="1" topLeftCell="A173" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B192" sqref="B192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -13151,445 +13215,518 @@
       <c r="G201" s="1"/>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A202" s="2" t="s">
+      <c r="C202" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="D202" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="E202" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="F202" s="1"/>
+      <c r="G202" s="1"/>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D203" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="E203" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="F203" s="1"/>
+      <c r="G203" s="1"/>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C204" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="D204" s="1"/>
+      <c r="E204" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="F204" s="1"/>
+      <c r="G204" s="1"/>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C205" s="1"/>
+      <c r="D205" s="1"/>
+      <c r="E205" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="F205" s="1"/>
+      <c r="G205" s="1"/>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A206" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="B202" s="1" t="s">
+      <c r="B206" s="1" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C203" s="1" t="s">
+      <c r="G206" s="1"/>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C207" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="D203" s="1" t="s">
+      <c r="D207" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="F203" s="1" t="s">
+      <c r="F207" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="G203" s="1"/>
-    </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D204" s="1" t="s">
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D208" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="F204" s="1" t="s">
+      <c r="F208" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="G204" s="1"/>
-    </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B205" s="1"/>
-      <c r="C205" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="D205" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="F205" s="1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D206" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="F206" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="G206" s="1"/>
-    </row>
-    <row r="207" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B207" s="5" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A208" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="B208" s="1" t="s">
-        <v>223</v>
-      </c>
+      <c r="G208" s="1"/>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A209" s="2" t="s">
-        <v>224</v>
-      </c>
       <c r="B209" s="1"/>
       <c r="C209" s="1" t="s">
-        <v>239</v>
+        <v>289</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="E209" s="1" t="s">
-        <v>251</v>
+        <v>190</v>
       </c>
       <c r="F209" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="G209" s="2" t="s">
-        <v>252</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="G209" s="1"/>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B210" s="1"/>
-      <c r="C210" s="1" t="s">
-        <v>239</v>
-      </c>
       <c r="D210" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="E210" s="1" t="s">
-        <v>251</v>
+        <v>190</v>
       </c>
       <c r="F210" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="G210" s="2" t="s">
-        <v>252</v>
+        <v>290</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B211" s="1"/>
       <c r="C211" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="D211" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="E211" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="F211" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="G211" s="2" t="s">
-        <v>252</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="D211" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="F211" s="1"/>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C212" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="D212" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="E212" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="F212" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="G212" s="2" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="213" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B213" s="5" t="s">
-        <v>216</v>
-      </c>
+      <c r="D212" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="F212" s="1"/>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C213" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="D213" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="F213" s="1"/>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A214" s="2" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A215" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B215" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="C215" s="2" t="s">
-        <v>188</v>
+      <c r="D214" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="G214" s="1"/>
+    </row>
+    <row r="215" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B215" s="5" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A216" s="2" t="s">
-        <v>101</v>
+        <v>223</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="C216" s="1" t="s">
-        <v>287</v>
+        <v>223</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A217" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C217" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="218" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B218" s="5" t="s">
-        <v>217</v>
+        <v>224</v>
+      </c>
+      <c r="B217" s="1"/>
+      <c r="C217" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="D217" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="E217" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="F217" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="G217" s="2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B218" s="1"/>
+      <c r="C218" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="D218" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="E218" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="F218" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="G218" s="2" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A219" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B219" s="1" t="s">
-        <v>61</v>
+      <c r="B219" s="1"/>
+      <c r="C219" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D219" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="E219" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="F219" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="G219" s="2" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C220" s="2" t="s">
-        <v>188</v>
+      <c r="C220" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D220" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="E220" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="F220" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="G220" s="2" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="221" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B221" s="5" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A222" s="2" t="s">
-        <v>68</v>
+        <v>353</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A223" s="2" t="s">
-        <v>69</v>
+        <v>100</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>63</v>
+        <v>351</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D223" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E223" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F223" s="2" t="s">
-        <v>67</v>
+        <v>188</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A224" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>352</v>
+      </c>
       <c r="C224" s="1" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A225" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B225" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C226" s="1" t="s">
-        <v>294</v>
+        <v>102</v>
+      </c>
+      <c r="C225" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B226" s="5" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A227" s="2" t="s">
-        <v>387</v>
+        <v>62</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>385</v>
+        <v>61</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A228" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C228" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="D228" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="E228" s="1" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A229" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C229" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="D229" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="E229" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="F229" s="1" t="s">
-        <v>305</v>
+      <c r="C228" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B229" s="5" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C230" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="D230" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="E230" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="F230" s="1" t="s">
-        <v>306</v>
+      <c r="A230" s="2" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C231" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="D231" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="E231" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="F231" s="1" t="s">
-        <v>307</v>
+      <c r="A231" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C231" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D231" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E231" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F231" s="2" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C232" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="D232" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="E232" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="F232" s="1" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A233" s="2" t="s">
-        <v>387</v>
+        <v>70</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>386</v>
+        <v>64</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A234" s="2" t="s">
-        <v>111</v>
-      </c>
       <c r="C234" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="D234" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="E234" s="1" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A235" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C235" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="D235" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="E235" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A236" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C236" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="D236" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="E236" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A237" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C237" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="D237" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="E237" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="F235" s="1" t="s">
+      <c r="F237" s="1" t="s">
         <v>305</v>
-      </c>
-    </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C236" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="D236" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="E236" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="F236" s="1" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C237" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="D237" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="E237" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="F237" s="1" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C238" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="D238" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="E238" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="F238" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C239" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="D239" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="E239" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="F239" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C240" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="D240" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="E240" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="F240" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A241" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="B241" s="1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A242" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C242" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="D238" s="1" t="s">
+      <c r="D242" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="E238" s="1" t="s">
+      <c r="E242" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A243" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C243" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="D243" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="E243" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="F243" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C244" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="D244" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="E244" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="F244" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C245" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="D245" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="E245" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="F245" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C246" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="D246" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="E246" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="F238" s="1" t="s">
+      <c r="F246" s="1" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="239" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B239" s="5" t="s">
+    <row r="247" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B247" s="5" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A240" s="2" t="s">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A248" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B240" s="1" t="s">
+      <c r="B248" s="1" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B241" s="1"/>
-      <c r="C241" s="2" t="s">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B249" s="1"/>
+      <c r="C249" s="2" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="242" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B242" s="5" t="s">
+    <row r="250" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B250" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="C242" s="3"/>
-    </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A243" s="2" t="s">
+      <c r="C250" s="3"/>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A251" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B243" s="1" t="s">
+      <c r="B251" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C244" s="2" t="s">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C252" s="2" t="s">
         <v>188</v>
       </c>
     </row>

--- a/P4E_psuedo_instruction_set.xlsx
+++ b/P4E_psuedo_instruction_set.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\P4EngineAssembler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B8A8585-1851-4070-9EAD-2C65FE4D6831}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4396100-8556-47C9-85DB-DEC240B92611}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-2475" windowWidth="38640" windowHeight="21840" activeTab="2" xr2:uid="{87164962-7B7D-4BAA-98E0-B9A8D7C47112}"/>
   </bookViews>
@@ -1411,7 +1411,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1501" uniqueCount="507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1501" uniqueCount="508">
   <si>
     <t>isr SHiFT</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -6584,6 +6584,23 @@
   </si>
   <si>
     <t>TMP ;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>src_len</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (1-8) } ；</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -11141,8 +11158,8 @@
   <dimension ref="A1:I252"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A173" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B192" sqref="B192"/>
+      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B113" sqref="B113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -12378,7 +12395,7 @@
         <v>269</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>268</v>
+        <v>507</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.2">
@@ -12494,7 +12511,7 @@
         <v>269</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>268</v>
+        <v>507</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.2">

--- a/P4E_psuedo_instruction_set.xlsx
+++ b/P4E_psuedo_instruction_set.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\P4EngineAssembler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4396100-8556-47C9-85DB-DEC240B92611}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68C8ECB3-C0D6-4DD0-B632-0AE52BA81B3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-2475" windowWidth="38640" windowHeight="21840" activeTab="2" xr2:uid="{87164962-7B7D-4BAA-98E0-B9A8D7C47112}"/>
+    <workbookView xWindow="28680" yWindow="-2475" windowWidth="38640" windowHeight="21840" xr2:uid="{87164962-7B7D-4BAA-98E0-B9A8D7C47112}"/>
   </bookViews>
   <sheets>
     <sheet name="parser" sheetId="1" r:id="rId1"/>
@@ -580,7 +580,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D178" authorId="0" shapeId="0" xr:uid="{10355003-BB36-4D9F-BEF6-AC796CED51BC}">
+    <comment ref="D172" authorId="0" shapeId="0" xr:uid="{10355003-BB36-4D9F-BEF6-AC796CED51BC}">
       <text>
         <r>
           <rPr>
@@ -606,7 +606,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F178" authorId="0" shapeId="0" xr:uid="{EADD36A3-0C54-43FE-AD07-DAE0F1C398C8}">
+    <comment ref="F172" authorId="0" shapeId="0" xr:uid="{EADD36A3-0C54-43FE-AD07-DAE0F1C398C8}">
       <text>
         <r>
           <rPr>
@@ -632,7 +632,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D179" authorId="0" shapeId="0" xr:uid="{AD2C89F3-2621-4DC3-B2F0-4EEE583A6F75}">
+    <comment ref="D173" authorId="0" shapeId="0" xr:uid="{AD2C89F3-2621-4DC3-B2F0-4EEE583A6F75}">
       <text>
         <r>
           <rPr>
@@ -658,7 +658,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F180" authorId="0" shapeId="0" xr:uid="{E9CC35BA-90D8-4E68-A63E-1BDF886428EA}">
+    <comment ref="F174" authorId="0" shapeId="0" xr:uid="{E9CC35BA-90D8-4E68-A63E-1BDF886428EA}">
       <text>
         <r>
           <rPr>
@@ -684,7 +684,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D182" authorId="0" shapeId="0" xr:uid="{50FC7ECC-28FD-4D49-9E10-DC3BCC6B4269}">
+    <comment ref="D176" authorId="0" shapeId="0" xr:uid="{50FC7ECC-28FD-4D49-9E10-DC3BCC6B4269}">
       <text>
         <r>
           <rPr>
@@ -710,7 +710,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F183" authorId="0" shapeId="0" xr:uid="{149FA3A0-4084-461C-8457-384C4EC1B272}">
+    <comment ref="F177" authorId="0" shapeId="0" xr:uid="{149FA3A0-4084-461C-8457-384C4EC1B272}">
       <text>
         <r>
           <rPr>
@@ -1411,7 +1411,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1501" uniqueCount="508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1494" uniqueCount="501">
   <si>
     <t>isr SHiFT</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1461,18 +1461,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">    NeXT Default</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">    NeXT Header</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">    NeXT Payload</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>(short description)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1973,10 +1965,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>before being send to search tcam entry</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>(value to be compred)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2073,62 +2061,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>unsgined version:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SNE(L)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SGT(L)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SLT(L)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SGE(L)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SLE(L)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SNEU(L)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SGTU(L)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SLTU(L)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SGEU(L)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SLEU(L)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>NXTH(L)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>NXTP(L)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NXTD(L)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>RET</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2923,14 +2859,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SEQ(L)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SEQU(L)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TMP</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -6601,6 +6529,50 @@
       </rPr>
       <t xml:space="preserve"> (1-8) } ；</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNE(U)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SGT(U)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SLT(U)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SEQ(U)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SGE(U)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SLE(U)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>before being send to search tcam entry (Unsigned)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NXTPL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NXTDL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    NeXT Payload with Last flag set</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    NeXT Default with Last flag set</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7062,16 +7034,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA14F7B7-5F50-4FFB-AE20-84853F321386}">
-  <dimension ref="A1:I196"/>
+  <dimension ref="A1:I190"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D131" sqref="D131"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A135" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B179" sqref="B179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="37" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="46.375" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30.375" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.375" style="2" bestFit="1" customWidth="1"/>
@@ -7085,13 +7057,13 @@
   <sheetData>
     <row r="1" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D1" s="11"/>
       <c r="E1" s="11"/>
@@ -7102,27 +7074,27 @@
     </row>
     <row r="2" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B2" s="10" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>309</v>
+        <v>291</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -7131,16 +7103,16 @@
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
-        <v>400</v>
+        <v>382</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>442</v>
+        <v>424</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>402</v>
+        <v>384</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -7149,16 +7121,16 @@
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
-        <v>400</v>
+        <v>382</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>442</v>
+        <v>424</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>403</v>
+        <v>385</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -7167,10 +7139,10 @@
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>400</v>
+        <v>382</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>443</v>
+        <v>425</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -7190,103 +7162,103 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>309</v>
+        <v>291</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="G8" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
-        <v>400</v>
+        <v>382</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>267</v>
+        <v>249</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>444</v>
+        <v>426</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>445</v>
+        <v>427</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>442</v>
+        <v>424</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>402</v>
+        <v>384</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
-        <v>400</v>
+        <v>382</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>267</v>
+        <v>249</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>444</v>
+        <v>426</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>445</v>
+        <v>427</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>442</v>
+        <v>424</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>403</v>
+        <v>385</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B11" s="1"/>
       <c r="C11" s="1" t="s">
-        <v>400</v>
+        <v>382</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>267</v>
+        <v>249</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>444</v>
+        <v>426</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>445</v>
+        <v>427</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>443</v>
+        <v>425</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -7294,74 +7266,74 @@
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B12" s="1"/>
       <c r="C12" s="1" t="s">
-        <v>400</v>
+        <v>382</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>444</v>
+        <v>426</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>445</v>
+        <v>427</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>442</v>
+        <v>424</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>402</v>
+        <v>384</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
-        <v>400</v>
+        <v>382</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>444</v>
+        <v>426</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>445</v>
+        <v>427</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>442</v>
+        <v>424</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>403</v>
+        <v>385</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
-        <v>400</v>
+        <v>382</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>444</v>
+        <v>426</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>445</v>
+        <v>427</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>443</v>
+        <v>425</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
     <row r="15" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="10" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -7373,88 +7345,88 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="F16" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I16" s="1"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B17" s="1"/>
       <c r="C17" s="1" t="s">
-        <v>267</v>
+        <v>249</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>444</v>
+        <v>426</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>445</v>
+        <v>427</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>442</v>
+        <v>424</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>402</v>
+        <v>384</v>
       </c>
       <c r="I17" s="1"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B18" s="1"/>
       <c r="C18" s="1" t="s">
-        <v>267</v>
+        <v>249</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>444</v>
+        <v>426</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>445</v>
+        <v>427</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>442</v>
+        <v>424</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>403</v>
+        <v>385</v>
       </c>
       <c r="I18" s="1"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B19" s="1"/>
       <c r="C19" s="1" t="s">
-        <v>267</v>
+        <v>249</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>444</v>
+        <v>426</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>445</v>
+        <v>427</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>443</v>
+        <v>425</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
@@ -7463,60 +7435,60 @@
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B20" s="1"/>
       <c r="C20" s="1" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>444</v>
+        <v>426</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>445</v>
+        <v>427</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>442</v>
+        <v>424</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>402</v>
+        <v>384</v>
       </c>
       <c r="I20" s="1"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B21" s="1"/>
       <c r="C21" s="1" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>444</v>
+        <v>426</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>445</v>
+        <v>427</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>442</v>
+        <v>424</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>403</v>
+        <v>385</v>
       </c>
       <c r="I21" s="1"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B22" s="1"/>
       <c r="C22" s="1" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>444</v>
+        <v>426</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>445</v>
+        <v>427</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>443</v>
+        <v>425</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
@@ -7534,25 +7506,25 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>398</v>
+        <v>380</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>391</v>
+        <v>373</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>390</v>
+        <v>372</v>
       </c>
       <c r="I24" s="1"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>397</v>
+        <v>379</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>392</v>
+        <v>374</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>390</v>
+        <v>372</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -7570,7 +7542,7 @@
     </row>
     <row r="27" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B27" s="10" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -7582,91 +7554,91 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C28" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D28" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="F28" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I28" s="1"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1" t="s">
-        <v>267</v>
+        <v>249</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>444</v>
+        <v>426</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>445</v>
+        <v>427</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>442</v>
+        <v>424</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>402</v>
+        <v>384</v>
       </c>
       <c r="I29" s="1"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B30" s="1"/>
       <c r="C30" s="1" t="s">
-        <v>267</v>
+        <v>249</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>444</v>
+        <v>426</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>445</v>
+        <v>427</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>442</v>
+        <v>424</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>403</v>
+        <v>385</v>
       </c>
       <c r="I30" s="1"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B31" s="1"/>
       <c r="C31" s="1" t="s">
-        <v>267</v>
+        <v>249</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>444</v>
+        <v>426</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>445</v>
+        <v>427</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>443</v>
+        <v>425</v>
       </c>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
@@ -7675,60 +7647,60 @@
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B32" s="1"/>
       <c r="C32" s="1" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>444</v>
+        <v>426</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>445</v>
+        <v>427</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>442</v>
+        <v>424</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>402</v>
+        <v>384</v>
       </c>
       <c r="I32" s="1"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B33" s="1"/>
       <c r="C33" s="1" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>444</v>
+        <v>426</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>445</v>
+        <v>427</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>442</v>
+        <v>424</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>403</v>
+        <v>385</v>
       </c>
       <c r="I33" s="1"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B34" s="1"/>
       <c r="C34" s="1" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>444</v>
+        <v>426</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>445</v>
+        <v>427</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>443</v>
+        <v>425</v>
       </c>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
@@ -7746,25 +7718,25 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>395</v>
+        <v>377</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>393</v>
+        <v>375</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>390</v>
+        <v>372</v>
       </c>
       <c r="I36" s="1"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>396</v>
+        <v>378</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>394</v>
+        <v>376</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>390</v>
+        <v>372</v>
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
@@ -7782,7 +7754,7 @@
     </row>
     <row r="39" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B39" s="10" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
@@ -7794,10 +7766,10 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -7809,293 +7781,293 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B41" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C41" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="F41" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E41" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="G41" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
-        <v>267</v>
+        <v>249</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>444</v>
+        <v>426</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>445</v>
+        <v>427</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>404</v>
+        <v>386</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>442</v>
+        <v>424</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>402</v>
+        <v>384</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
-        <v>267</v>
+        <v>249</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>444</v>
+        <v>426</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>445</v>
+        <v>427</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>404</v>
+        <v>386</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>442</v>
+        <v>424</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>403</v>
+        <v>385</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
-        <v>267</v>
+        <v>249</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>444</v>
+        <v>426</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>445</v>
+        <v>427</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>404</v>
+        <v>386</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>443</v>
+        <v>425</v>
       </c>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>444</v>
+        <v>426</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>445</v>
+        <v>427</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>404</v>
+        <v>386</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>442</v>
+        <v>424</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>402</v>
+        <v>384</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>444</v>
+        <v>426</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>445</v>
+        <v>427</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>404</v>
+        <v>386</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>442</v>
+        <v>424</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>403</v>
+        <v>385</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>444</v>
+        <v>426</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>445</v>
+        <v>427</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>404</v>
+        <v>386</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>443</v>
+        <v>425</v>
       </c>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
-        <v>267</v>
+        <v>249</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>444</v>
+        <v>426</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>445</v>
+        <v>427</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>442</v>
+        <v>424</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>402</v>
+        <v>384</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
-        <v>267</v>
+        <v>249</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>444</v>
+        <v>426</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>445</v>
+        <v>427</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>442</v>
+        <v>424</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>403</v>
+        <v>385</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
-        <v>267</v>
+        <v>249</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>444</v>
+        <v>426</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>445</v>
+        <v>427</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>443</v>
+        <v>425</v>
       </c>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>444</v>
+        <v>426</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>445</v>
+        <v>427</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>442</v>
+        <v>424</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>402</v>
+        <v>384</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>444</v>
+        <v>426</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>445</v>
+        <v>427</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>442</v>
+        <v>424</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>403</v>
+        <v>385</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>444</v>
+        <v>426</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>445</v>
+        <v>427</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>443</v>
+        <v>425</v>
       </c>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
     </row>
     <row r="54" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B54" s="10" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
@@ -8107,22 +8079,22 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>311</v>
+        <v>293</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>310</v>
+        <v>292</v>
       </c>
       <c r="C55" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D55" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D55" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="E55" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
@@ -8130,20 +8102,20 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B56" s="1"/>
       <c r="C56" s="1" t="s">
-        <v>446</v>
+        <v>428</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>442</v>
+        <v>424</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>402</v>
+        <v>384</v>
       </c>
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
@@ -8152,16 +8124,16 @@
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B57" s="1"/>
       <c r="C57" s="1" t="s">
-        <v>446</v>
+        <v>428</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>442</v>
+        <v>424</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>403</v>
+        <v>385</v>
       </c>
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
@@ -8170,10 +8142,10 @@
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B58" s="1"/>
       <c r="C58" s="1" t="s">
-        <v>446</v>
+        <v>428</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>443</v>
+        <v>425</v>
       </c>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
@@ -8184,16 +8156,16 @@
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B59" s="1"/>
       <c r="C59" s="1" t="s">
-        <v>447</v>
+        <v>429</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>442</v>
+        <v>424</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>402</v>
+        <v>384</v>
       </c>
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
@@ -8202,16 +8174,16 @@
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B60" s="1"/>
       <c r="C60" s="1" t="s">
-        <v>447</v>
+        <v>429</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>442</v>
+        <v>424</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>403</v>
+        <v>385</v>
       </c>
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
@@ -8220,10 +8192,10 @@
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B61" s="1"/>
       <c r="C61" s="1" t="s">
-        <v>447</v>
+        <v>429</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>443</v>
+        <v>425</v>
       </c>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
@@ -8234,16 +8206,16 @@
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B62" s="1"/>
       <c r="C62" s="1" t="s">
-        <v>448</v>
+        <v>430</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>442</v>
+        <v>424</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>402</v>
+        <v>384</v>
       </c>
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
@@ -8252,16 +8224,16 @@
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B63" s="1"/>
       <c r="C63" s="1" t="s">
-        <v>448</v>
+        <v>430</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>442</v>
+        <v>424</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>403</v>
+        <v>385</v>
       </c>
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
@@ -8270,10 +8242,10 @@
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B64" s="1"/>
       <c r="C64" s="1" t="s">
-        <v>448</v>
+        <v>430</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>443</v>
+        <v>425</v>
       </c>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
@@ -8284,16 +8256,16 @@
     <row r="65" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B65" s="1"/>
       <c r="C65" s="1" t="s">
-        <v>449</v>
+        <v>431</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>442</v>
+        <v>424</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>402</v>
+        <v>384</v>
       </c>
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
@@ -8302,16 +8274,16 @@
     <row r="66" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B66" s="1"/>
       <c r="C66" s="1" t="s">
-        <v>449</v>
+        <v>431</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>442</v>
+        <v>424</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>403</v>
+        <v>385</v>
       </c>
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
@@ -8320,10 +8292,10 @@
     <row r="67" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B67" s="1"/>
       <c r="C67" s="1" t="s">
-        <v>449</v>
+        <v>431</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>443</v>
+        <v>425</v>
       </c>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
@@ -8334,16 +8306,16 @@
     <row r="68" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B68" s="1"/>
       <c r="C68" s="1" t="s">
-        <v>450</v>
+        <v>432</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>442</v>
+        <v>424</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>402</v>
+        <v>384</v>
       </c>
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
@@ -8352,16 +8324,16 @@
     <row r="69" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B69" s="1"/>
       <c r="C69" s="1" t="s">
-        <v>450</v>
+        <v>432</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>442</v>
+        <v>424</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>403</v>
+        <v>385</v>
       </c>
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
@@ -8370,10 +8342,10 @@
     <row r="70" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B70" s="1"/>
       <c r="C70" s="1" t="s">
-        <v>450</v>
+        <v>432</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>443</v>
+        <v>425</v>
       </c>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
@@ -8384,16 +8356,16 @@
     <row r="71" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B71" s="1"/>
       <c r="C71" s="1" t="s">
-        <v>451</v>
+        <v>433</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>442</v>
+        <v>424</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>402</v>
+        <v>384</v>
       </c>
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
@@ -8402,16 +8374,16 @@
     <row r="72" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B72" s="1"/>
       <c r="C72" s="1" t="s">
-        <v>451</v>
+        <v>433</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>442</v>
+        <v>424</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>403</v>
+        <v>385</v>
       </c>
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
@@ -8420,10 +8392,10 @@
     <row r="73" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B73" s="1"/>
       <c r="C73" s="1" t="s">
-        <v>451</v>
+        <v>433</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>443</v>
+        <v>425</v>
       </c>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
@@ -8434,16 +8406,16 @@
     <row r="74" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B74" s="1"/>
       <c r="C74" s="1" t="s">
-        <v>452</v>
+        <v>434</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>442</v>
+        <v>424</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>402</v>
+        <v>384</v>
       </c>
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
@@ -8452,16 +8424,16 @@
     <row r="75" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B75" s="1"/>
       <c r="C75" s="1" t="s">
-        <v>452</v>
+        <v>434</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>442</v>
+        <v>424</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>403</v>
+        <v>385</v>
       </c>
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
@@ -8470,10 +8442,10 @@
     <row r="76" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B76" s="1"/>
       <c r="C76" s="1" t="s">
-        <v>452</v>
+        <v>434</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>443</v>
+        <v>425</v>
       </c>
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
@@ -8484,16 +8456,16 @@
     <row r="77" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B77" s="1"/>
       <c r="C77" s="1" t="s">
-        <v>453</v>
+        <v>435</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>442</v>
+        <v>424</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>402</v>
+        <v>384</v>
       </c>
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
@@ -8502,16 +8474,16 @@
     <row r="78" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B78" s="1"/>
       <c r="C78" s="1" t="s">
-        <v>453</v>
+        <v>435</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>442</v>
+        <v>424</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>403</v>
+        <v>385</v>
       </c>
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
@@ -8520,10 +8492,10 @@
     <row r="79" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B79" s="1"/>
       <c r="C79" s="1" t="s">
-        <v>453</v>
+        <v>435</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>443</v>
+        <v>425</v>
       </c>
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
@@ -8534,16 +8506,16 @@
     <row r="80" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B80" s="1"/>
       <c r="C80" s="1" t="s">
-        <v>454</v>
+        <v>436</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>442</v>
+        <v>424</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>402</v>
+        <v>384</v>
       </c>
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
@@ -8552,16 +8524,16 @@
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B81" s="1"/>
       <c r="C81" s="1" t="s">
-        <v>454</v>
+        <v>436</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>442</v>
+        <v>424</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>403</v>
+        <v>385</v>
       </c>
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
@@ -8570,10 +8542,10 @@
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B82" s="1"/>
       <c r="C82" s="1" t="s">
-        <v>454</v>
+        <v>436</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>443</v>
+        <v>425</v>
       </c>
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
@@ -8584,16 +8556,16 @@
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B83" s="1"/>
       <c r="C83" s="1" t="s">
-        <v>455</v>
+        <v>437</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>442</v>
+        <v>424</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>402</v>
+        <v>384</v>
       </c>
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
@@ -8602,16 +8574,16 @@
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B84" s="1"/>
       <c r="C84" s="1" t="s">
-        <v>455</v>
+        <v>437</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>442</v>
+        <v>424</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>403</v>
+        <v>385</v>
       </c>
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
@@ -8620,10 +8592,10 @@
     <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B85" s="1"/>
       <c r="C85" s="1" t="s">
-        <v>455</v>
+        <v>437</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>443</v>
+        <v>425</v>
       </c>
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
@@ -8634,16 +8606,16 @@
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B86" s="1"/>
       <c r="C86" s="1" t="s">
-        <v>456</v>
+        <v>438</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>442</v>
+        <v>424</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>402</v>
+        <v>384</v>
       </c>
       <c r="G86" s="1"/>
       <c r="H86" s="1"/>
@@ -8652,16 +8624,16 @@
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B87" s="1"/>
       <c r="C87" s="1" t="s">
-        <v>456</v>
+        <v>438</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>442</v>
+        <v>424</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>403</v>
+        <v>385</v>
       </c>
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
@@ -8670,10 +8642,10 @@
     <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B88" s="1"/>
       <c r="C88" s="1" t="s">
-        <v>456</v>
+        <v>438</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>443</v>
+        <v>425</v>
       </c>
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
@@ -8684,16 +8656,16 @@
     <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B89" s="1"/>
       <c r="C89" s="1" t="s">
-        <v>457</v>
+        <v>439</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>442</v>
+        <v>424</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>402</v>
+        <v>384</v>
       </c>
       <c r="G89" s="1"/>
       <c r="H89" s="1"/>
@@ -8702,16 +8674,16 @@
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B90" s="1"/>
       <c r="C90" s="1" t="s">
-        <v>457</v>
+        <v>439</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>442</v>
+        <v>424</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>403</v>
+        <v>385</v>
       </c>
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
@@ -8720,10 +8692,10 @@
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B91" s="1"/>
       <c r="C91" s="1" t="s">
-        <v>457</v>
+        <v>439</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>443</v>
+        <v>425</v>
       </c>
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
@@ -8733,7 +8705,7 @@
     </row>
     <row r="92" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B92" s="10" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C92" s="3"/>
       <c r="D92" s="3"/>
@@ -8745,7 +8717,7 @@
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G93" s="1"/>
       <c r="H93" s="1"/>
@@ -8753,19 +8725,19 @@
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G94" s="1"/>
       <c r="H94" s="1"/>
@@ -8774,11 +8746,11 @@
     <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B95" s="1"/>
       <c r="C95" s="1" t="s">
-        <v>458</v>
+        <v>440</v>
       </c>
       <c r="D95" s="1"/>
       <c r="E95" s="1" t="s">
-        <v>459</v>
+        <v>441</v>
       </c>
       <c r="G95" s="1"/>
       <c r="H95" s="1"/>
@@ -8787,13 +8759,13 @@
     <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B96" s="1"/>
       <c r="C96" s="1" t="s">
-        <v>458</v>
+        <v>440</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>460</v>
+        <v>442</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>459</v>
+        <v>441</v>
       </c>
       <c r="G96" s="1"/>
       <c r="H96" s="1"/>
@@ -8801,10 +8773,10 @@
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
@@ -8816,11 +8788,11 @@
     <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B98" s="1"/>
       <c r="C98" s="1" t="s">
-        <v>458</v>
+        <v>440</v>
       </c>
       <c r="D98" s="1"/>
       <c r="E98" s="1" t="s">
-        <v>459</v>
+        <v>441</v>
       </c>
       <c r="G98" s="1"/>
       <c r="H98" s="1"/>
@@ -8829,13 +8801,13 @@
     <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B99" s="1"/>
       <c r="C99" s="1" t="s">
-        <v>458</v>
+        <v>440</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>460</v>
+        <v>442</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>459</v>
+        <v>441</v>
       </c>
       <c r="G99" s="1"/>
       <c r="H99" s="1"/>
@@ -8843,7 +8815,7 @@
     </row>
     <row r="100" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B100" s="10" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C100" s="3"/>
       <c r="D100" s="3"/>
@@ -8855,7 +8827,7 @@
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
@@ -8866,10 +8838,10 @@
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
@@ -8880,7 +8852,7 @@
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C103" s="2" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
@@ -8892,7 +8864,7 @@
     <row r="104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B104" s="1"/>
       <c r="C104" s="1" t="s">
-        <v>461</v>
+        <v>443</v>
       </c>
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
@@ -8903,7 +8875,7 @@
     </row>
     <row r="105" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B105" s="10" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C105" s="3"/>
       <c r="D105" s="3"/>
@@ -8915,7 +8887,7 @@
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
@@ -8926,10 +8898,10 @@
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
@@ -8940,7 +8912,7 @@
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C108" s="2" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="D108" s="1"/>
       <c r="E108" s="1"/>
@@ -8952,7 +8924,7 @@
     <row r="109" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B109" s="1"/>
       <c r="C109" s="1" t="s">
-        <v>461</v>
+        <v>443</v>
       </c>
       <c r="D109" s="1"/>
       <c r="E109" s="1"/>
@@ -8963,7 +8935,7 @@
     </row>
     <row r="110" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B110" s="10" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C110" s="3"/>
       <c r="D110" s="3"/>
@@ -8975,10 +8947,10 @@
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
@@ -8991,7 +8963,7 @@
     <row r="112" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B112" s="1"/>
       <c r="C112" s="1" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="D112" s="1"/>
       <c r="E112" s="1"/>
@@ -9002,7 +8974,7 @@
     </row>
     <row r="113" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B113" s="10" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C113" s="3"/>
       <c r="D113" s="3"/>
@@ -9017,16 +8989,16 @@
         <v>0</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>389</v>
+        <v>371</v>
       </c>
       <c r="F114" s="1"/>
       <c r="G114" s="1"/>
@@ -9036,7 +9008,7 @@
     <row r="115" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B115" s="1"/>
       <c r="C115" s="2" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="F115" s="1"/>
       <c r="G115" s="1"/>
@@ -9046,7 +9018,7 @@
     <row r="116" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B116" s="1"/>
       <c r="C116" s="1" t="s">
-        <v>462</v>
+        <v>444</v>
       </c>
       <c r="D116" s="1"/>
       <c r="F116" s="1"/>
@@ -9057,7 +9029,7 @@
     <row r="117" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B117" s="1"/>
       <c r="D117" s="1" t="s">
-        <v>463</v>
+        <v>445</v>
       </c>
       <c r="G117" s="1"/>
       <c r="H117" s="1"/>
@@ -9066,7 +9038,7 @@
     <row r="118" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B118" s="1"/>
       <c r="D118" s="1" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="G118" s="1"/>
       <c r="H118" s="1"/>
@@ -9075,7 +9047,7 @@
     <row r="119" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B119" s="1"/>
       <c r="D119" s="1" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="G119" s="1"/>
       <c r="H119" s="1"/>
@@ -9084,10 +9056,10 @@
     <row r="120" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B120" s="1"/>
       <c r="C120" s="1" t="s">
-        <v>464</v>
+        <v>446</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>463</v>
+        <v>445</v>
       </c>
       <c r="G120" s="1"/>
       <c r="H120" s="1"/>
@@ -9096,10 +9068,10 @@
     <row r="121" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B121" s="1"/>
       <c r="C121" s="1" t="s">
-        <v>464</v>
+        <v>446</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="G121" s="1"/>
       <c r="H121" s="1"/>
@@ -9108,10 +9080,10 @@
     <row r="122" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B122" s="1"/>
       <c r="C122" s="1" t="s">
-        <v>464</v>
+        <v>446</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="G122" s="1"/>
       <c r="H122" s="1"/>
@@ -9120,11 +9092,11 @@
     <row r="123" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B123" s="1"/>
       <c r="C123" s="1" t="s">
-        <v>465</v>
+        <v>447</v>
       </c>
       <c r="D123" s="1"/>
       <c r="E123" s="2" t="s">
-        <v>416</v>
+        <v>398</v>
       </c>
       <c r="G123" s="1"/>
       <c r="H123" s="1"/>
@@ -9133,13 +9105,13 @@
     <row r="124" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B124" s="1"/>
       <c r="C124" s="1" t="s">
-        <v>464</v>
+        <v>446</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>466</v>
+        <v>448</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>416</v>
+        <v>398</v>
       </c>
       <c r="G124" s="1"/>
       <c r="H124" s="1"/>
@@ -9148,13 +9120,13 @@
     <row r="125" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B125" s="1"/>
       <c r="C125" s="1" t="s">
-        <v>464</v>
+        <v>446</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>467</v>
+        <v>449</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>416</v>
+        <v>398</v>
       </c>
       <c r="G125" s="1"/>
       <c r="H125" s="1"/>
@@ -9163,13 +9135,13 @@
     <row r="126" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B126" s="1"/>
       <c r="C126" s="1" t="s">
-        <v>464</v>
+        <v>446</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>468</v>
+        <v>450</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>416</v>
+        <v>398</v>
       </c>
       <c r="G126" s="1"/>
       <c r="H126" s="1"/>
@@ -9177,7 +9149,7 @@
     </row>
     <row r="127" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B127" s="10" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C127" s="3"/>
       <c r="D127" s="3"/>
@@ -9189,19 +9161,19 @@
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F128" s="1"/>
       <c r="G128" s="1"/>
@@ -9211,10 +9183,10 @@
     <row r="129" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B129" s="1"/>
       <c r="C129" s="1" t="s">
-        <v>437</v>
+        <v>419</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>469</v>
+        <v>451</v>
       </c>
       <c r="F129" s="1"/>
       <c r="G129" s="1"/>
@@ -9224,10 +9196,10 @@
     <row r="130" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B130" s="1"/>
       <c r="C130" s="1" t="s">
-        <v>439</v>
+        <v>421</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>469</v>
+        <v>451</v>
       </c>
       <c r="F130" s="1"/>
       <c r="G130" s="1"/>
@@ -9237,13 +9209,13 @@
     <row r="131" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B131" s="1"/>
       <c r="C131" s="1" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>497</v>
+        <v>479</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>469</v>
+        <v>451</v>
       </c>
       <c r="F131" s="1"/>
       <c r="G131" s="1"/>
@@ -9253,10 +9225,10 @@
     <row r="132" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B132" s="1"/>
       <c r="C132" s="1" t="s">
-        <v>440</v>
+        <v>422</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>469</v>
+        <v>451</v>
       </c>
       <c r="F132" s="1"/>
       <c r="G132" s="1"/>
@@ -9265,7 +9237,7 @@
     </row>
     <row r="133" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B133" s="10" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C133" s="3"/>
       <c r="D133" s="3"/>
@@ -9280,7 +9252,7 @@
         <v>1</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
@@ -9292,22 +9264,22 @@
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A135" s="8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>485</v>
+        <v>467</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="G135" s="1"/>
       <c r="H135" s="1"/>
@@ -9316,16 +9288,16 @@
     <row r="136" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B136" s="1"/>
       <c r="C136" s="1" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>483</v>
+        <v>465</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>486</v>
+        <v>468</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>484</v>
+        <v>466</v>
       </c>
       <c r="G136" s="1"/>
       <c r="H136" s="1"/>
@@ -9334,16 +9306,16 @@
     <row r="137" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B137" s="1"/>
       <c r="C137" s="1" t="s">
-        <v>267</v>
+        <v>249</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>482</v>
+        <v>464</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>486</v>
+        <v>468</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>471</v>
+        <v>453</v>
       </c>
       <c r="G137" s="1"/>
       <c r="H137" s="1"/>
@@ -9352,16 +9324,16 @@
     <row r="138" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B138" s="1"/>
       <c r="C138" s="1" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>482</v>
+        <v>464</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>486</v>
+        <v>468</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>471</v>
+        <v>453</v>
       </c>
       <c r="G138" s="1"/>
       <c r="H138" s="1"/>
@@ -9369,7 +9341,7 @@
     </row>
     <row r="139" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B139" s="10" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C139" s="3"/>
       <c r="D139" s="3"/>
@@ -9384,7 +9356,7 @@
         <v>2</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
@@ -9396,22 +9368,22 @@
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A141" s="8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>485</v>
+        <v>467</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="G141" s="1"/>
       <c r="H141" s="1"/>
@@ -9420,16 +9392,16 @@
     <row r="142" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B142" s="1"/>
       <c r="C142" s="1" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>483</v>
+        <v>465</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>481</v>
+        <v>463</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="G142" s="1"/>
       <c r="H142" s="1"/>
@@ -9438,16 +9410,16 @@
     <row r="143" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B143" s="1"/>
       <c r="C143" s="1" t="s">
-        <v>267</v>
+        <v>249</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>482</v>
+        <v>464</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>481</v>
+        <v>463</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>471</v>
+        <v>453</v>
       </c>
       <c r="G143" s="1"/>
       <c r="H143" s="1"/>
@@ -9456,16 +9428,16 @@
     <row r="144" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B144" s="1"/>
       <c r="C144" s="1" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>482</v>
+        <v>464</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>481</v>
+        <v>463</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>471</v>
+        <v>453</v>
       </c>
       <c r="G144" s="1"/>
       <c r="H144" s="1"/>
@@ -9473,7 +9445,7 @@
     </row>
     <row r="145" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B145" s="10" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C145" s="3"/>
       <c r="D145" s="3"/>
@@ -9488,29 +9460,29 @@
         <v>3</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="H146" s="1"/>
       <c r="I146" s="1"/>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A147" s="8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>485</v>
+        <v>467</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="H147" s="1"/>
       <c r="I147" s="1"/>
@@ -9518,16 +9490,16 @@
     <row r="148" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B148" s="1"/>
       <c r="C148" s="1" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>483</v>
+        <v>465</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>481</v>
+        <v>463</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>484</v>
+        <v>466</v>
       </c>
       <c r="G148" s="1"/>
       <c r="H148" s="1"/>
@@ -9536,16 +9508,16 @@
     <row r="149" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B149" s="1"/>
       <c r="C149" s="1" t="s">
-        <v>267</v>
+        <v>249</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>482</v>
+        <v>464</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>481</v>
+        <v>463</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>471</v>
+        <v>453</v>
       </c>
       <c r="G149" s="1"/>
       <c r="H149" s="1"/>
@@ -9554,16 +9526,16 @@
     <row r="150" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B150" s="1"/>
       <c r="C150" s="1" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>482</v>
+        <v>464</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>481</v>
+        <v>463</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>471</v>
+        <v>453</v>
       </c>
       <c r="G150" s="1"/>
       <c r="H150" s="1"/>
@@ -9571,7 +9543,7 @@
     </row>
     <row r="151" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B151" s="10" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C151" s="3"/>
       <c r="D151" s="3"/>
@@ -9586,7 +9558,7 @@
         <v>4</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
@@ -9599,7 +9571,7 @@
     <row r="153" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B153" s="1"/>
       <c r="C153" s="2" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="D153" s="1"/>
       <c r="E153" s="1"/>
@@ -9610,7 +9582,7 @@
     </row>
     <row r="154" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B154" s="10" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D154" s="3"/>
       <c r="E154" s="3"/>
@@ -9624,7 +9596,7 @@
         <v>5</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D155" s="1"/>
       <c r="E155" s="1"/>
@@ -9636,7 +9608,7 @@
     <row r="156" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B156" s="1"/>
       <c r="C156" s="2" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="D156" s="1"/>
       <c r="E156" s="1"/>
@@ -9647,7 +9619,7 @@
     </row>
     <row r="157" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B157" s="10" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D157" s="3"/>
       <c r="E157" s="3"/>
@@ -9661,7 +9633,7 @@
         <v>6</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D158" s="1"/>
       <c r="E158" s="1"/>
@@ -9673,7 +9645,7 @@
     <row r="159" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B159" s="1"/>
       <c r="C159" s="2" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="D159" s="1"/>
       <c r="E159" s="1"/>
@@ -9684,7 +9656,7 @@
     </row>
     <row r="160" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B160" s="10" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C160" s="3"/>
       <c r="D160" s="3"/>
@@ -9696,7 +9668,7 @@
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
@@ -9712,7 +9684,7 @@
         <v>7</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>170</v>
+        <v>490</v>
       </c>
       <c r="C162" s="1"/>
       <c r="D162" s="1"/>
@@ -9727,7 +9699,7 @@
         <v>8</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>171</v>
+        <v>491</v>
       </c>
       <c r="C163" s="1"/>
       <c r="D163" s="1"/>
@@ -9742,7 +9714,7 @@
         <v>9</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>172</v>
+        <v>492</v>
       </c>
       <c r="C164" s="1"/>
       <c r="D164" s="1"/>
@@ -9754,10 +9726,10 @@
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A165" s="2" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>264</v>
+        <v>493</v>
       </c>
       <c r="C165" s="1"/>
       <c r="D165" s="1"/>
@@ -9772,7 +9744,7 @@
         <v>10</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>173</v>
+        <v>494</v>
       </c>
       <c r="C166" s="1"/>
       <c r="D166" s="1"/>
@@ -9787,16 +9759,16 @@
         <v>11</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>174</v>
+        <v>495</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G167" s="1"/>
       <c r="H167" s="1"/>
@@ -9804,350 +9776,275 @@
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A168" s="2" t="s">
-        <v>144</v>
+        <v>496</v>
       </c>
       <c r="B168" s="1"/>
       <c r="C168" s="1" t="s">
-        <v>472</v>
+        <v>454</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>473</v>
+        <v>455</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="F168" s="1"/>
       <c r="G168" s="1"/>
       <c r="H168" s="1"/>
       <c r="I168" s="1"/>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A169" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="B169" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C169" s="1"/>
-      <c r="D169" s="1"/>
-      <c r="E169" s="1"/>
-      <c r="F169" s="1"/>
-      <c r="G169" s="1"/>
-      <c r="H169" s="1"/>
-      <c r="I169" s="1"/>
+    <row r="169" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B169" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="C169" s="3"/>
+      <c r="D169" s="3"/>
+      <c r="E169" s="3"/>
+      <c r="F169" s="3"/>
+      <c r="G169" s="3"/>
+      <c r="H169" s="3"/>
+      <c r="I169" s="3"/>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B170" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="C170" s="1"/>
-      <c r="D170" s="1"/>
-      <c r="E170" s="1"/>
-      <c r="F170" s="1"/>
-      <c r="G170" s="1"/>
-      <c r="H170" s="1"/>
-      <c r="I170" s="1"/>
+      <c r="A170" s="2" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A171" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="B171" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="C171" s="1"/>
-      <c r="D171" s="1"/>
-      <c r="E171" s="1"/>
-      <c r="F171" s="1"/>
-      <c r="G171" s="1"/>
-      <c r="H171" s="1"/>
-      <c r="I171" s="1"/>
+        <v>166</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E171" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F171" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G171" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="H171" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B172" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="C172" s="1"/>
-      <c r="D172" s="1"/>
-      <c r="E172" s="1"/>
-      <c r="F172" s="1"/>
-      <c r="G172" s="1"/>
-      <c r="H172" s="1"/>
-      <c r="I172" s="1"/>
+      <c r="C172" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="D172" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="E172" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="F172" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="G172" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="H172" s="4" t="s">
+        <v>461</v>
+      </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B173" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="C173" s="1"/>
-      <c r="D173" s="1"/>
+      <c r="C173" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="D173" s="1" t="s">
+        <v>452</v>
+      </c>
       <c r="E173" s="1"/>
       <c r="F173" s="1"/>
-      <c r="G173" s="1"/>
-      <c r="H173" s="1"/>
-      <c r="I173" s="1"/>
+      <c r="G173" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="H173" s="4" t="s">
+        <v>461</v>
+      </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B174" s="1" t="s">
-        <v>179</v>
-      </c>
       <c r="C174" s="1"/>
       <c r="D174" s="1"/>
-      <c r="E174" s="1"/>
-      <c r="F174" s="1"/>
-      <c r="G174" s="1"/>
-      <c r="H174" s="1"/>
-      <c r="I174" s="1"/>
-    </row>
-    <row r="175" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B175" s="10" t="s">
+      <c r="E174" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="F174" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="G174" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="H174" s="4" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C175" s="1"/>
+      <c r="D175" s="1"/>
+      <c r="E175" s="1"/>
+      <c r="F175" s="1"/>
+      <c r="G175" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="H175" s="4" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C176" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="D176" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="E176" s="1"/>
+      <c r="F176" s="1"/>
+      <c r="G176" s="1"/>
+      <c r="H176" s="4" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C177" s="1"/>
+      <c r="D177" s="1"/>
+      <c r="E177" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="F177" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="G177" s="1"/>
+      <c r="H177" s="4" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C178" s="1"/>
+      <c r="D178" s="1"/>
+      <c r="E178" s="1"/>
+      <c r="F178" s="1"/>
+      <c r="G178" s="1"/>
+      <c r="H178" s="4" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B179" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="C175" s="3"/>
-      <c r="D175" s="3"/>
-      <c r="E175" s="3"/>
-      <c r="F175" s="3"/>
-      <c r="G175" s="3"/>
-      <c r="H175" s="3"/>
-      <c r="I175" s="3"/>
-    </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A176" s="2" t="s">
+      <c r="C179" s="3"/>
+      <c r="D179" s="3"/>
+      <c r="E179" s="3"/>
+      <c r="F179" s="3"/>
+      <c r="G179" s="3"/>
+      <c r="H179" s="3"/>
+      <c r="I179" s="3"/>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A180" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A181" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="C181" s="11" t="s">
+        <v>476</v>
+      </c>
+      <c r="D181" s="11"/>
+      <c r="E181" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E182" s="1" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E183" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C184" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="E184" s="1" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B185" s="1"/>
+      <c r="C185" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="E185" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B186" s="10" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A177" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B177" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C177" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D177" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E177" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F177" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G177" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="H177" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C178" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="D178" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="E178" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="F178" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="G178" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="H178" s="4" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C179" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="D179" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="E179" s="1"/>
-      <c r="F179" s="1"/>
-      <c r="G179" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="H179" s="4" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C180" s="1"/>
-      <c r="D180" s="1"/>
-      <c r="E180" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="F180" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="G180" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="H180" s="4" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C181" s="1"/>
-      <c r="D181" s="1"/>
-      <c r="E181" s="1"/>
-      <c r="F181" s="1"/>
-      <c r="G181" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="H181" s="4" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C182" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="D182" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="E182" s="1"/>
-      <c r="F182" s="1"/>
-      <c r="G182" s="1"/>
-      <c r="H182" s="4" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C183" s="1"/>
-      <c r="D183" s="1"/>
-      <c r="E183" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="F183" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="G183" s="1"/>
-      <c r="H183" s="4" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C184" s="1"/>
-      <c r="D184" s="1"/>
-      <c r="E184" s="1"/>
-      <c r="F184" s="1"/>
-      <c r="G184" s="1"/>
-      <c r="H184" s="4" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B185" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="C185" s="3"/>
-      <c r="D185" s="3"/>
-      <c r="E185" s="3"/>
-      <c r="F185" s="3"/>
-      <c r="G185" s="3"/>
-      <c r="H185" s="3"/>
-      <c r="I185" s="3"/>
-    </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A186" s="2" t="s">
-        <v>136</v>
-      </c>
+      <c r="C186" s="3"/>
+      <c r="D186" s="3"/>
+      <c r="E186" s="3"/>
+      <c r="F186" s="3"/>
+      <c r="G186" s="3"/>
+      <c r="H186" s="3"/>
+      <c r="I186" s="3"/>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A187" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B187" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="C187" s="11" t="s">
-        <v>494</v>
-      </c>
-      <c r="D187" s="11"/>
-      <c r="E187" s="2" t="s">
-        <v>21</v>
+        <v>134</v>
       </c>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E188" s="1" t="s">
-        <v>480</v>
+      <c r="A188" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E189" s="2" t="s">
-        <v>188</v>
+      <c r="C189" s="1" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C190" s="2" t="s">
-        <v>495</v>
-      </c>
-      <c r="D190" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="E190" s="1" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B191" s="1"/>
-      <c r="C191" s="2" t="s">
-        <v>495</v>
-      </c>
-      <c r="D191" s="2" t="s">
-        <v>496</v>
-      </c>
-      <c r="E191" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="192" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B192" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="C192" s="3"/>
-      <c r="D192" s="3"/>
-      <c r="E192" s="3"/>
-      <c r="F192" s="3"/>
-      <c r="G192" s="3"/>
-      <c r="H192" s="3"/>
-      <c r="I192" s="3"/>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A193" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A194" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B194" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="C194" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C195" s="1" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C196" s="2" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="C1:I1"/>
-    <mergeCell ref="C187:D187"/>
+    <mergeCell ref="C181:D181"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10179,13 +10076,13 @@
   <sheetData>
     <row r="1" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D1" s="11"/>
       <c r="E1" s="11"/>
@@ -10196,99 +10093,99 @@
     </row>
     <row r="2" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B2" s="5" t="s">
-        <v>312</v>
+        <v>294</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>363</v>
+        <v>345</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>365</v>
+        <v>347</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>320</v>
+        <v>302</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>362</v>
+        <v>344</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>359</v>
+        <v>341</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>335</v>
+        <v>317</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>361</v>
+        <v>343</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>400</v>
+        <v>382</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>401</v>
+        <v>383</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>402</v>
+        <v>384</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C5" s="1" t="s">
-        <v>400</v>
+        <v>382</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>401</v>
+        <v>383</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>403</v>
+        <v>385</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>367</v>
+        <v>349</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>384</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>364</v>
+        <v>346</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>384</v>
+        <v>366</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>401</v>
+        <v>383</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>403</v>
+        <v>385</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="5" t="s">
-        <v>354</v>
+        <v>336</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -10297,213 +10194,213 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>369</v>
+        <v>351</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>368</v>
+        <v>350</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>320</v>
+        <v>302</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>315</v>
+        <v>297</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>366</v>
+        <v>348</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>359</v>
+        <v>341</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>335</v>
+        <v>317</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>370</v>
+        <v>352</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
-        <v>404</v>
+        <v>386</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>405</v>
+        <v>387</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>401</v>
+        <v>383</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>406</v>
+        <v>388</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
-        <v>404</v>
+        <v>386</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>405</v>
+        <v>387</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>401</v>
+        <v>383</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>402</v>
+        <v>384</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>367</v>
+        <v>349</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>384</v>
+        <v>366</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>405</v>
+        <v>387</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>401</v>
+        <v>383</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>406</v>
+        <v>388</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>371</v>
+        <v>353</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>384</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="14" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="5" t="s">
-        <v>355</v>
+        <v>337</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>316</v>
+        <v>298</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>358</v>
+        <v>340</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>359</v>
+        <v>341</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>360</v>
+        <v>342</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>356</v>
+        <v>338</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>357</v>
+        <v>339</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>317</v>
+        <v>299</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>401</v>
+        <v>383</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>407</v>
+        <v>389</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>408</v>
+        <v>390</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>318</v>
+        <v>300</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>401</v>
+        <v>383</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>409</v>
+        <v>391</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>408</v>
+        <v>390</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>319</v>
+        <v>301</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>401</v>
+        <v>383</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>409</v>
+        <v>391</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>408</v>
+        <v>390</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>401</v>
+        <v>383</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>407</v>
+        <v>389</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>408</v>
+        <v>390</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
-        <v>490</v>
+        <v>472</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -10513,7 +10410,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
-        <v>491</v>
+        <v>473</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -10523,7 +10420,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
-        <v>492</v>
+        <v>474</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -10533,454 +10430,454 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="2" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B24" s="6" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>410</v>
+        <v>392</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>411</v>
+        <v>393</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>412</v>
+        <v>394</v>
       </c>
     </row>
     <row r="25" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B25" s="5" t="s">
-        <v>323</v>
+        <v>305</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>324</v>
+        <v>306</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>325</v>
+        <v>307</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>373</v>
+        <v>355</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C27" s="2" t="s">
-        <v>413</v>
+        <v>395</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C28" s="2" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C29" s="2" t="s">
-        <v>414</v>
+        <v>396</v>
       </c>
     </row>
     <row r="30" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B30" s="5" t="s">
-        <v>328</v>
+        <v>310</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>326</v>
+        <v>308</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>327</v>
+        <v>309</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>374</v>
+        <v>356</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B32" s="1"/>
       <c r="C32" s="2" t="s">
-        <v>415</v>
+        <v>397</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>416</v>
+        <v>398</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B33" s="1"/>
       <c r="D33" s="2" t="s">
-        <v>416</v>
+        <v>398</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C34" s="2" t="s">
-        <v>417</v>
+        <v>399</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>416</v>
+        <v>398</v>
       </c>
     </row>
     <row r="35" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B35" s="5" t="s">
-        <v>329</v>
+        <v>311</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>330</v>
+        <v>312</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>331</v>
+        <v>313</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>375</v>
+        <v>357</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B37" s="1"/>
       <c r="C37" s="2" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B38" s="1"/>
       <c r="C38" s="2" t="s">
-        <v>418</v>
+        <v>400</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B39" s="1"/>
       <c r="C39" s="2" t="s">
-        <v>419</v>
+        <v>401</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B40" s="5" t="s">
-        <v>383</v>
+        <v>365</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B41" s="1" t="s">
-        <v>332</v>
+        <v>314</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C42" s="2" t="s">
-        <v>420</v>
+        <v>402</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C43" s="2" t="s">
-        <v>419</v>
+        <v>401</v>
       </c>
     </row>
     <row r="44" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="45" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B45" s="5" t="s">
-        <v>333</v>
+        <v>315</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B46" s="1" t="s">
-        <v>372</v>
+        <v>354</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B47" s="1"/>
       <c r="C47" s="2" t="s">
-        <v>421</v>
+        <v>403</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>416</v>
+        <v>398</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C48" s="2" t="s">
-        <v>421</v>
+        <v>403</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>422</v>
+        <v>404</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>416</v>
+        <v>398</v>
       </c>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C49" s="2" t="s">
-        <v>423</v>
+        <v>405</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>424</v>
+        <v>406</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>416</v>
+        <v>398</v>
       </c>
     </row>
     <row r="50" spans="2:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B50" s="5" t="s">
-        <v>334</v>
+        <v>316</v>
       </c>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B51" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B52" s="1"/>
       <c r="C52" s="2" t="s">
-        <v>425</v>
+        <v>407</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>417</v>
+        <v>399</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>426</v>
+        <v>408</v>
       </c>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B53" s="1"/>
       <c r="C53" s="2" t="s">
-        <v>425</v>
+        <v>407</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>417</v>
+        <v>399</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>426</v>
+        <v>408</v>
       </c>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B54" s="1"/>
       <c r="C54" s="2" t="s">
-        <v>427</v>
+        <v>409</v>
       </c>
       <c r="D54" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="E54" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="E54" s="2" t="s">
-        <v>417</v>
-      </c>
       <c r="F54" s="1" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>426</v>
+        <v>408</v>
       </c>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B55" s="1"/>
       <c r="C55" s="2" t="s">
-        <v>427</v>
+        <v>409</v>
       </c>
       <c r="D55" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="E55" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="E55" s="2" t="s">
-        <v>417</v>
-      </c>
       <c r="F55" s="1" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>426</v>
+        <v>408</v>
       </c>
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B56" s="1" t="s">
-        <v>376</v>
+        <v>358</v>
       </c>
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B57" s="1" t="s">
-        <v>377</v>
+        <v>359</v>
       </c>
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B58" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B59" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B60" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B61" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="62" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C62" s="2" t="s">
-        <v>425</v>
+        <v>407</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>426</v>
+        <v>408</v>
       </c>
     </row>
     <row r="63" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C63" s="2" t="s">
-        <v>425</v>
+        <v>407</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>426</v>
+        <v>408</v>
       </c>
     </row>
     <row r="64" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C64" s="2" t="s">
-        <v>427</v>
+        <v>409</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>399</v>
+        <v>381</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>426</v>
+        <v>408</v>
       </c>
     </row>
     <row r="65" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C65" s="2" t="s">
-        <v>427</v>
+        <v>409</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>399</v>
+        <v>381</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>426</v>
+        <v>408</v>
       </c>
     </row>
     <row r="66" spans="2:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B66" s="5" t="s">
-        <v>336</v>
+        <v>318</v>
       </c>
     </row>
     <row r="67" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B67" s="1" t="s">
-        <v>337</v>
+        <v>319</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>314</v>
+        <v>296</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
     </row>
     <row r="68" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>401</v>
+        <v>383</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>428</v>
+        <v>410</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>408</v>
+        <v>390</v>
       </c>
     </row>
     <row r="69" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>401</v>
+        <v>383</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>429</v>
+        <v>411</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>408</v>
+        <v>390</v>
       </c>
     </row>
     <row r="70" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>401</v>
+        <v>383</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>429</v>
+        <v>411</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>408</v>
+        <v>390</v>
       </c>
     </row>
     <row r="71" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>401</v>
+        <v>383</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>428</v>
+        <v>410</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>408</v>
+        <v>390</v>
       </c>
     </row>
     <row r="72" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B72" s="1" t="s">
-        <v>487</v>
+        <v>469</v>
       </c>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -10990,7 +10887,7 @@
     </row>
     <row r="73" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B73" s="1" t="s">
-        <v>488</v>
+        <v>470</v>
       </c>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -11000,7 +10897,7 @@
     </row>
     <row r="74" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B74" s="1" t="s">
-        <v>489</v>
+        <v>471</v>
       </c>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -11010,7 +10907,7 @@
     </row>
     <row r="75" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B75" s="1" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -11020,7 +10917,7 @@
     </row>
     <row r="76" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B76" s="1" t="s">
-        <v>388</v>
+        <v>370</v>
       </c>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -11030,115 +10927,115 @@
     </row>
     <row r="77" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B77" s="6" t="s">
-        <v>337</v>
+        <v>319</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>410</v>
+        <v>392</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>411</v>
+        <v>393</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>430</v>
+        <v>412</v>
       </c>
     </row>
     <row r="78" spans="2:7" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B78" s="5" t="s">
-        <v>338</v>
+        <v>320</v>
       </c>
     </row>
     <row r="79" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
-        <v>378</v>
+        <v>360</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>321</v>
+        <v>303</v>
       </c>
       <c r="D79" s="11" t="s">
-        <v>322</v>
+        <v>304</v>
       </c>
       <c r="E79" s="11"/>
       <c r="F79" s="11"/>
     </row>
     <row r="80" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B80" s="1" t="s">
-        <v>379</v>
+        <v>361</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>431</v>
+        <v>413</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>432</v>
+        <v>414</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>433</v>
+        <v>415</v>
       </c>
     </row>
     <row r="81" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C81" s="2" t="s">
-        <v>431</v>
+        <v>413</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>434</v>
+        <v>416</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>435</v>
+        <v>417</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>433</v>
+        <v>415</v>
       </c>
     </row>
     <row r="82" spans="2:6" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B82" s="5" t="s">
-        <v>382</v>
+        <v>364</v>
       </c>
       <c r="D82" s="3"/>
     </row>
     <row r="83" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B83" s="1" t="s">
-        <v>380</v>
+        <v>362</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>322</v>
+        <v>304</v>
       </c>
       <c r="D83" s="11" t="s">
-        <v>321</v>
+        <v>303</v>
       </c>
       <c r="E83" s="11"/>
       <c r="F83" s="11"/>
     </row>
     <row r="84" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B84" s="1" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>431</v>
+        <v>413</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>432</v>
+        <v>414</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>433</v>
+        <v>415</v>
       </c>
     </row>
     <row r="85" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C85" s="2" t="s">
-        <v>431</v>
+        <v>413</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>434</v>
+        <v>416</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>435</v>
+        <v>417</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>433</v>
+        <v>415</v>
       </c>
     </row>
   </sheetData>
@@ -11157,7 +11054,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{988C78EB-4E00-466C-9BD2-B10965380DEB}">
   <dimension ref="A1:I252"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B113" sqref="B113"/>
     </sheetView>
@@ -11178,13 +11075,13 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D1" s="11"/>
       <c r="E1" s="11"/>
@@ -11195,1385 +11092,1385 @@
     </row>
     <row r="2" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B2" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>284</v>
+        <v>266</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>285</v>
+        <v>267</v>
       </c>
       <c r="C6" s="1"/>
     </row>
     <row r="7" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>237</v>
+        <v>221</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>237</v>
+        <v>221</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>237</v>
+        <v>221</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>237</v>
+        <v>221</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C16" s="1" t="s">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>237</v>
+        <v>221</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>237</v>
+        <v>221</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="E18" s="1"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="E19" s="1"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C21" s="2" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
     </row>
     <row r="22" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C23" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E23" s="2" t="s">
+      <c r="F23" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
     </row>
     <row r="33" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
     </row>
     <row r="34" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
     </row>
     <row r="35" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
     </row>
     <row r="36" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C36" s="1" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
     </row>
     <row r="37" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C37" s="1" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
     </row>
     <row r="38" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
     </row>
     <row r="39" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
     </row>
     <row r="40" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
     </row>
     <row r="41" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
     </row>
     <row r="42" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
     </row>
     <row r="43" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
     </row>
     <row r="44" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
     </row>
     <row r="45" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
     </row>
     <row r="46" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
     </row>
     <row r="47" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
     </row>
     <row r="48" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
     </row>
     <row r="49" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
     </row>
     <row r="50" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
     </row>
     <row r="51" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
     </row>
     <row r="52" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
     </row>
     <row r="53" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
     </row>
     <row r="54" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
     </row>
     <row r="55" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
     </row>
     <row r="56" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
     </row>
     <row r="57" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
     </row>
     <row r="58" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
     </row>
     <row r="59" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
     </row>
     <row r="60" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
     </row>
     <row r="61" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
     </row>
     <row r="62" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
     </row>
     <row r="63" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
     </row>
     <row r="64" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="F69" s="1"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="F70" s="1"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="F71" s="1"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F72" s="1" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F73" s="1" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F74" s="1" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C75" s="2" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="D75" s="1"/>
     </row>
     <row r="76" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B76" s="5" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
     </row>
     <row r="78" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B78" s="5" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
-        <v>232</v>
+        <v>216</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>231</v>
+        <v>215</v>
       </c>
     </row>
     <row r="81" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B81" s="5" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
-        <v>277</v>
+        <v>259</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>288</v>
+        <v>270</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B84" s="1"/>
       <c r="C84" s="1" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>436</v>
+        <v>418</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B85" s="1"/>
       <c r="C85" s="1" t="s">
-        <v>279</v>
+        <v>261</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>436</v>
+        <v>418</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B86" s="1"/>
       <c r="C86" s="1" t="s">
-        <v>280</v>
+        <v>262</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>436</v>
+        <v>418</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B87" s="1"/>
       <c r="C87" s="1" t="s">
-        <v>281</v>
+        <v>263</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>436</v>
+        <v>418</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B88" s="1"/>
       <c r="C88" s="1" t="s">
-        <v>437</v>
+        <v>419</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>436</v>
+        <v>418</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>498</v>
+        <v>480</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>436</v>
+        <v>418</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B90" s="1"/>
       <c r="C90" s="1" t="s">
-        <v>439</v>
+        <v>421</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>436</v>
+        <v>418</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B91" s="1"/>
       <c r="C91" s="1" t="s">
-        <v>440</v>
+        <v>422</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>436</v>
+        <v>418</v>
       </c>
     </row>
     <row r="92" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B92" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C92" s="3"/>
       <c r="D92" s="3"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>276</v>
+        <v>258</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>288</v>
+        <v>270</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B94" s="1"/>
       <c r="C94" s="1" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>436</v>
+        <v>418</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B95" s="1"/>
       <c r="C95" s="1" t="s">
-        <v>279</v>
+        <v>261</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>436</v>
+        <v>418</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B96" s="1"/>
       <c r="C96" s="1" t="s">
-        <v>280</v>
+        <v>262</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>436</v>
+        <v>418</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
-        <v>281</v>
+        <v>263</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>436</v>
+        <v>418</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
-        <v>437</v>
+        <v>419</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>436</v>
+        <v>418</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
-        <v>439</v>
+        <v>421</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>436</v>
+        <v>418</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>498</v>
+        <v>480</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>436</v>
+        <v>418</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
-        <v>440</v>
+        <v>422</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>436</v>
+        <v>418</v>
       </c>
     </row>
     <row r="102" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B102" s="5" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
-        <v>504</v>
+        <v>486</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>230</v>
+        <v>214</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>227</v>
+        <v>211</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>229</v>
+        <v>213</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
-        <v>500</v>
+        <v>482</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>269</v>
+        <v>251</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>268</v>
+        <v>250</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>270</v>
+        <v>252</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>271</v>
+        <v>253</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C105" s="2" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>272</v>
+        <v>254</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C106" s="2" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>273</v>
+        <v>255</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C107" s="2" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>274</v>
+        <v>256</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
-        <v>504</v>
+        <v>486</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>499</v>
+        <v>481</v>
       </c>
       <c r="D108" s="1"/>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
-        <v>501</v>
+        <v>483</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>269</v>
+        <v>251</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>507</v>
+        <v>489</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C110" s="2" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>272</v>
+        <v>254</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C111" s="2" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>273</v>
+        <v>255</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C112" s="2" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>274</v>
+        <v>256</v>
       </c>
     </row>
     <row r="113" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B113" s="5" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="D113" s="3"/>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
-        <v>503</v>
+        <v>485</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>226</v>
+        <v>210</v>
       </c>
       <c r="D114" s="1"/>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
-        <v>500</v>
+        <v>482</v>
       </c>
       <c r="B115" s="1"/>
       <c r="C115" s="2" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>269</v>
+        <v>251</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>268</v>
+        <v>250</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>270</v>
+        <v>252</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>271</v>
+        <v>253</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B116" s="1"/>
       <c r="C116" s="2" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>272</v>
+        <v>254</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B117" s="1"/>
       <c r="C117" s="2" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>273</v>
+        <v>255</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B118" s="1"/>
       <c r="C118" s="2" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>274</v>
+        <v>256</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
-        <v>503</v>
+        <v>485</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>502</v>
+        <v>484</v>
       </c>
       <c r="D119" s="1"/>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
-        <v>501</v>
+        <v>483</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>269</v>
+        <v>251</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>507</v>
+        <v>489</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C121" s="2" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>272</v>
+        <v>254</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C122" s="2" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>273</v>
+        <v>255</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C123" s="2" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>274</v>
+        <v>256</v>
       </c>
     </row>
     <row r="124" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B124" s="5" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C126" s="1" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
     </row>
     <row r="127" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B127" s="5" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="C127" s="3"/>
       <c r="D127" s="3"/>
@@ -12581,7 +12478,7 @@
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B128" s="1" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
@@ -12591,49 +12488,49 @@
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
       <c r="E129" s="1" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
     </row>
     <row r="130" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C130" s="2" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="D130" s="1"/>
       <c r="E130" s="1"/>
     </row>
     <row r="131" spans="2:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B131" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="132" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B132" s="1" t="s">
-        <v>341</v>
+        <v>323</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="133" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C133" s="1" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
     </row>
     <row r="134" spans="2:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B134" s="5" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="C134" s="3"/>
       <c r="D134" s="3"/>
@@ -12641,7 +12538,7 @@
     </row>
     <row r="135" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B135" s="1" t="s">
-        <v>342</v>
+        <v>324</v>
       </c>
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
@@ -12651,49 +12548,49 @@
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
       <c r="E136" s="1" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
     </row>
     <row r="137" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C137" s="2" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="D137" s="1"/>
       <c r="E137" s="1"/>
     </row>
     <row r="138" spans="2:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B138" s="5" t="s">
-        <v>339</v>
+        <v>321</v>
       </c>
     </row>
     <row r="139" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B139" s="1" t="s">
-        <v>343</v>
+        <v>325</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="140" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C140" s="1" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
     </row>
     <row r="141" spans="2:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B141" s="5" t="s">
-        <v>340</v>
+        <v>322</v>
       </c>
       <c r="C141" s="3"/>
       <c r="D141" s="3"/>
@@ -12701,7 +12598,7 @@
     </row>
     <row r="142" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B142" s="1" t="s">
-        <v>344</v>
+        <v>326</v>
       </c>
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
@@ -12711,289 +12608,289 @@
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
       <c r="E143" s="1" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
     </row>
     <row r="144" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C144" s="2" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="D144" s="1"/>
       <c r="E144" s="1"/>
     </row>
     <row r="145" spans="2:6" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B145" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="146" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B146" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="147" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B147" s="6" t="s">
-        <v>346</v>
+        <v>328</v>
       </c>
     </row>
     <row r="148" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B148" s="6" t="s">
-        <v>345</v>
+        <v>327</v>
       </c>
     </row>
     <row r="149" spans="2:6" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B149" s="5" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
     </row>
     <row r="150" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B150" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="151" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B151" s="6" t="s">
-        <v>348</v>
+        <v>330</v>
       </c>
     </row>
     <row r="152" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B152" s="6" t="s">
-        <v>347</v>
+        <v>329</v>
       </c>
     </row>
     <row r="153" spans="2:6" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B153" s="5" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
     </row>
     <row r="154" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B154" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="155" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B155" s="6" t="s">
-        <v>350</v>
+        <v>332</v>
       </c>
     </row>
     <row r="156" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B156" s="6" t="s">
-        <v>349</v>
+        <v>331</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>286</v>
+        <v>268</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>236</v>
+        <v>220</v>
       </c>
     </row>
     <row r="157" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C157" s="1" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>286</v>
+        <v>268</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>236</v>
+        <v>220</v>
       </c>
     </row>
     <row r="158" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C158" s="1" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>286</v>
+        <v>268</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>236</v>
+        <v>220</v>
       </c>
       <c r="F158" s="1"/>
     </row>
     <row r="159" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C159" s="1" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>286</v>
+        <v>268</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
       <c r="F159" s="1"/>
     </row>
     <row r="160" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C160" s="1" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>286</v>
+        <v>268</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
       <c r="F160" s="1"/>
     </row>
     <row r="161" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C161" s="1" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>286</v>
+        <v>268</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
       <c r="F161" s="1"/>
     </row>
     <row r="162" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C162" s="1" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>236</v>
+        <v>220</v>
       </c>
       <c r="F162" s="1"/>
     </row>
     <row r="163" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C163" s="1" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>236</v>
+        <v>220</v>
       </c>
       <c r="F163" s="1"/>
     </row>
     <row r="164" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C164" s="1" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>236</v>
+        <v>220</v>
       </c>
       <c r="F164" s="1"/>
     </row>
     <row r="165" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C165" s="1" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="E165" s="1"/>
       <c r="F165" s="1"/>
     </row>
     <row r="166" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C166" s="1" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="E166" s="1"/>
       <c r="F166" s="1"/>
     </row>
     <row r="167" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C167" s="1" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="E167" s="1"/>
       <c r="F167" s="1"/>
     </row>
     <row r="168" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C168" s="1" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="E168" s="1"/>
       <c r="F168" s="1"/>
     </row>
     <row r="169" spans="2:6" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B169" s="5" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
     </row>
     <row r="170" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B170" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="171" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B171" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="172" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B172" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="173" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B173" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E173" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C173" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D173" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E173" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="F173" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="174" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B174" s="1"/>
       <c r="C174" s="1" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
     </row>
     <row r="175" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C175" s="1" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
     </row>
     <row r="176" spans="2:6" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B176" s="5" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="C176" s="3"/>
       <c r="D176" s="3"/>
@@ -13002,99 +12899,99 @@
     </row>
     <row r="177" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B177" s="1" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
     </row>
     <row r="178" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B178" s="1" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
     </row>
     <row r="179" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B179" s="1" t="s">
-        <v>247</v>
+        <v>231</v>
       </c>
     </row>
     <row r="180" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B180" s="1" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="C180" s="1"/>
       <c r="D180" s="1"/>
     </row>
     <row r="181" spans="2:6" x14ac:dyDescent="0.2">
       <c r="E181" s="1" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
     </row>
     <row r="182" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C182" s="1"/>
       <c r="D182" s="1"/>
       <c r="E182" s="1" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="F182" s="1" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
     </row>
     <row r="183" spans="2:6" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B183" s="5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="184" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B184" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="185" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C185" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="186" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C186" s="1" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="F186" s="1" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
     </row>
     <row r="187" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C187" s="1" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="F187" s="1" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
     </row>
     <row r="188" spans="2:6" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B188" s="5" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
       <c r="C188" s="3"/>
       <c r="D188" s="3"/>
@@ -13103,120 +13000,120 @@
     </row>
     <row r="189" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B189" s="1" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="C189" s="1"/>
       <c r="D189" s="1"/>
     </row>
     <row r="190" spans="2:6" x14ac:dyDescent="0.2">
       <c r="E190" s="1" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="F190" s="1" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
     </row>
     <row r="191" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C191" s="1"/>
       <c r="D191" s="1"/>
       <c r="E191" s="1" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="F191" s="1" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
     </row>
     <row r="192" spans="2:6" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B192" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A193" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A194" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A195" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A196" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A197" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="F197" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C198" s="1" t="s">
-        <v>289</v>
+        <v>271</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>293</v>
+        <v>275</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="F198" s="1" t="s">
-        <v>290</v>
+        <v>272</v>
       </c>
       <c r="G198" s="1"/>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D199" s="1" t="s">
-        <v>293</v>
+        <v>275</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="F199" s="1" t="s">
-        <v>290</v>
+        <v>272</v>
       </c>
       <c r="G199" s="1"/>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C200" s="1" t="s">
-        <v>289</v>
+        <v>271</v>
       </c>
       <c r="D200" s="1"/>
       <c r="E200" s="1" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="F200" s="1" t="s">
-        <v>290</v>
+        <v>272</v>
       </c>
       <c r="G200" s="1"/>
     </row>
@@ -13224,43 +13121,43 @@
       <c r="C201" s="1"/>
       <c r="D201" s="1"/>
       <c r="E201" s="1" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="F201" s="1" t="s">
-        <v>290</v>
+        <v>272</v>
       </c>
       <c r="G201" s="1"/>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C202" s="1" t="s">
-        <v>289</v>
+        <v>271</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>293</v>
+        <v>275</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>505</v>
+        <v>487</v>
       </c>
       <c r="F202" s="1"/>
       <c r="G202" s="1"/>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D203" s="1" t="s">
-        <v>293</v>
+        <v>275</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>505</v>
+        <v>487</v>
       </c>
       <c r="F203" s="1"/>
       <c r="G203" s="1"/>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C204" s="1" t="s">
-        <v>289</v>
+        <v>271</v>
       </c>
       <c r="D204" s="1"/>
       <c r="E204" s="1" t="s">
-        <v>505</v>
+        <v>487</v>
       </c>
       <c r="F204" s="1"/>
       <c r="G204" s="1"/>
@@ -13269,482 +13166,482 @@
       <c r="C205" s="1"/>
       <c r="D205" s="1"/>
       <c r="E205" s="1" t="s">
-        <v>505</v>
+        <v>487</v>
       </c>
       <c r="F205" s="1"/>
       <c r="G205" s="1"/>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A206" s="2" t="s">
-        <v>292</v>
+        <v>274</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>291</v>
+        <v>273</v>
       </c>
       <c